--- a/excel_battlefield.xlsx
+++ b/excel_battlefield.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="4815" windowWidth="24345" windowHeight="14520"/>
+    <workbookView xWindow="6135" yWindow="4815" windowWidth="24345" windowHeight="14520" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="438">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1795,33 +1795,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块名称</t>
-  </si>
-  <si>
-    <t>excel_rw</t>
-  </si>
-  <si>
-    <t>当前版本</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>这个模块通过xlwings直接和EXCEL交互</t>
+    <t>battleInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel_rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.9.1-2020-9-3</t>
-  </si>
-  <si>
-    <t>battleInput</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200903162705.json</t>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个模块通过xlwings直接和EXCEL交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战报解析:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180742.json</t>
+  </si>
+  <si>
+    <t>20200903180744.json</t>
+  </si>
+  <si>
+    <t>20200903180746.json</t>
+  </si>
+  <si>
+    <t>20200903180748.json</t>
+  </si>
+  <si>
+    <t>20200903180749.json</t>
+  </si>
+  <si>
+    <t>20200903180751.json</t>
+  </si>
+  <si>
+    <t>20200903180753.json</t>
+  </si>
+  <si>
+    <t>20200903180755.json</t>
+  </si>
+  <si>
+    <t>20200903180756.json</t>
+  </si>
+  <si>
+    <t>20200903180758.json</t>
+  </si>
+  <si>
+    <t>20200903180812.json</t>
+  </si>
+  <si>
+    <t>20200903180812.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180814.json</t>
+  </si>
+  <si>
+    <t>20200903180814.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180816.json</t>
+  </si>
+  <si>
+    <t>20200903180816.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180817.json</t>
+  </si>
+  <si>
+    <t>20200903180817.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180819.json</t>
+  </si>
+  <si>
+    <t>20200903180819.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180821.json</t>
+  </si>
+  <si>
+    <t>20200903180821.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180823.json</t>
+  </si>
+  <si>
+    <t>20200903180823.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180825.json</t>
+  </si>
+  <si>
+    <t>20200903180825.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180826.json</t>
+  </si>
+  <si>
+    <t>20200903180826.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903180828.json</t>
+  </si>
+  <si>
+    <t>20200903180828.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1963,7 +2110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,8 +2249,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2126,6 +2279,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2140,7 +2308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2307,6 +2475,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - 着色 2 2" xfId="2"/>
@@ -2808,10 +2985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:W100"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2825,6 +3002,32 @@
     <col min="32" max="32" width="9" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" s="72" customFormat="1">
+      <c r="A1" s="73">
+        <f>Info!F2</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="72">
+        <f>Info!G2</f>
+        <v>10</v>
+      </c>
+      <c r="C1" s="72">
+        <f>Info!H2</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="72">
+        <f>Info!I2</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="72">
+        <f>Info!J2</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="72">
+        <f>Info!K2</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:16">
       <c r="A3" t="str">
         <f>CONCATENATE("{","""",Test!B10,""":","""",Test!C10,"""",",","""")</f>
@@ -29014,7 +29217,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -29039,7 +29242,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C2" t="str">
         <f>Test!A91</f>
@@ -29054,46 +29257,462 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" s="75">
+        <v>1</v>
+      </c>
+      <c r="G2" s="74">
+        <v>10</v>
+      </c>
+      <c r="H2" s="74">
+        <v>1</v>
+      </c>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="F9" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="F10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" t="s">
+        <v>404</v>
+      </c>
+      <c r="H10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I10" t="s">
+        <v>406</v>
+      </c>
+      <c r="J10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>419</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>429</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>437</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="F29">
+        <v>19</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/excel_battlefield.xlsx
+++ b/excel_battlefield.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="4815" windowWidth="24345" windowHeight="14520" activeTab="8"/>
+    <workbookView xWindow="6135" yWindow="4815" windowWidth="24345" windowHeight="14520" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="属性对应量表位置" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="Contents" sheetId="11" r:id="rId8"/>
     <sheet name="Info" sheetId="10" r:id="rId9"/>
+    <sheet name="Battle" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="body_attr" comment="标准人体属性占比" localSheetId="4">#REF!</definedName>
@@ -495,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="457">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1847,10 +1848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战报解析:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轮次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1904,10 +1901,6 @@
     <t>20200903180812.json</t>
   </si>
   <si>
-    <t>20200903180812.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20200903180814.json</t>
   </si>
   <si>
@@ -1968,6 +1961,89 @@
   </si>
   <si>
     <t>20200903180828.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903181857.json</t>
+  </si>
+  <si>
+    <t>20200903181857.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战报简析:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动者ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2110,7 +2186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2255,8 +2331,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2294,6 +2400,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2308,7 +2423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2483,7 +2598,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - 着色 2 2" xfId="2"/>
@@ -2492,7 +2621,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2987,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3009,7 +3148,7 @@
       </c>
       <c r="B1" s="72">
         <f>Info!G2</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="72">
         <f>Info!H2</f>
@@ -6323,6 +6462,384 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="84"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="80" customFormat="1">
+      <c r="F5" s="88"/>
+      <c r="G5" s="80" t="s">
+        <v>454</v>
+      </c>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="F6" s="26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="77" customFormat="1">
+      <c r="A12" s="81" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="77">
+        <f>IF($B$1,Test!C12,"")</f>
+        <v>13001</v>
+      </c>
+      <c r="C12" s="77" t="str">
+        <f>IF($B$1,Test!C10,"")</f>
+        <v>终焉-菲米丝</v>
+      </c>
+      <c r="D12" s="77">
+        <f>IF($B$1,Test!E11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="77">
+        <f>IF($B$1,Test!E10,"")</f>
+        <v>145</v>
+      </c>
+      <c r="K12" s="86"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="26"/>
+      <c r="F14" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="F15" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="77" customFormat="1">
+      <c r="A17" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" s="77">
+        <f>IF($B$1,Test!K12,"")</f>
+        <v>11004</v>
+      </c>
+      <c r="C17" s="77" t="str">
+        <f>IF($B$1,Test!K10,"")</f>
+        <v>拂晓之盾-艾璐德</v>
+      </c>
+      <c r="D17" s="77">
+        <f>IF($B$1,Test!M11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="77">
+        <f>IF($B$1,Test!M10,"")</f>
+        <v>145</v>
+      </c>
+      <c r="K17" s="86"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26"/>
+      <c r="F19" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="F20" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="77" customFormat="1">
+      <c r="A22" s="81" t="s">
+        <v>446</v>
+      </c>
+      <c r="B22" s="77">
+        <f>IF($B$1,Test!C32,"")</f>
+        <v>12005</v>
+      </c>
+      <c r="C22" s="77" t="str">
+        <f>IF($B$1,Test!C30,"")</f>
+        <v>寒霜巫女-朵拉贝拉</v>
+      </c>
+      <c r="D22" s="77">
+        <f>IF($B$1,Test!E31,"")</f>
+        <v>6</v>
+      </c>
+      <c r="E22" s="77">
+        <f>IF($B$1,Test!E30,"")</f>
+        <v>145</v>
+      </c>
+      <c r="K22" s="86"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="F23" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="26"/>
+      <c r="F24" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="F25" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="77" customFormat="1">
+      <c r="A27" s="81" t="s">
+        <v>447</v>
+      </c>
+      <c r="K27" s="86"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="26"/>
+      <c r="F29" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="F30" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="77" customFormat="1">
+      <c r="A32" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="K32" s="86"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="F33" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="26"/>
+      <c r="F34" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="F35" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="75" customFormat="1">
+      <c r="A37" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="K37" s="87"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="F38" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="26"/>
+      <c r="F39" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="F40" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="75" customFormat="1">
+      <c r="A42" s="83" t="s">
+        <v>450</v>
+      </c>
+      <c r="K42" s="87"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="F43" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="26"/>
+      <c r="F44" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="F45" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="75" customFormat="1">
+      <c r="A47" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="K47" s="87"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="F48" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="26"/>
+      <c r="F49" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="F50" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="75" customFormat="1">
+      <c r="A52" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="K52" s="87"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="F53" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="26"/>
+      <c r="F54" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="F55" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="75" customFormat="1">
+      <c r="A57" s="83" t="s">
+        <v>453</v>
+      </c>
+      <c r="K57" s="87"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="F58" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="26"/>
+      <c r="F59" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="F60" s="89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12181,142 +12698,142 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E50:K54 E77:K81 E104:K108 E131:K135 E158:K162 E185:K189 E212:K216 E239:K243 E266:K270 E293:K297 E320:K324 E347:K351 E374:K378 J20:K25 C23:C25 E23:I25 A379:K1048576 A28:K49 A26:C27 A55:K76 A50:C54 A82:K103 A77:C81 A109:K130 A104:C108 A136:K157 A131:C135 A163:K184 A158:C162 A190:K211 A185:C189 A217:K238 A212:C216 A244:K265 A239:C243 A271:K292 A266:C270 A298:K319 A293:C297 A325:K346 A320:C324 A352:K373 A347:C351 A374:C378 A20:B25">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D27">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D54">
-    <cfRule type="expression" dxfId="27" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D81">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D108">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D131:D135">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D162">
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D185:D189">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212:D216">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D239:D243">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D266:D270">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293:D297">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D320:D324">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D347:D351">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D374:D378">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:K27">
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="15" priority="28">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:K22">
-    <cfRule type="expression" dxfId="13" priority="27">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:K19">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:N19 U6:W19">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:AC19">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:AC19">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:Q19">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:T19">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:AJ5">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AP19">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AP19">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AV5">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24114,10 +24631,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A5 Z5:XFD5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:Y5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29217,7 +29734,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -29257,16 +29774,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="topRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -29292,18 +29809,18 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>399</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="76">
         <v>1</v>
       </c>
       <c r="G2" s="74">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2" s="74">
         <v>1</v>
@@ -29312,7 +29829,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="74"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>400</v>
       </c>
@@ -29320,34 +29837,39 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="4" spans="1:20">
+      <c r="T4" s="26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="F9" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>389</v>
       </c>
       <c r="F10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" t="s">
         <v>403</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>404</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>405</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>406</v>
       </c>
-      <c r="J10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -29362,12 +29884,12 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -29382,12 +29904,12 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -29402,12 +29924,12 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -29422,12 +29944,12 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -29442,12 +29964,12 @@
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -29462,12 +29984,12 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -29482,12 +30004,12 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -29502,12 +30024,12 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -29522,12 +30044,12 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -29542,7 +30064,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -29559,7 +30081,7 @@
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -29576,7 +30098,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -29593,7 +30115,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -29610,7 +30132,7 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -29627,7 +30149,7 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -29644,7 +30166,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -29661,7 +30183,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -29678,7 +30200,7 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -29695,7 +30217,7 @@
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -29712,11 +30234,53 @@
         <v>5</v>
       </c>
       <c r="J30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="F31">
+        <v>21</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
         <v>436</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G11:G150">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H150">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/excel_battlefield.xlsx
+++ b/excel_battlefield.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="4815" windowWidth="24345" windowHeight="14520" activeTab="9"/>
+    <workbookView xWindow="6135" yWindow="4815" windowWidth="24345" windowHeight="14520" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="属性对应量表位置" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="Contents" sheetId="11" r:id="rId8"/>
     <sheet name="Info" sheetId="10" r:id="rId9"/>
-    <sheet name="Battle" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="body_attr" comment="标准人体属性占比" localSheetId="4">#REF!</definedName>
@@ -496,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="439">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1971,79 +1970,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战报简析:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动者ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2186,7 +2113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2331,38 +2258,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2400,15 +2297,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2423,7 +2311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2598,21 +2486,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - 着色 2 2" xfId="2"/>
@@ -6465,384 +6339,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="84"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="78" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="80" customFormat="1">
-      <c r="F5" s="88"/>
-      <c r="G5" s="80" t="s">
-        <v>454</v>
-      </c>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="F6" s="26" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="77" customFormat="1">
-      <c r="A12" s="81" t="s">
-        <v>438</v>
-      </c>
-      <c r="B12" s="77">
-        <f>IF($B$1,Test!C12,"")</f>
-        <v>13001</v>
-      </c>
-      <c r="C12" s="77" t="str">
-        <f>IF($B$1,Test!C10,"")</f>
-        <v>终焉-菲米丝</v>
-      </c>
-      <c r="D12" s="77">
-        <f>IF($B$1,Test!E11,"")</f>
-        <v>6</v>
-      </c>
-      <c r="E12" s="77">
-        <f>IF($B$1,Test!E10,"")</f>
-        <v>145</v>
-      </c>
-      <c r="K12" s="86"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="F13" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="26"/>
-      <c r="F14" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="F15" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
-      <c r="A17" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" s="77">
-        <f>IF($B$1,Test!K12,"")</f>
-        <v>11004</v>
-      </c>
-      <c r="C17" s="77" t="str">
-        <f>IF($B$1,Test!K10,"")</f>
-        <v>拂晓之盾-艾璐德</v>
-      </c>
-      <c r="D17" s="77">
-        <f>IF($B$1,Test!M11,"")</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="77">
-        <f>IF($B$1,Test!M10,"")</f>
-        <v>145</v>
-      </c>
-      <c r="K17" s="86"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="F18" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="26"/>
-      <c r="F19" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="F20" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
-      <c r="A22" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="B22" s="77">
-        <f>IF($B$1,Test!C32,"")</f>
-        <v>12005</v>
-      </c>
-      <c r="C22" s="77" t="str">
-        <f>IF($B$1,Test!C30,"")</f>
-        <v>寒霜巫女-朵拉贝拉</v>
-      </c>
-      <c r="D22" s="77">
-        <f>IF($B$1,Test!E31,"")</f>
-        <v>6</v>
-      </c>
-      <c r="E22" s="77">
-        <f>IF($B$1,Test!E30,"")</f>
-        <v>145</v>
-      </c>
-      <c r="K22" s="86"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="F23" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="26"/>
-      <c r="F24" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="F25" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
-      <c r="A27" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="K27" s="86"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="F28" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="26"/>
-      <c r="F29" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="F30" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
-      <c r="A32" s="81" t="s">
-        <v>448</v>
-      </c>
-      <c r="K32" s="86"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="F33" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="26"/>
-      <c r="F34" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="F35" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="75" customFormat="1">
-      <c r="A37" s="83" t="s">
-        <v>449</v>
-      </c>
-      <c r="K37" s="87"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="F38" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="26"/>
-      <c r="F39" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="F40" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="75" customFormat="1">
-      <c r="A42" s="83" t="s">
-        <v>450</v>
-      </c>
-      <c r="K42" s="87"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="F43" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="26"/>
-      <c r="F44" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="F45" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="75" customFormat="1">
-      <c r="A47" s="83" t="s">
-        <v>451</v>
-      </c>
-      <c r="K47" s="87"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="F48" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="26"/>
-      <c r="F49" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="F50" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="75" customFormat="1">
-      <c r="A52" s="83" t="s">
-        <v>452</v>
-      </c>
-      <c r="K52" s="87"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="F53" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="26"/>
-      <c r="F54" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="F55" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="75" customFormat="1">
-      <c r="A57" s="83" t="s">
-        <v>453</v>
-      </c>
-      <c r="K57" s="87"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="F58" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="26"/>
-      <c r="F59" s="89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="F60" s="89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y85"/>
@@ -29776,7 +29272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T4" sqref="T4"/>
     </sheetView>
@@ -29816,7 +29312,7 @@
       <c r="B2" t="s">
         <v>399</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="75">
         <v>1</v>
       </c>
       <c r="G2" s="74">
@@ -29839,12 +29335,12 @@
     </row>
     <row r="4" spans="1:20">
       <c r="T4" s="26" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="F9" s="26" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:20">

--- a/excel_battlefield.xlsx
+++ b/excel_battlefield.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\Turn-basedBattleSimuBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE4DA5F-FBCA-4483-90AC-1DA58CFCAE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D88352-CAF1-4121-9456-2BD0A8CFC4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="584">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1400,40 +1400,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数4</t>
-  </si>
-  <si>
-    <t>参数5</t>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
   </si>
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>excel_rw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.9.1-2020-9-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个模块通过xlwings直接和EXCEL交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轮次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2232,53 +2212,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>战报公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9.1-2020-10-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel_battlefield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要简析</t>
+    <t>command1param1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战报公式</t>
+    <t>command1param2</t>
+  </si>
+  <si>
+    <t>command1param3</t>
+  </si>
+  <si>
+    <t>command1param4</t>
+  </si>
+  <si>
+    <t>command1param5</t>
+  </si>
+  <si>
+    <t>战果简析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20201021152023.json</t>
-  </si>
-  <si>
-    <t>20201021152028.json</t>
-  </si>
-  <si>
-    <t>20201021160050.json</t>
-  </si>
-  <si>
-    <t>20201021160056.json</t>
-  </si>
-  <si>
-    <t>20201021160402.json</t>
-  </si>
-  <si>
-    <t>20201021160404.json</t>
-  </si>
-  <si>
-    <t>20201021160513.json</t>
-  </si>
-  <si>
-    <t>20201021160517.json</t>
-  </si>
-  <si>
-    <t>20201021160657.json</t>
-  </si>
-  <si>
-    <t>20201021160657.json</t>
+    <t>参数4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20201021160704.json</t>
-  </si>
-  <si>
-    <t>20201021160704.json</t>
+    <t>参数5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command2param1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command2param2</t>
+  </si>
+  <si>
+    <t>command2param3</t>
+  </si>
+  <si>
+    <t>command2param4</t>
+  </si>
+  <si>
+    <t>command2param5</t>
+  </si>
+  <si>
+    <t>command1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑战报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>command2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析战报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害统计:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号位</t>
+  </si>
+  <si>
+    <t>1号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号位</t>
+  </si>
+  <si>
+    <t>3号位</t>
+  </si>
+  <si>
+    <t>4号位</t>
+  </si>
+  <si>
+    <t>5号位</t>
+  </si>
+  <si>
+    <t>6号位</t>
+  </si>
+  <si>
+    <t>6号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号位</t>
+  </si>
+  <si>
+    <t>7号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号位</t>
+  </si>
+  <si>
+    <t>8号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号位</t>
+  </si>
+  <si>
+    <t>9号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10号位</t>
+  </si>
+  <si>
+    <t>10号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承伤统计:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗统计:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201021172511.json</t>
+  </si>
+  <si>
+    <t>20201021172516.json</t>
+  </si>
+  <si>
+    <t>20201021172719.json</t>
+  </si>
+  <si>
+    <t>20201021172719.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201021172726.json</t>
+  </si>
+  <si>
+    <t>20201021172726.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>启用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2286,7 +2388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2424,6 +2526,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="24">
@@ -2633,7 +2744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2783,6 +2894,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3363,10 +3480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3383,7 +3501,7 @@
     <row r="1" spans="1:16" s="19" customFormat="1">
       <c r="A1" s="20">
         <f>Info!F2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="19">
         <f>Info!G2</f>
@@ -3391,7 +3509,7 @@
       </c>
       <c r="C1" s="19">
         <f>Info!H2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="19">
         <f>Info!I2</f>
@@ -3440,13 +3558,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>583</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>534</v>
+      <c r="C10" s="63" t="s">
+        <v>529</v>
       </c>
       <c r="D10" t="s">
         <v>237</v>
@@ -3454,21 +3572,29 @@
       <c r="E10" s="8">
         <v>145</v>
       </c>
+      <c r="G10" s="10" t="str">
+        <f>VLOOKUP(C12,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 攻城车</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>534</v>
+      <c r="K10" s="63" t="s">
+        <v>529</v>
       </c>
       <c r="L10" t="s">
         <v>237</v>
       </c>
       <c r="M10" s="8">
         <v>145</v>
+      </c>
+      <c r="O10" s="10" t="str">
+        <f>VLOOKUP(K12,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 沉默者</v>
       </c>
       <c r="P10" s="6"/>
     </row>
@@ -3684,7 +3810,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:23">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -3724,7 +3850,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:23">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3890,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:23">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +3930,7 @@
       <c r="O19" s="8"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:23">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -3844,7 +3970,7 @@
       <c r="O20" s="8"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:23">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -3884,7 +4010,7 @@
       <c r="O21" s="8"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:23">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -3920,7 +4046,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:23">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -3956,7 +4082,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:23">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -3992,7 +4118,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:23">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -4028,31 +4154,31 @@
       <c r="O25" s="8"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:23">
       <c r="H26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:23">
       <c r="H27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:23">
       <c r="H28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:23">
       <c r="H29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>536</v>
+      <c r="C30" s="63" t="s">
+        <v>531</v>
       </c>
       <c r="D30" t="s">
         <v>237</v>
@@ -4060,15 +4186,19 @@
       <c r="E30" s="8">
         <v>145</v>
       </c>
+      <c r="G30" s="10" t="str">
+        <f>VLOOKUP(C32,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 诗人</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="J30" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>535</v>
+      <c r="K30" s="63" t="s">
+        <v>530</v>
       </c>
       <c r="L30" t="s">
         <v>237</v>
@@ -4076,15 +4206,19 @@
       <c r="M30" s="8">
         <v>145</v>
       </c>
+      <c r="O30" s="10" t="str">
+        <f>VLOOKUP(K32,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 理发师</v>
+      </c>
       <c r="P30" s="6"/>
       <c r="Q30" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="R30" t="s">
         <v>0</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>535</v>
+      <c r="S30" s="63" t="s">
+        <v>530</v>
       </c>
       <c r="T30" t="s">
         <v>237</v>
@@ -4092,8 +4226,12 @@
       <c r="U30" s="8">
         <v>145</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="W30" s="10" t="str">
+        <f>VLOOKUP(S32,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 光女</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -4142,7 +4280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4903,13 +5041,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>537</v>
+      <c r="C50" s="64" t="s">
+        <v>532</v>
       </c>
       <c r="D50" t="s">
         <v>237</v>
@@ -4917,21 +5055,29 @@
       <c r="E50" s="12">
         <v>145</v>
       </c>
+      <c r="G50" s="10" t="str">
+        <f>VLOOKUP(C52,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 麻痹怪</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="J50" t="s">
         <v>0</v>
       </c>
-      <c r="K50" s="12" t="s">
-        <v>534</v>
+      <c r="K50" s="64" t="s">
+        <v>529</v>
       </c>
       <c r="L50" t="s">
         <v>237</v>
       </c>
       <c r="M50" s="12">
         <v>145</v>
+      </c>
+      <c r="O50" s="10" t="str">
+        <f>VLOOKUP(K52,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 套盾人</v>
       </c>
       <c r="P50" s="7"/>
     </row>
@@ -5511,13 +5657,13 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>538</v>
+      <c r="C70" s="64" t="s">
+        <v>533</v>
       </c>
       <c r="D70" t="s">
         <v>237</v>
@@ -5525,15 +5671,19 @@
       <c r="E70" s="12">
         <v>145</v>
       </c>
+      <c r="G70" s="10" t="str">
+        <f>VLOOKUP(C72,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 魔战士</v>
+      </c>
       <c r="H70" s="7"/>
       <c r="I70" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="J70" t="s">
         <v>0</v>
       </c>
-      <c r="K70" s="12" t="s">
-        <v>537</v>
+      <c r="K70" s="64" t="s">
+        <v>532</v>
       </c>
       <c r="L70" t="s">
         <v>237</v>
@@ -5541,21 +5691,29 @@
       <c r="M70" s="12">
         <v>145</v>
       </c>
+      <c r="O70" s="10" t="str">
+        <f>VLOOKUP(K72,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 小魅魔</v>
+      </c>
       <c r="P70" s="7"/>
       <c r="Q70" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="R70" t="s">
         <v>0</v>
       </c>
-      <c r="S70" s="12" t="s">
-        <v>539</v>
+      <c r="S70" s="64" t="s">
+        <v>534</v>
       </c>
       <c r="T70" t="s">
         <v>237</v>
       </c>
       <c r="U70" s="12">
         <v>145</v>
+      </c>
+      <c r="W70" s="10" t="str">
+        <f>VLOOKUP(S72,hero_info!$A:$B,2,0)</f>
+        <v xml:space="preserve"> 破壁人</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6639,6 +6797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8108,10 +8267,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
@@ -8321,7 +8481,7 @@
         <v>44</v>
       </c>
       <c r="AD3" s="31" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="25" customFormat="1" ht="17.25">
@@ -8505,7 +8665,7 @@
         <v>76</v>
       </c>
       <c r="AD5" s="41" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -8513,7 +8673,7 @@
         <v>13001</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>77</v>
@@ -8608,13 +8768,13 @@
         <v>14002</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E7" s="23">
         <v>5</v>
@@ -8683,7 +8843,7 @@
         <v>1001</v>
       </c>
       <c r="AA7" s="24" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AB7" s="23">
         <v>1</v>
@@ -8703,13 +8863,13 @@
         <v>13003</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E8" s="23">
         <v>5</v>
@@ -8778,7 +8938,7 @@
         <v>1001</v>
       </c>
       <c r="AA8" s="24" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AB8" s="23">
         <v>1</v>
@@ -8798,7 +8958,7 @@
         <v>11004</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>80</v>
@@ -8893,7 +9053,7 @@
         <v>12005</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>82</v>
@@ -8991,7 +9151,7 @@
         <v>22001</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>86</v>
@@ -9066,7 +9226,7 @@
         <v>1001</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AB12" s="23">
         <v>1</v>
@@ -9086,13 +9246,13 @@
         <v>23002</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E13" s="23">
         <v>5</v>
@@ -9161,7 +9321,7 @@
         <v>1001</v>
       </c>
       <c r="AA13" s="56" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AB13" s="23">
         <v>1</v>
@@ -9181,13 +9341,13 @@
         <v>21003</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E14" s="23">
         <v>5</v>
@@ -9256,7 +9416,7 @@
         <v>1001</v>
       </c>
       <c r="AA14" s="56" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AE14" s="23">
         <v>21003</v>
@@ -9267,13 +9427,13 @@
         <v>22004</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E15" s="23">
         <v>5</v>
@@ -9342,7 +9502,7 @@
         <v>1001</v>
       </c>
       <c r="AA15" s="56" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AB15" s="23">
         <v>1</v>
@@ -9362,13 +9522,13 @@
         <v>24005</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E16" s="23">
         <v>5</v>
@@ -9437,7 +9597,7 @@
         <v>1001</v>
       </c>
       <c r="AA16" s="56" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AB16" s="23">
         <v>1</v>
@@ -9457,7 +9617,7 @@
         <v>32001</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>249</v>
@@ -9552,13 +9712,13 @@
         <v>31002</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E19" s="23">
         <v>5</v>
@@ -9627,7 +9787,7 @@
         <v>1001</v>
       </c>
       <c r="AA19" s="56" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AB19" s="23">
         <v>1</v>
@@ -9647,7 +9807,7 @@
         <v>34003</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>88</v>
@@ -9742,13 +9902,13 @@
         <v>33004</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E21" s="23">
         <v>5</v>
@@ -9817,7 +9977,7 @@
         <v>1001</v>
       </c>
       <c r="AA21" s="58" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AE21" s="23">
         <v>33004</v>
@@ -9828,13 +9988,13 @@
         <v>32005</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E22" s="23">
         <v>5</v>
@@ -9903,7 +10063,7 @@
         <v>1001</v>
       </c>
       <c r="AA22" s="56" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AB22" s="23">
         <v>1</v>
@@ -9923,13 +10083,13 @@
         <v>42001</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E24" s="23">
         <v>5</v>
@@ -10006,7 +10166,7 @@
         <v>43002</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>253</v>
@@ -10101,13 +10261,13 @@
         <v>41003</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
@@ -10176,7 +10336,7 @@
         <v>1001</v>
       </c>
       <c r="AA26" s="58" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AB26" s="23">
         <v>1</v>
@@ -10196,13 +10356,13 @@
         <v>44004</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
@@ -10271,7 +10431,7 @@
         <v>1001</v>
       </c>
       <c r="AA27" s="56" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AB27" s="23">
         <v>1</v>
@@ -10291,7 +10451,7 @@
         <v>43005</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>256</v>
@@ -10366,7 +10526,7 @@
         <v>1001</v>
       </c>
       <c r="AA28" s="58" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AB28" s="23">
         <v>1</v>
@@ -10386,13 +10546,13 @@
         <v>53001</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E30" s="23">
         <v>5</v>
@@ -10461,7 +10621,7 @@
         <v>1001</v>
       </c>
       <c r="AA30" s="56" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AB30" s="23">
         <v>1</v>
@@ -10481,13 +10641,13 @@
         <v>52002</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E31" s="23">
         <v>5</v>
@@ -10556,7 +10716,7 @@
         <v>1001</v>
       </c>
       <c r="AA31" s="56" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AE31" s="23">
         <v>52002</v>
@@ -10567,13 +10727,13 @@
         <v>51003</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E32" s="23">
         <v>5</v>
@@ -10642,7 +10802,7 @@
         <v>1001</v>
       </c>
       <c r="AA32" s="56" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AE32" s="23">
         <v>51003</v>
@@ -10653,13 +10813,13 @@
         <v>54004</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E33" s="23">
         <v>5</v>
@@ -10728,7 +10888,7 @@
         <v>1001</v>
       </c>
       <c r="AA33" s="56" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AB33" s="23">
         <v>1</v>
@@ -10748,13 +10908,13 @@
         <v>52005</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E34" s="23">
         <v>5</v>
@@ -10823,7 +10983,7 @@
         <v>1001</v>
       </c>
       <c r="AA34" s="56" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="AB34" s="23">
         <v>1</v>
@@ -10843,13 +11003,13 @@
         <v>11990</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E36" s="23">
         <v>3</v>
@@ -10936,13 +11096,13 @@
         <v>14991</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E37" s="23">
         <v>3</v>
@@ -11029,13 +11189,13 @@
         <v>12992</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E38" s="23">
         <v>3</v>
@@ -11122,13 +11282,13 @@
         <v>22990</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E39" s="23">
         <v>3</v>
@@ -11215,13 +11375,13 @@
         <v>23991</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E40" s="23">
         <v>3</v>
@@ -11308,13 +11468,13 @@
         <v>24992</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E41" s="23">
         <v>3</v>
@@ -11401,13 +11561,13 @@
         <v>33990</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E42" s="23">
         <v>3</v>
@@ -11494,13 +11654,13 @@
         <v>31991</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E43" s="23">
         <v>3</v>
@@ -11587,13 +11747,13 @@
         <v>32992</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E44" s="23">
         <v>3</v>
@@ -11680,13 +11840,13 @@
         <v>42990</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E45" s="23">
         <v>3</v>
@@ -11773,13 +11933,13 @@
         <v>43991</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E46" s="23">
         <v>3</v>
@@ -11866,13 +12026,13 @@
         <v>41992</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E47" s="23">
         <v>3</v>
@@ -11959,13 +12119,13 @@
         <v>51990</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E48" s="23">
         <v>3</v>
@@ -12052,13 +12212,13 @@
         <v>53991</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E49" s="23">
         <v>3</v>
@@ -12145,13 +12305,13 @@
         <v>54992</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E50" s="23">
         <v>3</v>
@@ -12238,13 +12398,13 @@
         <v>12996</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E52" s="23">
         <v>2</v>
@@ -12309,7 +12469,7 @@
         <v>1001</v>
       </c>
       <c r="AA52" s="56" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AB52" s="23">
         <v>1</v>
@@ -12329,13 +12489,13 @@
         <v>11997</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>247</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E53" s="23">
         <v>2</v>
@@ -12418,13 +12578,13 @@
         <v>13998</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E54" s="23">
         <v>2</v>
@@ -12507,13 +12667,13 @@
         <v>13999</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E55" s="23">
         <v>1</v>
@@ -12573,7 +12733,7 @@
         <v>1001</v>
       </c>
       <c r="AA55" s="56" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AB55" s="23">
         <v>1</v>
@@ -12593,13 +12753,13 @@
         <v>22996</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E56" s="23">
         <v>2</v>
@@ -12662,7 +12822,7 @@
         <v>1001</v>
       </c>
       <c r="AA56" s="56" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AB56" s="23">
         <v>1</v>
@@ -12682,13 +12842,13 @@
         <v>21997</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E57" s="23">
         <v>2</v>
@@ -12751,7 +12911,7 @@
         <v>1001</v>
       </c>
       <c r="AA57" s="56" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AB57" s="23">
         <v>1</v>
@@ -12771,13 +12931,13 @@
         <v>24998</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E58" s="23">
         <v>2</v>
@@ -12840,7 +13000,7 @@
         <v>1001</v>
       </c>
       <c r="AA58" s="56" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AB58" s="23">
         <v>1</v>
@@ -12860,13 +13020,13 @@
         <v>22999</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E59" s="23">
         <v>1</v>
@@ -12926,7 +13086,7 @@
         <v>1001</v>
       </c>
       <c r="AA59" s="56" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AB59" s="23">
         <v>1</v>
@@ -12946,13 +13106,13 @@
         <v>34996</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E60" s="23">
         <v>2</v>
@@ -13015,7 +13175,7 @@
         <v>1001</v>
       </c>
       <c r="AA60" s="56" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AB60" s="23">
         <v>1</v>
@@ -13035,13 +13195,13 @@
         <v>31997</v>
       </c>
       <c r="B61" s="54" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E61" s="23">
         <v>2</v>
@@ -13104,7 +13264,7 @@
         <v>1001</v>
       </c>
       <c r="AA61" s="56" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AB61" s="23">
         <v>1</v>
@@ -13124,13 +13284,13 @@
         <v>33998</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E62" s="23">
         <v>2</v>
@@ -13193,7 +13353,7 @@
         <v>1001</v>
       </c>
       <c r="AA62" s="56" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AB62" s="23">
         <v>1</v>
@@ -13213,13 +13373,13 @@
         <v>34999</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E63" s="23">
         <v>1</v>
@@ -13279,7 +13439,7 @@
         <v>1001</v>
       </c>
       <c r="AA63" s="56" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AB63" s="23">
         <v>1</v>
@@ -13299,13 +13459,13 @@
         <v>43997</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E64" s="23">
         <v>2</v>
@@ -13368,7 +13528,7 @@
         <v>1001</v>
       </c>
       <c r="AA64" s="56" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AB64" s="23">
         <v>1</v>
@@ -13388,13 +13548,13 @@
         <v>44998</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E65" s="23">
         <v>2</v>
@@ -13457,7 +13617,7 @@
         <v>1001</v>
       </c>
       <c r="AA65" s="56" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AB65" s="23">
         <v>1</v>
@@ -13477,13 +13637,13 @@
         <v>52997</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E66" s="23">
         <v>2</v>
@@ -13546,7 +13706,7 @@
         <v>1001</v>
       </c>
       <c r="AA66" s="56" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AB66" s="23">
         <v>1</v>
@@ -13566,13 +13726,13 @@
         <v>51998</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E67" s="23">
         <v>2</v>
@@ -13635,7 +13795,7 @@
         <v>1001</v>
       </c>
       <c r="AA67" s="56" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AB67" s="23">
         <v>1</v>
@@ -13659,6 +13819,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AV19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16499,6 +16660,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AA403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16540,156 +16702,156 @@
     </row>
     <row r="2" spans="1:27" s="15" customFormat="1" ht="17.25">
       <c r="A2" s="47" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="U2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="W2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="X2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Y2" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="15" customFormat="1" ht="17.25">
       <c r="A3" s="48" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>239</v>
       </c>
       <c r="E3" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="P3" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="Q3" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="R3" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="S3" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="T3" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="U3" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="V3" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="W3" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="X3" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="Y3" s="31" t="s">
         <v>445</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="W3" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="X3" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="Y3" s="31" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="15" customFormat="1" ht="17.25">
@@ -16697,7 +16859,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>91</v>
@@ -16774,76 +16936,76 @@
         <v>4</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="J5" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="K5" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="L5" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="M5" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="N5" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="O5" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="P5" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="Q5" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="R5" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="S5" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="T5" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="U5" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="V5" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="W5" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="X5" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="Y5" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="U5" s="41" t="s">
-        <v>470</v>
-      </c>
-      <c r="V5" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="W5" s="41" t="s">
-        <v>472</v>
-      </c>
-      <c r="X5" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="Y5" s="41" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="23" customFormat="1">
@@ -16851,7 +17013,7 @@
         <v>130010</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C6" s="23">
         <v>13001</v>
@@ -16930,7 +17092,7 @@
         <v>130011</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C7" s="23">
         <v>13001</v>
@@ -17009,7 +17171,7 @@
         <v>130012</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C8" s="23">
         <v>13001</v>
@@ -17088,7 +17250,7 @@
         <v>130013</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C9" s="23">
         <v>13001</v>
@@ -17167,7 +17329,7 @@
         <v>130014</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C10" s="23">
         <v>13001</v>
@@ -17246,7 +17408,7 @@
         <v>130015</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C11" s="23">
         <v>13001</v>
@@ -17325,7 +17487,7 @@
         <v>130016</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C12" s="23">
         <v>13001</v>
@@ -17404,7 +17566,7 @@
         <v>140020</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C13" s="57">
         <v>14002</v>
@@ -17483,7 +17645,7 @@
         <v>140021</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C14" s="57">
         <v>14002</v>
@@ -17562,7 +17724,7 @@
         <v>140022</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C15" s="57">
         <v>14002</v>
@@ -17641,7 +17803,7 @@
         <v>140023</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C16" s="57">
         <v>14002</v>
@@ -17720,7 +17882,7 @@
         <v>140024</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C17" s="57">
         <v>14002</v>
@@ -17799,7 +17961,7 @@
         <v>140025</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C18" s="57">
         <v>14002</v>
@@ -17878,7 +18040,7 @@
         <v>140026</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C19" s="57">
         <v>14002</v>
@@ -17957,7 +18119,7 @@
         <v>130030</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C20" s="57">
         <v>13003</v>
@@ -18036,7 +18198,7 @@
         <v>130031</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C21" s="57">
         <v>13003</v>
@@ -18115,7 +18277,7 @@
         <v>130032</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C22" s="57">
         <v>13003</v>
@@ -18194,7 +18356,7 @@
         <v>130033</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C23" s="57">
         <v>13003</v>
@@ -18273,7 +18435,7 @@
         <v>130034</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C24" s="57">
         <v>13003</v>
@@ -18352,7 +18514,7 @@
         <v>130035</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C25" s="57">
         <v>13003</v>
@@ -18431,7 +18593,7 @@
         <v>130036</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C26" s="57">
         <v>13003</v>
@@ -18510,7 +18672,7 @@
         <v>110040</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C27" s="23">
         <v>11004</v>
@@ -18589,7 +18751,7 @@
         <v>110041</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C28" s="23">
         <v>11004</v>
@@ -18668,7 +18830,7 @@
         <v>110042</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C29" s="23">
         <v>11004</v>
@@ -18747,7 +18909,7 @@
         <v>110043</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C30" s="23">
         <v>11004</v>
@@ -18826,7 +18988,7 @@
         <v>110044</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C31" s="23">
         <v>11004</v>
@@ -18905,7 +19067,7 @@
         <v>110045</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C32" s="23">
         <v>11004</v>
@@ -18984,7 +19146,7 @@
         <v>110046</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C33" s="23">
         <v>11004</v>
@@ -19063,7 +19225,7 @@
         <v>120050</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C34" s="23">
         <v>12005</v>
@@ -19142,7 +19304,7 @@
         <v>120051</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C35" s="23">
         <v>12005</v>
@@ -19221,7 +19383,7 @@
         <v>120052</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C36" s="23">
         <v>12005</v>
@@ -19300,7 +19462,7 @@
         <v>120053</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C37" s="23">
         <v>12005</v>
@@ -19379,7 +19541,7 @@
         <v>120054</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C38" s="23">
         <v>12005</v>
@@ -19458,7 +19620,7 @@
         <v>120055</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C39" s="23">
         <v>12005</v>
@@ -19537,7 +19699,7 @@
         <v>120056</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C40" s="23">
         <v>12005</v>
@@ -19643,7 +19805,7 @@
         <v>220010</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C42" s="57">
         <v>22001</v>
@@ -19722,7 +19884,7 @@
         <v>220011</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C43" s="57">
         <v>22001</v>
@@ -19801,7 +19963,7 @@
         <v>220012</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C44" s="57">
         <v>22001</v>
@@ -19880,7 +20042,7 @@
         <v>220013</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C45" s="57">
         <v>22001</v>
@@ -19959,7 +20121,7 @@
         <v>220014</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C46" s="57">
         <v>22001</v>
@@ -20038,7 +20200,7 @@
         <v>220015</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C47" s="57">
         <v>22001</v>
@@ -20117,7 +20279,7 @@
         <v>220016</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C48" s="57">
         <v>22001</v>
@@ -20196,7 +20358,7 @@
         <v>230020</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C49" s="57">
         <v>23002</v>
@@ -20275,7 +20437,7 @@
         <v>230021</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C50" s="57">
         <v>23002</v>
@@ -20354,7 +20516,7 @@
         <v>230022</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C51" s="57">
         <v>23002</v>
@@ -20433,7 +20595,7 @@
         <v>230023</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C52" s="57">
         <v>23002</v>
@@ -20512,7 +20674,7 @@
         <v>230024</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C53" s="57">
         <v>23002</v>
@@ -20591,7 +20753,7 @@
         <v>230025</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C54" s="57">
         <v>23002</v>
@@ -20670,7 +20832,7 @@
         <v>230026</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C55" s="57">
         <v>23002</v>
@@ -20749,7 +20911,7 @@
         <v>210030</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C56" s="57">
         <v>21003</v>
@@ -20828,7 +20990,7 @@
         <v>210031</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C57" s="57">
         <v>21003</v>
@@ -20907,7 +21069,7 @@
         <v>210032</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C58" s="57">
         <v>21003</v>
@@ -20986,7 +21148,7 @@
         <v>210033</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C59" s="57">
         <v>21003</v>
@@ -21065,7 +21227,7 @@
         <v>210034</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C60" s="57">
         <v>21003</v>
@@ -21144,7 +21306,7 @@
         <v>210035</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C61" s="57">
         <v>21003</v>
@@ -21223,7 +21385,7 @@
         <v>210036</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C62" s="57">
         <v>21003</v>
@@ -21302,7 +21464,7 @@
         <v>220040</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C63" s="57">
         <v>22004</v>
@@ -21381,7 +21543,7 @@
         <v>220041</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C64" s="57">
         <v>22004</v>
@@ -21460,7 +21622,7 @@
         <v>220042</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C65" s="57">
         <v>22004</v>
@@ -21539,7 +21701,7 @@
         <v>220043</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C66" s="57">
         <v>22004</v>
@@ -21618,7 +21780,7 @@
         <v>220044</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C67" s="57">
         <v>22004</v>
@@ -21697,7 +21859,7 @@
         <v>220045</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C68" s="57">
         <v>22004</v>
@@ -21776,7 +21938,7 @@
         <v>220046</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C69" s="57">
         <v>22004</v>
@@ -21855,7 +22017,7 @@
         <v>240050</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C70" s="57">
         <v>24005</v>
@@ -21934,7 +22096,7 @@
         <v>240051</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C71" s="57">
         <v>24005</v>
@@ -22013,7 +22175,7 @@
         <v>240052</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C72" s="57">
         <v>24005</v>
@@ -22092,7 +22254,7 @@
         <v>240053</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C73" s="57">
         <v>24005</v>
@@ -22171,7 +22333,7 @@
         <v>240054</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C74" s="57">
         <v>24005</v>
@@ -22250,7 +22412,7 @@
         <v>240055</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C75" s="57">
         <v>24005</v>
@@ -22329,7 +22491,7 @@
         <v>240056</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C76" s="57">
         <v>24005</v>
@@ -22417,7 +22579,7 @@
         <v>320010</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C78" s="57">
         <v>32001</v>
@@ -22496,7 +22658,7 @@
         <v>320011</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C79" s="57">
         <v>32001</v>
@@ -22575,7 +22737,7 @@
         <v>320012</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C80" s="57">
         <v>32001</v>
@@ -22654,7 +22816,7 @@
         <v>320013</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C81" s="57">
         <v>32001</v>
@@ -22733,7 +22895,7 @@
         <v>320014</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C82" s="57">
         <v>32001</v>
@@ -22812,7 +22974,7 @@
         <v>320015</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C83" s="57">
         <v>32001</v>
@@ -22891,7 +23053,7 @@
         <v>320016</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C84" s="57">
         <v>32001</v>
@@ -22970,7 +23132,7 @@
         <v>310020</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C85" s="57">
         <v>31002</v>
@@ -23049,7 +23211,7 @@
         <v>310021</v>
       </c>
       <c r="B86" s="57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C86" s="57">
         <v>31002</v>
@@ -23128,7 +23290,7 @@
         <v>310022</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C87" s="57">
         <v>31002</v>
@@ -23207,7 +23369,7 @@
         <v>310023</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C88" s="57">
         <v>31002</v>
@@ -23286,7 +23448,7 @@
         <v>310024</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C89" s="57">
         <v>31002</v>
@@ -23365,7 +23527,7 @@
         <v>310025</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C90" s="57">
         <v>31002</v>
@@ -23444,7 +23606,7 @@
         <v>310026</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C91" s="57">
         <v>31002</v>
@@ -23523,7 +23685,7 @@
         <v>340030</v>
       </c>
       <c r="B92" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C92" s="23">
         <v>34003</v>
@@ -23601,7 +23763,7 @@
         <v>340031</v>
       </c>
       <c r="B93" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C93" s="23">
         <v>34003</v>
@@ -23679,7 +23841,7 @@
         <v>340032</v>
       </c>
       <c r="B94" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C94" s="23">
         <v>34003</v>
@@ -23757,7 +23919,7 @@
         <v>340033</v>
       </c>
       <c r="B95" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C95" s="23">
         <v>34003</v>
@@ -23835,7 +23997,7 @@
         <v>340034</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C96" s="23">
         <v>34003</v>
@@ -23913,7 +24075,7 @@
         <v>340035</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C97" s="23">
         <v>34003</v>
@@ -23991,7 +24153,7 @@
         <v>340036</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C98" s="23">
         <v>34003</v>
@@ -24070,7 +24232,7 @@
         <v>330040</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C99" s="57">
         <v>33004</v>
@@ -24149,7 +24311,7 @@
         <v>330041</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C100" s="57">
         <v>33004</v>
@@ -24228,7 +24390,7 @@
         <v>330042</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C101" s="57">
         <v>33004</v>
@@ -24307,7 +24469,7 @@
         <v>330043</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C102" s="57">
         <v>33004</v>
@@ -24386,7 +24548,7 @@
         <v>330044</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C103" s="57">
         <v>33004</v>
@@ -24465,7 +24627,7 @@
         <v>330045</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C104" s="57">
         <v>33004</v>
@@ -24544,7 +24706,7 @@
         <v>330046</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C105" s="57">
         <v>33004</v>
@@ -24623,7 +24785,7 @@
         <v>320050</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C106" s="57">
         <v>32005</v>
@@ -24702,7 +24864,7 @@
         <v>320051</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C107" s="57">
         <v>32005</v>
@@ -24781,7 +24943,7 @@
         <v>320052</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C108" s="57">
         <v>32005</v>
@@ -24860,7 +25022,7 @@
         <v>320053</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C109" s="57">
         <v>32005</v>
@@ -24939,7 +25101,7 @@
         <v>320054</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C110" s="57">
         <v>32005</v>
@@ -25018,7 +25180,7 @@
         <v>320055</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C111" s="57">
         <v>32005</v>
@@ -25097,7 +25259,7 @@
         <v>320056</v>
       </c>
       <c r="B112" s="57" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C112" s="57">
         <v>32005</v>
@@ -25186,7 +25348,7 @@
         <v>420010</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C114" s="23">
         <v>42001</v>
@@ -25265,7 +25427,7 @@
         <v>420011</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C115" s="23">
         <v>42001</v>
@@ -25344,7 +25506,7 @@
         <v>420012</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C116" s="23">
         <v>42001</v>
@@ -25423,7 +25585,7 @@
         <v>420013</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C117" s="23">
         <v>42001</v>
@@ -25502,7 +25664,7 @@
         <v>420014</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C118" s="23">
         <v>42001</v>
@@ -25581,7 +25743,7 @@
         <v>420015</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C119" s="23">
         <v>42001</v>
@@ -25660,7 +25822,7 @@
         <v>420016</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C120" s="23">
         <v>42001</v>
@@ -25739,7 +25901,7 @@
         <v>430020</v>
       </c>
       <c r="B121" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C121" s="23">
         <v>43002</v>
@@ -25818,7 +25980,7 @@
         <v>430021</v>
       </c>
       <c r="B122" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C122" s="23">
         <v>43002</v>
@@ -25897,7 +26059,7 @@
         <v>430022</v>
       </c>
       <c r="B123" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C123" s="23">
         <v>43002</v>
@@ -25976,7 +26138,7 @@
         <v>430023</v>
       </c>
       <c r="B124" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C124" s="23">
         <v>43002</v>
@@ -26055,7 +26217,7 @@
         <v>430024</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C125" s="23">
         <v>43002</v>
@@ -26134,7 +26296,7 @@
         <v>430025</v>
       </c>
       <c r="B126" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C126" s="23">
         <v>43002</v>
@@ -26213,7 +26375,7 @@
         <v>430026</v>
       </c>
       <c r="B127" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C127" s="23">
         <v>43002</v>
@@ -26292,7 +26454,7 @@
         <v>410030</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C128" s="23">
         <v>41003</v>
@@ -26371,7 +26533,7 @@
         <v>410031</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C129" s="23">
         <v>41003</v>
@@ -26450,7 +26612,7 @@
         <v>410032</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C130" s="23">
         <v>41003</v>
@@ -26529,7 +26691,7 @@
         <v>410033</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C131" s="23">
         <v>41003</v>
@@ -26608,7 +26770,7 @@
         <v>410034</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C132" s="23">
         <v>41003</v>
@@ -26687,7 +26849,7 @@
         <v>410035</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C133" s="23">
         <v>41003</v>
@@ -26766,7 +26928,7 @@
         <v>410036</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C134" s="23">
         <v>41003</v>
@@ -26845,7 +27007,7 @@
         <v>440040</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C135" s="23">
         <v>44004</v>
@@ -26924,7 +27086,7 @@
         <v>440041</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C136" s="23">
         <v>44004</v>
@@ -27003,7 +27165,7 @@
         <v>440042</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C137" s="23">
         <v>44004</v>
@@ -27082,7 +27244,7 @@
         <v>440043</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C138" s="23">
         <v>44004</v>
@@ -27161,7 +27323,7 @@
         <v>440044</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C139" s="23">
         <v>44004</v>
@@ -27240,7 +27402,7 @@
         <v>440045</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C140" s="23">
         <v>44004</v>
@@ -27319,7 +27481,7 @@
         <v>440046</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C141" s="23">
         <v>44004</v>
@@ -27398,7 +27560,7 @@
         <v>430050</v>
       </c>
       <c r="B142" s="54" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C142" s="23">
         <v>43005</v>
@@ -27477,7 +27639,7 @@
         <v>430051</v>
       </c>
       <c r="B143" s="54" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C143" s="23">
         <v>43005</v>
@@ -27556,7 +27718,7 @@
         <v>430052</v>
       </c>
       <c r="B144" s="54" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C144" s="23">
         <v>43005</v>
@@ -27635,7 +27797,7 @@
         <v>430053</v>
       </c>
       <c r="B145" s="54" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C145" s="23">
         <v>43005</v>
@@ -27714,7 +27876,7 @@
         <v>430054</v>
       </c>
       <c r="B146" s="54" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C146" s="23">
         <v>43005</v>
@@ -27793,7 +27955,7 @@
         <v>430055</v>
       </c>
       <c r="B147" s="54" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C147" s="23">
         <v>43005</v>
@@ -27872,7 +28034,7 @@
         <v>430056</v>
       </c>
       <c r="B148" s="54" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C148" s="23">
         <v>43005</v>
@@ -27960,7 +28122,7 @@
         <v>530010</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C150" s="23">
         <v>53001</v>
@@ -28039,7 +28201,7 @@
         <v>530011</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C151" s="23">
         <v>53001</v>
@@ -28118,7 +28280,7 @@
         <v>530012</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C152" s="23">
         <v>53001</v>
@@ -28197,7 +28359,7 @@
         <v>530013</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C153" s="23">
         <v>53001</v>
@@ -28276,7 +28438,7 @@
         <v>530014</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C154" s="23">
         <v>53001</v>
@@ -28355,7 +28517,7 @@
         <v>530015</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C155" s="23">
         <v>53001</v>
@@ -28434,7 +28596,7 @@
         <v>530016</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C156" s="23">
         <v>53001</v>
@@ -28513,7 +28675,7 @@
         <v>520020</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C157" s="23">
         <v>52002</v>
@@ -28592,7 +28754,7 @@
         <v>520021</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C158" s="23">
         <v>52002</v>
@@ -28671,7 +28833,7 @@
         <v>520022</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C159" s="23">
         <v>52002</v>
@@ -28750,7 +28912,7 @@
         <v>520023</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C160" s="23">
         <v>52002</v>
@@ -28829,7 +28991,7 @@
         <v>520024</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C161" s="23">
         <v>52002</v>
@@ -28908,7 +29070,7 @@
         <v>520025</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C162" s="23">
         <v>52002</v>
@@ -28987,7 +29149,7 @@
         <v>520026</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C163" s="23">
         <v>52002</v>
@@ -29066,7 +29228,7 @@
         <v>510030</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C164" s="23">
         <v>51003</v>
@@ -29145,7 +29307,7 @@
         <v>510031</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C165" s="23">
         <v>51003</v>
@@ -29224,7 +29386,7 @@
         <v>510032</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C166" s="23">
         <v>51003</v>
@@ -29303,7 +29465,7 @@
         <v>510033</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C167" s="23">
         <v>51003</v>
@@ -29382,7 +29544,7 @@
         <v>510034</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C168" s="23">
         <v>51003</v>
@@ -29461,7 +29623,7 @@
         <v>510035</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C169" s="23">
         <v>51003</v>
@@ -29540,7 +29702,7 @@
         <v>510036</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C170" s="23">
         <v>51003</v>
@@ -29619,7 +29781,7 @@
         <v>540040</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C171" s="23">
         <v>54004</v>
@@ -29698,7 +29860,7 @@
         <v>540041</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C172" s="23">
         <v>54004</v>
@@ -29777,7 +29939,7 @@
         <v>540042</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C173" s="23">
         <v>54004</v>
@@ -29856,7 +30018,7 @@
         <v>540043</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C174" s="23">
         <v>54004</v>
@@ -29935,7 +30097,7 @@
         <v>540044</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C175" s="23">
         <v>54004</v>
@@ -30014,7 +30176,7 @@
         <v>540045</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C176" s="23">
         <v>54004</v>
@@ -30093,7 +30255,7 @@
         <v>540046</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C177" s="23">
         <v>54004</v>
@@ -30172,7 +30334,7 @@
         <v>520050</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C178" s="23">
         <v>52005</v>
@@ -30251,7 +30413,7 @@
         <v>520051</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C179" s="23">
         <v>52005</v>
@@ -30330,7 +30492,7 @@
         <v>520052</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C180" s="23">
         <v>52005</v>
@@ -30409,7 +30571,7 @@
         <v>520053</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C181" s="23">
         <v>52005</v>
@@ -30488,7 +30650,7 @@
         <v>520054</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C182" s="23">
         <v>52005</v>
@@ -30567,7 +30729,7 @@
         <v>520055</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C183" s="23">
         <v>52005</v>
@@ -30646,7 +30808,7 @@
         <v>520056</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C184" s="23">
         <v>52005</v>
@@ -30734,7 +30896,7 @@
         <v>119900</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C186" s="23">
         <v>11990</v>
@@ -30813,7 +30975,7 @@
         <v>119901</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C187" s="23">
         <v>11990</v>
@@ -30892,7 +31054,7 @@
         <v>119902</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C188" s="23">
         <v>11990</v>
@@ -30971,7 +31133,7 @@
         <v>119903</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C189" s="23">
         <v>11990</v>
@@ -31050,7 +31212,7 @@
         <v>119904</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C190" s="23">
         <v>11990</v>
@@ -31129,7 +31291,7 @@
         <v>119905</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C191" s="23">
         <v>11990</v>
@@ -31208,7 +31370,7 @@
         <v>119906</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C192" s="23">
         <v>11990</v>
@@ -31286,7 +31448,7 @@
         <v>149910</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C193" s="23">
         <v>14991</v>
@@ -31365,7 +31527,7 @@
         <v>149911</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C194" s="23">
         <v>14991</v>
@@ -31444,7 +31606,7 @@
         <v>149912</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C195" s="23">
         <v>14991</v>
@@ -31523,7 +31685,7 @@
         <v>149913</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C196" s="23">
         <v>14991</v>
@@ -31602,7 +31764,7 @@
         <v>149914</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C197" s="23">
         <v>14991</v>
@@ -31681,7 +31843,7 @@
         <v>149915</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C198" s="23">
         <v>14991</v>
@@ -31760,7 +31922,7 @@
         <v>149916</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C199" s="23">
         <v>14991</v>
@@ -31838,7 +32000,7 @@
         <v>129920</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C200" s="23">
         <v>12992</v>
@@ -31916,7 +32078,7 @@
         <v>129921</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C201" s="23">
         <v>12992</v>
@@ -31994,7 +32156,7 @@
         <v>129922</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C202" s="23">
         <v>12992</v>
@@ -32072,7 +32234,7 @@
         <v>129923</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C203" s="23">
         <v>12992</v>
@@ -32150,7 +32312,7 @@
         <v>129924</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C204" s="23">
         <v>12992</v>
@@ -32228,7 +32390,7 @@
         <v>129925</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C205" s="23">
         <v>12992</v>
@@ -32306,7 +32468,7 @@
         <v>129926</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C206" s="23">
         <v>12992</v>
@@ -32385,7 +32547,7 @@
         <v>229900</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C207" s="23">
         <v>22990</v>
@@ -32464,7 +32626,7 @@
         <v>229901</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C208" s="23">
         <v>22990</v>
@@ -32543,7 +32705,7 @@
         <v>229902</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C209" s="23">
         <v>22990</v>
@@ -32622,7 +32784,7 @@
         <v>229903</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C210" s="23">
         <v>22990</v>
@@ -32701,7 +32863,7 @@
         <v>229904</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C211" s="23">
         <v>22990</v>
@@ -32780,7 +32942,7 @@
         <v>229905</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C212" s="23">
         <v>22990</v>
@@ -32859,7 +33021,7 @@
         <v>229906</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C213" s="23">
         <v>22990</v>
@@ -32938,7 +33100,7 @@
         <v>239910</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C214" s="23">
         <v>23991</v>
@@ -33017,7 +33179,7 @@
         <v>239911</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C215" s="23">
         <v>23991</v>
@@ -33096,7 +33258,7 @@
         <v>239912</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C216" s="23">
         <v>23991</v>
@@ -33175,7 +33337,7 @@
         <v>239913</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C217" s="23">
         <v>23991</v>
@@ -33254,7 +33416,7 @@
         <v>239914</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C218" s="23">
         <v>23991</v>
@@ -33333,7 +33495,7 @@
         <v>239915</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C219" s="23">
         <v>23991</v>
@@ -33412,7 +33574,7 @@
         <v>239916</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C220" s="23">
         <v>23991</v>
@@ -33491,7 +33653,7 @@
         <v>249920</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C221" s="23">
         <v>24992</v>
@@ -33570,7 +33732,7 @@
         <v>249921</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C222" s="23">
         <v>24992</v>
@@ -33649,7 +33811,7 @@
         <v>249922</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C223" s="23">
         <v>24992</v>
@@ -33728,7 +33890,7 @@
         <v>249923</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C224" s="23">
         <v>24992</v>
@@ -33807,7 +33969,7 @@
         <v>249924</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C225" s="23">
         <v>24992</v>
@@ -33886,7 +34048,7 @@
         <v>249925</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C226" s="23">
         <v>24992</v>
@@ -33965,7 +34127,7 @@
         <v>249926</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C227" s="23">
         <v>24992</v>
@@ -34044,7 +34206,7 @@
         <v>339900</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C228" s="23">
         <v>33990</v>
@@ -34123,7 +34285,7 @@
         <v>339901</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C229" s="23">
         <v>33990</v>
@@ -34202,7 +34364,7 @@
         <v>339902</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C230" s="23">
         <v>33990</v>
@@ -34281,7 +34443,7 @@
         <v>339903</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C231" s="23">
         <v>33990</v>
@@ -34360,7 +34522,7 @@
         <v>339904</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C232" s="23">
         <v>33990</v>
@@ -34439,7 +34601,7 @@
         <v>339905</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C233" s="23">
         <v>33990</v>
@@ -34518,7 +34680,7 @@
         <v>339906</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C234" s="23">
         <v>33990</v>
@@ -34597,7 +34759,7 @@
         <v>319910</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C235" s="23">
         <v>31991</v>
@@ -34676,7 +34838,7 @@
         <v>319911</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C236" s="23">
         <v>31991</v>
@@ -34755,7 +34917,7 @@
         <v>319912</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C237" s="23">
         <v>31991</v>
@@ -34834,7 +34996,7 @@
         <v>319913</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C238" s="23">
         <v>31991</v>
@@ -34913,7 +35075,7 @@
         <v>319914</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C239" s="23">
         <v>31991</v>
@@ -34992,7 +35154,7 @@
         <v>319915</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C240" s="23">
         <v>31991</v>
@@ -35071,7 +35233,7 @@
         <v>319916</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C241" s="23">
         <v>31991</v>
@@ -35150,7 +35312,7 @@
         <v>329920</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C242" s="23">
         <v>32992</v>
@@ -35229,7 +35391,7 @@
         <v>329921</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C243" s="23">
         <v>32992</v>
@@ -35308,7 +35470,7 @@
         <v>329922</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C244" s="23">
         <v>32992</v>
@@ -35387,7 +35549,7 @@
         <v>329923</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C245" s="23">
         <v>32992</v>
@@ -35466,7 +35628,7 @@
         <v>329924</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C246" s="23">
         <v>32992</v>
@@ -35545,7 +35707,7 @@
         <v>329925</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C247" s="23">
         <v>32992</v>
@@ -35624,7 +35786,7 @@
         <v>329926</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C248" s="23">
         <v>32992</v>
@@ -35703,7 +35865,7 @@
         <v>429900</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C249" s="23">
         <v>42990</v>
@@ -35782,7 +35944,7 @@
         <v>429901</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C250" s="23">
         <v>42990</v>
@@ -35861,7 +36023,7 @@
         <v>429902</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C251" s="23">
         <v>42990</v>
@@ -35940,7 +36102,7 @@
         <v>429903</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C252" s="23">
         <v>42990</v>
@@ -36019,7 +36181,7 @@
         <v>429904</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C253" s="23">
         <v>42990</v>
@@ -36098,7 +36260,7 @@
         <v>429905</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C254" s="23">
         <v>42990</v>
@@ -36177,7 +36339,7 @@
         <v>429906</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C255" s="23">
         <v>42990</v>
@@ -36256,7 +36418,7 @@
         <v>439910</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C256" s="23">
         <v>43991</v>
@@ -36335,7 +36497,7 @@
         <v>439911</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C257" s="23">
         <v>43991</v>
@@ -36414,7 +36576,7 @@
         <v>439912</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C258" s="23">
         <v>43991</v>
@@ -36493,7 +36655,7 @@
         <v>439913</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C259" s="23">
         <v>43991</v>
@@ -36572,7 +36734,7 @@
         <v>439914</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C260" s="23">
         <v>43991</v>
@@ -36651,7 +36813,7 @@
         <v>439915</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C261" s="23">
         <v>43991</v>
@@ -36730,7 +36892,7 @@
         <v>439916</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C262" s="23">
         <v>43991</v>
@@ -36809,7 +36971,7 @@
         <v>419920</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C263" s="23">
         <v>41992</v>
@@ -36888,7 +37050,7 @@
         <v>419921</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C264" s="23">
         <v>41992</v>
@@ -36967,7 +37129,7 @@
         <v>419922</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C265" s="23">
         <v>41992</v>
@@ -37046,7 +37208,7 @@
         <v>419923</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C266" s="23">
         <v>41992</v>
@@ -37125,7 +37287,7 @@
         <v>419924</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C267" s="23">
         <v>41992</v>
@@ -37204,7 +37366,7 @@
         <v>419925</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C268" s="23">
         <v>41992</v>
@@ -37283,7 +37445,7 @@
         <v>419926</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C269" s="23">
         <v>41992</v>
@@ -37362,7 +37524,7 @@
         <v>519900</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C270" s="23">
         <v>51990</v>
@@ -37441,7 +37603,7 @@
         <v>519901</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C271" s="23">
         <v>51990</v>
@@ -37520,7 +37682,7 @@
         <v>519902</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C272" s="23">
         <v>51990</v>
@@ -37599,7 +37761,7 @@
         <v>519903</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C273" s="23">
         <v>51990</v>
@@ -37678,7 +37840,7 @@
         <v>519904</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C274" s="23">
         <v>51990</v>
@@ -37757,7 +37919,7 @@
         <v>519905</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C275" s="23">
         <v>51990</v>
@@ -37836,7 +37998,7 @@
         <v>519906</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C276" s="23">
         <v>51990</v>
@@ -37915,7 +38077,7 @@
         <v>539910</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C277" s="23">
         <v>53991</v>
@@ -37994,7 +38156,7 @@
         <v>539911</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C278" s="23">
         <v>53991</v>
@@ -38073,7 +38235,7 @@
         <v>539912</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C279" s="23">
         <v>53991</v>
@@ -38152,7 +38314,7 @@
         <v>539913</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C280" s="23">
         <v>53991</v>
@@ -38231,7 +38393,7 @@
         <v>539914</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C281" s="23">
         <v>53991</v>
@@ -38310,7 +38472,7 @@
         <v>539915</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C282" s="23">
         <v>53991</v>
@@ -38389,7 +38551,7 @@
         <v>539916</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C283" s="23">
         <v>53991</v>
@@ -38468,7 +38630,7 @@
         <v>549920</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C284" s="23">
         <v>54992</v>
@@ -38547,7 +38709,7 @@
         <v>549921</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C285" s="23">
         <v>54992</v>
@@ -38626,7 +38788,7 @@
         <v>549922</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C286" s="23">
         <v>54992</v>
@@ -38705,7 +38867,7 @@
         <v>549923</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C287" s="23">
         <v>54992</v>
@@ -38784,7 +38946,7 @@
         <v>549924</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C288" s="23">
         <v>54992</v>
@@ -38863,7 +39025,7 @@
         <v>549925</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C289" s="23">
         <v>54992</v>
@@ -38942,7 +39104,7 @@
         <v>549926</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C290" s="23">
         <v>54992</v>
@@ -39030,7 +39192,7 @@
         <v>129960</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C292" s="23">
         <v>12996</v>
@@ -39109,7 +39271,7 @@
         <v>129961</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C293" s="23">
         <v>12996</v>
@@ -39188,7 +39350,7 @@
         <v>129962</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C294" s="23">
         <v>12996</v>
@@ -39267,7 +39429,7 @@
         <v>129963</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C295" s="23">
         <v>12996</v>
@@ -39346,7 +39508,7 @@
         <v>129964</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C296" s="23">
         <v>12996</v>
@@ -39425,7 +39587,7 @@
         <v>129965</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C297" s="23">
         <v>12996</v>
@@ -39504,7 +39666,7 @@
         <v>129966</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C298" s="23">
         <v>12996</v>
@@ -39582,7 +39744,7 @@
         <v>119970</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C299" s="23">
         <v>11997</v>
@@ -39661,7 +39823,7 @@
         <v>119971</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C300" s="23">
         <v>11997</v>
@@ -39740,7 +39902,7 @@
         <v>119972</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C301" s="23">
         <v>11997</v>
@@ -39819,7 +39981,7 @@
         <v>119973</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C302" s="23">
         <v>11997</v>
@@ -39898,7 +40060,7 @@
         <v>119974</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C303" s="23">
         <v>11997</v>
@@ -39977,7 +40139,7 @@
         <v>119975</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C304" s="23">
         <v>11997</v>
@@ -40056,7 +40218,7 @@
         <v>119976</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C305" s="23">
         <v>11997</v>
@@ -40134,7 +40296,7 @@
         <v>139980</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C306" s="23">
         <v>13998</v>
@@ -40212,7 +40374,7 @@
         <v>139981</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C307" s="23">
         <v>13998</v>
@@ -40290,7 +40452,7 @@
         <v>139982</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C308" s="23">
         <v>13998</v>
@@ -40368,7 +40530,7 @@
         <v>139983</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C309" s="23">
         <v>13998</v>
@@ -40446,7 +40608,7 @@
         <v>139984</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C310" s="23">
         <v>13998</v>
@@ -40524,7 +40686,7 @@
         <v>139985</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C311" s="23">
         <v>13998</v>
@@ -40602,7 +40764,7 @@
         <v>139986</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C312" s="23">
         <v>13998</v>
@@ -40681,7 +40843,7 @@
         <v>139990</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C313" s="23">
         <v>13999</v>
@@ -40760,7 +40922,7 @@
         <v>139991</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C314" s="23">
         <v>13999</v>
@@ -40839,7 +41001,7 @@
         <v>139992</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C315" s="23">
         <v>13999</v>
@@ -40918,7 +41080,7 @@
         <v>139993</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C316" s="23">
         <v>13999</v>
@@ -40997,7 +41159,7 @@
         <v>139994</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C317" s="23">
         <v>13999</v>
@@ -41076,7 +41238,7 @@
         <v>139995</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C318" s="23">
         <v>13999</v>
@@ -41155,7 +41317,7 @@
         <v>139996</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C319" s="23">
         <v>13999</v>
@@ -41234,7 +41396,7 @@
         <v>229960</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C320" s="23">
         <v>22996</v>
@@ -41313,7 +41475,7 @@
         <v>229961</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C321" s="23">
         <v>22996</v>
@@ -41392,7 +41554,7 @@
         <v>229962</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C322" s="23">
         <v>22996</v>
@@ -41471,7 +41633,7 @@
         <v>229963</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C323" s="23">
         <v>22996</v>
@@ -41550,7 +41712,7 @@
         <v>229964</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C324" s="23">
         <v>22996</v>
@@ -41629,7 +41791,7 @@
         <v>229965</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C325" s="23">
         <v>22996</v>
@@ -41708,7 +41870,7 @@
         <v>229966</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C326" s="23">
         <v>22996</v>
@@ -41787,7 +41949,7 @@
         <v>219970</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C327" s="23">
         <v>21997</v>
@@ -41866,7 +42028,7 @@
         <v>219971</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C328" s="23">
         <v>21997</v>
@@ -41945,7 +42107,7 @@
         <v>219972</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C329" s="23">
         <v>21997</v>
@@ -42024,7 +42186,7 @@
         <v>219973</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C330" s="23">
         <v>21997</v>
@@ -42103,7 +42265,7 @@
         <v>219974</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C331" s="23">
         <v>21997</v>
@@ -42182,7 +42344,7 @@
         <v>219975</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C332" s="23">
         <v>21997</v>
@@ -42261,7 +42423,7 @@
         <v>219976</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C333" s="23">
         <v>21997</v>
@@ -42340,7 +42502,7 @@
         <v>249980</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C334" s="23">
         <v>24998</v>
@@ -42419,7 +42581,7 @@
         <v>249981</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C335" s="23">
         <v>24998</v>
@@ -42498,7 +42660,7 @@
         <v>249982</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C336" s="23">
         <v>24998</v>
@@ -42577,7 +42739,7 @@
         <v>249983</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C337" s="23">
         <v>24998</v>
@@ -42656,7 +42818,7 @@
         <v>249984</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C338" s="23">
         <v>24998</v>
@@ -42735,7 +42897,7 @@
         <v>249985</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C339" s="23">
         <v>24998</v>
@@ -42814,7 +42976,7 @@
         <v>249986</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C340" s="23">
         <v>24998</v>
@@ -42893,7 +43055,7 @@
         <v>229990</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C341" s="23">
         <v>22999</v>
@@ -42972,7 +43134,7 @@
         <v>229991</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C342" s="23">
         <v>22999</v>
@@ -43051,7 +43213,7 @@
         <v>229992</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C343" s="23">
         <v>22999</v>
@@ -43130,7 +43292,7 @@
         <v>229993</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C344" s="23">
         <v>22999</v>
@@ -43209,7 +43371,7 @@
         <v>229994</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C345" s="23">
         <v>22999</v>
@@ -43288,7 +43450,7 @@
         <v>229995</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C346" s="23">
         <v>22999</v>
@@ -43367,7 +43529,7 @@
         <v>229996</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C347" s="23">
         <v>22999</v>
@@ -43446,7 +43608,7 @@
         <v>349960</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C348" s="23">
         <v>34996</v>
@@ -43525,7 +43687,7 @@
         <v>349961</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C349" s="23">
         <v>34996</v>
@@ -43604,7 +43766,7 @@
         <v>349962</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C350" s="23">
         <v>34996</v>
@@ -43683,7 +43845,7 @@
         <v>349963</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C351" s="23">
         <v>34996</v>
@@ -43762,7 +43924,7 @@
         <v>349964</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C352" s="23">
         <v>34996</v>
@@ -43841,7 +44003,7 @@
         <v>349965</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C353" s="23">
         <v>34996</v>
@@ -43920,7 +44082,7 @@
         <v>349966</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C354" s="23">
         <v>34996</v>
@@ -43999,7 +44161,7 @@
         <v>319970</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C355" s="23">
         <v>31997</v>
@@ -44078,7 +44240,7 @@
         <v>319971</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C356" s="23">
         <v>31997</v>
@@ -44157,7 +44319,7 @@
         <v>319972</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C357" s="23">
         <v>31997</v>
@@ -44236,7 +44398,7 @@
         <v>319973</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C358" s="23">
         <v>31997</v>
@@ -44315,7 +44477,7 @@
         <v>319974</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C359" s="23">
         <v>31997</v>
@@ -44394,7 +44556,7 @@
         <v>319975</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C360" s="23">
         <v>31997</v>
@@ -44473,7 +44635,7 @@
         <v>319976</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C361" s="23">
         <v>31997</v>
@@ -44552,7 +44714,7 @@
         <v>339980</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C362" s="23">
         <v>33998</v>
@@ -44631,7 +44793,7 @@
         <v>339981</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C363" s="23">
         <v>33998</v>
@@ -44710,7 +44872,7 @@
         <v>339982</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C364" s="23">
         <v>33998</v>
@@ -44789,7 +44951,7 @@
         <v>339983</v>
       </c>
       <c r="B365" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C365" s="23">
         <v>33998</v>
@@ -44868,7 +45030,7 @@
         <v>339984</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C366" s="23">
         <v>33998</v>
@@ -44947,7 +45109,7 @@
         <v>339985</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C367" s="23">
         <v>33998</v>
@@ -45026,7 +45188,7 @@
         <v>339986</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C368" s="23">
         <v>33998</v>
@@ -45105,7 +45267,7 @@
         <v>349990</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C369" s="23">
         <v>34999</v>
@@ -45184,7 +45346,7 @@
         <v>349991</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C370" s="23">
         <v>34999</v>
@@ -45263,7 +45425,7 @@
         <v>349992</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C371" s="23">
         <v>34999</v>
@@ -45342,7 +45504,7 @@
         <v>349993</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C372" s="23">
         <v>34999</v>
@@ -45421,7 +45583,7 @@
         <v>349994</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C373" s="23">
         <v>34999</v>
@@ -45500,7 +45662,7 @@
         <v>349995</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C374" s="23">
         <v>34999</v>
@@ -45579,7 +45741,7 @@
         <v>349996</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C375" s="23">
         <v>34999</v>
@@ -45658,7 +45820,7 @@
         <v>439970</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C376" s="23">
         <v>43997</v>
@@ -45737,7 +45899,7 @@
         <v>439971</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C377" s="23">
         <v>43997</v>
@@ -45816,7 +45978,7 @@
         <v>439972</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C378" s="23">
         <v>43997</v>
@@ -45895,7 +46057,7 @@
         <v>439973</v>
       </c>
       <c r="B379" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C379" s="23">
         <v>43997</v>
@@ -45974,7 +46136,7 @@
         <v>439974</v>
       </c>
       <c r="B380" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C380" s="23">
         <v>43997</v>
@@ -46053,7 +46215,7 @@
         <v>439975</v>
       </c>
       <c r="B381" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C381" s="23">
         <v>43997</v>
@@ -46132,7 +46294,7 @@
         <v>439976</v>
       </c>
       <c r="B382" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C382" s="23">
         <v>43997</v>
@@ -46211,7 +46373,7 @@
         <v>449980</v>
       </c>
       <c r="B383" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C383" s="23">
         <v>44998</v>
@@ -46290,7 +46452,7 @@
         <v>449981</v>
       </c>
       <c r="B384" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C384" s="23">
         <v>44998</v>
@@ -46369,7 +46531,7 @@
         <v>449982</v>
       </c>
       <c r="B385" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C385" s="23">
         <v>44998</v>
@@ -46448,7 +46610,7 @@
         <v>449983</v>
       </c>
       <c r="B386" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C386" s="23">
         <v>44998</v>
@@ -46527,7 +46689,7 @@
         <v>449984</v>
       </c>
       <c r="B387" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C387" s="23">
         <v>44998</v>
@@ -46606,7 +46768,7 @@
         <v>449985</v>
       </c>
       <c r="B388" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C388" s="23">
         <v>44998</v>
@@ -46685,7 +46847,7 @@
         <v>449986</v>
       </c>
       <c r="B389" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C389" s="23">
         <v>44998</v>
@@ -46764,7 +46926,7 @@
         <v>529970</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C390" s="23">
         <v>52997</v>
@@ -46843,7 +47005,7 @@
         <v>529971</v>
       </c>
       <c r="B391" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C391" s="23">
         <v>52997</v>
@@ -46922,7 +47084,7 @@
         <v>529972</v>
       </c>
       <c r="B392" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C392" s="23">
         <v>52997</v>
@@ -47001,7 +47163,7 @@
         <v>529973</v>
       </c>
       <c r="B393" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C393" s="23">
         <v>52997</v>
@@ -47080,7 +47242,7 @@
         <v>529974</v>
       </c>
       <c r="B394" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C394" s="23">
         <v>52997</v>
@@ -47159,7 +47321,7 @@
         <v>529975</v>
       </c>
       <c r="B395" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C395" s="23">
         <v>52997</v>
@@ -47238,7 +47400,7 @@
         <v>529976</v>
       </c>
       <c r="B396" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C396" s="23">
         <v>52997</v>
@@ -47317,7 +47479,7 @@
         <v>519980</v>
       </c>
       <c r="B397" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C397" s="23">
         <v>51998</v>
@@ -47396,7 +47558,7 @@
         <v>519981</v>
       </c>
       <c r="B398" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C398" s="23">
         <v>51998</v>
@@ -47475,7 +47637,7 @@
         <v>519982</v>
       </c>
       <c r="B399" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C399" s="23">
         <v>51998</v>
@@ -47554,7 +47716,7 @@
         <v>519983</v>
       </c>
       <c r="B400" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C400" s="23">
         <v>51998</v>
@@ -47633,7 +47795,7 @@
         <v>519984</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C401" s="23">
         <v>51998</v>
@@ -47712,7 +47874,7 @@
         <v>519985</v>
       </c>
       <c r="B402" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C402" s="23">
         <v>51998</v>
@@ -47791,7 +47953,7 @@
         <v>519986</v>
       </c>
       <c r="B403" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C403" s="23">
         <v>51998</v>
@@ -47879,6 +48041,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51757,6 +51920,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -52968,10 +53132,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C2"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -53003,6 +53168,138 @@
         <v>[{"title":"T","num":1,"id":11990,"skills":[1199000,1199013,1199023,1199033],"passive_skills":[],"attrs":[{"id":1,"value":4325},{"id":2,"value":46682},{"id":5,"value":1523},{"id":6,"value":1071},{"id":4,"value":1246},{"id":20,"value":500}]},{"title":"T","num":2,"id":31991,"skills":[3199100,3199113,3199123,3199133],"passive_skills":[],"attrs":[{"id":1,"value":4002},{"id":2,"value":47554},{"id":5,"value":1535},{"id":6,"value":1076},{"id":4,"value":1216},{"id":20,"value":500}]},{"title":"N","num":3,"id":14991,"skills":[1499100,1499113,1499123,1499133],"passive_skills":[],"attrs":[{"id":1,"value":4461},{"id":2,"value":44654},{"id":5,"value":1115},{"id":6,"value":1193},{"id":4,"value":1280},{"id":20,"value":500}]},{"title":"F","num":4,"id":12992,"skills":[1299200,1299213,1299223,1299233],"passive_skills":[],"attrs":[{"id":1,"value":5608},{"id":2,"value":38619},{"id":5,"value":1071},{"id":6,"value":1136},{"id":4,"value":1185},{"id":20,"value":500}]},{"title":"F","num":5,"id":42990,"skills":[4299000,4299013,4299023,4299033],"passive_skills":[],"attrs":[{"id":1,"value":5957},{"id":2,"value":43835},{"id":5,"value":1115},{"id":6,"value":1175},{"id":4,"value":1242},{"id":20,"value":500}]},{"title":"Z","num":6,"id":51990,"skills":[5199000,5199013,5199023,5199033],"passive_skills":[],"attrs":[{"id":1,"value":4724},{"id":2,"value":51510},{"id":5,"value":1581},{"id":6,"value":1122},{"id":4,"value":1280},{"id":20,"value":500}]},{"title":"T","num":7,"id":41992,"skills":[4199200,4199213,4199223,4199233],"passive_skills":[],"attrs":[{"id":1,"value":4401},{"id":2,"value":52816},{"id":5,"value":1600},{"id":6,"value":1108},{"id":4,"value":1311},{"id":20,"value":500}]},{"title":"N","num":8,"id":53991,"skills":[5399100,5399113,5399123,5399133],"passive_skills":[],"attrs":[{"id":1,"value":6351},{"id":2,"value":42143},{"id":5,"value":1168},{"id":6,"value":1108},{"id":4,"value":1246},{"id":20,"value":500}]},{"title":"Z","num":9,"id":54992,"skills":[5499200,5499213,5499223,5499233],"passive_skills":[],"attrs":[{"id":1,"value":4874},{"id":2,"value":49154},{"id":5,"value":1154},{"id":6,"value":1503},{"id":4,"value":1315},{"id":20,"value":500}]},{"title":"F","num":10,"id":43991,"skills":[4399100,4399113,4399123,4399133],"passive_skills":[],"attrs":[{"id":1,"value":6003},{"id":2,"value":43098},{"id":5,"value":1180},{"id":6,"value":1097},{"id":4,"value":1277},{"id":20,"value":500}]}]</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C14" t="s">
+        <v>546</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53011,56 +53308,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:T20"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M19" sqref="M19"/>
+      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" t="str">
+        <f>VLOOKUP(10*$F$2,Contents!$A:$C,3,0)</f>
+        <v>跑战报</v>
+      </c>
+      <c r="G1" t="str">
+        <f>VLOOKUP(10*$F$2+1,Contents!$A:$C,3,0)</f>
+        <v>次数</v>
+      </c>
+      <c r="H1" t="str">
+        <f>VLOOKUP(10*$F$2+2,Contents!$A:$C,3,0)</f>
+        <v>战果简析</v>
+      </c>
+      <c r="I1" t="str">
+        <f>VLOOKUP(10*$F$2+3,Contents!$A:$C,3,0)</f>
+        <v>战报公式</v>
+      </c>
+      <c r="J1" t="str">
+        <f>VLOOKUP(10*$F$2+4,Contents!$A:$C,3,0)</f>
+        <v>参数4</v>
+      </c>
+      <c r="K1" t="str">
+        <f>VLOOKUP(10*$F$2+5,Contents!$A:$C,3,0)</f>
+        <v>参数5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" t="s">
         <v>289</v>
       </c>
-      <c r="B1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>291</v>
-      </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>536</v>
       </c>
       <c r="F2" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="21">
         <v>2</v>
       </c>
       <c r="H2" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="21">
         <v>1</v>
@@ -53068,45 +53375,226 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:42">
       <c r="T4" s="10"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="5" spans="1:42">
+      <c r="A5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" t="str">
+        <f>Test!G10</f>
+        <v xml:space="preserve"> 攻城车</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Test!O10</f>
+        <v xml:space="preserve"> 沉默者</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Test!G30</f>
+        <v xml:space="preserve"> 诗人</v>
+      </c>
+      <c r="D6" t="str">
+        <f>Test!O30</f>
+        <v xml:space="preserve"> 理发师</v>
+      </c>
+      <c r="E6" t="str">
+        <f>Test!W30</f>
+        <v xml:space="preserve"> 光女</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" t="str">
+        <f>Test!G50</f>
+        <v xml:space="preserve"> 麻痹怪</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Test!O50</f>
+        <v xml:space="preserve"> 套盾人</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Test!G70</f>
+        <v xml:space="preserve"> 魔战士</v>
+      </c>
+      <c r="D8" t="str">
+        <f>Test!O70</f>
+        <v xml:space="preserve"> 小魅魔</v>
+      </c>
+      <c r="E8" t="str">
+        <f>Test!W70</f>
+        <v xml:space="preserve"> 破壁人</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="W8">
+        <v>23</v>
+      </c>
+      <c r="AG8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="F9" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>295</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" t="s">
         <v>285</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>294</v>
+      </c>
+      <c r="M10" t="s">
+        <v>559</v>
+      </c>
+      <c r="N10" t="s">
+        <v>560</v>
+      </c>
+      <c r="O10" t="s">
+        <v>561</v>
+      </c>
+      <c r="P10" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>563</v>
+      </c>
+      <c r="R10" t="s">
+        <v>565</v>
+      </c>
+      <c r="S10" t="s">
+        <v>567</v>
+      </c>
+      <c r="T10" t="s">
+        <v>569</v>
+      </c>
+      <c r="U10" t="s">
+        <v>571</v>
+      </c>
+      <c r="V10" t="s">
+        <v>573</v>
+      </c>
+      <c r="W10" t="s">
+        <v>559</v>
+      </c>
+      <c r="X10" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>560</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>565</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>567</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>571</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -53115,18 +53603,81 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>576</v>
+      </c>
+      <c r="M11">
+        <v>31540</v>
+      </c>
+      <c r="N11">
+        <v>17871</v>
+      </c>
+      <c r="O11">
+        <v>6678</v>
+      </c>
+      <c r="P11">
+        <v>122533</v>
+      </c>
+      <c r="Q11">
+        <v>87534</v>
+      </c>
+      <c r="R11">
+        <v>21598</v>
+      </c>
+      <c r="S11">
+        <v>56211</v>
+      </c>
+      <c r="T11">
+        <v>139413</v>
+      </c>
+      <c r="U11">
+        <v>70383</v>
+      </c>
+      <c r="V11">
+        <v>25913</v>
+      </c>
+      <c r="W11">
+        <v>56217</v>
+      </c>
+      <c r="X11">
+        <v>58424</v>
+      </c>
+      <c r="Y11">
+        <v>67924</v>
+      </c>
+      <c r="Z11">
+        <v>59441</v>
+      </c>
+      <c r="AA11">
+        <v>71512</v>
+      </c>
+      <c r="AB11">
+        <v>74551</v>
+      </c>
+      <c r="AC11">
+        <v>61954</v>
+      </c>
+      <c r="AD11">
+        <v>30656</v>
+      </c>
+      <c r="AE11">
+        <v>38562</v>
+      </c>
+      <c r="AF11">
+        <v>60433</v>
+      </c>
+      <c r="AI11">
+        <v>51187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -53135,16 +53686,82 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>577</v>
+      </c>
+      <c r="M12">
+        <v>18319</v>
+      </c>
+      <c r="N12">
+        <v>16875</v>
+      </c>
+      <c r="O12">
+        <v>3339</v>
+      </c>
+      <c r="P12">
+        <v>83183</v>
+      </c>
+      <c r="Q12">
+        <v>54896</v>
+      </c>
+      <c r="R12">
+        <v>18780</v>
+      </c>
+      <c r="S12">
+        <v>48988</v>
+      </c>
+      <c r="T12">
+        <v>96542</v>
+      </c>
+      <c r="U12">
+        <v>42965</v>
+      </c>
+      <c r="V12">
+        <v>85514</v>
+      </c>
+      <c r="W12">
+        <v>63736</v>
+      </c>
+      <c r="X12">
+        <v>57131</v>
+      </c>
+      <c r="Y12">
+        <v>59972</v>
+      </c>
+      <c r="Z12">
+        <v>52644</v>
+      </c>
+      <c r="AA12">
+        <v>59306</v>
+      </c>
+      <c r="AB12">
+        <v>59269</v>
+      </c>
+      <c r="AC12">
+        <v>28331</v>
+      </c>
+      <c r="AD12">
+        <v>15973</v>
+      </c>
+      <c r="AE12">
+        <v>32161</v>
+      </c>
+      <c r="AF12">
+        <v>40878</v>
+      </c>
+      <c r="AI12">
+        <v>42154</v>
+      </c>
+      <c r="AO12">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
       <c r="F13">
         <v>3</v>
       </c>
@@ -53158,135 +53775,159 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>578</v>
+      </c>
+      <c r="M13">
+        <v>15975</v>
+      </c>
+      <c r="N13">
+        <v>17912</v>
+      </c>
+      <c r="P13">
+        <v>86997</v>
+      </c>
+      <c r="Q13">
+        <v>92081</v>
+      </c>
+      <c r="R13">
+        <v>23601</v>
+      </c>
+      <c r="S13">
+        <v>51317</v>
+      </c>
+      <c r="T13">
+        <v>110347</v>
+      </c>
+      <c r="U13">
+        <v>65537</v>
+      </c>
+      <c r="V13">
+        <v>31961</v>
+      </c>
+      <c r="W13">
+        <v>54534</v>
+      </c>
+      <c r="X13">
+        <v>58359</v>
+      </c>
+      <c r="Y13">
+        <v>61646</v>
+      </c>
+      <c r="Z13">
+        <v>51084</v>
+      </c>
+      <c r="AA13">
+        <v>57140</v>
+      </c>
+      <c r="AB13">
+        <v>60900</v>
+      </c>
+      <c r="AC13">
+        <v>71969</v>
+      </c>
+      <c r="AD13">
+        <v>19407</v>
+      </c>
+      <c r="AE13">
+        <v>16974</v>
+      </c>
+      <c r="AF13">
+        <v>43715</v>
+      </c>
+      <c r="AI13">
+        <v>48176</v>
+      </c>
+      <c r="AO13">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10">
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10">
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10">
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10">
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>553</v>
+        <v>580</v>
+      </c>
+      <c r="M14">
+        <v>20015</v>
+      </c>
+      <c r="N14">
+        <v>13588</v>
+      </c>
+      <c r="O14">
+        <v>3339</v>
+      </c>
+      <c r="P14">
+        <v>68111</v>
+      </c>
+      <c r="Q14">
+        <v>54995</v>
+      </c>
+      <c r="R14">
+        <v>15171</v>
+      </c>
+      <c r="S14">
+        <v>50294</v>
+      </c>
+      <c r="T14">
+        <v>94653</v>
+      </c>
+      <c r="U14">
+        <v>47225</v>
+      </c>
+      <c r="V14">
+        <v>82185</v>
+      </c>
+      <c r="W14">
+        <v>54806</v>
+      </c>
+      <c r="X14">
+        <v>58743</v>
+      </c>
+      <c r="Y14">
+        <v>56939</v>
+      </c>
+      <c r="Z14">
+        <v>54595</v>
+      </c>
+      <c r="AA14">
+        <v>64445</v>
+      </c>
+      <c r="AB14">
+        <v>35683</v>
+      </c>
+      <c r="AC14">
+        <v>53833</v>
+      </c>
+      <c r="AD14">
+        <v>11932</v>
+      </c>
+      <c r="AE14">
+        <v>12520</v>
+      </c>
+      <c r="AF14">
+        <v>46080</v>
+      </c>
+      <c r="AI14">
+        <v>45165</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G11:G150">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="G11:G131">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53297,8 +53938,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H150">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H11:H131">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -53307,7 +53948,275 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M11:V11 M13:V13 M15:V15 M17:V17 M19:V19 M21:V21 M23:V23 M25:V25 M27:V27 M29:V29 M31:V31 M33:V33 M35:V35 M37:V37 M39:V39 M41:V41 M43:V43 M45:V45 M47:V47 M49:V49">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49233E1B-2B0A-4C5B-8EBC-CACAD68EFD78}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:V12 M14:V14 M16:V16 M18:V18 M20:V20 M22:V22 M24:V24 M26:V26 M28:V28 M30:V30 M32:V32 M34:V34 M36:V36 M38:V38 M40:V40 M42:V42 M44:V44 M46:V46 M48:V48 M50:V50">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AD28434E-AD91-4AA7-86E3-C9A570535BE8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11:AF11">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9149BD01-12A9-4302-8CB4-F7012EE82E9A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:AF12">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8E99AE3D-7C0B-4852-A6B9-684410F61982}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13:AF13 W15:AF15 W17:AF17 W19:AF19 W21:AF21 W23:AF23 W25:AF25 W27:AF27 W29:AF29 W31:AF31 W33:AF33 W35:AF35 W37:AF37 W39:AF39 W41:AF41 W43:AF43 W45:AF45 W47:AF47 W49:AF49 W51:AF51 W53:AF53 W55:AF55">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D63A045D-C16B-430F-A964-DA3ED83C064F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14:AF14 W16:AF16 W18:AF18 W20:AF20 W22:AF22 W24:AF24 W26:AF26 W28:AF28 W30:AF30 W32:AF32 W34:AF34 W36:AF36 W38:AF38 W40:AF40 W42:AF42 W44:AF44 W46:AF46 W48:AF48 W50:AF50 W52:AF52 W54:AF54 W56:AF56">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2A51697E-FD72-4E4E-8590-3856DC5ED8BE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11:AP11">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6DD6907-3DA0-4289-B788-EDAA9F2FBD5E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12:AP12">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{40D6ECDD-02A7-42D3-A631-D966D8A25C86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13:AP13 AG15:AP15 AG17:AP17 AG19:AP19 AG21:AP21 AG23:AP23 AG25:AP25 AG27:AP27 AG29:AP29 AG31:AP31 AG33:AP33 AG35:AP35 AG37:AP37 AG39:AP39 AG41:AP41 AG43:AP43 AG45:AP45 AG47:AP47 AG49:AP49 AG51:AP51 AG53:AP53 AG55:AP55 AG57:AP57 AG59:AP59">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{281C2890-D81B-4C82-962D-41180862EAC3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14:AP14 AG16:AP16 AG18:AP18 AG20:AP20 AG22:AP22 AG24:AP24 AG26:AP26 AG28:AP28 AG30:AP30 AG32:AP32 AG34:AP34 AG36:AP36 AG38:AP38 AG40:AP40 AG42:AP42 AG44:AP44 AG46:AP46 AG48:AP48 AG50:AP50 AG52:AP52 AG54:AP54 AG56:AP56 AG58:AP58">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D8B127D7-D307-4835-A2F0-7FCDDD1B3246}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{49233E1B-2B0A-4C5B-8EBC-CACAD68EFD78}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M11:V11 M13:V13 M15:V15 M17:V17 M19:V19 M21:V21 M23:V23 M25:V25 M27:V27 M29:V29 M31:V31 M33:V33 M35:V35 M37:V37 M39:V39 M41:V41 M43:V43 M45:V45 M47:V47 M49:V49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD28434E-AD91-4AA7-86E3-C9A570535BE8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M12:V12 M14:V14 M16:V16 M18:V18 M20:V20 M22:V22 M24:V24 M26:V26 M28:V28 M30:V30 M32:V32 M34:V34 M36:V36 M38:V38 M40:V40 M42:V42 M44:V44 M46:V46 M48:V48 M50:V50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9149BD01-12A9-4302-8CB4-F7012EE82E9A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W11:AF11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8E99AE3D-7C0B-4852-A6B9-684410F61982}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W12:AF12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D63A045D-C16B-430F-A964-DA3ED83C064F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W13:AF13 W15:AF15 W17:AF17 W19:AF19 W21:AF21 W23:AF23 W25:AF25 W27:AF27 W29:AF29 W31:AF31 W33:AF33 W35:AF35 W37:AF37 W39:AF39 W41:AF41 W43:AF43 W45:AF45 W47:AF47 W49:AF49 W51:AF51 W53:AF53 W55:AF55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2A51697E-FD72-4E4E-8590-3856DC5ED8BE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W14:AF14 W16:AF16 W18:AF18 W20:AF20 W22:AF22 W24:AF24 W26:AF26 W28:AF28 W30:AF30 W32:AF32 W34:AF34 W36:AF36 W38:AF38 W40:AF40 W42:AF42 W44:AF44 W46:AF46 W48:AF48 W50:AF50 W52:AF52 W54:AF54 W56:AF56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6DD6907-3DA0-4289-B788-EDAA9F2FBD5E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AG11:AP11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{40D6ECDD-02A7-42D3-A631-D966D8A25C86}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AG12:AP12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{281C2890-D81B-4C82-962D-41180862EAC3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AG13:AP13 AG15:AP15 AG17:AP17 AG19:AP19 AG21:AP21 AG23:AP23 AG25:AP25 AG27:AP27 AG29:AP29 AG31:AP31 AG33:AP33 AG35:AP35 AG37:AP37 AG39:AP39 AG41:AP41 AG43:AP43 AG45:AP45 AG47:AP47 AG49:AP49 AG51:AP51 AG53:AP53 AG55:AP55 AG57:AP57 AG59:AP59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D8B127D7-D307-4835-A2F0-7FCDDD1B3246}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AG14:AP14 AG16:AP16 AG18:AP18 AG20:AP20 AG22:AP22 AG24:AP24 AG26:AP26 AG28:AP28 AG30:AP30 AG32:AP32 AG34:AP34 AG36:AP36 AG38:AP38 AG40:AP40 AG42:AP42 AG44:AP44 AG46:AP46 AG48:AP48 AG50:AP50 AG52:AP52 AG54:AP54 AG56:AP56 AG58:AP58</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excel_battlefield.xlsx
+++ b/excel_battlefield.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\Turn-basedBattleSimuBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B574257A-9C86-416B-84FD-FE67E72E05BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3686E36-2B8C-4844-A9C9-BDEA0736E565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="hero_info" sheetId="4" r:id="rId4"/>
     <sheet name="hero_star_info" sheetId="6" r:id="rId5"/>
     <sheet name="hero_data_info" sheetId="5" r:id="rId6"/>
-    <sheet name="神器总属性" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="神器总属性" sheetId="12" r:id="rId7"/>
     <sheet name="属性对应量表位置" sheetId="8" state="hidden" r:id="rId8"/>
     <sheet name="Contents" sheetId="11" r:id="rId9"/>
     <sheet name="Info" sheetId="10" r:id="rId10"/>
@@ -1061,7 +1061,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="681">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3137,36 +3137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20201214151909.json</t>
-  </si>
-  <si>
-    <t>20201214151914.json</t>
-  </si>
-  <si>
-    <t>20201214151933.json</t>
-  </si>
-  <si>
-    <t>20201214152110.json</t>
-  </si>
-  <si>
-    <t>20201214152110.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201214152201.json</t>
-  </si>
-  <si>
-    <t>20201214152201.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201214152248.json</t>
-  </si>
-  <si>
-    <t>20201214152248.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3266,6 +3236,58 @@
   <si>
     <t>神器3等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总伤害+治疗:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器2</t>
+  </si>
+  <si>
+    <t>神器3</t>
+  </si>
+  <si>
+    <t>神器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201222200731.json</t>
+  </si>
+  <si>
+    <t>20201222200740.json</t>
+  </si>
+  <si>
+    <t>20201222200750.json</t>
+  </si>
+  <si>
+    <t>20201222200800.json</t>
+  </si>
+  <si>
+    <t>20201222200809.json</t>
+  </si>
+  <si>
+    <t>20201222200820.json</t>
+  </si>
+  <si>
+    <t>20201222200831.json</t>
+  </si>
+  <si>
+    <t>20201222200842.json</t>
+  </si>
+  <si>
+    <t>20201222200852.json</t>
+  </si>
+  <si>
+    <t>20201222200903.json</t>
   </si>
 </sst>
 </file>
@@ -3880,11 +3902,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3895,76 +3919,6 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="65">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4264,6 +4218,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -4300,6 +4317,13 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4727,8 +4751,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4749,7 +4773,7 @@
       </c>
       <c r="B1" s="19">
         <f>Info!G2</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1" s="19">
         <f>Info!H2</f>
@@ -4811,11 +4835,11 @@
         <v>231</v>
       </c>
       <c r="E10" s="8">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="G10" s="10" t="str">
         <f>VLOOKUP(C12,hero_info!$A:$B,2,0)</f>
-        <v>腐蚀之躯 萨拉查</v>
+        <v>根须领主 伊古德拉希尔</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="str">
@@ -4832,7 +4856,7 @@
         <v>231</v>
       </c>
       <c r="M10" s="8">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="O10" s="10" t="str">
         <f>VLOOKUP(K12,hero_info!$A:$B,2,0)</f>
@@ -4878,7 +4902,7 @@
         <v>232</v>
       </c>
       <c r="E11" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" t="s">
@@ -4894,7 +4918,7 @@
         <v>232</v>
       </c>
       <c r="M11" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" t="s">
@@ -4921,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="8">
-        <v>31002</v>
+        <v>21003</v>
       </c>
       <c r="D12" t="s">
         <v>233</v>
@@ -4947,7 +4971,7 @@
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="79" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="R12" t="s">
         <v>4</v>
@@ -4971,23 +4995,23 @@
       </c>
       <c r="C13" s="8">
         <f>VALUE(C12&amp;"00")</f>
-        <v>3100200</v>
+        <v>2100300</v>
       </c>
       <c r="D13" s="8">
         <f>VALUE(C12&amp;"13")</f>
-        <v>3100213</v>
+        <v>2100313</v>
       </c>
       <c r="E13" s="8">
         <f>VALUE(C12&amp;"23")</f>
-        <v>3100223</v>
+        <v>2100323</v>
       </c>
       <c r="F13" s="8">
         <f>VALUE(C12&amp;"33")</f>
-        <v>3100233</v>
+        <v>2100333</v>
       </c>
       <c r="G13" s="8">
         <f>VALUE(C12&amp;"43")</f>
-        <v>3100243</v>
+        <v>2100343</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" t="s">
@@ -5024,13 +5048,13 @@
         <v>7</v>
       </c>
       <c r="S13" s="76">
-        <v>7400205</v>
+        <v>7400210</v>
       </c>
       <c r="U13" s="76">
-        <v>7400105</v>
+        <v>7400110</v>
       </c>
       <c r="W13" s="76">
-        <v>7300105</v>
+        <v>7300110</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5114,8 +5138,8 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <f>ROUND(属性计算!B16+G16,0)+IF(C16,VLOOKUP(C16,$S$16:$V$25,4),0)</f>
-        <v>6850</v>
+        <f>ROUND(属性计算!B16+G16,0)+IFERROR(VLOOKUP(C16,$S$16:$V$25,4,0),0)</f>
+        <v>18702</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
@@ -5133,8 +5157,8 @@
         <v>12</v>
       </c>
       <c r="N16">
-        <f>ROUND(属性计算!J16+O16,0)+IF(K16,VLOOKUP(K16,$S$16:$V$25,4),0)</f>
-        <v>6844</v>
+        <f>ROUND(属性计算!J16+O16,0)+IFERROR(VLOOKUP(K16,$S$16:$V$25,4,0),0)</f>
+        <v>19842</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="6"/>
@@ -5153,7 +5177,7 @@
       </c>
       <c r="V16">
         <f>ROUND(属性计算!R16+W16,0)</f>
-        <v>1622</v>
+        <v>6336</v>
       </c>
       <c r="W16" s="76"/>
     </row>
@@ -5172,8 +5196,8 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <f>ROUND(属性计算!B17+G17,0)+IF(C17,VLOOKUP(C17,$S$16:$V$25,4),0)</f>
-        <v>107389</v>
+        <f>ROUND(属性计算!B17+G17,0)+IFERROR(VLOOKUP(C17,$S$16:$V$25,4,0),0)</f>
+        <v>223463</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
@@ -5191,12 +5215,12 @@
         <v>12</v>
       </c>
       <c r="N17">
-        <f>ROUND(属性计算!J17+O17,0)+IF(K17,VLOOKUP(K17,$S$16:$V$25,4),0)</f>
-        <v>114599</v>
+        <f>ROUND(属性计算!J17+O17,0)+IFERROR(VLOOKUP(K17,$S$16:$V$25,4,0),0)</f>
+        <v>257548</v>
       </c>
       <c r="O17" s="8">
-        <f>58419*0.2</f>
-        <v>11683.800000000001</v>
+        <f>207491*0.2</f>
+        <v>41498.200000000004</v>
       </c>
       <c r="P17" s="6"/>
       <c r="R17" t="s">
@@ -5214,7 +5238,7 @@
       </c>
       <c r="V17">
         <f>ROUND(属性计算!R17+W17,0)</f>
-        <v>44496</v>
+        <v>65438</v>
       </c>
       <c r="W17" s="76"/>
     </row>
@@ -5233,8 +5257,8 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <f>ROUND(属性计算!B18+G18,0)+IF(C18,VLOOKUP(C18,$S$16:$V$25,4),0)</f>
-        <v>2359</v>
+        <f>ROUND(属性计算!B18+G18,0)+IFERROR(VLOOKUP(C18,$S$16:$V$25,4,0),0)</f>
+        <v>6667</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
@@ -5252,8 +5276,8 @@
         <v>12</v>
       </c>
       <c r="N18">
-        <f>ROUND(属性计算!J18+O18,0)+IF(K18,VLOOKUP(K18,$S$16:$V$25,4),0)</f>
-        <v>2308</v>
+        <f>ROUND(属性计算!J18+O18,0)+IFERROR(VLOOKUP(K18,$S$16:$V$25,4,0),0)</f>
+        <v>6610</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="6"/>
@@ -5272,7 +5296,7 @@
       </c>
       <c r="V18">
         <f>ROUND(属性计算!R18+W18,0)</f>
-        <v>404</v>
+        <v>1600</v>
       </c>
       <c r="W18" s="76"/>
     </row>
@@ -5291,8 +5315,8 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <f>ROUND(属性计算!B19+G19,0)+IF(C19,VLOOKUP(C19,$S$16:$V$25,4),0)</f>
-        <v>1591</v>
+        <f>ROUND(属性计算!B19+G19,0)+IFERROR(VLOOKUP(C19,$S$16:$V$25,4,0),0)</f>
+        <v>4672</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
@@ -5310,8 +5334,8 @@
         <v>12</v>
       </c>
       <c r="N19">
-        <f>ROUND(属性计算!J19+O19,0)+IF(K19,VLOOKUP(K19,$S$16:$V$25,4),0)</f>
-        <v>1558</v>
+        <f>ROUND(属性计算!J19+O19,0)+IFERROR(VLOOKUP(K19,$S$16:$V$25,4,0),0)</f>
+        <v>4627</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="6"/>
@@ -5330,7 +5354,7 @@
       </c>
       <c r="V19">
         <f>ROUND(属性计算!R19+W19,0)</f>
-        <v>404</v>
+        <v>1600</v>
       </c>
       <c r="W19" s="76"/>
     </row>
@@ -5349,8 +5373,8 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <f>ROUND(属性计算!B20+G20,0)+IF(C20,VLOOKUP(C20,$S$16:$V$25,4),0)</f>
-        <v>46000</v>
+        <f>ROUND(属性计算!B20+G20,0)+IFERROR(VLOOKUP(C20,$S$16:$V$25,4,0),0)</f>
+        <v>1739</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="6"/>
@@ -5368,8 +5392,8 @@
         <v>12</v>
       </c>
       <c r="N20">
-        <f>ROUND(属性计算!J20+O20,0)+IF(K20,VLOOKUP(K20,$S$16:$V$25,4),0)</f>
-        <v>46023</v>
+        <f>ROUND(属性计算!J20+O20,0)+IFERROR(VLOOKUP(K20,$S$16:$V$25,4,0),0)</f>
+        <v>2077</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="6"/>
@@ -5388,7 +5412,7 @@
       </c>
       <c r="V20">
         <f>ROUND(属性计算!R20+W20,0)</f>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="W20" s="76"/>
     </row>
@@ -5407,8 +5431,8 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <f>ROUND(属性计算!B21+G21,0)+IF(C21,VLOOKUP(C21,$S$16:$V$25,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!B21+G21,0)+IFERROR(VLOOKUP(C21,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
@@ -5426,12 +5450,10 @@
         <v>12</v>
       </c>
       <c r="N21">
-        <f>ROUND(属性计算!J21+O21,0)+IF(K21,VLOOKUP(K21,$S$16:$V$25,4),0)</f>
-        <v>864</v>
-      </c>
-      <c r="O21" s="8">
-        <v>50</v>
-      </c>
+        <f>ROUND(属性计算!J21+O21,0)+IFERROR(VLOOKUP(K21,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
+      </c>
+      <c r="O21" s="8"/>
       <c r="P21" s="6"/>
       <c r="R21" t="s">
         <v>4</v>
@@ -5448,7 +5470,7 @@
       </c>
       <c r="V21">
         <f>ROUND(属性计算!R21+W21,0)</f>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="W21" s="76"/>
     </row>
@@ -5467,8 +5489,8 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <f>ROUND(属性计算!B22+G22,0)+IF(C22,VLOOKUP(C22,$S$16:$V$25,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!B22+G22,0)+IFERROR(VLOOKUP(C22,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
@@ -5486,12 +5508,10 @@
         <v>12</v>
       </c>
       <c r="N22">
-        <f>ROUND(属性计算!J22+O22,0)+IF(K22,VLOOKUP(K22,$S$16:$V$25,4),0)</f>
-        <v>864</v>
-      </c>
-      <c r="O22" s="8">
-        <v>50</v>
-      </c>
+        <f>ROUND(属性计算!J22+O22,0)+IFERROR(VLOOKUP(K22,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
+      </c>
+      <c r="O22" s="8"/>
       <c r="P22" s="6"/>
       <c r="R22" t="s">
         <v>4</v>
@@ -5525,8 +5545,8 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <f>ROUND(属性计算!B23+G23,0)+IF(C23,VLOOKUP(C23,$S$16:$V$25,4),0)</f>
-        <v>1314</v>
+        <f>ROUND(属性计算!B23+G23,0)+IFERROR(VLOOKUP(C23,$S$16:$V$25,4,0),0)</f>
+        <v>500</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="6"/>
@@ -5544,8 +5564,8 @@
         <v>12</v>
       </c>
       <c r="N23">
-        <f>ROUND(属性计算!J23+O23,0)+IF(K23,VLOOKUP(K23,$S$16:$V$25,4),0)</f>
-        <v>1314</v>
+        <f>ROUND(属性计算!J23+O23,0)+IFERROR(VLOOKUP(K23,$S$16:$V$25,4,0),0)</f>
+        <v>500</v>
       </c>
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
@@ -5571,18 +5591,18 @@
         <v>4</v>
       </c>
       <c r="C24" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="str">
         <f>IF(C24,IFERROR(VLOOKUP(C24,属性对应量表位置!$A:$E,2,0),"其他属性"),"")</f>
-        <v>受疗</v>
+        <v>治疗</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24">
-        <f>ROUND(属性计算!B24+G24,0)+IF(C24,VLOOKUP(C24,$S$16:$V$25,4),0)</f>
-        <v>2814</v>
+        <f>ROUND(属性计算!B24+G24,0)+IFERROR(VLOOKUP(C24,$S$16:$V$25,4,0),0)</f>
+        <v>2000</v>
       </c>
       <c r="G24" s="8">
         <v>2000</v>
@@ -5600,7 +5620,7 @@
         <v>12</v>
       </c>
       <c r="N24">
-        <f>ROUND(属性计算!J24+O24,0)+IF(K24,VLOOKUP(K24,$S$16:$V$25,4),0)</f>
+        <f>ROUND(属性计算!J24+O24,0)+IFERROR(VLOOKUP(K24,$S$16:$V$25,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="O24" s="8"/>
@@ -5635,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <f>ROUND(属性计算!B25+G25,0)+IF(C25,VLOOKUP(C25,$S$16:$V$25,4),0)</f>
+        <f>ROUND(属性计算!B25+G25,0)+IFERROR(VLOOKUP(C25,$S$16:$V$25,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="G25" s="8"/>
@@ -5652,7 +5672,7 @@
         <v>12</v>
       </c>
       <c r="N25">
-        <f>ROUND(属性计算!J25+O25,0)+IF(K25,VLOOKUP(K25,$S$16:$V$25,4),0)</f>
+        <f>ROUND(属性计算!J25+O25,0)+IFERROR(VLOOKUP(K25,$S$16:$V$25,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="O25" s="8"/>
@@ -5705,7 +5725,7 @@
         <v>231</v>
       </c>
       <c r="E30" s="8">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="G30" s="10" t="str">
         <f>VLOOKUP(C32,hero_info!$A:$B,2,0)</f>
@@ -5726,7 +5746,7 @@
         <v>231</v>
       </c>
       <c r="M30" s="8">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="O30" s="10" t="str">
         <f>VLOOKUP(K32,hero_info!$A:$B,2,0)</f>
@@ -5747,11 +5767,11 @@
         <v>231</v>
       </c>
       <c r="U30" s="8">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="W30" s="10" t="str">
         <f>VLOOKUP(S32,hero_info!$A:$B,2,0)</f>
-        <v>复仇之矛 扎普尔</v>
+        <v>剑圣 海洛斯</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -5768,7 +5788,7 @@
         <v>232</v>
       </c>
       <c r="E31" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" t="s">
@@ -5784,7 +5804,7 @@
         <v>232</v>
       </c>
       <c r="M31" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" t="s">
@@ -5800,7 +5820,7 @@
         <v>232</v>
       </c>
       <c r="U31" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -5843,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="S32" s="8">
-        <v>53001</v>
+        <v>43002</v>
       </c>
       <c r="T32" t="s">
         <v>233</v>
@@ -5915,23 +5935,23 @@
       </c>
       <c r="S33" s="8">
         <f>VALUE(S32&amp;"00")</f>
-        <v>5300100</v>
+        <v>4300200</v>
       </c>
       <c r="T33" s="8">
         <f>VALUE(S32&amp;"13")</f>
-        <v>5300113</v>
+        <v>4300213</v>
       </c>
       <c r="U33" s="8">
         <f>VALUE(S32&amp;"23")</f>
-        <v>5300123</v>
+        <v>4300223</v>
       </c>
       <c r="V33" s="8">
         <f>VALUE(S32&amp;"33")</f>
-        <v>5300133</v>
+        <v>4300233</v>
       </c>
       <c r="W33" s="8">
         <f>VALUE(S32&amp;"43")</f>
-        <v>5300143</v>
+        <v>4300243</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -6026,8 +6046,8 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <f>ROUND(属性计算!B36+G36,0)+IF(C36,VLOOKUP(C36,$S$16:$V$25,4),0)</f>
-        <v>9206</v>
+        <f>ROUND(属性计算!B36+G36,0)+IFERROR(VLOOKUP(C36,$S$16:$V$25,4,0),0)</f>
+        <v>25989</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="6"/>
@@ -6045,8 +6065,8 @@
         <v>12</v>
       </c>
       <c r="N36">
-        <f>ROUND(属性计算!J36+O36,0)+IF(K36,VLOOKUP(K36,$S$16:$V$25,4),0)</f>
-        <v>7625</v>
+        <f>ROUND(属性计算!J36+O36,0)+IFERROR(VLOOKUP(K36,$S$16:$V$25,4,0),0)</f>
+        <v>21879</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="6"/>
@@ -6064,8 +6084,8 @@
         <v>12</v>
       </c>
       <c r="V36">
-        <f>ROUND(属性计算!R36+W36,0)+IF(S36,VLOOKUP(S36,$S$16:$V$25,4),0)</f>
-        <v>10142</v>
+        <f>ROUND(属性计算!R36+W36,0)+IFERROR(VLOOKUP(S36,$S$16:$V$25,4,0),0)</f>
+        <v>27279</v>
       </c>
       <c r="W36" s="8"/>
     </row>
@@ -6084,8 +6104,8 @@
         <v>12</v>
       </c>
       <c r="F37">
-        <f>ROUND(属性计算!B37+G37,0)+IF(C37,VLOOKUP(C37,$S$16:$V$25,4),0)</f>
-        <v>94826</v>
+        <f>ROUND(属性计算!B37+G37,0)+IFERROR(VLOOKUP(C37,$S$16:$V$25,4,0),0)</f>
+        <v>195176</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="6"/>
@@ -6103,8 +6123,8 @@
         <v>12</v>
       </c>
       <c r="N37">
-        <f>ROUND(属性计算!J37+O37,0)+IF(K37,VLOOKUP(K37,$S$16:$V$25,4),0)</f>
-        <v>103379</v>
+        <f>ROUND(属性计算!J37+O37,0)+IFERROR(VLOOKUP(K37,$S$16:$V$25,4,0),0)</f>
+        <v>217199</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="6"/>
@@ -6122,8 +6142,8 @@
         <v>12</v>
       </c>
       <c r="V37">
-        <f>ROUND(属性计算!R37+W37,0)+IF(S37,VLOOKUP(S37,$S$16:$V$25,4),0)</f>
-        <v>102922</v>
+        <f>ROUND(属性计算!R37+W37,0)+IFERROR(VLOOKUP(S37,$S$16:$V$25,4,0),0)</f>
+        <v>220241</v>
       </c>
       <c r="W37" s="8"/>
     </row>
@@ -6142,8 +6162,8 @@
         <v>12</v>
       </c>
       <c r="F38">
-        <f>ROUND(属性计算!B38+G38,0)+IF(C38,VLOOKUP(C38,$S$16:$V$25,4),0)</f>
-        <v>1900</v>
+        <f>ROUND(属性计算!B38+G38,0)+IFERROR(VLOOKUP(C38,$S$16:$V$25,4,0),0)</f>
+        <v>5560</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="6"/>
@@ -6161,8 +6181,8 @@
         <v>12</v>
       </c>
       <c r="N38">
-        <f>ROUND(属性计算!J38+O38,0)+IF(K38,VLOOKUP(K38,$S$16:$V$25,4),0)</f>
-        <v>1888</v>
+        <f>ROUND(属性计算!J38+O38,0)+IFERROR(VLOOKUP(K38,$S$16:$V$25,4,0),0)</f>
+        <v>5539</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="6"/>
@@ -6180,8 +6200,8 @@
         <v>12</v>
       </c>
       <c r="V38">
-        <f>ROUND(属性计算!R38+W38,0)+IF(S38,VLOOKUP(S38,$S$16:$V$25,4),0)</f>
-        <v>1985</v>
+        <f>ROUND(属性计算!R38+W38,0)+IFERROR(VLOOKUP(S38,$S$16:$V$25,4,0),0)</f>
+        <v>5743</v>
       </c>
       <c r="W38" s="8"/>
     </row>
@@ -6200,8 +6220,8 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <f>ROUND(属性计算!B39+G39,0)+IF(C39,VLOOKUP(C39,$S$16:$V$25,4),0)</f>
-        <v>1572</v>
+        <f>ROUND(属性计算!B39+G39,0)+IFERROR(VLOOKUP(C39,$S$16:$V$25,4,0),0)</f>
+        <v>4651</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="6"/>
@@ -6219,8 +6239,8 @@
         <v>12</v>
       </c>
       <c r="N39">
-        <f>ROUND(属性计算!J39+O39,0)+IF(K39,VLOOKUP(K39,$S$16:$V$25,4),0)</f>
-        <v>1992</v>
+        <f>ROUND(属性计算!J39+O39,0)+IFERROR(VLOOKUP(K39,$S$16:$V$25,4,0),0)</f>
+        <v>5722</v>
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="6"/>
@@ -6238,8 +6258,8 @@
         <v>12</v>
       </c>
       <c r="V39">
-        <f>ROUND(属性计算!R39+W39,0)+IF(S39,VLOOKUP(S39,$S$16:$V$25,4),0)</f>
-        <v>1907</v>
+        <f>ROUND(属性计算!R39+W39,0)+IFERROR(VLOOKUP(S39,$S$16:$V$25,4,0),0)</f>
+        <v>5539</v>
       </c>
       <c r="W39" s="8"/>
     </row>
@@ -6258,8 +6278,8 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <f>ROUND(属性计算!B40+G40,0)+IF(C40,VLOOKUP(C40,$S$16:$V$25,4),0)</f>
-        <v>46000</v>
+        <f>ROUND(属性计算!B40+G40,0)+IFERROR(VLOOKUP(C40,$S$16:$V$25,4,0),0)</f>
+        <v>2054</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="6"/>
@@ -6277,8 +6297,8 @@
         <v>12</v>
       </c>
       <c r="N40">
-        <f>ROUND(属性计算!J40+O40,0)+IF(K40,VLOOKUP(K40,$S$16:$V$25,4),0)</f>
-        <v>46077</v>
+        <f>ROUND(属性计算!J40+O40,0)+IFERROR(VLOOKUP(K40,$S$16:$V$25,4,0),0)</f>
+        <v>2131</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="6"/>
@@ -6296,8 +6316,8 @@
         <v>12</v>
       </c>
       <c r="V40">
-        <f>ROUND(属性计算!R40+W40,0)+IF(S40,VLOOKUP(S40,$S$16:$V$25,4),0)</f>
-        <v>46054</v>
+        <f>ROUND(属性计算!R40+W40,0)+IFERROR(VLOOKUP(S40,$S$16:$V$25,4,0),0)</f>
+        <v>2146</v>
       </c>
       <c r="W40" s="8"/>
     </row>
@@ -6316,8 +6336,8 @@
         <v>12</v>
       </c>
       <c r="F41">
-        <f>ROUND(属性计算!B41+G41,0)+IF(C41,VLOOKUP(C41,$S$16:$V$25,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!B41+G41,0)+IFERROR(VLOOKUP(C41,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="6"/>
@@ -6335,8 +6355,8 @@
         <v>12</v>
       </c>
       <c r="N41">
-        <f>ROUND(属性计算!J41+O41,0)+IF(K41,VLOOKUP(K41,$S$16:$V$25,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!J41+O41,0)+IFERROR(VLOOKUP(K41,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="6"/>
@@ -6354,8 +6374,8 @@
         <v>12</v>
       </c>
       <c r="V41">
-        <f>ROUND(属性计算!R41+W41,0)+IF(S41,VLOOKUP(S41,$S$16:$V$25,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!R41+W41,0)+IFERROR(VLOOKUP(S41,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="W41" s="8"/>
     </row>
@@ -6374,8 +6394,8 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <f>ROUND(属性计算!B42+G42,0)+IF(C42,VLOOKUP(C42,$S$16:$V$25,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!B42+G42,0)+IFERROR(VLOOKUP(C42,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="6"/>
@@ -6393,8 +6413,8 @@
         <v>12</v>
       </c>
       <c r="N42">
-        <f>ROUND(属性计算!J42+O42,0)+IF(K42,VLOOKUP(K42,$S$16:$V$25,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!J42+O42,0)+IFERROR(VLOOKUP(K42,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="6"/>
@@ -6412,8 +6432,8 @@
         <v>12</v>
       </c>
       <c r="V42">
-        <f>ROUND(属性计算!R42+W42,0)+IF(S42,VLOOKUP(S42,$S$16:$V$25,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!R42+W42,0)+IFERROR(VLOOKUP(S42,$S$16:$V$25,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="W42" s="8"/>
     </row>
@@ -6432,10 +6452,12 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <f>ROUND(属性计算!B43+G43,0)+IF(C43,VLOOKUP(C43,$S$16:$V$25,4),0)</f>
-        <v>1314</v>
-      </c>
-      <c r="G43" s="8"/>
+        <f>ROUND(属性计算!B43+G43,0)+IFERROR(VLOOKUP(C43,$S$16:$V$25,4,0),0)</f>
+        <v>2500</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2000</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="J43" t="s">
         <v>4</v>
@@ -6451,8 +6473,8 @@
         <v>12</v>
       </c>
       <c r="N43">
-        <f>ROUND(属性计算!J43+O43,0)+IF(K43,VLOOKUP(K43,$S$16:$V$25,4),0)</f>
-        <v>1314</v>
+        <f>ROUND(属性计算!J43+O43,0)+IFERROR(VLOOKUP(K43,$S$16:$V$25,4,0),0)</f>
+        <v>500</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="6"/>
@@ -6470,10 +6492,12 @@
         <v>12</v>
       </c>
       <c r="V43">
-        <f>ROUND(属性计算!R43+W43,0)+IF(S43,VLOOKUP(S43,$S$16:$V$25,4),0)</f>
-        <v>1314</v>
-      </c>
-      <c r="W43" s="8"/>
+        <f>ROUND(属性计算!R43+W43,0)+IFERROR(VLOOKUP(S43,$S$16:$V$25,4,0),0)</f>
+        <v>2500</v>
+      </c>
+      <c r="W43" s="8">
+        <v>2000</v>
+      </c>
     </row>
     <row r="44" spans="1:23">
       <c r="B44" t="s">
@@ -6488,7 +6512,7 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <f>ROUND(属性计算!B44+G44,0)+IF(C44,VLOOKUP(C44,$S$16:$V$25,4),0)</f>
+        <f>ROUND(属性计算!B44+G44,0)+IFERROR(VLOOKUP(C44,$S$16:$V$25,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="G44" s="8"/>
@@ -6496,36 +6520,44 @@
       <c r="J44" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="8"/>
+      <c r="K44" s="8">
+        <v>23</v>
+      </c>
       <c r="L44" t="str">
         <f>IF(K44,IFERROR(VLOOKUP(K44,属性对应量表位置!$A:$E,2,0),"其他属性"),"")</f>
-        <v/>
+        <v>抗控</v>
       </c>
       <c r="M44" t="s">
         <v>12</v>
       </c>
       <c r="N44">
-        <f>ROUND(属性计算!J44+O44,0)+IF(K44,VLOOKUP(K44,$S$16:$V$25,4),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="8"/>
+        <f>ROUND(属性计算!J44+O44,0)+IFERROR(VLOOKUP(K44,$S$16:$V$25,4,0),0)</f>
+        <v>2000</v>
+      </c>
+      <c r="O44" s="8">
+        <v>2000</v>
+      </c>
       <c r="P44" s="6"/>
       <c r="R44" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="8"/>
+      <c r="S44" s="8">
+        <v>23</v>
+      </c>
       <c r="T44" t="str">
         <f>IF(S44,IFERROR(VLOOKUP(S44,属性对应量表位置!$A:$E,2,0),"其他属性"),"")</f>
-        <v/>
+        <v>抗控</v>
       </c>
       <c r="U44" t="s">
         <v>12</v>
       </c>
       <c r="V44">
-        <f>ROUND(属性计算!R44+W44,0)+IF(S44,VLOOKUP(S44,$S$16:$V$25,4),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W44" s="8"/>
+        <f>ROUND(属性计算!R44+W44,0)+IFERROR(VLOOKUP(S44,$S$16:$V$25,4,0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="W44" s="8">
+        <v>3000</v>
+      </c>
     </row>
     <row r="45" spans="1:23">
       <c r="B45" t="s">
@@ -6540,7 +6572,7 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <f>ROUND(属性计算!B45+G45,0)+IF(C45,VLOOKUP(C45,$S$16:$V$25,4),0)</f>
+        <f>ROUND(属性计算!B45+G45,0)+IFERROR(VLOOKUP(C45,$S$16:$V$25,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="G45" s="8"/>
@@ -6557,7 +6589,7 @@
         <v>12</v>
       </c>
       <c r="N45">
-        <f>ROUND(属性计算!J45+O45,0)+IF(K45,VLOOKUP(K45,$S$16:$V$25,4),0)</f>
+        <f>ROUND(属性计算!J45+O45,0)+IFERROR(VLOOKUP(K45,$S$16:$V$25,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="O45" s="8"/>
@@ -6574,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="V45">
-        <f>ROUND(属性计算!R45+W45,0)+IF(S45,VLOOKUP(S45,$S$16:$V$25,4),0)</f>
+        <f>ROUND(属性计算!R45+W45,0)+IFERROR(VLOOKUP(S45,$S$16:$V$25,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="W45" s="8"/>
@@ -6594,7 +6626,7 @@
         <v>231</v>
       </c>
       <c r="E50" s="12">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="G50" s="10" t="str">
         <f>VLOOKUP(C52,hero_info!$A:$B,2,0)</f>
@@ -6615,11 +6647,11 @@
         <v>231</v>
       </c>
       <c r="M50" s="12">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="O50" s="10" t="str">
         <f>VLOOKUP(K52,hero_info!$A:$B,2,0)</f>
-        <v>拂晓之盾 艾璐德</v>
+        <v>根须领主 伊古德拉希尔</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" t="str">
@@ -6661,7 +6693,7 @@
         <v>232</v>
       </c>
       <c r="E51" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" t="s">
@@ -6677,7 +6709,7 @@
         <v>232</v>
       </c>
       <c r="M51" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" t="s">
@@ -6720,7 +6752,7 @@
         <v>4</v>
       </c>
       <c r="K52" s="12">
-        <v>11004</v>
+        <v>21003</v>
       </c>
       <c r="L52" t="s">
         <v>233</v>
@@ -6730,7 +6762,7 @@
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="79" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="R52" t="s">
         <v>4</v>
@@ -6781,23 +6813,23 @@
       </c>
       <c r="K53" s="12">
         <f>VALUE(K52&amp;"00")</f>
-        <v>1100400</v>
+        <v>2100300</v>
       </c>
       <c r="L53" s="12">
         <f>VALUE(K52&amp;"13")</f>
-        <v>1100413</v>
+        <v>2100313</v>
       </c>
       <c r="M53" s="12">
         <f>VALUE(K52&amp;"23")</f>
-        <v>1100423</v>
+        <v>2100323</v>
       </c>
       <c r="N53" s="12">
         <f>VALUE(K52&amp;"33")</f>
-        <v>1100433</v>
+        <v>2100333</v>
       </c>
       <c r="O53" s="12">
         <f>VALUE(K52&amp;"43")</f>
-        <v>1100443</v>
+        <v>2100343</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" t="s">
@@ -6807,13 +6839,13 @@
         <v>7</v>
       </c>
       <c r="S53" s="78">
-        <v>7400205</v>
+        <v>7400210</v>
       </c>
       <c r="U53" s="78">
-        <v>7400105</v>
+        <v>7400110</v>
       </c>
       <c r="W53" s="78">
-        <v>7300105</v>
+        <v>7300110</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -6897,8 +6929,8 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <f>ROUND(属性计算!B56+G56,0)+IF(C56,VLOOKUP(C56,$S$56:$V$65,4),0)</f>
-        <v>6850</v>
+        <f>ROUND(属性计算!B56+G56,0)+IFERROR(VLOOKUP(C56,$S$56:$V$65,4,0),0)</f>
+        <v>19851</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="7"/>
@@ -6916,8 +6948,8 @@
         <v>12</v>
       </c>
       <c r="N56">
-        <f>ROUND(属性计算!J56+O56,0)+IF(K56,VLOOKUP(K56,$S$56:$V$65,4),0)</f>
-        <v>6844</v>
+        <f>ROUND(属性计算!J56+O56,0)+IFERROR(VLOOKUP(K56,$S$56:$V$65,4,0),0)</f>
+        <v>18702</v>
       </c>
       <c r="O56" s="12"/>
       <c r="P56" s="7"/>
@@ -6936,7 +6968,7 @@
       </c>
       <c r="V56">
         <f>ROUND(属性计算!R56+W56,0)</f>
-        <v>1622</v>
+        <v>6336</v>
       </c>
       <c r="W56" s="78"/>
     </row>
@@ -6955,12 +6987,12 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <f>ROUND(属性计算!B57+G57,0)+IF(C57,VLOOKUP(C57,$S$56:$V$65,4),0)</f>
-        <v>119968</v>
+        <f>ROUND(属性计算!B57+G57,0)+IFERROR(VLOOKUP(C57,$S$56:$V$65,4,0),0)</f>
+        <v>271379</v>
       </c>
       <c r="G57" s="12">
-        <f>62893*0.2</f>
-        <v>12578.6</v>
+        <f>219017*0.2</f>
+        <v>43803.4</v>
       </c>
       <c r="H57" s="7"/>
       <c r="J57" t="s">
@@ -6977,13 +7009,10 @@
         <v>12</v>
       </c>
       <c r="N57">
-        <f>ROUND(属性计算!J57+O57,0)+IF(K57,VLOOKUP(K57,$S$56:$V$65,4),0)</f>
-        <v>114599</v>
-      </c>
-      <c r="O57" s="12">
-        <f>58419*0.2</f>
-        <v>11683.800000000001</v>
-      </c>
+        <f>ROUND(属性计算!J57+O57,0)+IFERROR(VLOOKUP(K57,$S$56:$V$65,4,0),0)</f>
+        <v>223463</v>
+      </c>
+      <c r="O57" s="12"/>
       <c r="P57" s="7"/>
       <c r="R57" t="s">
         <v>4</v>
@@ -7000,7 +7029,7 @@
       </c>
       <c r="V57">
         <f>ROUND(属性计算!R57+W57,0)</f>
-        <v>44496</v>
+        <v>65438</v>
       </c>
       <c r="W57" s="78"/>
     </row>
@@ -7019,8 +7048,8 @@
         <v>12</v>
       </c>
       <c r="F58">
-        <f>ROUND(属性计算!B58+G58,0)+IF(C58,VLOOKUP(C58,$S$56:$V$65,4),0)</f>
-        <v>2359</v>
+        <f>ROUND(属性计算!B58+G58,0)+IFERROR(VLOOKUP(C58,$S$56:$V$65,4,0),0)</f>
+        <v>6700</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="7"/>
@@ -7038,8 +7067,8 @@
         <v>12</v>
       </c>
       <c r="N58">
-        <f>ROUND(属性计算!J58+O58,0)+IF(K58,VLOOKUP(K58,$S$56:$V$65,4),0)</f>
-        <v>2308</v>
+        <f>ROUND(属性计算!J58+O58,0)+IFERROR(VLOOKUP(K58,$S$56:$V$65,4,0),0)</f>
+        <v>6667</v>
       </c>
       <c r="O58" s="12"/>
       <c r="P58" s="7"/>
@@ -7058,7 +7087,7 @@
       </c>
       <c r="V58">
         <f>ROUND(属性计算!R58+W58,0)</f>
-        <v>404</v>
+        <v>1600</v>
       </c>
       <c r="W58" s="78"/>
     </row>
@@ -7077,8 +7106,8 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <f>ROUND(属性计算!B59+G59,0)+IF(C59,VLOOKUP(C59,$S$56:$V$65,4),0)</f>
-        <v>1591</v>
+        <f>ROUND(属性计算!B59+G59,0)+IFERROR(VLOOKUP(C59,$S$56:$V$65,4,0),0)</f>
+        <v>4684</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="7"/>
@@ -7096,8 +7125,8 @@
         <v>12</v>
       </c>
       <c r="N59">
-        <f>ROUND(属性计算!J59+O59,0)+IF(K59,VLOOKUP(K59,$S$56:$V$65,4),0)</f>
-        <v>1558</v>
+        <f>ROUND(属性计算!J59+O59,0)+IFERROR(VLOOKUP(K59,$S$56:$V$65,4,0),0)</f>
+        <v>4672</v>
       </c>
       <c r="O59" s="12"/>
       <c r="P59" s="7"/>
@@ -7116,7 +7145,7 @@
       </c>
       <c r="V59">
         <f>ROUND(属性计算!R59+W59,0)</f>
-        <v>404</v>
+        <v>1600</v>
       </c>
       <c r="W59" s="78"/>
     </row>
@@ -7135,8 +7164,8 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <f>ROUND(属性计算!B60+G60,0)+IF(C60,VLOOKUP(C60,$S$56:$V$65,4),0)</f>
-        <v>46000</v>
+        <f>ROUND(属性计算!B60+G60,0)+IFERROR(VLOOKUP(C60,$S$56:$V$65,4,0),0)</f>
+        <v>2054</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="7"/>
@@ -7154,8 +7183,8 @@
         <v>12</v>
       </c>
       <c r="N60">
-        <f>ROUND(属性计算!J60+O60,0)+IF(K60,VLOOKUP(K60,$S$56:$V$65,4),0)</f>
-        <v>46023</v>
+        <f>ROUND(属性计算!J60+O60,0)+IFERROR(VLOOKUP(K60,$S$56:$V$65,4,0),0)</f>
+        <v>1739</v>
       </c>
       <c r="O60" s="12"/>
       <c r="P60" s="7"/>
@@ -7174,7 +7203,7 @@
       </c>
       <c r="V60">
         <f>ROUND(属性计算!R60+W60,0)</f>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="W60" s="78"/>
     </row>
@@ -7193,8 +7222,8 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <f>ROUND(属性计算!B61+G61,0)+IF(C61,VLOOKUP(C61,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!B61+G61,0)+IFERROR(VLOOKUP(C61,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="7"/>
@@ -7212,8 +7241,8 @@
         <v>12</v>
       </c>
       <c r="N61">
-        <f>ROUND(属性计算!J61+O61,0)+IF(K61,VLOOKUP(K61,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!J61+O61,0)+IFERROR(VLOOKUP(K61,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="O61" s="12"/>
       <c r="P61" s="7"/>
@@ -7232,7 +7261,7 @@
       </c>
       <c r="V61">
         <f>ROUND(属性计算!R61+W61,0)</f>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="W61" s="78"/>
     </row>
@@ -7251,8 +7280,8 @@
         <v>12</v>
       </c>
       <c r="F62">
-        <f>ROUND(属性计算!B62+G62,0)+IF(C62,VLOOKUP(C62,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!B62+G62,0)+IFERROR(VLOOKUP(C62,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="7"/>
@@ -7270,8 +7299,8 @@
         <v>12</v>
       </c>
       <c r="N62">
-        <f>ROUND(属性计算!J62+O62,0)+IF(K62,VLOOKUP(K62,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!J62+O62,0)+IFERROR(VLOOKUP(K62,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="O62" s="12"/>
       <c r="P62" s="7"/>
@@ -7307,8 +7336,8 @@
         <v>12</v>
       </c>
       <c r="F63">
-        <f>ROUND(属性计算!B63+G63,0)+IF(C63,VLOOKUP(C63,$S$56:$V$65,4),0)</f>
-        <v>1314</v>
+        <f>ROUND(属性计算!B63+G63,0)+IFERROR(VLOOKUP(C63,$S$56:$V$65,4,0),0)</f>
+        <v>500</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="7"/>
@@ -7326,8 +7355,8 @@
         <v>12</v>
       </c>
       <c r="N63">
-        <f>ROUND(属性计算!J63+O63,0)+IF(K63,VLOOKUP(K63,$S$56:$V$65,4),0)</f>
-        <v>1314</v>
+        <f>ROUND(属性计算!J63+O63,0)+IFERROR(VLOOKUP(K63,$S$56:$V$65,4,0),0)</f>
+        <v>500</v>
       </c>
       <c r="O63" s="12"/>
       <c r="P63" s="7"/>
@@ -7363,8 +7392,8 @@
         <v>12</v>
       </c>
       <c r="F64">
-        <f>ROUND(属性计算!B64+G64,0)+IF(C64,VLOOKUP(C64,$S$56:$V$65,4),0)</f>
-        <v>2814</v>
+        <f>ROUND(属性计算!B64+G64,0)+IFERROR(VLOOKUP(C64,$S$56:$V$65,4,0),0)</f>
+        <v>2000</v>
       </c>
       <c r="G64" s="12">
         <v>2000</v>
@@ -7373,19 +7402,23 @@
       <c r="J64" t="s">
         <v>4</v>
       </c>
-      <c r="K64" s="12"/>
+      <c r="K64" s="12">
+        <v>24</v>
+      </c>
       <c r="L64" t="str">
         <f>IF(K64,IFERROR(VLOOKUP(K64,属性对应量表位置!$A:$E,2,0),"其他属性"),"")</f>
-        <v/>
+        <v>治疗</v>
       </c>
       <c r="M64" t="s">
         <v>12</v>
       </c>
       <c r="N64">
-        <f>ROUND(属性计算!J64+O64,0)+IF(K64,VLOOKUP(K64,$S$56:$V$65,4),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O64" s="12"/>
+        <f>ROUND(属性计算!J64+O64,0)+IFERROR(VLOOKUP(K64,$S$56:$V$65,4,0),0)</f>
+        <v>2000</v>
+      </c>
+      <c r="O64" s="12">
+        <v>2000</v>
+      </c>
       <c r="P64" s="7"/>
       <c r="R64" t="s">
         <v>4</v>
@@ -7417,7 +7450,7 @@
         <v>12</v>
       </c>
       <c r="F65">
-        <f>ROUND(属性计算!B65+G65,0)+IF(C65,VLOOKUP(C65,$S$56:$V$65,4),0)</f>
+        <f>ROUND(属性计算!B65+G65,0)+IFERROR(VLOOKUP(C65,$S$56:$V$65,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="12"/>
@@ -7434,7 +7467,7 @@
         <v>12</v>
       </c>
       <c r="N65">
-        <f>ROUND(属性计算!J65+O65,0)+IF(K65,VLOOKUP(K65,$S$56:$V$65,4),0)</f>
+        <f>ROUND(属性计算!J65+O65,0)+IFERROR(VLOOKUP(K65,$S$56:$V$65,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="O65" s="12"/>
@@ -7487,7 +7520,7 @@
         <v>231</v>
       </c>
       <c r="E70" s="12">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="G70" s="10" t="str">
         <f>VLOOKUP(C72,hero_info!$A:$B,2,0)</f>
@@ -7508,7 +7541,7 @@
         <v>231</v>
       </c>
       <c r="M70" s="12">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="O70" s="10" t="str">
         <f>VLOOKUP(K72,hero_info!$A:$B,2,0)</f>
@@ -7529,11 +7562,11 @@
         <v>231</v>
       </c>
       <c r="U70" s="12">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="W70" s="10" t="str">
         <f>VLOOKUP(S72,hero_info!$A:$B,2,0)</f>
-        <v>风暴之女 伊尔露恩</v>
+        <v>小红帽 索菲亚</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -7550,7 +7583,7 @@
         <v>232</v>
       </c>
       <c r="E71" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" t="s">
@@ -7566,7 +7599,7 @@
         <v>232</v>
       </c>
       <c r="M71" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" t="s">
@@ -7582,7 +7615,7 @@
         <v>232</v>
       </c>
       <c r="U71" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -7625,7 +7658,7 @@
         <v>4</v>
       </c>
       <c r="S72" s="12">
-        <v>23002</v>
+        <v>32001</v>
       </c>
       <c r="T72" t="s">
         <v>233</v>
@@ -7697,23 +7730,23 @@
       </c>
       <c r="S73" s="12">
         <f>VALUE(S72&amp;"00")</f>
-        <v>2300200</v>
+        <v>3200100</v>
       </c>
       <c r="T73" s="12">
         <f>VALUE(S72&amp;"13")</f>
-        <v>2300213</v>
+        <v>3200113</v>
       </c>
       <c r="U73" s="12">
         <f>VALUE(S72&amp;"23")</f>
-        <v>2300223</v>
+        <v>3200123</v>
       </c>
       <c r="V73" s="12">
         <f>VALUE(S72&amp;"33")</f>
-        <v>2300233</v>
+        <v>3200133</v>
       </c>
       <c r="W73" s="12">
         <f>VALUE(S72&amp;"43")</f>
-        <v>2300243</v>
+        <v>3200143</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -7811,8 +7844,8 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <f>ROUND(属性计算!B76+G76,0)+IF(C76,VLOOKUP(C76,$S$56:$V$65,4),0)</f>
-        <v>9750</v>
+        <f>ROUND(属性计算!B76+G76,0)+IFERROR(VLOOKUP(C76,$S$56:$V$65,4,0),0)</f>
+        <v>27279</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="7"/>
@@ -7830,8 +7863,8 @@
         <v>12</v>
       </c>
       <c r="N76">
-        <f>ROUND(属性计算!J76+O76,0)+IF(K76,VLOOKUP(K76,$S$56:$V$65,4),0)</f>
-        <v>7154</v>
+        <f>ROUND(属性计算!J76+O76,0)+IFERROR(VLOOKUP(K76,$S$56:$V$65,4,0),0)</f>
+        <v>20718</v>
       </c>
       <c r="O76" s="12"/>
       <c r="P76" s="7"/>
@@ -7849,10 +7882,13 @@
         <v>12</v>
       </c>
       <c r="V76">
-        <f>ROUND(属性计算!R76+W76,0)+IF(S76,VLOOKUP(S76,$S$56:$V$65,4),0)</f>
-        <v>8407</v>
-      </c>
-      <c r="W76" s="12"/>
+        <f>ROUND(属性计算!R76+W76,0)+IFERROR(VLOOKUP(S76,$S$56:$V$65,4,0),0)</f>
+        <v>27755</v>
+      </c>
+      <c r="W76" s="12">
+        <f>24135*0.15</f>
+        <v>3620.25</v>
+      </c>
     </row>
     <row r="77" spans="1:23">
       <c r="B77" t="s">
@@ -7869,8 +7905,8 @@
         <v>12</v>
       </c>
       <c r="F77">
-        <f>ROUND(属性计算!B77+G77,0)+IF(C77,VLOOKUP(C77,$S$56:$V$65,4),0)</f>
-        <v>104542</v>
+        <f>ROUND(属性计算!B77+G77,0)+IFERROR(VLOOKUP(C77,$S$56:$V$65,4,0),0)</f>
+        <v>220241</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="7"/>
@@ -7888,8 +7924,8 @@
         <v>12</v>
       </c>
       <c r="N77">
-        <f>ROUND(属性计算!J77+O77,0)+IF(K77,VLOOKUP(K77,$S$56:$V$65,4),0)</f>
-        <v>101378</v>
+        <f>ROUND(属性计算!J77+O77,0)+IFERROR(VLOOKUP(K77,$S$56:$V$65,4,0),0)</f>
+        <v>212018</v>
       </c>
       <c r="O77" s="12"/>
       <c r="P77" s="7"/>
@@ -7907,8 +7943,8 @@
         <v>12</v>
       </c>
       <c r="V77">
-        <f>ROUND(属性计算!R77+W77,0)+IF(S77,VLOOKUP(S77,$S$56:$V$65,4),0)</f>
-        <v>97318</v>
+        <f>ROUND(属性计算!R77+W77,0)+IFERROR(VLOOKUP(S77,$S$56:$V$65,4,0),0)</f>
+        <v>199469</v>
       </c>
       <c r="W77" s="12"/>
     </row>
@@ -7927,8 +7963,8 @@
         <v>12</v>
       </c>
       <c r="F78">
-        <f>ROUND(属性计算!B78+G78,0)+IF(C78,VLOOKUP(C78,$S$56:$V$65,4),0)</f>
-        <v>2004</v>
+        <f>ROUND(属性计算!B78+G78,0)+IFERROR(VLOOKUP(C78,$S$56:$V$65,4,0),0)</f>
+        <v>5743</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="7"/>
@@ -7946,8 +7982,8 @@
         <v>12</v>
       </c>
       <c r="N78">
-        <f>ROUND(属性计算!J78+O78,0)+IF(K78,VLOOKUP(K78,$S$56:$V$65,4),0)</f>
-        <v>1875</v>
+        <f>ROUND(属性计算!J78+O78,0)+IFERROR(VLOOKUP(K78,$S$56:$V$65,4,0),0)</f>
+        <v>5515</v>
       </c>
       <c r="O78" s="12"/>
       <c r="P78" s="7"/>
@@ -7965,8 +8001,8 @@
         <v>12</v>
       </c>
       <c r="V78">
-        <f>ROUND(属性计算!R78+W78,0)+IF(S78,VLOOKUP(S78,$S$56:$V$65,4),0)</f>
-        <v>1927</v>
+        <f>ROUND(属性计算!R78+W78,0)+IFERROR(VLOOKUP(S78,$S$56:$V$65,4,0),0)</f>
+        <v>4672</v>
       </c>
       <c r="W78" s="12"/>
     </row>
@@ -7985,8 +8021,8 @@
         <v>12</v>
       </c>
       <c r="F79">
-        <f>ROUND(属性计算!B79+G79,0)+IF(C79,VLOOKUP(C79,$S$56:$V$65,4),0)</f>
-        <v>1888</v>
+        <f>ROUND(属性计算!B79+G79,0)+IFERROR(VLOOKUP(C79,$S$56:$V$65,4,0),0)</f>
+        <v>5539</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="7"/>
@@ -8004,8 +8040,8 @@
         <v>12</v>
       </c>
       <c r="N79">
-        <f>ROUND(属性计算!J79+O79,0)+IF(K79,VLOOKUP(K79,$S$56:$V$65,4),0)</f>
-        <v>1971</v>
+        <f>ROUND(属性计算!J79+O79,0)+IFERROR(VLOOKUP(K79,$S$56:$V$65,4,0),0)</f>
+        <v>5686</v>
       </c>
       <c r="O79" s="12"/>
       <c r="P79" s="7"/>
@@ -8023,8 +8059,8 @@
         <v>12</v>
       </c>
       <c r="V79">
-        <f>ROUND(属性计算!R79+W79,0)+IF(S79,VLOOKUP(S79,$S$56:$V$65,4),0)</f>
-        <v>1591</v>
+        <f>ROUND(属性计算!R79+W79,0)+IFERROR(VLOOKUP(S79,$S$56:$V$65,4,0),0)</f>
+        <v>5608</v>
       </c>
       <c r="W79" s="12"/>
     </row>
@@ -8043,8 +8079,8 @@
         <v>12</v>
       </c>
       <c r="F80">
-        <f>ROUND(属性计算!B80+G80,0)+IF(C80,VLOOKUP(C80,$S$56:$V$65,4),0)</f>
-        <v>46092</v>
+        <f>ROUND(属性计算!B80+G80,0)+IFERROR(VLOOKUP(C80,$S$56:$V$65,4,0),0)</f>
+        <v>2146</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="7"/>
@@ -8062,8 +8098,8 @@
         <v>12</v>
       </c>
       <c r="N80">
-        <f>ROUND(属性计算!J80+O80,0)+IF(K80,VLOOKUP(K80,$S$56:$V$65,4),0)</f>
-        <v>46019</v>
+        <f>ROUND(属性计算!J80+O80,0)+IFERROR(VLOOKUP(K80,$S$56:$V$65,4,0),0)</f>
+        <v>2073</v>
       </c>
       <c r="O80" s="12"/>
       <c r="P80" s="7"/>
@@ -8081,8 +8117,8 @@
         <v>12</v>
       </c>
       <c r="V80">
-        <f>ROUND(属性计算!R80+W80,0)+IF(S80,VLOOKUP(S80,$S$56:$V$65,4),0)</f>
-        <v>45773</v>
+        <f>ROUND(属性计算!R80+W80,0)+IFERROR(VLOOKUP(S80,$S$56:$V$65,4,0),0)</f>
+        <v>1724</v>
       </c>
       <c r="W80" s="12"/>
     </row>
@@ -8101,8 +8137,8 @@
         <v>12</v>
       </c>
       <c r="F81">
-        <f>ROUND(属性计算!B81+G81,0)+IF(C81,VLOOKUP(C81,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!B81+G81,0)+IFERROR(VLOOKUP(C81,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="7"/>
@@ -8120,8 +8156,8 @@
         <v>12</v>
       </c>
       <c r="N81">
-        <f>ROUND(属性计算!J81+O81,0)+IF(K81,VLOOKUP(K81,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!J81+O81,0)+IFERROR(VLOOKUP(K81,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="O81" s="12"/>
       <c r="P81" s="7"/>
@@ -8139,8 +8175,8 @@
         <v>12</v>
       </c>
       <c r="V81">
-        <f>ROUND(属性计算!R81+W81,0)+IF(S81,VLOOKUP(S81,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!R81+W81,0)+IFERROR(VLOOKUP(S81,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="W81" s="12"/>
     </row>
@@ -8159,8 +8195,8 @@
         <v>12</v>
       </c>
       <c r="F82">
-        <f>ROUND(属性计算!B82+G82,0)+IF(C82,VLOOKUP(C82,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!B82+G82,0)+IFERROR(VLOOKUP(C82,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="7"/>
@@ -8178,8 +8214,8 @@
         <v>12</v>
       </c>
       <c r="N82">
-        <f>ROUND(属性计算!J82+O82,0)+IF(K82,VLOOKUP(K82,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!J82+O82,0)+IFERROR(VLOOKUP(K82,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="O82" s="12"/>
       <c r="P82" s="7"/>
@@ -8197,8 +8233,8 @@
         <v>12</v>
       </c>
       <c r="V82">
-        <f>ROUND(属性计算!R82+W82,0)+IF(S82,VLOOKUP(S82,$S$56:$V$65,4),0)</f>
-        <v>814</v>
+        <f>ROUND(属性计算!R82+W82,0)+IFERROR(VLOOKUP(S82,$S$56:$V$65,4,0),0)</f>
+        <v>1814</v>
       </c>
       <c r="W82" s="12"/>
     </row>
@@ -8217,10 +8253,12 @@
         <v>12</v>
       </c>
       <c r="F83">
-        <f>ROUND(属性计算!B83+G83,0)+IF(C83,VLOOKUP(C83,$S$56:$V$65,4),0)</f>
-        <v>1314</v>
-      </c>
-      <c r="G83" s="12"/>
+        <f>ROUND(属性计算!B83+G83,0)+IFERROR(VLOOKUP(C83,$S$56:$V$65,4,0),0)</f>
+        <v>2500</v>
+      </c>
+      <c r="G83" s="12">
+        <v>2000</v>
+      </c>
       <c r="H83" s="7"/>
       <c r="J83" t="s">
         <v>4</v>
@@ -8233,8 +8271,8 @@
         <v>暴击率</v>
       </c>
       <c r="N83">
-        <f>ROUND(属性计算!J83+O83,0)+IF(K83,VLOOKUP(K83,$S$56:$V$65,4),0)</f>
-        <v>1314</v>
+        <f>ROUND(属性计算!J83+O83,0)+IFERROR(VLOOKUP(K83,$S$56:$V$65,4,0),0)</f>
+        <v>500</v>
       </c>
       <c r="O83" s="12"/>
       <c r="P83" s="7"/>
@@ -8252,8 +8290,8 @@
         <v>12</v>
       </c>
       <c r="V83">
-        <f>ROUND(属性计算!R83+W83,0)+IF(S83,VLOOKUP(S83,$S$56:$V$65,4),0)</f>
-        <v>1314</v>
+        <f>ROUND(属性计算!R83+W83,0)+IFERROR(VLOOKUP(S83,$S$56:$V$65,4,0),0)</f>
+        <v>500</v>
       </c>
       <c r="W83" s="12"/>
     </row>
@@ -8261,33 +8299,41 @@
       <c r="B84" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="12"/>
+      <c r="C84" s="12">
+        <v>23</v>
+      </c>
       <c r="D84" t="str">
         <f>IF(C84,IFERROR(VLOOKUP(C84,属性对应量表位置!$A:$E,2,0),"其他属性"),"")</f>
-        <v/>
+        <v>抗控</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
       </c>
       <c r="F84">
-        <f>ROUND(属性计算!B84+G84,0)+IF(C84,VLOOKUP(C84,$S$56:$V$65,4),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="12"/>
+        <f>ROUND(属性计算!B84+G84,0)+IFERROR(VLOOKUP(C84,$S$56:$V$65,4,0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="G84" s="12">
+        <v>3000</v>
+      </c>
       <c r="H84" s="7"/>
       <c r="J84" t="s">
         <v>4</v>
       </c>
-      <c r="K84" s="12"/>
+      <c r="K84" s="12">
+        <v>24</v>
+      </c>
       <c r="L84" t="str">
         <f>IF(K84,IFERROR(VLOOKUP(K84,属性对应量表位置!$A:$E,2,0),"其他属性"),"")</f>
-        <v/>
+        <v>治疗</v>
       </c>
       <c r="N84">
-        <f>ROUND(属性计算!J84+O84,0)+IF(K84,VLOOKUP(K84,$S$56:$V$65,4),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O84" s="12"/>
+        <f>ROUND(属性计算!J84+O84,0)+IFERROR(VLOOKUP(K84,$S$56:$V$65,4,0),0)</f>
+        <v>2000</v>
+      </c>
+      <c r="O84" s="12">
+        <v>2000</v>
+      </c>
       <c r="P84" s="7"/>
       <c r="R84" t="s">
         <v>4</v>
@@ -8301,7 +8347,7 @@
         <v>12</v>
       </c>
       <c r="V84">
-        <f>ROUND(属性计算!R84+W84,0)+IF(S84,VLOOKUP(S84,$S$56:$V$65,4),0)</f>
+        <f>ROUND(属性计算!R84+W84,0)+IFERROR(VLOOKUP(S84,$S$56:$V$65,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="W84" s="12"/>
@@ -8319,7 +8365,7 @@
         <v>12</v>
       </c>
       <c r="F85">
-        <f>ROUND(属性计算!B85+G85,0)+IF(C85,VLOOKUP(C85,$S$56:$V$65,4),0)</f>
+        <f>ROUND(属性计算!B85+G85,0)+IFERROR(VLOOKUP(C85,$S$56:$V$65,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="G85" s="12"/>
@@ -8333,7 +8379,7 @@
         <v/>
       </c>
       <c r="N85">
-        <f>ROUND(属性计算!J85+O85,0)+IF(K85,VLOOKUP(K85,$S$56:$V$65,4),0)</f>
+        <f>ROUND(属性计算!J85+O85,0)+IFERROR(VLOOKUP(K85,$S$56:$V$65,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="O85" s="12"/>
@@ -8350,7 +8396,7 @@
         <v>12</v>
       </c>
       <c r="V85">
-        <f>ROUND(属性计算!R85+W85,0)+IF(S85,VLOOKUP(S85,$S$56:$V$65,4),0)</f>
+        <f>ROUND(属性计算!R85+W85,0)+IFERROR(VLOOKUP(S85,$S$56:$V$65,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="W85" s="12"/>
@@ -8363,7 +8409,7 @@
     <row r="91" spans="1:23">
       <c r="A91" s="73" t="str">
         <f>input!B1</f>
-        <v>[{"title":"A","num":1,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":6850},{"id":2,"value":107389},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":864},{"id":8,"value":864},{"id":20,"value":1314}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":9206},{"id":2,"value":94826},{"id":5,"value":1900},{"id":6,"value":1572},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":7625},{"id":2,"value":103379},{"id":5,"value":1888},{"id":6,"value":1992},{"id":4,"value":46077},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"C","num":5,"id":53001,"skills":[5300100,5300113,5300123,5300133,5300143],"passive_skills":[],"attrs":[{"id":1,"value":10142},{"id":2,"value":102922},{"id":5,"value":1985},{"id":6,"value":1907},{"id":4,"value":46054},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":6850},{"id":2,"value":119968},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]},{"title":"S","num":7,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":9750},{"id":2,"value":104542},{"id":5,"value":2004},{"id":6,"value":1888},{"id":4,"value":46092},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":7154},{"id":2,"value":101378},{"id":5,"value":1875},{"id":6,"value":1971},{"id":4,"value":46019},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"C","num":10,"id":23002,"skills":[2300200,2300213,2300223,2300233,2300243],"passive_skills":[],"attrs":[{"id":1,"value":8407},{"id":2,"value":97318},{"id":5,"value":1927},{"id":6,"value":1591},{"id":4,"value":45773},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"1","num":101,"id":74002,"skills":[7400205],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400105],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300105],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400205],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400105],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300105],"attrs":[]}]</v>
+        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
       </c>
       <c r="B91" s="73"/>
       <c r="C91" s="73"/>
@@ -8620,137 +8666,137 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:B10 D10:G10 A11:G25">
-    <cfRule type="expression" dxfId="9" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="64" stopIfTrue="1">
       <formula>$C$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J10 L10:O10 I11:O15 I16:M25 O16:O25">
-    <cfRule type="expression" dxfId="64" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
       <formula>$K$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:J30 L30:O30 I31:O35 I36:M45 O36:O45">
-    <cfRule type="expression" dxfId="63" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="62" stopIfTrue="1">
       <formula>$K$30=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30:R30 T30:W30 Q31:W35 Q36:U45 W36:W45">
-    <cfRule type="expression" dxfId="62" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="61" stopIfTrue="1">
       <formula>$S$30=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:G30 A30:B30 A31:G35 A36:E45 G36:G45">
-    <cfRule type="expression" dxfId="61" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
       <formula>$C$30=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:G50 A50:B50 A51:G55 A56:E65 G56:G65">
-    <cfRule type="expression" dxfId="60" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
       <formula>$C$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:O52 I50:J50 L50:O50 I54:O55 I53:M53 I56:M65 O56:O65">
-    <cfRule type="expression" dxfId="59" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="58" stopIfTrue="1">
       <formula>$K$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B70 D70:G70 A71:G75 A76:E85 G76:G85">
-    <cfRule type="expression" dxfId="58" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
       <formula>$C$70=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:J70 L70:O70 I71:O75 I76:M85 O76:O85">
-    <cfRule type="expression" dxfId="57" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
       <formula>$K$70=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q70:R70 T70:W70 Q71:W75 Q76:U85 W76:W85">
-    <cfRule type="expression" dxfId="56" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="55" stopIfTrue="1">
       <formula>$S$70=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="expression" dxfId="55" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
       <formula>$C$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53">
-    <cfRule type="expression" dxfId="54" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="53" stopIfTrue="1">
       <formula>$C$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S13">
-    <cfRule type="expression" dxfId="53" priority="15">
+    <cfRule type="expression" dxfId="52" priority="23">
       <formula>$S$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U13">
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="51" priority="22">
       <formula>$U$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W13">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="50" priority="21">
       <formula>$W$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:S53">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="49" priority="20">
       <formula>$S$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U51:U53">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="48" priority="19">
       <formula>$U$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:W53">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="47" priority="18">
       <formula>$W$50=""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F56:F65">
+    <cfRule type="expression" dxfId="46" priority="13" stopIfTrue="1">
+      <formula>$C$10=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N16:N25">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
+      <formula>$C$10=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36:N45">
+    <cfRule type="expression" dxfId="44" priority="6" stopIfTrue="1">
       <formula>$C$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F45">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>$C$10=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N36:N45">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
       <formula>$C$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:V45">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>$C$10=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F65">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="5" stopIfTrue="1">
       <formula>$C$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56:N65">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
+      <formula>$C$10=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V76:V85">
+    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
       <formula>$C$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:N85">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>$C$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F85">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$C$10=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V76:V85">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>$C$10=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8773,19 +8819,20 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:BX20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M19" sqref="M19"/>
+      <selection pane="topRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="33" max="33" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:76">
       <c r="A1" t="s">
         <v>277</v>
       </c>
@@ -8817,7 +8864,7 @@
         <v>参数5</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:76">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -8828,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H2" s="21">
         <v>2</v>
@@ -8839,10 +8886,10 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:76">
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:76">
       <c r="A5" t="s">
         <v>517</v>
       </c>
@@ -8859,10 +8906,10 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:76">
       <c r="A6" t="str">
         <f>Test!G10</f>
-        <v>腐蚀之躯 萨拉查</v>
+        <v>根须领主 伊古德拉希尔</v>
       </c>
       <c r="B6" t="str">
         <f>Test!O10</f>
@@ -8878,10 +8925,10 @@
       </c>
       <c r="E6" t="str">
         <f>Test!W30</f>
-        <v>复仇之矛 扎普尔</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
+        <v>剑圣 海洛斯</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76">
       <c r="A7" t="s">
         <v>523</v>
       </c>
@@ -8898,14 +8945,14 @@
         <v>531</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:76">
       <c r="A8" t="str">
         <f>Test!G50</f>
         <v>腐蚀之躯 萨拉查</v>
       </c>
       <c r="B8" t="str">
         <f>Test!O50</f>
-        <v>拂晓之盾 艾璐德</v>
+        <v>根须领主 伊古德拉希尔</v>
       </c>
       <c r="C8" t="str">
         <f>Test!G70</f>
@@ -8917,7 +8964,7 @@
       </c>
       <c r="E8" t="str">
         <f>Test!W70</f>
-        <v>风暴之女 伊尔露恩</v>
+        <v>小红帽 索菲亚</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -8925,28 +8972,34 @@
       <c r="M8">
         <v>13</v>
       </c>
-      <c r="W8">
-        <v>23</v>
-      </c>
-      <c r="AG8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="AC8">
+        <v>29</v>
+      </c>
+      <c r="AS8">
+        <v>47</v>
+      </c>
+      <c r="BI8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76">
       <c r="F9" s="10" t="s">
         <v>284</v>
       </c>
       <c r="M9" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="AS9" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="W9" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG9" s="10" t="s">
+      <c r="BI9" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:76">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -8981,173 +9034,350 @@
         <v>522</v>
       </c>
       <c r="R10" t="s">
+        <v>669</v>
+      </c>
+      <c r="S10" t="s">
+        <v>670</v>
+      </c>
+      <c r="T10" t="s">
+        <v>668</v>
+      </c>
+      <c r="U10" t="s">
         <v>524</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>526</v>
       </c>
-      <c r="T10" t="s">
+      <c r="W10" t="s">
         <v>528</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>530</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Y10" t="s">
         <v>532</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>668</v>
+      </c>
+      <c r="AC10" t="s">
         <v>518</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AD10" t="s">
         <v>519</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AE10" t="s">
         <v>520</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AF10" t="s">
         <v>521</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AG10" t="s">
         <v>522</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AH10" t="s">
+        <v>669</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>667</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>668</v>
+      </c>
+      <c r="AK10" t="s">
         <v>524</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AL10" t="s">
         <v>526</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AM10" t="s">
         <v>528</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AN10" t="s">
         <v>530</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AO10" t="s">
         <v>532</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AP10" t="s">
+        <v>669</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>667</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>668</v>
+      </c>
+      <c r="AS10" t="s">
         <v>518</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AT10" t="s">
         <v>519</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AU10" t="s">
         <v>520</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AV10" t="s">
         <v>521</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AW10" t="s">
         <v>522</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AX10" t="s">
+        <v>666</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>667</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>668</v>
+      </c>
+      <c r="BA10" t="s">
         <v>524</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="BB10" t="s">
         <v>526</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="BC10" t="s">
         <v>528</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="BD10" t="s">
         <v>530</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="BE10" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="BF10" t="s">
+        <v>666</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>667</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>668</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>518</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>520</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>522</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>666</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>667</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>668</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>524</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>528</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>530</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>532</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>666</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>667</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:76">
       <c r="A11" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="M11">
-        <v>14546</v>
+        <v>235452</v>
       </c>
       <c r="N11">
-        <v>15970</v>
+        <v>162026</v>
       </c>
       <c r="O11">
-        <v>133936</v>
+        <v>411338</v>
       </c>
       <c r="P11">
-        <v>2598</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>211488</v>
+        <v>405617</v>
       </c>
       <c r="R11">
-        <v>29174</v>
-      </c>
-      <c r="T11">
-        <v>32090</v>
+        <v>226980</v>
       </c>
       <c r="U11">
-        <v>17817</v>
+        <v>327834</v>
       </c>
       <c r="V11">
-        <v>10008</v>
+        <v>168088</v>
       </c>
       <c r="W11">
-        <v>9834</v>
+        <v>389125</v>
       </c>
       <c r="X11">
-        <v>3440</v>
+        <v>297086</v>
       </c>
       <c r="Y11">
-        <v>11533</v>
+        <v>235771</v>
       </c>
       <c r="Z11">
-        <v>50962</v>
-      </c>
-      <c r="AA11">
-        <v>9976</v>
-      </c>
-      <c r="AB11">
-        <v>92508</v>
+        <v>279360</v>
       </c>
       <c r="AC11">
-        <v>109534</v>
+        <v>319113</v>
       </c>
       <c r="AD11">
-        <v>84553</v>
+        <v>321935</v>
       </c>
       <c r="AE11">
-        <v>81667</v>
+        <v>236495</v>
       </c>
       <c r="AF11">
-        <v>64180</v>
+        <v>219648</v>
       </c>
       <c r="AG11">
-        <v>6232</v>
-      </c>
-      <c r="AI11">
-        <v>12582</v>
-      </c>
-      <c r="AJ11">
-        <v>31715</v>
+        <v>289019</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>378968</v>
       </c>
       <c r="AL11">
-        <v>11320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42">
+        <v>201162</v>
+      </c>
+      <c r="AM11">
+        <v>201166</v>
+      </c>
+      <c r="AN11">
+        <v>169468</v>
+      </c>
+      <c r="AO11">
+        <v>391676</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>167418</v>
+      </c>
+      <c r="AV11">
+        <v>97639</v>
+      </c>
+      <c r="AW11">
+        <v>411338</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>405617</v>
+      </c>
+      <c r="AZ11">
+        <v>226980</v>
+      </c>
+      <c r="BC11">
+        <v>165010</v>
+      </c>
+      <c r="BD11">
+        <v>118198</v>
+      </c>
+      <c r="BE11">
+        <v>389125</v>
+      </c>
+      <c r="BF11">
+        <v>232194</v>
+      </c>
+      <c r="BG11">
+        <v>235771</v>
+      </c>
+      <c r="BH11">
+        <v>279360</v>
+      </c>
+      <c r="BK11">
+        <v>68034</v>
+      </c>
+      <c r="BL11">
+        <v>64387</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>162824</v>
+      </c>
+      <c r="BT11">
+        <v>49890</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>64892</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:76">
       <c r="A12" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -9156,75 +9386,162 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="M12">
-        <v>7798</v>
+        <v>137333</v>
       </c>
       <c r="N12">
-        <v>15673</v>
+        <v>188327</v>
       </c>
       <c r="O12">
-        <v>119953</v>
+        <v>720890</v>
+      </c>
+      <c r="P12">
+        <v>115129</v>
       </c>
       <c r="Q12">
-        <v>236966</v>
+        <v>610947</v>
       </c>
       <c r="R12">
-        <v>43340</v>
-      </c>
-      <c r="T12">
-        <v>49779</v>
+        <v>296820</v>
       </c>
       <c r="U12">
-        <v>16696</v>
+        <v>301599</v>
       </c>
       <c r="V12">
-        <v>10008</v>
+        <v>133451</v>
       </c>
       <c r="W12">
-        <v>8912</v>
+        <v>251240</v>
       </c>
       <c r="X12">
-        <v>4485</v>
+        <v>224916</v>
       </c>
       <c r="Y12">
-        <v>4907</v>
+        <v>229883</v>
       </c>
       <c r="Z12">
-        <v>69757</v>
-      </c>
-      <c r="AA12">
-        <v>8870</v>
+        <v>226980</v>
       </c>
       <c r="AC12">
-        <v>73022</v>
+        <v>286199</v>
       </c>
       <c r="AD12">
-        <v>68387</v>
+        <v>260307</v>
       </c>
       <c r="AE12">
-        <v>120551</v>
+        <v>241636</v>
       </c>
       <c r="AF12">
-        <v>64180</v>
-      </c>
-      <c r="AI12">
-        <v>12582</v>
-      </c>
-      <c r="AJ12">
-        <v>25281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42">
+        <v>300808</v>
+      </c>
+      <c r="AG12">
+        <v>147886</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>427822</v>
+      </c>
+      <c r="AL12">
+        <v>291622</v>
+      </c>
+      <c r="AM12">
+        <v>284220</v>
+      </c>
+      <c r="AN12">
+        <v>212480</v>
+      </c>
+      <c r="AO12">
+        <v>479321</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>91977</v>
+      </c>
+      <c r="AV12">
+        <v>123940</v>
+      </c>
+      <c r="AW12">
+        <v>574508</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>585611</v>
+      </c>
+      <c r="AZ12">
+        <v>296820</v>
+      </c>
+      <c r="BC12">
+        <v>220187</v>
+      </c>
+      <c r="BD12">
+        <v>106239</v>
+      </c>
+      <c r="BE12">
+        <v>251240</v>
+      </c>
+      <c r="BF12">
+        <v>224916</v>
+      </c>
+      <c r="BG12">
+        <v>229883</v>
+      </c>
+      <c r="BH12">
+        <v>226980</v>
+      </c>
+      <c r="BK12">
+        <v>45356</v>
+      </c>
+      <c r="BL12">
+        <v>64387</v>
+      </c>
+      <c r="BM12">
+        <v>146382</v>
+      </c>
+      <c r="BN12">
+        <v>115129</v>
+      </c>
+      <c r="BO12">
+        <v>25336</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>81412</v>
+      </c>
+      <c r="BT12">
+        <v>27212</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:76">
       <c r="A13" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -9233,73 +9550,163 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="M13">
-        <v>7798</v>
+        <v>148945</v>
       </c>
       <c r="N13">
-        <v>6061</v>
+        <v>120340</v>
       </c>
       <c r="O13">
-        <v>189130</v>
+        <v>860593</v>
+      </c>
+      <c r="P13">
+        <v>171338</v>
       </c>
       <c r="Q13">
-        <v>150790</v>
+        <v>506594</v>
       </c>
       <c r="R13">
-        <v>50560</v>
-      </c>
-      <c r="T13">
-        <v>32090</v>
+        <v>174600</v>
       </c>
       <c r="U13">
-        <v>12131</v>
+        <v>302764</v>
       </c>
       <c r="V13">
-        <v>10008</v>
+        <v>38872</v>
       </c>
       <c r="W13">
-        <v>9957</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4485</v>
+        <v>148061</v>
       </c>
       <c r="Y13">
-        <v>11472</v>
+        <v>125614</v>
       </c>
       <c r="Z13">
-        <v>47079</v>
-      </c>
-      <c r="AA13">
-        <v>4819</v>
+        <v>87300</v>
       </c>
       <c r="AC13">
-        <v>73022</v>
+        <v>127375</v>
       </c>
       <c r="AD13">
-        <v>84553</v>
+        <v>104054</v>
       </c>
       <c r="AE13">
-        <v>77768</v>
+        <v>138437</v>
       </c>
       <c r="AF13">
-        <v>78210</v>
-      </c>
-      <c r="AI13">
-        <v>25164</v>
-      </c>
-      <c r="AJ13">
-        <v>25281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42">
+        <v>117332</v>
+      </c>
+      <c r="AG13">
+        <v>129671</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>419892</v>
+      </c>
+      <c r="AL13">
+        <v>230316</v>
+      </c>
+      <c r="AM13">
+        <v>247008</v>
+      </c>
+      <c r="AN13">
+        <v>268629</v>
+      </c>
+      <c r="AO13">
+        <v>526561</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>103589</v>
+      </c>
+      <c r="AV13">
+        <v>120340</v>
+      </c>
+      <c r="AW13">
+        <v>763005</v>
+      </c>
+      <c r="AX13">
+        <v>19948</v>
+      </c>
+      <c r="AY13">
+        <v>506594</v>
+      </c>
+      <c r="AZ13">
+        <v>174600</v>
+      </c>
+      <c r="BC13">
+        <v>221352</v>
+      </c>
+      <c r="BD13">
+        <v>38872</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>148061</v>
+      </c>
+      <c r="BG13">
+        <v>125614</v>
+      </c>
+      <c r="BH13">
+        <v>87300</v>
+      </c>
+      <c r="BK13">
+        <v>45356</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>97588</v>
+      </c>
+      <c r="BN13">
+        <v>151390</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>81412</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:76">
+      <c r="A14" t="s">
+        <v>674</v>
+      </c>
       <c r="F14">
         <v>4</v>
       </c>
@@ -9307,266 +9714,1150 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="M14">
-        <v>18854</v>
+        <v>153425</v>
       </c>
       <c r="N14">
-        <v>36252</v>
+        <v>164431</v>
       </c>
       <c r="O14">
-        <v>173448</v>
+        <v>748814</v>
       </c>
       <c r="P14">
-        <v>5290</v>
+        <v>135010</v>
       </c>
       <c r="Q14">
-        <v>171036</v>
+        <v>605925</v>
       </c>
       <c r="R14">
-        <v>30404</v>
-      </c>
-      <c r="S14">
-        <v>7059</v>
-      </c>
-      <c r="T14">
-        <v>32090</v>
+        <v>296820</v>
       </c>
       <c r="U14">
-        <v>36391</v>
+        <v>612688</v>
       </c>
       <c r="V14">
-        <v>15743</v>
+        <v>86215</v>
       </c>
       <c r="W14">
-        <v>15838</v>
+        <v>398841</v>
       </c>
       <c r="X14">
-        <v>17545</v>
+        <v>375094</v>
       </c>
       <c r="Y14">
-        <v>11472</v>
+        <v>229883</v>
       </c>
       <c r="Z14">
-        <v>60938</v>
-      </c>
-      <c r="AA14">
-        <v>15894</v>
-      </c>
-      <c r="AB14">
-        <v>136526</v>
+        <v>209520</v>
       </c>
       <c r="AC14">
-        <v>94257</v>
+        <v>284578</v>
       </c>
       <c r="AD14">
-        <v>63971</v>
+        <v>353543</v>
       </c>
       <c r="AE14">
-        <v>60499</v>
+        <v>256395</v>
       </c>
       <c r="AF14">
-        <v>100187</v>
+        <v>306814</v>
       </c>
       <c r="AG14">
-        <v>12464</v>
-      </c>
-      <c r="AI14">
-        <v>37746</v>
-      </c>
-      <c r="AJ14">
-        <v>39758</v>
+        <v>169339</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>458261</v>
+      </c>
+      <c r="AL14">
+        <v>305830</v>
       </c>
       <c r="AM14">
-        <v>17525</v>
+        <v>393411</v>
+      </c>
+      <c r="AN14">
+        <v>298992</v>
       </c>
       <c r="AO14">
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42">
+        <v>391676</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>108069</v>
+      </c>
+      <c r="AV14">
+        <v>100044</v>
+      </c>
+      <c r="AW14">
+        <v>651226</v>
+      </c>
+      <c r="AX14">
+        <v>9974</v>
+      </c>
+      <c r="AY14">
+        <v>605925</v>
+      </c>
+      <c r="AZ14">
+        <v>296820</v>
+      </c>
+      <c r="BC14">
+        <v>287040</v>
+      </c>
+      <c r="BD14">
+        <v>68075</v>
+      </c>
+      <c r="BE14">
+        <v>398841</v>
+      </c>
+      <c r="BF14">
+        <v>253422</v>
+      </c>
+      <c r="BG14">
+        <v>229883</v>
+      </c>
+      <c r="BH14">
+        <v>209520</v>
+      </c>
+      <c r="BK14">
+        <v>45356</v>
+      </c>
+      <c r="BL14">
+        <v>64387</v>
+      </c>
+      <c r="BM14">
+        <v>97588</v>
+      </c>
+      <c r="BN14">
+        <v>125036</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>325648</v>
+      </c>
+      <c r="BT14">
+        <v>18140</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>121672</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:76">
+      <c r="A15" t="s">
+        <v>675</v>
+      </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="M15">
-        <v>14468</v>
+        <v>167984</v>
       </c>
       <c r="N15">
-        <v>30267</v>
+        <v>151772</v>
       </c>
       <c r="O15">
-        <v>170502</v>
+        <v>245192</v>
       </c>
       <c r="P15">
-        <v>5290</v>
+        <v>98682</v>
       </c>
       <c r="Q15">
-        <v>229287</v>
+        <v>273260</v>
       </c>
       <c r="R15">
-        <v>33539</v>
-      </c>
-      <c r="S15">
-        <v>7059</v>
-      </c>
-      <c r="T15">
-        <v>32090</v>
+        <v>87300</v>
       </c>
       <c r="U15">
-        <v>38554</v>
+        <v>310410</v>
       </c>
       <c r="V15">
-        <v>10495</v>
+        <v>118514</v>
       </c>
       <c r="W15">
-        <v>16362</v>
+        <v>447622</v>
       </c>
       <c r="X15">
-        <v>23436</v>
+        <v>192816</v>
       </c>
       <c r="Y15">
-        <v>4907</v>
+        <v>576878</v>
       </c>
       <c r="Z15">
-        <v>58332</v>
-      </c>
-      <c r="AA15">
-        <v>18700</v>
-      </c>
-      <c r="AB15">
-        <v>128579</v>
+        <v>157140</v>
       </c>
       <c r="AC15">
-        <v>100576</v>
+        <v>273243</v>
       </c>
       <c r="AD15">
-        <v>105184</v>
+        <v>347542</v>
       </c>
       <c r="AE15">
-        <v>58628</v>
+        <v>237927</v>
       </c>
       <c r="AF15">
-        <v>100187</v>
+        <v>311103</v>
       </c>
       <c r="AG15">
-        <v>12464</v>
-      </c>
-      <c r="AI15">
-        <v>12582</v>
-      </c>
-      <c r="AJ15">
-        <v>42363</v>
+        <v>283311</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>211692</v>
+      </c>
+      <c r="AL15">
+        <v>133210</v>
       </c>
       <c r="AM15">
-        <v>17525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42">
+        <v>183706</v>
+      </c>
+      <c r="AN15">
+        <v>30181</v>
+      </c>
+      <c r="AO15">
+        <v>302688</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>122628</v>
+      </c>
+      <c r="AV15">
+        <v>87385</v>
+      </c>
+      <c r="AW15">
+        <v>245192</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>273260</v>
+      </c>
+      <c r="AZ15">
+        <v>87300</v>
+      </c>
+      <c r="BC15">
+        <v>147586</v>
+      </c>
+      <c r="BD15">
+        <v>91302</v>
+      </c>
+      <c r="BE15">
+        <v>414231</v>
+      </c>
+      <c r="BF15">
+        <v>111701</v>
+      </c>
+      <c r="BG15">
+        <v>576878</v>
+      </c>
+      <c r="BH15">
+        <v>157140</v>
+      </c>
+      <c r="BK15">
+        <v>45356</v>
+      </c>
+      <c r="BL15">
+        <v>64387</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>98682</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>162824</v>
+      </c>
+      <c r="BT15">
+        <v>27212</v>
+      </c>
+      <c r="BU15">
+        <v>33391</v>
+      </c>
+      <c r="BV15">
+        <v>81115</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:76">
+      <c r="A16" t="s">
+        <v>676</v>
+      </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="J16" t="s">
+        <v>676</v>
+      </c>
+      <c r="M16">
+        <v>256216</v>
+      </c>
+      <c r="N16">
+        <v>170480</v>
+      </c>
+      <c r="O16">
+        <v>1041794</v>
+      </c>
+      <c r="P16">
+        <v>171338</v>
+      </c>
+      <c r="Q16">
+        <v>460709</v>
+      </c>
+      <c r="R16">
+        <v>331740</v>
+      </c>
+      <c r="U16">
+        <v>786863</v>
+      </c>
+      <c r="V16">
+        <v>459442</v>
+      </c>
+      <c r="W16">
+        <v>136962</v>
+      </c>
+      <c r="X16">
+        <v>333305</v>
+      </c>
+      <c r="Y16">
+        <v>240599</v>
+      </c>
+      <c r="Z16">
+        <v>331740</v>
+      </c>
+      <c r="AC16">
+        <v>310341</v>
+      </c>
+      <c r="AD16">
+        <v>376019</v>
+      </c>
+      <c r="AE16">
+        <v>345390</v>
+      </c>
+      <c r="AF16">
+        <v>282907</v>
+      </c>
+      <c r="AG16">
+        <v>268260</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>615146</v>
+      </c>
+      <c r="AL16">
+        <v>439411</v>
+      </c>
+      <c r="AM16">
+        <v>260222</v>
+      </c>
+      <c r="AN16">
+        <v>254730</v>
+      </c>
+      <c r="AO16">
+        <v>452630</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>188182</v>
+      </c>
+      <c r="AV16">
+        <v>106093</v>
+      </c>
+      <c r="AW16">
+        <v>846618</v>
+      </c>
+      <c r="AX16">
+        <v>19948</v>
+      </c>
+      <c r="AY16">
+        <v>460709</v>
+      </c>
+      <c r="AZ16">
+        <v>331740</v>
+      </c>
+      <c r="BC16">
+        <v>379803</v>
+      </c>
+      <c r="BD16">
+        <v>278026</v>
+      </c>
+      <c r="BE16">
+        <v>136962</v>
+      </c>
+      <c r="BF16">
+        <v>284636</v>
+      </c>
+      <c r="BG16">
+        <v>240599</v>
+      </c>
+      <c r="BH16">
+        <v>331740</v>
+      </c>
+      <c r="BK16">
+        <v>68034</v>
+      </c>
+      <c r="BL16">
+        <v>64387</v>
+      </c>
+      <c r="BM16">
+        <v>195176</v>
+      </c>
+      <c r="BN16">
+        <v>151390</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>407060</v>
+      </c>
+      <c r="BT16">
+        <v>181416</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>48669</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76">
+      <c r="A17" t="s">
+        <v>677</v>
+      </c>
+      <c r="F17">
         <v>7</v>
       </c>
-      <c r="I16">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>677</v>
+      </c>
+      <c r="M17">
+        <v>131208</v>
+      </c>
+      <c r="N17">
+        <v>189503</v>
+      </c>
+      <c r="O17">
+        <v>611870</v>
+      </c>
+      <c r="P17">
+        <v>135010</v>
+      </c>
+      <c r="Q17">
+        <v>486688</v>
+      </c>
+      <c r="R17">
+        <v>209520</v>
+      </c>
+      <c r="U17">
+        <v>495986</v>
+      </c>
+      <c r="V17">
+        <v>125167</v>
+      </c>
+      <c r="W17">
+        <v>511207</v>
+      </c>
+      <c r="X17">
+        <v>300200</v>
+      </c>
+      <c r="Y17">
+        <v>229606</v>
+      </c>
+      <c r="Z17">
+        <v>314280</v>
+      </c>
+      <c r="AC17">
+        <v>333151</v>
+      </c>
+      <c r="AD17">
+        <v>355399</v>
+      </c>
+      <c r="AE17">
+        <v>410262</v>
+      </c>
+      <c r="AF17">
+        <v>286487</v>
+      </c>
+      <c r="AG17">
+        <v>269497</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>301232</v>
+      </c>
+      <c r="AL17">
+        <v>294933</v>
+      </c>
+      <c r="AM17">
+        <v>208421</v>
+      </c>
+      <c r="AN17">
+        <v>236578</v>
+      </c>
+      <c r="AO17">
+        <v>391676</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>85852</v>
+      </c>
+      <c r="AV17">
+        <v>125116</v>
+      </c>
+      <c r="AW17">
+        <v>465488</v>
+      </c>
+      <c r="AX17">
+        <v>9974</v>
+      </c>
+      <c r="AY17">
+        <v>486688</v>
+      </c>
+      <c r="AZ17">
+        <v>209520</v>
+      </c>
+      <c r="BC17">
+        <v>251750</v>
+      </c>
+      <c r="BD17">
+        <v>97955</v>
+      </c>
+      <c r="BE17">
+        <v>511207</v>
+      </c>
+      <c r="BF17">
+        <v>300200</v>
+      </c>
+      <c r="BG17">
+        <v>229606</v>
+      </c>
+      <c r="BH17">
+        <v>314280</v>
+      </c>
+      <c r="BK17">
+        <v>45356</v>
+      </c>
+      <c r="BL17">
+        <v>64387</v>
+      </c>
+      <c r="BM17">
+        <v>146382</v>
+      </c>
+      <c r="BN17">
+        <v>125036</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>244236</v>
+      </c>
+      <c r="BT17">
+        <v>27212</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:76">
+      <c r="A18" t="s">
+        <v>678</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>678</v>
+      </c>
+      <c r="M18">
+        <v>133746</v>
+      </c>
+      <c r="N18">
+        <v>158898</v>
+      </c>
+      <c r="O18">
+        <v>562654</v>
+      </c>
+      <c r="P18">
+        <v>139997</v>
+      </c>
+      <c r="Q18">
+        <v>617875</v>
+      </c>
+      <c r="R18">
+        <v>314280</v>
+      </c>
+      <c r="U18">
+        <v>471697</v>
+      </c>
+      <c r="V18">
+        <v>197230</v>
+      </c>
+      <c r="W18">
+        <v>568464</v>
+      </c>
+      <c r="X18">
+        <v>269697</v>
+      </c>
+      <c r="Y18">
+        <v>125630</v>
+      </c>
+      <c r="Z18">
+        <v>314280</v>
+      </c>
+      <c r="AC18">
+        <v>281996</v>
+      </c>
+      <c r="AD18">
+        <v>401874</v>
+      </c>
+      <c r="AE18">
+        <v>310427</v>
+      </c>
+      <c r="AF18">
+        <v>266118</v>
+      </c>
+      <c r="AG18">
+        <v>305345</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>483485</v>
+      </c>
+      <c r="AL18">
+        <v>205008</v>
+      </c>
+      <c r="AM18">
+        <v>240257</v>
+      </c>
+      <c r="AN18">
+        <v>266610</v>
+      </c>
+      <c r="AO18">
+        <v>526561</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>88390</v>
+      </c>
+      <c r="AV18">
+        <v>94511</v>
+      </c>
+      <c r="AW18">
+        <v>513860</v>
+      </c>
+      <c r="AX18">
+        <v>14961</v>
+      </c>
+      <c r="AY18">
+        <v>617875</v>
+      </c>
+      <c r="AZ18">
+        <v>314280</v>
+      </c>
+      <c r="BC18">
+        <v>227461</v>
+      </c>
+      <c r="BD18">
+        <v>138272</v>
+      </c>
+      <c r="BE18">
+        <v>568464</v>
+      </c>
+      <c r="BF18">
+        <v>269697</v>
+      </c>
+      <c r="BG18">
+        <v>125630</v>
+      </c>
+      <c r="BH18">
+        <v>314280</v>
+      </c>
+      <c r="BK18">
+        <v>45356</v>
+      </c>
+      <c r="BL18">
+        <v>64387</v>
+      </c>
+      <c r="BM18">
+        <v>48794</v>
+      </c>
+      <c r="BN18">
+        <v>125036</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>244236</v>
+      </c>
+      <c r="BT18">
+        <v>58958</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76">
+      <c r="A19" t="s">
+        <v>679</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
-        <v>650</v>
-      </c>
-      <c r="M16">
-        <v>21675</v>
-      </c>
-      <c r="N16">
-        <v>33843</v>
-      </c>
-      <c r="O16">
-        <v>75248</v>
-      </c>
-      <c r="Q16">
-        <v>221761</v>
-      </c>
-      <c r="R16">
-        <v>101120</v>
-      </c>
-      <c r="S16">
-        <v>15911</v>
-      </c>
-      <c r="T16">
-        <v>32090</v>
-      </c>
-      <c r="U16">
-        <v>40474</v>
-      </c>
-      <c r="W16">
-        <v>65000</v>
-      </c>
-      <c r="X16">
-        <v>34934</v>
-      </c>
-      <c r="Y16">
-        <v>22477</v>
-      </c>
-      <c r="Z16">
-        <v>73199</v>
-      </c>
-      <c r="AA16">
-        <v>25954</v>
-      </c>
-      <c r="AC16">
-        <v>112277</v>
-      </c>
-      <c r="AD16">
-        <v>77897</v>
-      </c>
-      <c r="AE16">
-        <v>90856</v>
-      </c>
-      <c r="AF16">
-        <v>66791</v>
-      </c>
-      <c r="AI16">
-        <v>12582</v>
-      </c>
-      <c r="AJ16">
-        <v>29495</v>
-      </c>
-      <c r="AM16">
-        <v>17525</v>
-      </c>
-      <c r="AO16">
-        <v>13276</v>
+      <c r="J19" t="s">
+        <v>679</v>
+      </c>
+      <c r="M19">
+        <v>110713</v>
+      </c>
+      <c r="N19">
+        <v>220781</v>
+      </c>
+      <c r="O19">
+        <v>614312</v>
+      </c>
+      <c r="P19">
+        <v>161364</v>
+      </c>
+      <c r="Q19">
+        <v>486688</v>
+      </c>
+      <c r="R19">
+        <v>226980</v>
+      </c>
+      <c r="U19">
+        <v>563863</v>
+      </c>
+      <c r="V19">
+        <v>294500</v>
+      </c>
+      <c r="W19">
+        <v>494007</v>
+      </c>
+      <c r="X19">
+        <v>397326</v>
+      </c>
+      <c r="Y19">
+        <v>171786</v>
+      </c>
+      <c r="Z19">
+        <v>314280</v>
+      </c>
+      <c r="AC19">
+        <v>314824</v>
+      </c>
+      <c r="AD19">
+        <v>330113</v>
+      </c>
+      <c r="AE19">
+        <v>284664</v>
+      </c>
+      <c r="AF19">
+        <v>384820</v>
+      </c>
+      <c r="AG19">
+        <v>289638</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>441665</v>
+      </c>
+      <c r="AL19">
+        <v>294416</v>
+      </c>
+      <c r="AM19">
+        <v>227043</v>
+      </c>
+      <c r="AN19">
+        <v>198379</v>
+      </c>
+      <c r="AO19">
+        <v>391676</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>65357</v>
+      </c>
+      <c r="AV19">
+        <v>156394</v>
+      </c>
+      <c r="AW19">
+        <v>516724</v>
+      </c>
+      <c r="AX19">
+        <v>9974</v>
+      </c>
+      <c r="AY19">
+        <v>486688</v>
+      </c>
+      <c r="AZ19">
+        <v>226980</v>
+      </c>
+      <c r="BC19">
+        <v>238215</v>
+      </c>
+      <c r="BD19">
+        <v>217402</v>
+      </c>
+      <c r="BE19">
+        <v>494007</v>
+      </c>
+      <c r="BF19">
+        <v>259431</v>
+      </c>
+      <c r="BG19">
+        <v>171786</v>
+      </c>
+      <c r="BH19">
+        <v>314280</v>
+      </c>
+      <c r="BK19">
+        <v>45356</v>
+      </c>
+      <c r="BL19">
+        <v>64387</v>
+      </c>
+      <c r="BM19">
+        <v>97588</v>
+      </c>
+      <c r="BN19">
+        <v>151390</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>325648</v>
+      </c>
+      <c r="BT19">
+        <v>77098</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>137895</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:76">
+      <c r="A20" t="s">
+        <v>680</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>680</v>
+      </c>
+      <c r="M20">
+        <v>160066</v>
+      </c>
+      <c r="N20">
+        <v>179479</v>
+      </c>
+      <c r="O20">
+        <v>407512</v>
+      </c>
+      <c r="P20">
+        <v>98682</v>
+      </c>
+      <c r="Q20">
+        <v>121908</v>
+      </c>
+      <c r="R20">
+        <v>87300</v>
+      </c>
+      <c r="U20">
+        <v>335288</v>
+      </c>
+      <c r="V20">
+        <v>94602</v>
+      </c>
+      <c r="W20">
+        <v>456196</v>
+      </c>
+      <c r="X20">
+        <v>228526</v>
+      </c>
+      <c r="Y20">
+        <v>699527</v>
+      </c>
+      <c r="Z20">
+        <v>174600</v>
+      </c>
+      <c r="AC20">
+        <v>273526</v>
+      </c>
+      <c r="AD20">
+        <v>441315</v>
+      </c>
+      <c r="AE20">
+        <v>330440</v>
+      </c>
+      <c r="AF20">
+        <v>322360</v>
+      </c>
+      <c r="AG20">
+        <v>296724</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>239818</v>
+      </c>
+      <c r="AL20">
+        <v>160397</v>
+      </c>
+      <c r="AM20">
+        <v>167929</v>
+      </c>
+      <c r="AN20">
+        <v>42902</v>
+      </c>
+      <c r="AO20">
+        <v>248977</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>114710</v>
+      </c>
+      <c r="AV20">
+        <v>115092</v>
+      </c>
+      <c r="AW20">
+        <v>358718</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>121908</v>
+      </c>
+      <c r="AZ20">
+        <v>87300</v>
+      </c>
+      <c r="BC20">
+        <v>172464</v>
+      </c>
+      <c r="BD20">
+        <v>76462</v>
+      </c>
+      <c r="BE20">
+        <v>456196</v>
+      </c>
+      <c r="BF20">
+        <v>147411</v>
+      </c>
+      <c r="BG20">
+        <v>699527</v>
+      </c>
+      <c r="BH20">
+        <v>174600</v>
+      </c>
+      <c r="BK20">
+        <v>45356</v>
+      </c>
+      <c r="BL20">
+        <v>64387</v>
+      </c>
+      <c r="BM20">
+        <v>48794</v>
+      </c>
+      <c r="BN20">
+        <v>98682</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>162824</v>
+      </c>
+      <c r="BT20">
+        <v>18140</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>81115</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G11:G131">
-    <cfRule type="cellIs" dxfId="10" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9578,7 +10869,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H131">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9587,8 +10878,176 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:V11 M13:V13 M15:V15 M17:V17 M19:V19 M21:V21 M23:V23 M25:V25 M27:V27 M29:V29 M31:V31 M33:V33 M35:V35 M37:V37 M39:V39 M41:V41 M43:V43 M45:V45 M47:V47 M49:V49">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="BI11:BM11 BQ11:BU11">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6DD6907-3DA0-4289-B788-EDAA9F2FBD5E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI12:BM12 BQ12:BU12">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{40D6ECDD-02A7-42D3-A631-D966D8A25C86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:Q11 U11:Y11">
+    <cfRule type="dataBar" priority="109">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0CE05A3C-41A4-444E-9530-834EA6CEF0CC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:Q12 U12:Y12">
+    <cfRule type="dataBar" priority="112">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F507426-4C4A-493F-AA8C-67224E9F7096}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:Q13 U13:Y13 M15:Q15 U15:Y15 M17:Q17 U17:Y17 M19:Q19 U19:Y19 M21:Q21 U21:Y21 M23:Q23 U23:Y23 M25:Q25 U25:Y25 M27:Q27 U27:Y27 M29:Q29 U29:Y29 M31:V31 M33:V33 M35:V35 M37:V37 M39:V39 M41:V41 M43:V43 M45:V45 M47:V47 M49:V49 M51:V51 M53:V53 M55:V55 M57:V57 M59:V59 M61:V61 M63:V63 M65:V65 M67:V67 M69:V69 M71:V71 M73:V73 M75:V75 M77:V77 M79:V79 M81:V81 M83:V83 M85:V85 M87:V87 M89:V89 M91:V91 M93:V93 M95:V95 M97:V97 M99:V99 M101:V101 M103:V103 M105:V105 M107:V107 M109:V109 M111:V111 M113:V113 M115:V115 M117:V117 M119:V119 M121:V121 M123:V123 M125:V125 M127:V127 M129:V129 M131:V131">
+    <cfRule type="dataBar" priority="115">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{74EAA01A-37A5-4A0D-9607-F24679D0E37F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:Q14 U14:Y14 M16:Q16 U16:Y16 M18:Q18 U18:Y18 M20:Q20 U20:Y20 M22:Q22 U22:Y22 M24:Q24 U24:Y24 M26:Q26 U26:Y26 M28:Q28 U28:Y28 M30:Q30 U30:Y30 M32:V32 M34:V34 M36:V36 M38:V38 M40:V40 M42:V42 M44:V44 M46:V46 M48:V48 M50:V50 M52:V52 M54:V54 M56:V56 M58:V58 M60:V60 M62:V62 M64:V64 M66:V66 M68:V68 M70:V70 M72:V72 M74:V74 M76:V76 M78:V78 M80:V80 M82:V82 M84:V84 M86:V86 M88:V88 M90:V90 M92:V92 M94:V94 M96:V96 M98:V98 M100:V100 M102:V102 M104:V104 M106:V106 M108:V108 M110:V110 M112:V112 M114:V114 M116:V116 M118:V118 M120:V120 M122:V122 M124:V124 M126:V126 M128:V128 M130:V130">
+    <cfRule type="dataBar" priority="193">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7191901D-50BF-465C-8E36-6D4BD8BF5173}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS11:AW11 BA11:BE11">
+    <cfRule type="dataBar" priority="225">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9149BD01-12A9-4302-8CB4-F7012EE82E9A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS12:AW12 BA12:BE12">
+    <cfRule type="dataBar" priority="228">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8E99AE3D-7C0B-4852-A6B9-684410F61982}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS13:AW13 BA13:BE13 AS15:AW15 BA15:BE15 AS17:AW17 BA17:BE17 AS19:AW19 BA19:BE19 AS21:AW21 BA21:BE21 AM23:AQ23 AU23:AY23 AM25:AQ25 AU25:AY25 AM27:AQ27 AU27:AY27 AM29:AQ29 AU29:AY29 W31:AF31 W33:AF33 W35:AF35 W37:AF37 W39:AF39 W41:AF41 W43:AF43 W45:AF45 W47:AF47 W49:AF49 W51:AF51 W53:AF53 W55:AF55">
+    <cfRule type="dataBar" priority="231">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D63A045D-C16B-430F-A964-DA3ED83C064F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS14:AW14 BA14:BE14 AS16:AW16 BA16:BE16 AS18:AW18 BA18:BE18 AS20:AW20 BA20:BE20 AM22:AQ22 AU22:AY22 AM24:AQ24 AU24:AY24 AM26:AQ26 AU26:AY26 AM28:AQ28 AU28:AY28 AM30:AQ30 AU30:AY30 W32:AF32 W34:AF34 W36:AF36 W38:AF38 W40:AF40 W42:AF42 W44:AF44 W46:AF46 W48:AF48 W50:AF50 W52:AF52 W54:AF54 W56:AF56">
+    <cfRule type="dataBar" priority="271">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2A51697E-FD72-4E4E-8590-3856DC5ED8BE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI13:BM13 BQ13:BU13 BI15:BM15 BQ15:BU15 BI17:BM17 BQ17:BU17 BI19:BM19 BQ19:BU19 BI21:BM21 BQ21:BU21 BC23:BG23 BK23:BO23 BC25:BG25 BK25:BO25 BC27:BG27 BK27:BO27 BC29:BG29 BK29:BO29 AG31:AL31 BH31 AZ31:BB31 AG33:AL33 BH33 AZ33:BB33 AG35:AL35 BH35 AZ35:BB35 AG37:AL37 BH37 AZ37:BB37 AG39:AL39 BH39 AZ39:BB39 AG41:AL41 BH41 AZ41:BB41 AG43:AL43 BH43 AZ43:BB43 AG45:AL45 BH45 AZ45:BB45 AG47:AL47 BH47 AZ47:BB47 AG49:AL49 BH49 AZ49:BB49 AG51:AL51 BH51 AZ51:BB51 AG53:AL53 BH53 AZ53:BB53 AG55:AL55 BH55 AZ55:BB55 AG57:AL57 BH57 AZ57:BB57 AG59:AL59 BH59 AZ59:BB59">
+    <cfRule type="dataBar" priority="274">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{281C2890-D81B-4C82-962D-41180862EAC3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI14:BM14 BQ14:BU14 BI16:BM16 BQ16:BU16 BI18:BM18 BQ18:BU18 BI20:BM20 BQ20:BU20 BC22:BG22 BK22:BO22 BC24:BG24 BK24:BO24 BC26:BG26 BK26:BO26 BC28:BG28 BK28:BO28 BC30:BG30 BK30:BO30 AG32:AL32 BH32 AZ32:BB32 AG34:AL34 BH34 AZ34:BB34 AG36:AL36 BH36 AZ36:BB36 AG38:AL38 BH38 AZ38:BB38 AG40:AL40 BH40 AZ40:BB40 AG42:AL42 BH42 AZ42:BB42 AG44:AL44 BH44 AZ44:BB44 AG46:AL46 BH46 AZ46:BB46 AG48:AL48 BH48 AZ48:BB48 AG50:AL50 BH50 AZ50:BB50 AG52:AL52 BH52 AZ52:BB52 AG54:AL54 BH54 AZ54:BB54 AG56:AL56 BH56 AZ56:BB56 AG58:AL58 BH58 AZ58:BB58">
+    <cfRule type="dataBar" priority="328">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D8B127D7-D307-4835-A2F0-7FCDDD1B3246}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11:AG11 AK11:AO11 AC13:AG13 AK13:AO13 AC15:AG15 AK15:AO15 AC17:AG17 AK17:AO17 AC19:AG19 AK19:AO19 AC21:AG21 AK21:AO21 AC23:AL23 AC25:AL25 AC27:AL27 AC29:AL29">
+    <cfRule type="dataBar" priority="331">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9601,8 +11060,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:V12 M14:V14 M16:V16 M18:V18 M20:V20 M22:V22 M24:V24 M26:V26 M28:V28 M30:V30 M32:V32 M34:V34 M36:V36 M38:V38 M40:V40 M42:V42 M44:V44 M46:V46 M48:V48 M50:V50">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="AC12:AG12 AK12:AO12 AC14:AG14 AK14:AO14 AC16:AG16 AK16:AO16 AC18:AG18 AK18:AO18 AC20:AG20 AK20:AO20 AC22:AL22 AC24:AL24 AC26:AL26 AC28:AL28 AC30:AL30">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9615,123 +11074,159 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11:AF11">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9149BD01-12A9-4302-8CB4-F7012EE82E9A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W12:AF12">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E99AE3D-7C0B-4852-A6B9-684410F61982}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13:AF13 W15:AF15 W17:AF17 W19:AF19 W21:AF21 W23:AF23 W25:AF25 W27:AF27 W29:AF29 W31:AF31 W33:AF33 W35:AF35 W37:AF37 W39:AF39 W41:AF41 W43:AF43 W45:AF45 W47:AF47 W49:AF49 W51:AF51 W53:AF53 W55:AF55">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D63A045D-C16B-430F-A964-DA3ED83C064F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W14:AF14 W16:AF16 W18:AF18 W20:AF20 W22:AF22 W24:AF24 W26:AF26 W28:AF28 W30:AF30 W32:AF32 W34:AF34 W36:AF36 W38:AF38 W40:AF40 W42:AF42 W44:AF44 W46:AF46 W48:AF48 W50:AF50 W52:AF52 W54:AF54 W56:AF56">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2A51697E-FD72-4E4E-8590-3856DC5ED8BE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11:AP11">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C6DD6907-3DA0-4289-B788-EDAA9F2FBD5E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG12:AP12">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40D6ECDD-02A7-42D3-A631-D966D8A25C86}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13:AP13 AG15:AP15 AG17:AP17 AG19:AP19 AG21:AP21 AG23:AP23 AG25:AP25 AG27:AP27 AG29:AP29 AG31:AP31 AG33:AP33 AG35:AP35 AG37:AP37 AG39:AP39 AG41:AP41 AG43:AP43 AG45:AP45 AG47:AP47 AG49:AP49 AG51:AP51 AG53:AP53 AG55:AP55 AG57:AP57 AG59:AP59">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{281C2890-D81B-4C82-962D-41180862EAC3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14:AP14 AG16:AP16 AG18:AP18 AG20:AP20 AG22:AP22 AG24:AP24 AG26:AP26 AG28:AP28 AG30:AP30 AG32:AP32 AG34:AP34 AG36:AP36 AG38:AP38 AG40:AP40 AG42:AP42 AG44:AP44 AG46:AP46 AG48:AP48 AG50:AP50 AG52:AP52 AG54:AP54 AG56:AP56 AG58:AP58">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D8B127D7-D307-4835-A2F0-7FCDDD1B3246}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6DD6907-3DA0-4289-B788-EDAA9F2FBD5E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BI11:BM11 BQ11:BU11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{40D6ECDD-02A7-42D3-A631-D966D8A25C86}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BI12:BM12 BQ12:BU12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0CE05A3C-41A4-444E-9530-834EA6CEF0CC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M11:Q11 U11:Y11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F507426-4C4A-493F-AA8C-67224E9F7096}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M12:Q12 U12:Y12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{74EAA01A-37A5-4A0D-9607-F24679D0E37F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M13:Q13 U13:Y13 M15:Q15 U15:Y15 M17:Q17 U17:Y17 M19:Q19 U19:Y19 M21:Q21 U21:Y21 M23:Q23 U23:Y23 M25:Q25 U25:Y25 M27:Q27 U27:Y27 M29:Q29 U29:Y29 M31:V31 M33:V33 M35:V35 M37:V37 M39:V39 M41:V41 M43:V43 M45:V45 M47:V47 M49:V49 M51:V51 M53:V53 M55:V55 M57:V57 M59:V59 M61:V61 M63:V63 M65:V65 M67:V67 M69:V69 M71:V71 M73:V73 M75:V75 M77:V77 M79:V79 M81:V81 M83:V83 M85:V85 M87:V87 M89:V89 M91:V91 M93:V93 M95:V95 M97:V97 M99:V99 M101:V101 M103:V103 M105:V105 M107:V107 M109:V109 M111:V111 M113:V113 M115:V115 M117:V117 M119:V119 M121:V121 M123:V123 M125:V125 M127:V127 M129:V129 M131:V131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7191901D-50BF-465C-8E36-6D4BD8BF5173}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M14:Q14 U14:Y14 M16:Q16 U16:Y16 M18:Q18 U18:Y18 M20:Q20 U20:Y20 M22:Q22 U22:Y22 M24:Q24 U24:Y24 M26:Q26 U26:Y26 M28:Q28 U28:Y28 M30:Q30 U30:Y30 M32:V32 M34:V34 M36:V36 M38:V38 M40:V40 M42:V42 M44:V44 M46:V46 M48:V48 M50:V50 M52:V52 M54:V54 M56:V56 M58:V58 M60:V60 M62:V62 M64:V64 M66:V66 M68:V68 M70:V70 M72:V72 M74:V74 M76:V76 M78:V78 M80:V80 M82:V82 M84:V84 M86:V86 M88:V88 M90:V90 M92:V92 M94:V94 M96:V96 M98:V98 M100:V100 M102:V102 M104:V104 M106:V106 M108:V108 M110:V110 M112:V112 M114:V114 M116:V116 M118:V118 M120:V120 M122:V122 M124:V124 M126:V126 M128:V128 M130:V130</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9149BD01-12A9-4302-8CB4-F7012EE82E9A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AS11:AW11 BA11:BE11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8E99AE3D-7C0B-4852-A6B9-684410F61982}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AS12:AW12 BA12:BE12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D63A045D-C16B-430F-A964-DA3ED83C064F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AS13:AW13 BA13:BE13 AS15:AW15 BA15:BE15 AS17:AW17 BA17:BE17 AS19:AW19 BA19:BE19 AS21:AW21 BA21:BE21 AM23:AQ23 AU23:AY23 AM25:AQ25 AU25:AY25 AM27:AQ27 AU27:AY27 AM29:AQ29 AU29:AY29 W31:AF31 W33:AF33 W35:AF35 W37:AF37 W39:AF39 W41:AF41 W43:AF43 W45:AF45 W47:AF47 W49:AF49 W51:AF51 W53:AF53 W55:AF55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2A51697E-FD72-4E4E-8590-3856DC5ED8BE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AS14:AW14 BA14:BE14 AS16:AW16 BA16:BE16 AS18:AW18 BA18:BE18 AS20:AW20 BA20:BE20 AM22:AQ22 AU22:AY22 AM24:AQ24 AU24:AY24 AM26:AQ26 AU26:AY26 AM28:AQ28 AU28:AY28 AM30:AQ30 AU30:AY30 W32:AF32 W34:AF34 W36:AF36 W38:AF38 W40:AF40 W42:AF42 W44:AF44 W46:AF46 W48:AF48 W50:AF50 W52:AF52 W54:AF54 W56:AF56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{281C2890-D81B-4C82-962D-41180862EAC3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BI13:BM13 BQ13:BU13 BI15:BM15 BQ15:BU15 BI17:BM17 BQ17:BU17 BI19:BM19 BQ19:BU19 BI21:BM21 BQ21:BU21 BC23:BG23 BK23:BO23 BC25:BG25 BK25:BO25 BC27:BG27 BK27:BO27 BC29:BG29 BK29:BO29 AG31:AL31 BH31 AZ31:BB31 AG33:AL33 BH33 AZ33:BB33 AG35:AL35 BH35 AZ35:BB35 AG37:AL37 BH37 AZ37:BB37 AG39:AL39 BH39 AZ39:BB39 AG41:AL41 BH41 AZ41:BB41 AG43:AL43 BH43 AZ43:BB43 AG45:AL45 BH45 AZ45:BB45 AG47:AL47 BH47 AZ47:BB47 AG49:AL49 BH49 AZ49:BB49 AG51:AL51 BH51 AZ51:BB51 AG53:AL53 BH53 AZ53:BB53 AG55:AL55 BH55 AZ55:BB55 AG57:AL57 BH57 AZ57:BB57 AG59:AL59 BH59 AZ59:BB59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D8B127D7-D307-4835-A2F0-7FCDDD1B3246}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BI14:BM14 BQ14:BU14 BI16:BM16 BQ16:BU16 BI18:BM18 BQ18:BU18 BI20:BM20 BQ20:BU20 BC22:BG22 BK22:BO22 BC24:BG24 BK24:BO24 BC26:BG26 BK26:BO26 BC28:BG28 BK28:BO28 BC30:BG30 BK30:BO30 AG32:AL32 BH32 AZ32:BB32 AG34:AL34 BH34 AZ34:BB34 AG36:AL36 BH36 AZ36:BB36 AG38:AL38 BH38 AZ38:BB38 AG40:AL40 BH40 AZ40:BB40 AG42:AL42 BH42 AZ42:BB42 AG44:AL44 BH44 AZ44:BB44 AG46:AL46 BH46 AZ46:BB46 AG48:AL48 BH48 AZ48:BB48 AG50:AL50 BH50 AZ50:BB50 AG52:AL52 BH52 AZ52:BB52 AG54:AL54 BH54 AZ54:BB54 AG56:AL56 BH56 AZ56:BB56 AG58:AL58 BH58 AZ58:BB58</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49233E1B-2B0A-4C5B-8EBC-CACAD68EFD78}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -9743,7 +11238,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M11:V11 M13:V13 M15:V15 M17:V17 M19:V19 M21:V21 M23:V23 M25:V25 M27:V27 M29:V29 M31:V31 M33:V33 M35:V35 M37:V37 M39:V39 M41:V41 M43:V43 M45:V45 M47:V47 M49:V49</xm:sqref>
+          <xm:sqref>AC11:AG11 AK11:AO11 AC13:AG13 AK13:AO13 AC15:AG15 AK15:AO15 AC17:AG17 AK17:AO17 AC19:AG19 AK19:AO19 AC21:AG21 AK21:AO21 AC23:AL23 AC25:AL25 AC27:AL27 AC29:AL29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD28434E-AD91-4AA7-86E3-C9A570535BE8}">
@@ -9756,103 +11251,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M12:V12 M14:V14 M16:V16 M18:V18 M20:V20 M22:V22 M24:V24 M26:V26 M28:V28 M30:V30 M32:V32 M34:V34 M36:V36 M38:V38 M40:V40 M42:V42 M44:V44 M46:V46 M48:V48 M50:V50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9149BD01-12A9-4302-8CB4-F7012EE82E9A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>W11:AF11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8E99AE3D-7C0B-4852-A6B9-684410F61982}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>W12:AF12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D63A045D-C16B-430F-A964-DA3ED83C064F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>W13:AF13 W15:AF15 W17:AF17 W19:AF19 W21:AF21 W23:AF23 W25:AF25 W27:AF27 W29:AF29 W31:AF31 W33:AF33 W35:AF35 W37:AF37 W39:AF39 W41:AF41 W43:AF43 W45:AF45 W47:AF47 W49:AF49 W51:AF51 W53:AF53 W55:AF55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2A51697E-FD72-4E4E-8590-3856DC5ED8BE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>W14:AF14 W16:AF16 W18:AF18 W20:AF20 W22:AF22 W24:AF24 W26:AF26 W28:AF28 W30:AF30 W32:AF32 W34:AF34 W36:AF36 W38:AF38 W40:AF40 W42:AF42 W44:AF44 W46:AF46 W48:AF48 W50:AF50 W52:AF52 W54:AF54 W56:AF56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C6DD6907-3DA0-4289-B788-EDAA9F2FBD5E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AG11:AP11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40D6ECDD-02A7-42D3-A631-D966D8A25C86}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AG12:AP12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{281C2890-D81B-4C82-962D-41180862EAC3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AG13:AP13 AG15:AP15 AG17:AP17 AG19:AP19 AG21:AP21 AG23:AP23 AG25:AP25 AG27:AP27 AG29:AP29 AG31:AP31 AG33:AP33 AG35:AP35 AG37:AP37 AG39:AP39 AG41:AP41 AG43:AP43 AG45:AP45 AG47:AP47 AG49:AP49 AG51:AP51 AG53:AP53 AG55:AP55 AG57:AP57 AG59:AP59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D8B127D7-D307-4835-A2F0-7FCDDD1B3246}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AG14:AP14 AG16:AP16 AG18:AP18 AG20:AP20 AG22:AP22 AG24:AP24 AG26:AP26 AG28:AP28 AG30:AP30 AG32:AP32 AG34:AP34 AG36:AP36 AG38:AP38 AG40:AP40 AG42:AP42 AG44:AP44 AG46:AP46 AG48:AP48 AG50:AP50 AG52:AP52 AG54:AP54 AG56:AP56 AG58:AP58</xm:sqref>
+          <xm:sqref>AC12:AG12 AK12:AO12 AC14:AG14 AK14:AO14 AC16:AG16 AK16:AO16 AC18:AG18 AK18:AO18 AC20:AG20 AK20:AO20 AC22:AL22 AC24:AL24 AC26:AL26 AC28:AL28 AC30:AL30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9888,7 +11287,7 @@
       </c>
       <c r="B1" s="74" t="str">
         <f>"["&amp;CONCATENATE(IF(A10="","",A20),IF(I10="","",I20),IF(A30="","",A40),IF(I30="","",I40),IF(Q30="","",Q40))&amp;CONCATENATE(",",IF(A50="","",A60),IF(I50="","",I60),IF(A70="","",A80),IF(I70="","",I80),IF(Q70="","",Q80))&amp;CONCATENATE(IF(Q10="","",Q20),IF(S10="","",S20),IF(U10="","",U20))&amp;CONCATENATE(IF(Q50="","",Q60),IF(S50="","",S60),IF(U50="","",U60))&amp;"]"</f>
-        <v>[{"title":"A","num":1,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":6850},{"id":2,"value":107389},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":864},{"id":8,"value":864},{"id":20,"value":1314}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":9206},{"id":2,"value":94826},{"id":5,"value":1900},{"id":6,"value":1572},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":7625},{"id":2,"value":103379},{"id":5,"value":1888},{"id":6,"value":1992},{"id":4,"value":46077},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"C","num":5,"id":53001,"skills":[5300100,5300113,5300123,5300133,5300143],"passive_skills":[],"attrs":[{"id":1,"value":10142},{"id":2,"value":102922},{"id":5,"value":1985},{"id":6,"value":1907},{"id":4,"value":46054},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":6850},{"id":2,"value":119968},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]},{"title":"S","num":7,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":9750},{"id":2,"value":104542},{"id":5,"value":2004},{"id":6,"value":1888},{"id":4,"value":46092},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":7154},{"id":2,"value":101378},{"id":5,"value":1875},{"id":6,"value":1971},{"id":4,"value":46019},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"C","num":10,"id":23002,"skills":[2300200,2300213,2300223,2300233,2300243],"passive_skills":[],"attrs":[{"id":1,"value":8407},{"id":2,"value":97318},{"id":5,"value":1927},{"id":6,"value":1591},{"id":4,"value":45773},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"1","num":101,"id":74002,"skills":[7400205],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400105],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300105],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400205],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400105],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300105],"attrs":[]}]</v>
+        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
       </c>
       <c r="C1" s="74"/>
       <c r="D1" s="74"/>
@@ -10164,7 +11563,7 @@
     <row r="12" spans="1:25">
       <c r="A12" t="str">
         <f>$A$3&amp;":"&amp;Test!C12&amp;","</f>
-        <v>"id":31002,</v>
+        <v>"id":21003,</v>
       </c>
       <c r="I12" t="str">
         <f>$A$3&amp;":"&amp;Test!K12&amp;","</f>
@@ -10186,27 +11585,27 @@
     <row r="13" spans="1:25">
       <c r="A13" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;B13&amp;C13&amp;D13&amp;E13&amp;F13&amp;"],"</f>
-        <v>"skills":[3100200,3100213,3100223,3100233,3100243],</v>
+        <v>"skills":[2100300,2100313,2100323,2100333,2100343],</v>
       </c>
       <c r="B13" s="5">
         <f>IF(Test!C13,Test!C13,"")</f>
-        <v>3100200</v>
+        <v>2100300</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>IF(Test!D13,","&amp;Test!D13,"")</f>
-        <v>,3100213</v>
+        <v>,2100313</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>IF(Test!E13,","&amp;Test!E13,"")</f>
-        <v>,3100223</v>
+        <v>,2100323</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>IF(Test!F13,","&amp;Test!F13,"")</f>
-        <v>,3100233</v>
+        <v>,2100333</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>IF(Test!G13,","&amp;Test!G13,"")</f>
-        <v>,3100243</v>
+        <v>,2100343</v>
       </c>
       <c r="I13" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;"],"</f>
@@ -10234,27 +11633,27 @@
       </c>
       <c r="Q13" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;R13&amp;R14&amp;"],"</f>
-        <v>"skills":[7400205],</v>
+        <v>"skills":[7400210],</v>
       </c>
       <c r="R13" s="5">
         <f>IF(Test!S13,Test!S13,"")</f>
-        <v>7400205</v>
+        <v>7400210</v>
       </c>
       <c r="S13" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;T13&amp;T14&amp;"],"</f>
-        <v>"skills":[7400105],</v>
+        <v>"skills":[7400110],</v>
       </c>
       <c r="T13" s="5">
         <f>IF(Test!U13,Test!U13,"")</f>
-        <v>7400105</v>
+        <v>7400110</v>
       </c>
       <c r="U13" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;V13&amp;V14&amp;"],"</f>
-        <v>"skills":[7300105],</v>
+        <v>"skills":[7300110],</v>
       </c>
       <c r="V13" s="5">
         <f>IF(Test!W13,Test!W13,"")</f>
-        <v>7300105</v>
+        <v>7300110</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -10322,11 +11721,11 @@
     <row r="15" spans="1:25">
       <c r="A15" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;B16&amp;B17&amp;B18&amp;B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24&amp;B25&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":6850},{"id":2,"value":107389},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]</v>
+        <v>"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]</v>
       </c>
       <c r="I15" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;J16&amp;J17&amp;J18&amp;J19&amp;J20&amp;J21&amp;J22&amp;J23&amp;J24&amp;J25&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":864},{"id":8,"value":864},{"id":20,"value":1314}]</v>
+        <v>"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]</v>
       </c>
       <c r="Q15" s="72" t="s">
         <v>639</v>
@@ -10341,97 +11740,97 @@
     <row r="16" spans="1:25">
       <c r="B16" s="5" t="str">
         <f>IF(Test!F16,"{"&amp;$A$3&amp;":"&amp;Test!C16&amp;","&amp;$A$8&amp;":"&amp;Test!F16&amp;"}","")&amp;IF(B17="","",",")</f>
-        <v>{"id":1,"value":6850},</v>
+        <v>{"id":1,"value":18702},</v>
       </c>
       <c r="J16" s="5" t="str">
         <f>IF(Test!N16,"{"&amp;$A$3&amp;":"&amp;Test!K16&amp;","&amp;$A$8&amp;":"&amp;Test!N16&amp;"}","")&amp;IF(J17="","",",")</f>
-        <v>{"id":1,"value":6844},</v>
+        <v>{"id":1,"value":19842},</v>
       </c>
       <c r="R16" s="5" t="str">
         <f>IF(Test!V16,"{"&amp;$A$3&amp;":"&amp;Test!S16&amp;","&amp;$A$8&amp;":"&amp;Test!V16&amp;"}","")&amp;IF(R17="","",",")</f>
-        <v>{"id":1,"value":1622},</v>
+        <v>{"id":1,"value":6336},</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="B17" s="5" t="str">
         <f>IF(Test!F17,"{"&amp;$A$3&amp;":"&amp;Test!C17&amp;","&amp;$A$8&amp;":"&amp;Test!F17&amp;"}","")&amp;IF(B18="","",",")</f>
-        <v>{"id":2,"value":107389},</v>
+        <v>{"id":2,"value":223463},</v>
       </c>
       <c r="J17" s="5" t="str">
         <f>IF(Test!N17,"{"&amp;$A$3&amp;":"&amp;Test!K17&amp;","&amp;$A$8&amp;":"&amp;Test!N17&amp;"}","")&amp;IF(J18="","",",")</f>
-        <v>{"id":2,"value":114599},</v>
+        <v>{"id":2,"value":257548},</v>
       </c>
       <c r="R17" s="5" t="str">
         <f>IF(Test!V17,"{"&amp;$A$3&amp;":"&amp;Test!S17&amp;","&amp;$A$8&amp;":"&amp;Test!V17&amp;"}","")&amp;IF(R18="","",",")</f>
-        <v>{"id":2,"value":44496},</v>
+        <v>{"id":2,"value":65438},</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="B18" s="5" t="str">
         <f>IF(Test!F18,"{"&amp;$A$3&amp;":"&amp;Test!C18&amp;","&amp;$A$8&amp;":"&amp;Test!F18&amp;"}","")&amp;IF(B19="","",",")</f>
-        <v>{"id":5,"value":2359},</v>
+        <v>{"id":5,"value":6667},</v>
       </c>
       <c r="J18" s="5" t="str">
         <f>IF(Test!N18,"{"&amp;$A$3&amp;":"&amp;Test!K18&amp;","&amp;$A$8&amp;":"&amp;Test!N18&amp;"}","")&amp;IF(J19="","",",")</f>
-        <v>{"id":5,"value":2308},</v>
+        <v>{"id":5,"value":6610},</v>
       </c>
       <c r="R18" s="5" t="str">
         <f>IF(Test!V18,"{"&amp;$A$3&amp;":"&amp;Test!S18&amp;","&amp;$A$8&amp;":"&amp;Test!V18&amp;"}","")&amp;IF(R19="","",",")</f>
-        <v>{"id":5,"value":404},</v>
+        <v>{"id":5,"value":1600},</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="B19" s="5" t="str">
         <f>IF(Test!F19,"{"&amp;$A$3&amp;":"&amp;Test!C19&amp;","&amp;$A$8&amp;":"&amp;Test!F19&amp;"}","")&amp;IF(B20="","",",")</f>
-        <v>{"id":6,"value":1591},</v>
+        <v>{"id":6,"value":4672},</v>
       </c>
       <c r="J19" s="5" t="str">
         <f>IF(Test!N19,"{"&amp;$A$3&amp;":"&amp;Test!K19&amp;","&amp;$A$8&amp;":"&amp;Test!N19&amp;"}","")&amp;IF(J20="","",",")</f>
-        <v>{"id":6,"value":1558},</v>
+        <v>{"id":6,"value":4627},</v>
       </c>
       <c r="R19" s="5" t="str">
         <f>IF(Test!V19,"{"&amp;$A$3&amp;":"&amp;Test!S19&amp;","&amp;$A$8&amp;":"&amp;Test!V19&amp;"}","")&amp;IF(R20="","",",")</f>
-        <v>{"id":6,"value":404},</v>
+        <v>{"id":6,"value":1600},</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="6" t="str">
         <f>CONCATENATE("{",A10,A11,A12,A13,A14,A15,"}")</f>
-        <v>{"title":"A","num":1,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":6850},{"id":2,"value":107389},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]}</v>
+        <v>{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]}</v>
       </c>
       <c r="B20" s="5" t="str">
         <f>IF(Test!F20,"{"&amp;$A$3&amp;":"&amp;Test!C20&amp;","&amp;$A$8&amp;":"&amp;Test!F20&amp;"}","")&amp;IF(B21="","",",")</f>
-        <v>{"id":4,"value":46000},</v>
+        <v>{"id":4,"value":1739},</v>
       </c>
       <c r="I20" s="6" t="str">
         <f>CONCATENATE(I21,"{",I10,I11,I12,I13,I14,I15,"}")</f>
-        <v>,{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":864},{"id":8,"value":864},{"id":20,"value":1314}]}</v>
+        <v>,{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]}</v>
       </c>
       <c r="J20" s="5" t="str">
         <f>IF(Test!N20,"{"&amp;$A$3&amp;":"&amp;Test!K20&amp;","&amp;$A$8&amp;":"&amp;Test!N20&amp;"}","")&amp;IF(J21="","",",")</f>
-        <v>{"id":4,"value":46023},</v>
+        <v>{"id":4,"value":2077},</v>
       </c>
       <c r="Q20" s="6" t="str">
         <f>CONCATENATE(Q21,"{",Q10,Q11,Q12,Q13,Q14,Q15,"}")</f>
-        <v>,{"title":"1","num":101,"id":74002,"skills":[7400205],"attrs":[]}</v>
+        <v>,{"title":"1","num":101,"id":74002,"skills":[7400210],"attrs":[]}</v>
       </c>
       <c r="R20" s="5" t="str">
         <f>IF(Test!V20,"{"&amp;$A$3&amp;":"&amp;Test!S20&amp;","&amp;$A$8&amp;":"&amp;Test!V20&amp;"}","")&amp;IF(R21="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="S20" s="6" t="str">
         <f>CONCATENATE(S21,"{",S10,S11,S12,S13,S14,S15,"}")</f>
-        <v>,{"title":"2","num":102,"id":74001,"skills":[7400105],"attrs":[]}</v>
+        <v>,{"title":"2","num":102,"id":74001,"skills":[7400110],"attrs":[]}</v>
       </c>
       <c r="U20" s="6" t="str">
         <f>CONCATENATE(U21,"{",U10,U11,U12,U13,U14,U15,"}")</f>
-        <v>,{"title":"3","num":103,"id":73001,"skills":[7300105],"attrs":[]}</v>
+        <v>,{"title":"3","num":103,"id":73001,"skills":[7300110],"attrs":[]}</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="B21" s="5" t="str">
         <f>IF(Test!F21,"{"&amp;$A$3&amp;":"&amp;Test!C21&amp;","&amp;$A$8&amp;":"&amp;Test!F21&amp;"}","")&amp;IF(B22="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="I21" s="10" t="str">
         <f>IF(A10="","",",")</f>
@@ -10439,7 +11838,7 @@
       </c>
       <c r="J21" s="5" t="str">
         <f>IF(Test!N21,"{"&amp;$A$3&amp;":"&amp;Test!K21&amp;","&amp;$A$8&amp;":"&amp;Test!N21&amp;"}","")&amp;IF(J22="","",",")</f>
-        <v>{"id":7,"value":864},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="Q21" s="10" t="str">
         <f>","</f>
@@ -10447,7 +11846,7 @@
       </c>
       <c r="R21" s="5" t="str">
         <f>IF(Test!V21,"{"&amp;$A$3&amp;":"&amp;Test!S21&amp;","&amp;$A$8&amp;":"&amp;Test!V21&amp;"}","")&amp;IF(R22="","",",")</f>
-        <v>{"id":8,"value":814}</v>
+        <v>{"id":8,"value":1814}</v>
       </c>
       <c r="S21" s="10" t="str">
         <f>IF(Q10="","",",")</f>
@@ -10461,11 +11860,11 @@
     <row r="22" spans="1:21">
       <c r="B22" s="5" t="str">
         <f>IF(Test!F22,"{"&amp;$A$3&amp;":"&amp;Test!C22&amp;","&amp;$A$8&amp;":"&amp;Test!F22&amp;"}","")&amp;IF(B23="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
       <c r="J22" s="5" t="str">
         <f>IF(Test!N22,"{"&amp;$A$3&amp;":"&amp;Test!K22&amp;","&amp;$A$8&amp;":"&amp;Test!N22&amp;"}","")&amp;IF(J23="","",",")</f>
-        <v>{"id":8,"value":864},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
       <c r="R22" s="5" t="str">
         <f>IF(Test!V22,"{"&amp;$A$3&amp;":"&amp;Test!S22&amp;","&amp;$A$8&amp;":"&amp;Test!V22&amp;"}","")&amp;IF(R23="","",",")</f>
@@ -10475,11 +11874,11 @@
     <row r="23" spans="1:21">
       <c r="B23" s="5" t="str">
         <f>IF(Test!F23,"{"&amp;$A$3&amp;":"&amp;Test!C23&amp;","&amp;$A$8&amp;":"&amp;Test!F23&amp;"}","")&amp;IF(B24="","",",")</f>
-        <v>{"id":20,"value":1314},</v>
+        <v>{"id":20,"value":500},</v>
       </c>
       <c r="J23" s="5" t="str">
         <f>IF(Test!N23,"{"&amp;$A$3&amp;":"&amp;Test!K23&amp;","&amp;$A$8&amp;":"&amp;Test!N23&amp;"}","")&amp;IF(J24="","",",")</f>
-        <v>{"id":20,"value":1314}</v>
+        <v>{"id":20,"value":500}</v>
       </c>
       <c r="R23" s="5" t="str">
         <f>IF(Test!V23,"{"&amp;$A$3&amp;":"&amp;Test!S23&amp;","&amp;$A$8&amp;":"&amp;Test!V23&amp;"}","")&amp;IF(R24="","",",")</f>
@@ -10489,7 +11888,7 @@
     <row r="24" spans="1:21">
       <c r="B24" s="5" t="str">
         <f>IF(Test!F24,"{"&amp;$A$3&amp;":"&amp;Test!C24&amp;","&amp;$A$8&amp;":"&amp;Test!F24&amp;"}","")&amp;IF(B25="","",",")</f>
-        <v>{"id":25,"value":2814}</v>
+        <v>{"id":24,"value":2000}</v>
       </c>
       <c r="J24" s="5" t="str">
         <f>IF(Test!N24,"{"&amp;$A$3&amp;":"&amp;Test!K24&amp;","&amp;$A$8&amp;":"&amp;Test!N24&amp;"}","")&amp;IF(J25="","",",")</f>
@@ -10553,7 +11952,7 @@
       </c>
       <c r="Q32" t="str">
         <f>$A$3&amp;":"&amp;Test!S32&amp;","</f>
-        <v>"id":53001,</v>
+        <v>"id":43002,</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -10607,27 +12006,27 @@
       </c>
       <c r="Q33" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;R33&amp;S33&amp;T33&amp;U33&amp;V33&amp;"],"</f>
-        <v>"skills":[5300100,5300113,5300123,5300133,5300143],</v>
+        <v>"skills":[4300200,4300213,4300223,4300233,4300243],</v>
       </c>
       <c r="R33" s="5">
         <f>IF(Test!S33,Test!S33,"")</f>
-        <v>5300100</v>
+        <v>4300200</v>
       </c>
       <c r="S33" s="5" t="str">
         <f>IF(Test!T33,","&amp;Test!T33,"")</f>
-        <v>,5300113</v>
+        <v>,4300213</v>
       </c>
       <c r="T33" s="5" t="str">
         <f>IF(Test!U33,","&amp;Test!U33,"")</f>
-        <v>,5300123</v>
+        <v>,4300223</v>
       </c>
       <c r="U33" s="5" t="str">
         <f>IF(Test!V33,","&amp;Test!V33,"")</f>
-        <v>,5300133</v>
+        <v>,4300233</v>
       </c>
       <c r="V33" s="5" t="str">
         <f>IF(Test!W33,","&amp;Test!W33,"")</f>
-        <v>,5300143</v>
+        <v>,4300243</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -10707,97 +12106,97 @@
     <row r="35" spans="1:22">
       <c r="A35" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;B36&amp;B37&amp;B38&amp;B39&amp;B40&amp;B41&amp;B42&amp;B43&amp;B44&amp;B45&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":9206},{"id":2,"value":94826},{"id":5,"value":1900},{"id":6,"value":1572},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]</v>
+        <v>"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]</v>
       </c>
       <c r="I35" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;J36&amp;J37&amp;J38&amp;J39&amp;J40&amp;J41&amp;J42&amp;J43&amp;J44&amp;J45&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":7625},{"id":2,"value":103379},{"id":5,"value":1888},{"id":6,"value":1992},{"id":4,"value":46077},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]</v>
+        <v>"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]</v>
       </c>
       <c r="Q35" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;R36&amp;R37&amp;R38&amp;R39&amp;R40&amp;R41&amp;R42&amp;R43&amp;R44&amp;R45&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":10142},{"id":2,"value":102922},{"id":5,"value":1985},{"id":6,"value":1907},{"id":4,"value":46054},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]</v>
+        <v>"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="B36" s="5" t="str">
         <f>IF(Test!F36,"{"&amp;$A$3&amp;":"&amp;Test!C36&amp;","&amp;$A$8&amp;":"&amp;Test!F36&amp;"}","")&amp;IF(B37="","",",")</f>
-        <v>{"id":1,"value":9206},</v>
+        <v>{"id":1,"value":25989},</v>
       </c>
       <c r="J36" s="5" t="str">
         <f>IF(Test!N36,"{"&amp;$A$3&amp;":"&amp;Test!K36&amp;","&amp;$A$8&amp;":"&amp;Test!N36&amp;"}","")&amp;IF(J37="","",",")</f>
-        <v>{"id":1,"value":7625},</v>
+        <v>{"id":1,"value":21879},</v>
       </c>
       <c r="R36" s="5" t="str">
         <f>IF(Test!V36,"{"&amp;$A$3&amp;":"&amp;Test!S36&amp;","&amp;$A$8&amp;":"&amp;Test!V36&amp;"}","")&amp;IF(R37="","",",")</f>
-        <v>{"id":1,"value":10142},</v>
+        <v>{"id":1,"value":27279},</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="B37" s="5" t="str">
         <f>IF(Test!F37,"{"&amp;$A$3&amp;":"&amp;Test!C37&amp;","&amp;$A$8&amp;":"&amp;Test!F37&amp;"}","")&amp;IF(B38="","",",")</f>
-        <v>{"id":2,"value":94826},</v>
+        <v>{"id":2,"value":195176},</v>
       </c>
       <c r="J37" s="5" t="str">
         <f>IF(Test!N37,"{"&amp;$A$3&amp;":"&amp;Test!K37&amp;","&amp;$A$8&amp;":"&amp;Test!N37&amp;"}","")&amp;IF(J38="","",",")</f>
-        <v>{"id":2,"value":103379},</v>
+        <v>{"id":2,"value":217199},</v>
       </c>
       <c r="R37" s="5" t="str">
         <f>IF(Test!V37,"{"&amp;$A$3&amp;":"&amp;Test!S37&amp;","&amp;$A$8&amp;":"&amp;Test!V37&amp;"}","")&amp;IF(R38="","",",")</f>
-        <v>{"id":2,"value":102922},</v>
+        <v>{"id":2,"value":220241},</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="B38" s="5" t="str">
         <f>IF(Test!F38,"{"&amp;$A$3&amp;":"&amp;Test!C38&amp;","&amp;$A$8&amp;":"&amp;Test!F38&amp;"}","")&amp;IF(B39="","",",")</f>
-        <v>{"id":5,"value":1900},</v>
+        <v>{"id":5,"value":5560},</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>IF(Test!N38,"{"&amp;$A$3&amp;":"&amp;Test!K38&amp;","&amp;$A$8&amp;":"&amp;Test!N38&amp;"}","")&amp;IF(J39="","",",")</f>
-        <v>{"id":5,"value":1888},</v>
+        <v>{"id":5,"value":5539},</v>
       </c>
       <c r="R38" s="5" t="str">
         <f>IF(Test!V38,"{"&amp;$A$3&amp;":"&amp;Test!S38&amp;","&amp;$A$8&amp;":"&amp;Test!V38&amp;"}","")&amp;IF(R39="","",",")</f>
-        <v>{"id":5,"value":1985},</v>
+        <v>{"id":5,"value":5743},</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="5" t="str">
         <f>IF(Test!F39,"{"&amp;$A$3&amp;":"&amp;Test!C39&amp;","&amp;$A$8&amp;":"&amp;Test!F39&amp;"}","")&amp;IF(B40="","",",")</f>
-        <v>{"id":6,"value":1572},</v>
+        <v>{"id":6,"value":4651},</v>
       </c>
       <c r="J39" s="5" t="str">
         <f>IF(Test!N39,"{"&amp;$A$3&amp;":"&amp;Test!K39&amp;","&amp;$A$8&amp;":"&amp;Test!N39&amp;"}","")&amp;IF(J40="","",",")</f>
-        <v>{"id":6,"value":1992},</v>
+        <v>{"id":6,"value":5722},</v>
       </c>
       <c r="R39" s="5" t="str">
         <f>IF(Test!V39,"{"&amp;$A$3&amp;":"&amp;Test!S39&amp;","&amp;$A$8&amp;":"&amp;Test!V39&amp;"}","")&amp;IF(R40="","",",")</f>
-        <v>{"id":6,"value":1907},</v>
+        <v>{"id":6,"value":5539},</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="6" t="str">
         <f>CONCATENATE(A41,"{",A30,A31,A32,A33,A34,A35,"}")</f>
-        <v>,{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":9206},{"id":2,"value":94826},{"id":5,"value":1900},{"id":6,"value":1572},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]}</v>
+        <v>,{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]}</v>
       </c>
       <c r="B40" s="5" t="str">
         <f>IF(Test!F40,"{"&amp;$A$3&amp;":"&amp;Test!C40&amp;","&amp;$A$8&amp;":"&amp;Test!F40&amp;"}","")&amp;IF(B41="","",",")</f>
-        <v>{"id":4,"value":46000},</v>
+        <v>{"id":4,"value":2054},</v>
       </c>
       <c r="I40" s="6" t="str">
         <f>CONCATENATE(I41,"{",I30,I31,I32,I33,I34,I35,"}")</f>
-        <v>,{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":7625},{"id":2,"value":103379},{"id":5,"value":1888},{"id":6,"value":1992},{"id":4,"value":46077},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]}</v>
+        <v>,{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]}</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>IF(Test!N40,"{"&amp;$A$3&amp;":"&amp;Test!K40&amp;","&amp;$A$8&amp;":"&amp;Test!N40&amp;"}","")&amp;IF(J41="","",",")</f>
-        <v>{"id":4,"value":46077},</v>
+        <v>{"id":4,"value":2131},</v>
       </c>
       <c r="Q40" s="6" t="str">
         <f>CONCATENATE(Q41,"{",Q30,Q31,Q32,Q33,Q34,Q35,"}")</f>
-        <v>,{"title":"C","num":5,"id":53001,"skills":[5300100,5300113,5300123,5300133,5300143],"passive_skills":[],"attrs":[{"id":1,"value":10142},{"id":2,"value":102922},{"id":5,"value":1985},{"id":6,"value":1907},{"id":4,"value":46054},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]}</v>
+        <v>,{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]}</v>
       </c>
       <c r="R40" s="5" t="str">
         <f>IF(Test!V40,"{"&amp;$A$3&amp;":"&amp;Test!S40&amp;","&amp;$A$8&amp;":"&amp;Test!V40&amp;"}","")&amp;IF(R41="","",",")</f>
-        <v>{"id":4,"value":46054},</v>
+        <v>{"id":4,"value":2146},</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -10807,7 +12206,7 @@
       </c>
       <c r="B41" s="5" t="str">
         <f>IF(Test!F41,"{"&amp;$A$3&amp;":"&amp;Test!C41&amp;","&amp;$A$8&amp;":"&amp;Test!F41&amp;"}","")&amp;IF(B42="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="I41" s="10" t="str">
         <f>IF(AND(A10="",I10="",A30=""),"",",")</f>
@@ -10815,7 +12214,7 @@
       </c>
       <c r="J41" s="5" t="str">
         <f>IF(Test!N41,"{"&amp;$A$3&amp;":"&amp;Test!K41&amp;","&amp;$A$8&amp;":"&amp;Test!N41&amp;"}","")&amp;IF(J42="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="Q41" s="10" t="str">
         <f>IF(AND(A10="",I10="",A30="",I30=""),"",",")</f>
@@ -10823,35 +12222,35 @@
       </c>
       <c r="R41" s="5" t="str">
         <f>IF(Test!V41,"{"&amp;$A$3&amp;":"&amp;Test!S41&amp;","&amp;$A$8&amp;":"&amp;Test!V41&amp;"}","")&amp;IF(R42="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="B42" s="5" t="str">
         <f>IF(Test!F42,"{"&amp;$A$3&amp;":"&amp;Test!C42&amp;","&amp;$A$8&amp;":"&amp;Test!F42&amp;"}","")&amp;IF(B43="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
       <c r="J42" s="5" t="str">
         <f>IF(Test!N42,"{"&amp;$A$3&amp;":"&amp;Test!K42&amp;","&amp;$A$8&amp;":"&amp;Test!N42&amp;"}","")&amp;IF(J43="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
       <c r="R42" s="5" t="str">
         <f>IF(Test!V42,"{"&amp;$A$3&amp;":"&amp;Test!S42&amp;","&amp;$A$8&amp;":"&amp;Test!V42&amp;"}","")&amp;IF(R43="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="B43" s="5" t="str">
         <f>IF(Test!F43,"{"&amp;$A$3&amp;":"&amp;Test!C43&amp;","&amp;$A$8&amp;":"&amp;Test!F43&amp;"}","")&amp;IF(B44="","",",")</f>
-        <v>{"id":20,"value":1314}</v>
+        <v>{"id":20,"value":2500}</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>IF(Test!N43,"{"&amp;$A$3&amp;":"&amp;Test!K43&amp;","&amp;$A$8&amp;":"&amp;Test!N43&amp;"}","")&amp;IF(J44="","",",")</f>
-        <v>{"id":20,"value":1314}</v>
+        <v>{"id":20,"value":500},</v>
       </c>
       <c r="R43" s="5" t="str">
         <f>IF(Test!V43,"{"&amp;$A$3&amp;":"&amp;Test!S43&amp;","&amp;$A$8&amp;":"&amp;Test!V43&amp;"}","")&amp;IF(R44="","",",")</f>
-        <v>{"id":20,"value":1314}</v>
+        <v>{"id":20,"value":2500},</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -10861,11 +12260,11 @@
       </c>
       <c r="J44" s="5" t="str">
         <f>IF(Test!N44,"{"&amp;$A$3&amp;":"&amp;Test!K44&amp;","&amp;$A$8&amp;":"&amp;Test!N44&amp;"}","")&amp;IF(J45="","",",")</f>
-        <v/>
+        <v>{"id":23,"value":2000}</v>
       </c>
       <c r="R44" s="5" t="str">
         <f>IF(Test!V44,"{"&amp;$A$3&amp;":"&amp;Test!S44&amp;","&amp;$A$8&amp;":"&amp;Test!V44&amp;"}","")&amp;IF(R45="","",",")</f>
-        <v/>
+        <v>{"id":23,"value":3000}</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -10933,7 +12332,7 @@
       </c>
       <c r="I52" t="str">
         <f>$A$3&amp;":"&amp;Test!K52&amp;","</f>
-        <v>"id":11004,</v>
+        <v>"id":21003,</v>
       </c>
       <c r="Q52" t="str">
         <f>$A$3&amp;":"&amp;Test!S52&amp;","</f>
@@ -10975,51 +12374,51 @@
       </c>
       <c r="I53" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;J53&amp;K53&amp;L53&amp;M53&amp;N53&amp;"],"</f>
-        <v>"skills":[1100400,1100413,1100423,1100433,1100443],</v>
+        <v>"skills":[2100300,2100313,2100323,2100333,2100343],</v>
       </c>
       <c r="J53" s="5">
         <f>IF(Test!K53,Test!K53,"")</f>
-        <v>1100400</v>
+        <v>2100300</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>IF(Test!L53,","&amp;Test!L53,"")</f>
-        <v>,1100413</v>
+        <v>,2100313</v>
       </c>
       <c r="L53" s="5" t="str">
         <f>IF(Test!M53,","&amp;Test!M53,"")</f>
-        <v>,1100423</v>
+        <v>,2100323</v>
       </c>
       <c r="M53" s="5" t="str">
         <f>IF(Test!N53,","&amp;Test!N53,"")</f>
-        <v>,1100433</v>
+        <v>,2100333</v>
       </c>
       <c r="N53" s="5" t="str">
         <f>IF(Test!O53,","&amp;Test!O53,"")</f>
-        <v>,1100443</v>
+        <v>,2100343</v>
       </c>
       <c r="Q53" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;R53&amp;R54&amp;"],"</f>
-        <v>"skills":[7400205],</v>
+        <v>"skills":[7400210],</v>
       </c>
       <c r="R53" s="5">
         <f>IF(Test!S53,Test!S53,"")</f>
-        <v>7400205</v>
+        <v>7400210</v>
       </c>
       <c r="S53" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;T53&amp;T54&amp;"],"</f>
-        <v>"skills":[7400105],</v>
+        <v>"skills":[7400110],</v>
       </c>
       <c r="T53" s="5">
         <f>IF(Test!U53,Test!U53,"")</f>
-        <v>7400105</v>
+        <v>7400110</v>
       </c>
       <c r="U53" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;V53&amp;V54&amp;"],"</f>
-        <v>"skills":[7300105],</v>
+        <v>"skills":[7300110],</v>
       </c>
       <c r="V53" s="5">
         <f>IF(Test!W53,Test!W53,"")</f>
-        <v>7300105</v>
+        <v>7300110</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -11087,11 +12486,11 @@
     <row r="55" spans="1:22">
       <c r="A55" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;B56&amp;B57&amp;B58&amp;B59&amp;B60&amp;B61&amp;B62&amp;B63&amp;B64&amp;B65&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":6850},{"id":2,"value":119968},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]</v>
+        <v>"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]</v>
       </c>
       <c r="I55" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;J65&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]</v>
+        <v>"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]</v>
       </c>
       <c r="Q55" s="72" t="s">
         <v>639</v>
@@ -11106,97 +12505,97 @@
     <row r="56" spans="1:22">
       <c r="B56" s="5" t="str">
         <f>IF(Test!F56,"{"&amp;$A$3&amp;":"&amp;Test!C56&amp;","&amp;$A$8&amp;":"&amp;Test!F56&amp;"}","")&amp;IF(B57="","",",")</f>
-        <v>{"id":1,"value":6850},</v>
+        <v>{"id":1,"value":19851},</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>IF(Test!N56,"{"&amp;$A$3&amp;":"&amp;Test!K56&amp;","&amp;$A$8&amp;":"&amp;Test!N56&amp;"}","")&amp;IF(J57="","",",")</f>
-        <v>{"id":1,"value":6844},</v>
+        <v>{"id":1,"value":18702},</v>
       </c>
       <c r="R56" s="5" t="str">
         <f>IF(Test!V56,"{"&amp;$A$3&amp;":"&amp;Test!S56&amp;","&amp;$A$8&amp;":"&amp;Test!V56&amp;"}","")&amp;IF(R57="","",",")</f>
-        <v>{"id":1,"value":1622},</v>
+        <v>{"id":1,"value":6336},</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="B57" s="5" t="str">
         <f>IF(Test!F57,"{"&amp;$A$3&amp;":"&amp;Test!C57&amp;","&amp;$A$8&amp;":"&amp;Test!F57&amp;"}","")&amp;IF(B58="","",",")</f>
-        <v>{"id":2,"value":119968},</v>
+        <v>{"id":2,"value":271379},</v>
       </c>
       <c r="J57" s="5" t="str">
         <f>IF(Test!N57,"{"&amp;$A$3&amp;":"&amp;Test!K57&amp;","&amp;$A$8&amp;":"&amp;Test!N57&amp;"}","")&amp;IF(J58="","",",")</f>
-        <v>{"id":2,"value":114599},</v>
+        <v>{"id":2,"value":223463},</v>
       </c>
       <c r="R57" s="5" t="str">
         <f>IF(Test!V57,"{"&amp;$A$3&amp;":"&amp;Test!S57&amp;","&amp;$A$8&amp;":"&amp;Test!V57&amp;"}","")&amp;IF(R58="","",",")</f>
-        <v>{"id":2,"value":44496},</v>
+        <v>{"id":2,"value":65438},</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="5" t="str">
         <f>IF(Test!F58,"{"&amp;$A$3&amp;":"&amp;Test!C58&amp;","&amp;$A$8&amp;":"&amp;Test!F58&amp;"}","")&amp;IF(B59="","",",")</f>
-        <v>{"id":5,"value":2359},</v>
+        <v>{"id":5,"value":6700},</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>IF(Test!N58,"{"&amp;$A$3&amp;":"&amp;Test!K58&amp;","&amp;$A$8&amp;":"&amp;Test!N58&amp;"}","")&amp;IF(J59="","",",")</f>
-        <v>{"id":5,"value":2308},</v>
+        <v>{"id":5,"value":6667},</v>
       </c>
       <c r="R58" s="5" t="str">
         <f>IF(Test!V58,"{"&amp;$A$3&amp;":"&amp;Test!S58&amp;","&amp;$A$8&amp;":"&amp;Test!V58&amp;"}","")&amp;IF(R59="","",",")</f>
-        <v>{"id":5,"value":404},</v>
+        <v>{"id":5,"value":1600},</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="B59" s="5" t="str">
         <f>IF(Test!F59,"{"&amp;$A$3&amp;":"&amp;Test!C59&amp;","&amp;$A$8&amp;":"&amp;Test!F59&amp;"}","")&amp;IF(B60="","",",")</f>
-        <v>{"id":6,"value":1591},</v>
+        <v>{"id":6,"value":4684},</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>IF(Test!N59,"{"&amp;$A$3&amp;":"&amp;Test!K59&amp;","&amp;$A$8&amp;":"&amp;Test!N59&amp;"}","")&amp;IF(J60="","",",")</f>
-        <v>{"id":6,"value":1558},</v>
+        <v>{"id":6,"value":4672},</v>
       </c>
       <c r="R59" s="5" t="str">
         <f>IF(Test!V59,"{"&amp;$A$3&amp;":"&amp;Test!S59&amp;","&amp;$A$8&amp;":"&amp;Test!V59&amp;"}","")&amp;IF(R60="","",",")</f>
-        <v>{"id":6,"value":404},</v>
+        <v>{"id":6,"value":1600},</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="6" t="str">
         <f>CONCATENATE("{",A50,A51,A52,A53,A54,A55,"}")</f>
-        <v>{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":6850},{"id":2,"value":119968},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]}</v>
+        <v>{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]}</v>
       </c>
       <c r="B60" s="5" t="str">
         <f>IF(Test!F60,"{"&amp;$A$3&amp;":"&amp;Test!C60&amp;","&amp;$A$8&amp;":"&amp;Test!F60&amp;"}","")&amp;IF(B61="","",",")</f>
-        <v>{"id":4,"value":46000},</v>
+        <v>{"id":4,"value":2054},</v>
       </c>
       <c r="I60" s="6" t="str">
         <f>CONCATENATE(I61,"{",I50,I51,I52,I53,I54,I55,"}")</f>
-        <v>,{"title":"S","num":7,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]}</v>
+        <v>,{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]}</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>IF(Test!N60,"{"&amp;$A$3&amp;":"&amp;Test!K60&amp;","&amp;$A$8&amp;":"&amp;Test!N60&amp;"}","")&amp;IF(J61="","",",")</f>
-        <v>{"id":4,"value":46023},</v>
+        <v>{"id":4,"value":1739},</v>
       </c>
       <c r="Q60" s="6" t="str">
         <f>CONCATENATE(Q61,"{",Q50,Q51,Q52,Q53,Q54,Q55,"}")</f>
-        <v>,{"title":"1","num":104,"id":74002,"skills":[7400205],"attrs":[]}</v>
+        <v>,{"title":"1","num":104,"id":74002,"skills":[7400210],"attrs":[]}</v>
       </c>
       <c r="R60" s="5" t="str">
         <f>IF(Test!V60,"{"&amp;$A$3&amp;":"&amp;Test!S60&amp;","&amp;$A$8&amp;":"&amp;Test!V60&amp;"}","")&amp;IF(R61="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="S60" s="6" t="str">
         <f>CONCATENATE(S61,"{",S50,S51,S52,S53,S54,S55,"}")</f>
-        <v>,{"title":"2","num":105,"id":74001,"skills":[7400105],"attrs":[]}</v>
+        <v>,{"title":"2","num":105,"id":74001,"skills":[7400110],"attrs":[]}</v>
       </c>
       <c r="U60" s="6" t="str">
         <f>CONCATENATE(U61,"{",U50,U51,U52,U53,U54,U55,"}")</f>
-        <v>,{"title":"3","num":106,"id":73002,"skills":[7300105],"attrs":[]}</v>
+        <v>,{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="5" t="str">
         <f>IF(Test!F61,"{"&amp;$A$3&amp;":"&amp;Test!C61&amp;","&amp;$A$8&amp;":"&amp;Test!F61&amp;"}","")&amp;IF(B62="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="I61" s="10" t="str">
         <f>IF(A50="","",",")</f>
@@ -11204,7 +12603,7 @@
       </c>
       <c r="J61" s="5" t="str">
         <f>IF(Test!N61,"{"&amp;$A$3&amp;":"&amp;Test!K61&amp;","&amp;$A$8&amp;":"&amp;Test!N61&amp;"}","")&amp;IF(J62="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="Q61" s="10" t="str">
         <f>","</f>
@@ -11212,7 +12611,7 @@
       </c>
       <c r="R61" s="5" t="str">
         <f>IF(Test!V61,"{"&amp;$A$3&amp;":"&amp;Test!S61&amp;","&amp;$A$8&amp;":"&amp;Test!V61&amp;"}","")&amp;IF(R62="","",",")</f>
-        <v>{"id":8,"value":814}</v>
+        <v>{"id":8,"value":1814}</v>
       </c>
       <c r="S61" s="10" t="str">
         <f>IF(Q50="","",",")</f>
@@ -11226,11 +12625,11 @@
     <row r="62" spans="1:22">
       <c r="B62" s="5" t="str">
         <f>IF(Test!F62,"{"&amp;$A$3&amp;":"&amp;Test!C62&amp;","&amp;$A$8&amp;":"&amp;Test!F62&amp;"}","")&amp;IF(B63="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>IF(Test!N62,"{"&amp;$A$3&amp;":"&amp;Test!K62&amp;","&amp;$A$8&amp;":"&amp;Test!N62&amp;"}","")&amp;IF(J63="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
       <c r="R62" s="5" t="str">
         <f>IF(Test!V62,"{"&amp;$A$3&amp;":"&amp;Test!S62&amp;","&amp;$A$8&amp;":"&amp;Test!V62&amp;"}","")&amp;IF(R63="","",",")</f>
@@ -11240,11 +12639,11 @@
     <row r="63" spans="1:22">
       <c r="B63" s="5" t="str">
         <f>IF(Test!F63,"{"&amp;$A$3&amp;":"&amp;Test!C63&amp;","&amp;$A$8&amp;":"&amp;Test!F63&amp;"}","")&amp;IF(B64="","",",")</f>
-        <v>{"id":20,"value":1314},</v>
+        <v>{"id":20,"value":500},</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>IF(Test!N63,"{"&amp;$A$3&amp;":"&amp;Test!K63&amp;","&amp;$A$8&amp;":"&amp;Test!N63&amp;"}","")&amp;IF(J64="","",",")</f>
-        <v>{"id":20,"value":1314}</v>
+        <v>{"id":20,"value":500},</v>
       </c>
       <c r="R63" s="5" t="str">
         <f>IF(Test!V63,"{"&amp;$A$3&amp;":"&amp;Test!S63&amp;","&amp;$A$8&amp;":"&amp;Test!V63&amp;"}","")&amp;IF(R64="","",",")</f>
@@ -11254,11 +12653,11 @@
     <row r="64" spans="1:22">
       <c r="B64" s="5" t="str">
         <f>IF(Test!F64,"{"&amp;$A$3&amp;":"&amp;Test!C64&amp;","&amp;$A$8&amp;":"&amp;Test!F64&amp;"}","")&amp;IF(B65="","",",")</f>
-        <v>{"id":25,"value":2814}</v>
+        <v>{"id":25,"value":2000}</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>IF(Test!N64,"{"&amp;$A$3&amp;":"&amp;Test!K64&amp;","&amp;$A$8&amp;":"&amp;Test!N64&amp;"}","")&amp;IF(J65="","",",")</f>
-        <v/>
+        <v>{"id":24,"value":2000}</v>
       </c>
       <c r="R64" s="5" t="str">
         <f>IF(Test!V64,"{"&amp;$A$3&amp;":"&amp;Test!S64&amp;","&amp;$A$8&amp;":"&amp;Test!V64&amp;"}","")&amp;IF(R65="","",",")</f>
@@ -11318,7 +12717,7 @@
       </c>
       <c r="Q72" t="str">
         <f>$A$3&amp;":"&amp;Test!S72&amp;","</f>
-        <v>"id":23002,</v>
+        <v>"id":32001,</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -11372,27 +12771,27 @@
       </c>
       <c r="Q73" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;R73&amp;S73&amp;T73&amp;U73&amp;V73&amp;"],"</f>
-        <v>"skills":[2300200,2300213,2300223,2300233,2300243],</v>
+        <v>"skills":[3200100,3200113,3200123,3200133,3200143],</v>
       </c>
       <c r="R73" s="5">
         <f>IF(Test!S73,Test!S73,"")</f>
-        <v>2300200</v>
+        <v>3200100</v>
       </c>
       <c r="S73" s="5" t="str">
         <f>IF(Test!T73,","&amp;Test!T73,"")</f>
-        <v>,2300213</v>
+        <v>,3200113</v>
       </c>
       <c r="T73" s="5" t="str">
         <f>IF(Test!U73,","&amp;Test!U73,"")</f>
-        <v>,2300223</v>
+        <v>,3200123</v>
       </c>
       <c r="U73" s="5" t="str">
         <f>IF(Test!V73,","&amp;Test!V73,"")</f>
-        <v>,2300233</v>
+        <v>,3200133</v>
       </c>
       <c r="V73" s="5" t="str">
         <f>IF(Test!W73,","&amp;Test!W73,"")</f>
-        <v>,2300243</v>
+        <v>,3200143</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -11472,97 +12871,97 @@
     <row r="75" spans="1:22">
       <c r="A75" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;B76&amp;B77&amp;B78&amp;B79&amp;B80&amp;B81&amp;B82&amp;B83&amp;B84&amp;B85&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":9750},{"id":2,"value":104542},{"id":5,"value":2004},{"id":6,"value":1888},{"id":4,"value":46092},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]</v>
+        <v>"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]</v>
       </c>
       <c r="I75" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;J76&amp;J77&amp;J78&amp;J79&amp;J80&amp;J81&amp;J82&amp;J83&amp;J84&amp;J85&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":7154},{"id":2,"value":101378},{"id":5,"value":1875},{"id":6,"value":1971},{"id":4,"value":46019},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]</v>
+        <v>"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]</v>
       </c>
       <c r="Q75" t="str">
         <f>$A$6&amp;":"&amp;"["&amp;R76&amp;R77&amp;R78&amp;R79&amp;R80&amp;R81&amp;R82&amp;R83&amp;R84&amp;R85&amp;"]"</f>
-        <v>"attrs":[{"id":1,"value":8407},{"id":2,"value":97318},{"id":5,"value":1927},{"id":6,"value":1591},{"id":4,"value":45773},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]</v>
+        <v>"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="B76" s="5" t="str">
         <f>IF(Test!F76,"{"&amp;$A$3&amp;":"&amp;Test!C76&amp;","&amp;$A$8&amp;":"&amp;Test!F76&amp;"}","")&amp;IF(B77="","",",")</f>
-        <v>{"id":1,"value":9750},</v>
+        <v>{"id":1,"value":27279},</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>IF(Test!N76,"{"&amp;$A$3&amp;":"&amp;Test!K76&amp;","&amp;$A$8&amp;":"&amp;Test!N76&amp;"}","")&amp;IF(J77="","",",")</f>
-        <v>{"id":1,"value":7154},</v>
+        <v>{"id":1,"value":20718},</v>
       </c>
       <c r="R76" s="5" t="str">
         <f>IF(Test!V76,"{"&amp;$A$3&amp;":"&amp;Test!S76&amp;","&amp;$A$8&amp;":"&amp;Test!V76&amp;"}","")&amp;IF(R77="","",",")</f>
-        <v>{"id":1,"value":8407},</v>
+        <v>{"id":1,"value":27755},</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="B77" s="5" t="str">
         <f>IF(Test!F77,"{"&amp;$A$3&amp;":"&amp;Test!C77&amp;","&amp;$A$8&amp;":"&amp;Test!F77&amp;"}","")&amp;IF(B78="","",",")</f>
-        <v>{"id":2,"value":104542},</v>
+        <v>{"id":2,"value":220241},</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>IF(Test!N77,"{"&amp;$A$3&amp;":"&amp;Test!K77&amp;","&amp;$A$8&amp;":"&amp;Test!N77&amp;"}","")&amp;IF(J78="","",",")</f>
-        <v>{"id":2,"value":101378},</v>
+        <v>{"id":2,"value":212018},</v>
       </c>
       <c r="R77" s="5" t="str">
         <f>IF(Test!V77,"{"&amp;$A$3&amp;":"&amp;Test!S77&amp;","&amp;$A$8&amp;":"&amp;Test!V77&amp;"}","")&amp;IF(R78="","",",")</f>
-        <v>{"id":2,"value":97318},</v>
+        <v>{"id":2,"value":199469},</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="B78" s="5" t="str">
         <f>IF(Test!F78,"{"&amp;$A$3&amp;":"&amp;Test!C78&amp;","&amp;$A$8&amp;":"&amp;Test!F78&amp;"}","")&amp;IF(B79="","",",")</f>
-        <v>{"id":5,"value":2004},</v>
+        <v>{"id":5,"value":5743},</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>IF(Test!N78,"{"&amp;$A$3&amp;":"&amp;Test!K78&amp;","&amp;$A$8&amp;":"&amp;Test!N78&amp;"}","")&amp;IF(J79="","",",")</f>
-        <v>{"id":5,"value":1875},</v>
+        <v>{"id":5,"value":5515},</v>
       </c>
       <c r="R78" s="5" t="str">
         <f>IF(Test!V78,"{"&amp;$A$3&amp;":"&amp;Test!S78&amp;","&amp;$A$8&amp;":"&amp;Test!V78&amp;"}","")&amp;IF(R79="","",",")</f>
-        <v>{"id":5,"value":1927},</v>
+        <v>{"id":5,"value":4672},</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="B79" s="5" t="str">
         <f>IF(Test!F79,"{"&amp;$A$3&amp;":"&amp;Test!C79&amp;","&amp;$A$8&amp;":"&amp;Test!F79&amp;"}","")&amp;IF(B80="","",",")</f>
-        <v>{"id":6,"value":1888},</v>
+        <v>{"id":6,"value":5539},</v>
       </c>
       <c r="J79" s="5" t="str">
         <f>IF(Test!N79,"{"&amp;$A$3&amp;":"&amp;Test!K79&amp;","&amp;$A$8&amp;":"&amp;Test!N79&amp;"}","")&amp;IF(J80="","",",")</f>
-        <v>{"id":6,"value":1971},</v>
+        <v>{"id":6,"value":5686},</v>
       </c>
       <c r="R79" s="5" t="str">
         <f>IF(Test!V79,"{"&amp;$A$3&amp;":"&amp;Test!S79&amp;","&amp;$A$8&amp;":"&amp;Test!V79&amp;"}","")&amp;IF(R80="","",",")</f>
-        <v>{"id":6,"value":1591},</v>
+        <v>{"id":6,"value":5608},</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="6" t="str">
         <f>CONCATENATE(A81,"{",A70,A71,A72,A73,A74,A75,"}")</f>
-        <v>,{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":9750},{"id":2,"value":104542},{"id":5,"value":2004},{"id":6,"value":1888},{"id":4,"value":46092},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]}</v>
+        <v>,{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]}</v>
       </c>
       <c r="B80" s="5" t="str">
         <f>IF(Test!F80,"{"&amp;$A$3&amp;":"&amp;Test!C80&amp;","&amp;$A$8&amp;":"&amp;Test!F80&amp;"}","")&amp;IF(B81="","",",")</f>
-        <v>{"id":4,"value":46092},</v>
+        <v>{"id":4,"value":2146},</v>
       </c>
       <c r="I80" s="6" t="str">
         <f>CONCATENATE(I81,"{",I70,I71,I72,I73,I74,I75,"}")</f>
-        <v>,{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":7154},{"id":2,"value":101378},{"id":5,"value":1875},{"id":6,"value":1971},{"id":4,"value":46019},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]}</v>
+        <v>,{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]}</v>
       </c>
       <c r="J80" s="5" t="str">
         <f>IF(Test!N80,"{"&amp;$A$3&amp;":"&amp;Test!K80&amp;","&amp;$A$8&amp;":"&amp;Test!N80&amp;"}","")&amp;IF(J81="","",",")</f>
-        <v>{"id":4,"value":46019},</v>
+        <v>{"id":4,"value":2073},</v>
       </c>
       <c r="Q80" s="6" t="str">
         <f>CONCATENATE(Q81,"{",Q70,Q71,Q72,Q73,Q74,Q75,"}")</f>
-        <v>,{"title":"C","num":10,"id":23002,"skills":[2300200,2300213,2300223,2300233,2300243],"passive_skills":[],"attrs":[{"id":1,"value":8407},{"id":2,"value":97318},{"id":5,"value":1927},{"id":6,"value":1591},{"id":4,"value":45773},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]}</v>
+        <v>,{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]}</v>
       </c>
       <c r="R80" s="5" t="str">
         <f>IF(Test!V80,"{"&amp;$A$3&amp;":"&amp;Test!S80&amp;","&amp;$A$8&amp;":"&amp;Test!V80&amp;"}","")&amp;IF(R81="","",",")</f>
-        <v>{"id":4,"value":45773},</v>
+        <v>{"id":4,"value":1724},</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -11572,7 +12971,7 @@
       </c>
       <c r="B81" s="5" t="str">
         <f>IF(Test!F81,"{"&amp;$A$3&amp;":"&amp;Test!C81&amp;","&amp;$A$8&amp;":"&amp;Test!F81&amp;"}","")&amp;IF(B82="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="I81" s="10" t="str">
         <f>IF(AND(A50="",I50="",A70=""),"",",")</f>
@@ -11580,7 +12979,7 @@
       </c>
       <c r="J81" s="5" t="str">
         <f>IF(Test!N81,"{"&amp;$A$3&amp;":"&amp;Test!K81&amp;","&amp;$A$8&amp;":"&amp;Test!N81&amp;"}","")&amp;IF(J82="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
       <c r="Q81" s="10" t="str">
         <f>IF(AND(A50="",I50="",A70="",I70=""),"",",")</f>
@@ -11588,45 +12987,45 @@
       </c>
       <c r="R81" s="5" t="str">
         <f>IF(Test!V81,"{"&amp;$A$3&amp;":"&amp;Test!S81&amp;","&amp;$A$8&amp;":"&amp;Test!V81&amp;"}","")&amp;IF(R82="","",",")</f>
-        <v>{"id":7,"value":814},</v>
+        <v>{"id":7,"value":1814},</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="B82" s="5" t="str">
         <f>IF(Test!F82,"{"&amp;$A$3&amp;":"&amp;Test!C82&amp;","&amp;$A$8&amp;":"&amp;Test!F82&amp;"}","")&amp;IF(B83="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
       <c r="J82" s="5" t="str">
         <f>IF(Test!N82,"{"&amp;$A$3&amp;":"&amp;Test!K82&amp;","&amp;$A$8&amp;":"&amp;Test!N82&amp;"}","")&amp;IF(J83="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
       <c r="R82" s="5" t="str">
         <f>IF(Test!V82,"{"&amp;$A$3&amp;":"&amp;Test!S82&amp;","&amp;$A$8&amp;":"&amp;Test!V82&amp;"}","")&amp;IF(R83="","",",")</f>
-        <v>{"id":8,"value":814},</v>
+        <v>{"id":8,"value":1814},</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="B83" s="5" t="str">
         <f>IF(Test!F83,"{"&amp;$A$3&amp;":"&amp;Test!C83&amp;","&amp;$A$8&amp;":"&amp;Test!F83&amp;"}","")&amp;IF(B84="","",",")</f>
-        <v>{"id":20,"value":1314}</v>
+        <v>{"id":20,"value":2500},</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>IF(Test!N83,"{"&amp;$A$3&amp;":"&amp;Test!K83&amp;","&amp;$A$8&amp;":"&amp;Test!N83&amp;"}","")&amp;IF(J84="","",",")</f>
-        <v>{"id":20,"value":1314}</v>
+        <v>{"id":20,"value":500},</v>
       </c>
       <c r="R83" s="5" t="str">
         <f>IF(Test!V83,"{"&amp;$A$3&amp;":"&amp;Test!S83&amp;","&amp;$A$8&amp;":"&amp;Test!V83&amp;"}","")&amp;IF(R84="","",",")</f>
-        <v>{"id":20,"value":1314}</v>
+        <v>{"id":20,"value":500}</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="B84" s="5" t="str">
         <f>IF(Test!F84,"{"&amp;$A$3&amp;":"&amp;Test!C84&amp;","&amp;$A$8&amp;":"&amp;Test!F84&amp;"}","")&amp;IF(B85="","",",")</f>
-        <v/>
+        <v>{"id":23,"value":3000}</v>
       </c>
       <c r="J84" s="5" t="str">
         <f>IF(Test!N84,"{"&amp;$A$3&amp;":"&amp;Test!K84&amp;","&amp;$A$8&amp;":"&amp;Test!N84&amp;"}","")&amp;IF(J85="","",",")</f>
-        <v/>
+        <v>{"id":24,"value":2000}</v>
       </c>
       <c r="R84" s="5" t="str">
         <f>IF(Test!V84,"{"&amp;$A$3&amp;":"&amp;Test!S84&amp;","&amp;$A$8&amp;":"&amp;Test!V84&amp;"}","")&amp;IF(R85="","",",")</f>
@@ -11715,7 +13114,7 @@
       </c>
       <c r="B11">
         <f>IF(Test!C12&gt;0,Test!C12,$B$1)</f>
-        <v>31002</v>
+        <v>21003</v>
       </c>
       <c r="I11" t="s">
         <v>4</v>
@@ -11725,21 +13124,21 @@
         <v>11004</v>
       </c>
       <c r="Q11" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="R11">
         <f>ROUNDDOWN(Test!S12/1000,0)-70</f>
         <v>4</v>
       </c>
       <c r="S11" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="T11">
         <f>ROUNDDOWN(Test!U12/1000,0)-70</f>
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="V11">
         <f>ROUNDDOWN(Test!W12/1000,0)-70</f>
@@ -11752,35 +13151,35 @@
       </c>
       <c r="B12">
         <f>IF(Test!E10&gt;0,Test!E10,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="I12" t="s">
         <v>144</v>
       </c>
       <c r="J12">
         <f>IF(Test!M10&gt;0,Test!M10,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="Q12" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="R12">
         <f>Test!S13-ROUNDDOWN(Test!S13,-2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S12" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="T12">
         <f>Test!U13-ROUNDDOWN(Test!U13,-2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U12" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="V12">
         <f>Test!W13-ROUNDDOWN(Test!W13,-2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11789,14 +13188,14 @@
       </c>
       <c r="B13">
         <f>IF(Test!E11&gt;1,Test!E11,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
         <v>87</v>
       </c>
       <c r="J13">
         <f>IF(Test!M11&gt;1,Test!M11,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -11859,19 +13258,19 @@
         <v>145</v>
       </c>
       <c r="R15" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="S15" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="T15" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="V15" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="W15" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -11881,19 +13280,19 @@
       </c>
       <c r="B16">
         <f>(E16+C16)*(D16+1)</f>
-        <v>5227.5</v>
+        <v>12366</v>
       </c>
       <c r="C16">
         <f>IF(F16=0,0,VLOOKUP(B11,hero_info!$A:$AE,F16,0)*(B12-1))</f>
-        <v>1872</v>
+        <v>3048</v>
       </c>
       <c r="D16">
         <f>IF(G16=0,0,VLOOKUP(B13,hero_star_info!$A:$AJ,G16,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <f>IF(H16=0,0,VLOOKUP(VALUE(CONCATENATE(B11,B14)),hero_data_info!$A:$Y,H16,0))</f>
-        <v>1203</v>
+        <v>1074</v>
       </c>
       <c r="F16">
         <f>IFERROR(VLOOKUP(A16,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -11913,15 +13312,15 @@
       </c>
       <c r="J16">
         <f>(M16+K16)*(L16+1)</f>
-        <v>5222.3999999999996</v>
+        <v>13506</v>
       </c>
       <c r="K16">
         <f>IF(N16=0,0,VLOOKUP(J11,hero_info!$A:$AE,N16,0)*(J12-1))</f>
-        <v>1872</v>
+        <v>3302</v>
       </c>
       <c r="L16">
         <f>IF(O16=0,0,VLOOKUP(J13,hero_star_info!$A:$AJ,O16,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <f>IF(P16=0,0,VLOOKUP(VALUE(CONCATENATE(J11,J14)),hero_data_info!$A:$Y,P16,0))</f>
@@ -11945,15 +13344,15 @@
       </c>
       <c r="R16">
         <f>S16+T16</f>
-        <v>1622</v>
+        <v>6336</v>
       </c>
       <c r="S16">
         <f>IF(V16=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,V16,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,V16,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,V16,0),0))))+IF(V16=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,V16,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,V16,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,V16,0),0))))+IF(V16=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,V16,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,V16,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,V16,0),0))))</f>
-        <v>1622</v>
+        <v>3618</v>
       </c>
       <c r="T16">
         <f>IF(W16=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,W16,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,W16,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,W16,0),0))))+IF(W16=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,W16,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,W16,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,W16,0),0))))+IF(W16=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,W16,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,W16,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,W16,0),0))))</f>
-        <v>0</v>
+        <v>2718</v>
       </c>
       <c r="V16">
         <f>IFERROR(VLOOKUP(Q16,属性对应量表位置!$A:$Z,6,0),0)</f>
@@ -11971,19 +13370,19 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17:B25" si="0">(E17+C17)*(D17+1)</f>
-        <v>62893.2</v>
+        <v>158025</v>
       </c>
       <c r="C17">
         <f>IF(F17=0,0,VLOOKUP(B11,hero_info!$A:$AE,F17,0)*(B12-1))</f>
-        <v>22320</v>
+        <v>38354</v>
       </c>
       <c r="D17">
         <f>IF(G17=0,0,VLOOKUP(B13,hero_star_info!$A:$AJ,G17,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <f>IF(H17=0,0,VLOOKUP(VALUE(CONCATENATE(B11,B14)),hero_data_info!$A:$Y,H17,0))</f>
-        <v>14676</v>
+        <v>14321</v>
       </c>
       <c r="F17">
         <f>IFERROR(VLOOKUP(A17,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -12003,15 +13402,15 @@
       </c>
       <c r="J17">
         <f t="shared" ref="J17:J25" si="1">(M17+K17)*(L17+1)</f>
-        <v>58418.799999999996</v>
+        <v>150612</v>
       </c>
       <c r="K17">
         <f>IF(N17=0,0,VLOOKUP(J11,hero_info!$A:$AE,N17,0)*(J12-1))</f>
-        <v>20736</v>
+        <v>36576</v>
       </c>
       <c r="L17">
         <f>IF(O17=0,0,VLOOKUP(J13,hero_star_info!$A:$AJ,O17,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <f>IF(P17=0,0,VLOOKUP(VALUE(CONCATENATE(J11,J14)),hero_data_info!$A:$Y,P17,0))</f>
@@ -12035,11 +13434,11 @@
       </c>
       <c r="R17">
         <f t="shared" ref="R17:R25" si="2">S17+T17</f>
-        <v>44496</v>
+        <v>65438</v>
       </c>
       <c r="S17">
         <f>IF(V17=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,V17,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,V17,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,V17,0),0))))+IF(V17=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,V17,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,V17,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,V17,0),0))))+IF(V17=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,V17,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,V17,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,V17,0),0))))</f>
-        <v>17058</v>
+        <v>38000</v>
       </c>
       <c r="T17">
         <f>IF(W17=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,W17,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,W17,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,W17,0),0))))+IF(W17=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,W17,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,W17,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,W17,0),0))))+IF(W17=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,W17,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,W17,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,W17,0),0))))</f>
@@ -12061,19 +13460,19 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1955</v>
+        <v>5067</v>
       </c>
       <c r="C18">
         <f>IF(F18=0,0,VLOOKUP(B11,hero_info!$A:$AE,F18,0)*(B12-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="D18">
         <f>IF(G18=0,0,VLOOKUP(B13,hero_star_info!$A:$AJ,G18,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <f>IF(H18=0,0,VLOOKUP(VALUE(CONCATENATE(B11,B14)),hero_data_info!$A:$Y,H18,0))</f>
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F18">
         <f>IFERROR(VLOOKUP(A18,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -12093,15 +13492,15 @@
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>1904</v>
+        <v>5010</v>
       </c>
       <c r="K18">
         <f>IF(N18=0,0,VLOOKUP(J11,hero_info!$A:$AE,N18,0)*(J12-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="L18">
         <f>IF(O18=0,0,VLOOKUP(J13,hero_star_info!$A:$AJ,O18,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <f>IF(P18=0,0,VLOOKUP(VALUE(CONCATENATE(J11,J14)),hero_data_info!$A:$Y,P18,0))</f>
@@ -12125,15 +13524,15 @@
       </c>
       <c r="R18">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>1600</v>
       </c>
       <c r="S18">
         <f>IF(V18=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,V18,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,V18,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,V18,0),0))))+IF(V18=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,V18,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,V18,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,V18,0),0))))+IF(V18=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,V18,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,V18,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,V18,0),0))))</f>
-        <v>404</v>
+        <v>902</v>
       </c>
       <c r="T18">
         <f>IF(W18=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,W18,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,W18,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,W18,0),0))))+IF(W18=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,W18,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,W18,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,W18,0),0))))+IF(W18=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,W18,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,W18,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,W18,0),0))))</f>
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="V18">
         <f>IFERROR(VLOOKUP(Q18,属性对应量表位置!$A:$Z,6,0),0)</f>
@@ -12151,19 +13550,19 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1186.5999999999999</v>
+        <v>3072</v>
       </c>
       <c r="C19">
         <f>IF(F19=0,0,VLOOKUP(B11,hero_info!$A:$AE,F19,0)*(B12-1))</f>
-        <v>432</v>
+        <v>762</v>
       </c>
       <c r="D19">
         <f>IF(G19=0,0,VLOOKUP(B13,hero_star_info!$A:$AJ,G19,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <f>IF(H19=0,0,VLOOKUP(VALUE(CONCATENATE(B11,B14)),hero_data_info!$A:$Y,H19,0))</f>
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F19">
         <f>IFERROR(VLOOKUP(A19,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -12183,15 +13582,15 @@
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>1154.3</v>
+        <v>3027</v>
       </c>
       <c r="K19">
         <f>IF(N19=0,0,VLOOKUP(J11,hero_info!$A:$AE,N19,0)*(J12-1))</f>
-        <v>432</v>
+        <v>762</v>
       </c>
       <c r="L19">
         <f>IF(O19=0,0,VLOOKUP(J13,hero_star_info!$A:$AJ,O19,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <f>IF(P19=0,0,VLOOKUP(VALUE(CONCATENATE(J11,J14)),hero_data_info!$A:$Y,P19,0))</f>
@@ -12215,15 +13614,15 @@
       </c>
       <c r="R19">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>1600</v>
       </c>
       <c r="S19">
         <f>IF(V19=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,V19,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,V19,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,V19,0),0))))+IF(V19=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,V19,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,V19,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,V19,0),0))))+IF(V19=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,V19,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,V19,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,V19,0),0))))</f>
-        <v>404</v>
+        <v>902</v>
       </c>
       <c r="T19">
         <f>IF(W19=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,W19,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,W19,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,W19,0),0))))+IF(W19=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,W19,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,W19,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,W19,0),0))))+IF(W19=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,W19,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,W19,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,W19,0),0))))</f>
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="V19">
         <f>IFERROR(VLOOKUP(Q19,属性对应量表位置!$A:$Z,6,0),0)</f>
@@ -12241,11 +13640,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1504</v>
+        <v>1739</v>
       </c>
       <c r="C20">
         <f>IF(F20=0,0,VLOOKUP(B11,hero_info!$A:$AE,F20,0)*(B12-1))</f>
-        <v>720</v>
+        <v>1016</v>
       </c>
       <c r="D20">
         <f>IF(G20=0,0,VLOOKUP(B13,hero_star_info!$A:$AJ,G20,0)/10000)</f>
@@ -12253,7 +13652,7 @@
       </c>
       <c r="E20">
         <f>IF(H20=0,0,VLOOKUP(VALUE(CONCATENATE(B11,B14)),hero_data_info!$A:$Y,H20,0))</f>
-        <v>784</v>
+        <v>723</v>
       </c>
       <c r="F20">
         <f>IFERROR(VLOOKUP(A20,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -12273,11 +13672,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>1527</v>
+        <v>2077</v>
       </c>
       <c r="K20">
         <f>IF(N20=0,0,VLOOKUP(J11,hero_info!$A:$AE,N20,0)*(J12-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="L20">
         <f>IF(O20=0,0,VLOOKUP(J13,hero_star_info!$A:$AJ,O20,0)/10000)</f>
@@ -12305,11 +13704,11 @@
       </c>
       <c r="R20">
         <f t="shared" si="2"/>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="S20">
         <f>IF(V20=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,V20,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,V20,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,V20,0),0))))+IF(V20=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,V20,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,V20,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,V20,0),0))))+IF(V20=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,V20,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,V20,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,V20,0),0))))</f>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="T20">
         <f>IF(W20=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,W20,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,W20,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,W20,0),0))))+IF(W20=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,W20,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,W20,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,W20,0),0))))+IF(W20=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,W20,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,W20,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,W20,0),0))))</f>
@@ -12395,11 +13794,11 @@
       </c>
       <c r="R21">
         <f t="shared" si="2"/>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="S21">
         <f>IF(V21=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,V21,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,V21,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,V21,0),0))))+IF(V21=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,V21,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,V21,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,V21,0),0))))+IF(V21=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,V21,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,V21,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,V21,0),0))))</f>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="T21">
         <f>IF(W21=0,0,IF(R$11=4,VLOOKUP(R$12,神器总属性!$A$3:$Z$22,W21,0),IF(R$11=3,VLOOKUP(R$12,神器总属性!$A$26:$Z$45,W21,0),IF(R$11=2,VLOOKUP(R$12,神器总属性!$A$49:$Z$68,W21,0),0))))+IF(W21=0,0,IF(T$11=4,VLOOKUP(T$12,神器总属性!$A$3:$Z$22,W21,0),IF(T$11=3,VLOOKUP(T$12,神器总属性!$A$26:$Z$45,W21,0),IF(T$11=2,VLOOKUP(T$12,神器总属性!$A$49:$Z$68,W21,0),0))))+IF(W21=0,0,IF(V$11=4,VLOOKUP(V$12,神器总属性!$A$3:$Z$22,W21,0),IF(V$11=3,VLOOKUP(V$12,神器总属性!$A$26:$Z$45,W21,0),IF(V$11=2,VLOOKUP(V$12,神器总属性!$A$49:$Z$68,W21,0),0))))</f>
@@ -12597,7 +13996,7 @@
     <row r="24" spans="1:23">
       <c r="A24">
         <f>Test!C24</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -12625,7 +14024,7 @@
       </c>
       <c r="H24">
         <f>IFERROR(VLOOKUP(A24,属性对应量表位置!$A:$E,5,0),0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <f>Test!K24</f>
@@ -12805,7 +14204,7 @@
       </c>
       <c r="R31">
         <f>IF(Test!S32&gt;0,Test!S32,$B$1)</f>
-        <v>53001</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -12814,21 +14213,21 @@
       </c>
       <c r="B32">
         <f>IF(Test!E30&gt;0,Test!E30,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="I32" t="s">
         <v>144</v>
       </c>
       <c r="J32">
         <f>IF(Test!M30&gt;0,Test!M30,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="Q32" t="s">
         <v>144</v>
       </c>
       <c r="R32">
         <f>IF(Test!U30&gt;0,Test!U30,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -12837,21 +14236,21 @@
       </c>
       <c r="B33">
         <f>IF(Test!E31&gt;1,Test!E31,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
         <v>87</v>
       </c>
       <c r="J33">
         <f>IF(Test!M31&gt;1,Test!M31,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q33" t="s">
         <v>87</v>
       </c>
       <c r="R33">
         <f>IF(Test!U31&gt;1,Test!U31,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -12949,15 +14348,15 @@
       </c>
       <c r="B36">
         <f>(E36+C36)*(D36+1)</f>
-        <v>7583.7</v>
+        <v>19653</v>
       </c>
       <c r="C36">
         <f>IF(F36=0,0,VLOOKUP(B31,hero_info!$A:$AE,F36,0)*(B32-1))</f>
-        <v>2736</v>
+        <v>4826</v>
       </c>
       <c r="D36">
         <f>IF(G36=0,0,VLOOKUP(B33,hero_star_info!$A:$AJ,G36,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <f>IF(H36=0,0,VLOOKUP(VALUE(CONCATENATE(B31,B34)),hero_data_info!$A:$Y,H36,0))</f>
@@ -12981,15 +14380,15 @@
       </c>
       <c r="J36">
         <f>(M36+K36)*(L36+1)</f>
-        <v>6002.7</v>
+        <v>15543</v>
       </c>
       <c r="K36">
         <f>IF(N36=0,0,VLOOKUP(J31,hero_info!$A:$AE,N36,0)*(J32-1))</f>
-        <v>2160</v>
+        <v>3810</v>
       </c>
       <c r="L36">
         <f>IF(O36=0,0,VLOOKUP(J33,hero_star_info!$A:$AJ,O36,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M36">
         <f>IF(P36=0,0,VLOOKUP(VALUE(CONCATENATE(J31,J34)),hero_data_info!$A:$Y,P36,0))</f>
@@ -13013,19 +14412,19 @@
       </c>
       <c r="R36">
         <f>(U36+S36)*(T36+1)</f>
-        <v>8520.4</v>
+        <v>20943</v>
       </c>
       <c r="S36">
         <f>IF(V36=0,0,VLOOKUP(R31,hero_info!$A:$AE,V36,0)*(R32-1))</f>
-        <v>3024</v>
+        <v>5080</v>
       </c>
       <c r="T36">
         <f>IF(W36=0,0,VLOOKUP(R33,hero_star_info!$A:$AJ,W36,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <f>IF(X36=0,0,VLOOKUP(VALUE(CONCATENATE(R31,R34)),hero_data_info!$A:$Y,X36,0))</f>
-        <v>1988</v>
+        <v>1901</v>
       </c>
       <c r="V36">
         <f>IFERROR(VLOOKUP(Q36,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -13047,15 +14446,15 @@
       </c>
       <c r="B37">
         <f t="shared" ref="B37:B45" si="3">(E37+C37)*(D37+1)</f>
-        <v>50330.2</v>
+        <v>129738</v>
       </c>
       <c r="C37">
         <f>IF(F37=0,0,VLOOKUP(B31,hero_info!$A:$AE,F37,0)*(B32-1))</f>
-        <v>17856</v>
+        <v>31496</v>
       </c>
       <c r="D37">
         <f>IF(G37=0,0,VLOOKUP(B33,hero_star_info!$A:$AJ,G37,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <f>IF(H37=0,0,VLOOKUP(VALUE(CONCATENATE(B31,B34)),hero_data_info!$A:$Y,H37,0))</f>
@@ -13079,15 +14478,15 @@
       </c>
       <c r="J37">
         <f t="shared" ref="J37:J45" si="4">(M37+K37)*(L37+1)</f>
-        <v>58882.9</v>
+        <v>151761</v>
       </c>
       <c r="K37">
         <f>IF(N37=0,0,VLOOKUP(J31,hero_info!$A:$AE,N37,0)*(J32-1))</f>
-        <v>20880</v>
+        <v>36830</v>
       </c>
       <c r="L37">
         <f>IF(O37=0,0,VLOOKUP(J33,hero_star_info!$A:$AJ,O37,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <f>IF(P37=0,0,VLOOKUP(VALUE(CONCATENATE(J31,J34)),hero_data_info!$A:$Y,P37,0))</f>
@@ -13111,19 +14510,19 @@
       </c>
       <c r="R37">
         <f t="shared" ref="R37:R45" si="5">(U37+S37)*(T37+1)</f>
-        <v>58425.599999999999</v>
+        <v>154803</v>
       </c>
       <c r="S37">
         <f>IF(V37=0,0,VLOOKUP(R31,hero_info!$A:$AE,V37,0)*(R32-1))</f>
-        <v>20736</v>
+        <v>37592</v>
       </c>
       <c r="T37">
         <f>IF(W37=0,0,VLOOKUP(R33,hero_star_info!$A:$AJ,W37,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="U37">
         <f>IF(X37=0,0,VLOOKUP(VALUE(CONCATENATE(R31,R34)),hero_data_info!$A:$Y,X37,0))</f>
-        <v>13632</v>
+        <v>14009</v>
       </c>
       <c r="V37">
         <f>IFERROR(VLOOKUP(Q37,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -13145,15 +14544,15 @@
       </c>
       <c r="B38">
         <f t="shared" si="3"/>
-        <v>1496</v>
+        <v>3960</v>
       </c>
       <c r="C38">
         <f>IF(F38=0,0,VLOOKUP(B31,hero_info!$A:$AE,F38,0)*(B32-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="D38">
         <f>IF(G38=0,0,VLOOKUP(B33,hero_star_info!$A:$AJ,G38,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <f>IF(H38=0,0,VLOOKUP(VALUE(CONCATENATE(B31,B34)),hero_data_info!$A:$Y,H38,0))</f>
@@ -13177,15 +14576,15 @@
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
-        <v>1484.1</v>
+        <v>3939</v>
       </c>
       <c r="K38">
         <f>IF(N38=0,0,VLOOKUP(J31,hero_info!$A:$AE,N38,0)*(J32-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="L38">
         <f>IF(O38=0,0,VLOOKUP(J33,hero_star_info!$A:$AJ,O38,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <f>IF(P38=0,0,VLOOKUP(VALUE(CONCATENATE(J31,J34)),hero_data_info!$A:$Y,P38,0))</f>
@@ -13209,19 +14608,19 @@
       </c>
       <c r="R38">
         <f t="shared" si="5"/>
-        <v>1581</v>
+        <v>4143</v>
       </c>
       <c r="S38">
         <f>IF(V38=0,0,VLOOKUP(R31,hero_info!$A:$AE,V38,0)*(R32-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="T38">
         <f>IF(W38=0,0,VLOOKUP(R33,hero_star_info!$A:$AJ,W38,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <f>IF(X38=0,0,VLOOKUP(VALUE(CONCATENATE(R31,R34)),hero_data_info!$A:$Y,X38,0))</f>
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="V38">
         <f>IFERROR(VLOOKUP(Q38,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -13243,15 +14642,15 @@
       </c>
       <c r="B39">
         <f t="shared" si="3"/>
-        <v>1167.8999999999999</v>
+        <v>3051</v>
       </c>
       <c r="C39">
         <f>IF(F39=0,0,VLOOKUP(B31,hero_info!$A:$AE,F39,0)*(B32-1))</f>
-        <v>432</v>
+        <v>762</v>
       </c>
       <c r="D39">
         <f>IF(G39=0,0,VLOOKUP(B33,hero_star_info!$A:$AJ,G39,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <f>IF(H39=0,0,VLOOKUP(VALUE(CONCATENATE(B31,B34)),hero_data_info!$A:$Y,H39,0))</f>
@@ -13275,15 +14674,15 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>1587.8</v>
+        <v>4122</v>
       </c>
       <c r="K39">
         <f>IF(N39=0,0,VLOOKUP(J31,hero_info!$A:$AE,N39,0)*(J32-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="L39">
         <f>IF(O39=0,0,VLOOKUP(J33,hero_star_info!$A:$AJ,O39,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <f>IF(P39=0,0,VLOOKUP(VALUE(CONCATENATE(J31,J34)),hero_data_info!$A:$Y,P39,0))</f>
@@ -13307,19 +14706,19 @@
       </c>
       <c r="R39">
         <f t="shared" si="5"/>
-        <v>1502.8</v>
+        <v>3939</v>
       </c>
       <c r="S39">
         <f>IF(V39=0,0,VLOOKUP(R31,hero_info!$A:$AE,V39,0)*(R32-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="T39">
         <f>IF(W39=0,0,VLOOKUP(R33,hero_star_info!$A:$AJ,W39,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="U39">
         <f>IF(X39=0,0,VLOOKUP(VALUE(CONCATENATE(R31,R34)),hero_data_info!$A:$Y,X39,0))</f>
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="V39">
         <f>IFERROR(VLOOKUP(Q39,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -13341,11 +14740,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="3"/>
-        <v>1504</v>
+        <v>2054</v>
       </c>
       <c r="C40">
         <f>IF(F40=0,0,VLOOKUP(B31,hero_info!$A:$AE,F40,0)*(B32-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="D40">
         <f>IF(G40=0,0,VLOOKUP(B33,hero_star_info!$A:$AJ,G40,0)/10000)</f>
@@ -13373,11 +14772,11 @@
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>1581</v>
+        <v>2131</v>
       </c>
       <c r="K40">
         <f>IF(N40=0,0,VLOOKUP(J31,hero_info!$A:$AE,N40,0)*(J32-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="L40">
         <f>IF(O40=0,0,VLOOKUP(J33,hero_star_info!$A:$AJ,O40,0)/10000)</f>
@@ -13405,11 +14804,11 @@
       </c>
       <c r="R40">
         <f t="shared" si="5"/>
-        <v>1558</v>
+        <v>2146</v>
       </c>
       <c r="S40">
         <f>IF(V40=0,0,VLOOKUP(R31,hero_info!$A:$AE,V40,0)*(R32-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="T40">
         <f>IF(W40=0,0,VLOOKUP(R33,hero_star_info!$A:$AJ,W40,0)/10000)</f>
@@ -13417,7 +14816,7 @@
       </c>
       <c r="U40">
         <f>IF(X40=0,0,VLOOKUP(VALUE(CONCATENATE(R31,R34)),hero_data_info!$A:$Y,X40,0))</f>
-        <v>838</v>
+        <v>876</v>
       </c>
       <c r="V40">
         <f>IFERROR(VLOOKUP(Q40,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -13761,7 +15160,7 @@
       </c>
       <c r="I44">
         <f>Test!K44</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
@@ -13789,11 +15188,11 @@
       </c>
       <c r="P44">
         <f>IFERROR(VLOOKUP(I44,属性对应量表位置!$A:$E,5,0),0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q44">
         <f>Test!S44</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R44">
         <f t="shared" si="5"/>
@@ -13821,7 +15220,7 @@
       </c>
       <c r="X44">
         <f>IFERROR(VLOOKUP(Q44,属性对应量表位置!$A:$E,5,0),0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -13943,24 +15342,24 @@
       </c>
       <c r="J51">
         <f>IF(Test!K52&gt;0,Test!K52,$B$1)</f>
-        <v>11004</v>
+        <v>21003</v>
       </c>
       <c r="Q51" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="R51">
         <f>ROUNDDOWN(Test!S52/1000,0)-70</f>
         <v>4</v>
       </c>
       <c r="S51" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="T51">
         <f>ROUNDDOWN(Test!U52/1000,0)-70</f>
         <v>4</v>
       </c>
       <c r="U51" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="V51">
         <f>ROUNDDOWN(Test!W52/1000,0)-70</f>
@@ -13973,35 +15372,35 @@
       </c>
       <c r="B52">
         <f>IF(Test!E50&gt;0,Test!E50,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="I52" t="s">
         <v>144</v>
       </c>
       <c r="J52">
         <f>IF(Test!M50&gt;0,Test!M50,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="Q52" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="R52">
         <f>Test!S53-ROUNDDOWN(Test!S53,-2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S52" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="T52">
         <f>Test!U53-ROUNDDOWN(Test!U53,-2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U52" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="V52">
         <f>Test!W53-ROUNDDOWN(Test!W53,-2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -14010,14 +15409,14 @@
       </c>
       <c r="B53">
         <f>IF(Test!E51&gt;1,Test!E51,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
         <v>87</v>
       </c>
       <c r="J53">
         <f>IF(Test!M51&gt;1,Test!M51,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -14080,19 +15479,19 @@
         <v>145</v>
       </c>
       <c r="R55" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="S55" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="T55" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="V55" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="W55" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -14102,15 +15501,15 @@
       </c>
       <c r="B56">
         <f>(E56+C56)*(D56+1)</f>
-        <v>5227.5</v>
+        <v>13515</v>
       </c>
       <c r="C56">
         <f>IF(F56=0,0,VLOOKUP(B51,hero_info!$A:$AE,F56,0)*(B52-1))</f>
-        <v>1872</v>
+        <v>3302</v>
       </c>
       <c r="D56">
         <f>IF(G56=0,0,VLOOKUP(B53,hero_star_info!$A:$AJ,G56,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <f>IF(H56=0,0,VLOOKUP(VALUE(CONCATENATE(B51,B54)),hero_data_info!$A:$Y,H56,0))</f>
@@ -14134,19 +15533,19 @@
       </c>
       <c r="J56">
         <f>(M56+K56)*(L56+1)</f>
-        <v>5222.3999999999996</v>
+        <v>12366</v>
       </c>
       <c r="K56">
         <f>IF(N56=0,0,VLOOKUP(J51,hero_info!$A:$AE,N56,0)*(J52-1))</f>
-        <v>1872</v>
+        <v>3048</v>
       </c>
       <c r="L56">
         <f>IF(O56=0,0,VLOOKUP(J53,hero_star_info!$A:$AJ,O56,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M56">
         <f>IF(P56=0,0,VLOOKUP(VALUE(CONCATENATE(J51,J54)),hero_data_info!$A:$Y,P56,0))</f>
-        <v>1200</v>
+        <v>1074</v>
       </c>
       <c r="N56">
         <f>IFERROR(VLOOKUP(I56,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -14166,15 +15565,15 @@
       </c>
       <c r="R56">
         <f>S56+T56</f>
-        <v>1622</v>
+        <v>6336</v>
       </c>
       <c r="S56">
         <f>IF(V56=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,V56,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,V56,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,V56,0),0))))+IF(V56=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,V56,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,V56,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,V56,0),0))))+IF(V56=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,V56,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,V56,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,V56,0),0))))</f>
-        <v>1622</v>
+        <v>3618</v>
       </c>
       <c r="T56">
         <f>IF(W56=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,W56,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,W56,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,W56,0),0))))+IF(W56=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,W56,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,W56,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,W56,0),0))))+IF(W56=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,W56,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,W56,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,W56,0),0))))</f>
-        <v>0</v>
+        <v>2718</v>
       </c>
       <c r="V56">
         <f>IFERROR(VLOOKUP(Q56,属性对应量表位置!$A:$Z,6,0),0)</f>
@@ -14192,15 +15591,15 @@
       </c>
       <c r="B57">
         <f t="shared" ref="B57:B65" si="6">(E57+C57)*(D57+1)</f>
-        <v>62893.2</v>
+        <v>162138</v>
       </c>
       <c r="C57">
         <f>IF(F57=0,0,VLOOKUP(B51,hero_info!$A:$AE,F57,0)*(B52-1))</f>
-        <v>22320</v>
+        <v>39370</v>
       </c>
       <c r="D57">
         <f>IF(G57=0,0,VLOOKUP(B53,hero_star_info!$A:$AJ,G57,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <f>IF(H57=0,0,VLOOKUP(VALUE(CONCATENATE(B51,B54)),hero_data_info!$A:$Y,H57,0))</f>
@@ -14224,19 +15623,19 @@
       </c>
       <c r="J57">
         <f t="shared" ref="J57:J65" si="7">(M57+K57)*(L57+1)</f>
-        <v>58418.799999999996</v>
+        <v>158025</v>
       </c>
       <c r="K57">
         <f>IF(N57=0,0,VLOOKUP(J51,hero_info!$A:$AE,N57,0)*(J52-1))</f>
-        <v>20736</v>
+        <v>38354</v>
       </c>
       <c r="L57">
         <f>IF(O57=0,0,VLOOKUP(J53,hero_star_info!$A:$AJ,O57,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M57">
         <f>IF(P57=0,0,VLOOKUP(VALUE(CONCATENATE(J51,J54)),hero_data_info!$A:$Y,P57,0))</f>
-        <v>13628</v>
+        <v>14321</v>
       </c>
       <c r="N57">
         <f>IFERROR(VLOOKUP(I57,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -14256,11 +15655,11 @@
       </c>
       <c r="R57">
         <f t="shared" ref="R57:R65" si="8">S57+T57</f>
-        <v>44496</v>
+        <v>65438</v>
       </c>
       <c r="S57">
         <f>IF(V57=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,V57,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,V57,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,V57,0),0))))+IF(V57=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,V57,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,V57,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,V57,0),0))))+IF(V57=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,V57,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,V57,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,V57,0),0))))</f>
-        <v>17058</v>
+        <v>38000</v>
       </c>
       <c r="T57">
         <f>IF(W57=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,W57,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,W57,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,W57,0),0))))+IF(W57=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,W57,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,W57,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,W57,0),0))))+IF(W57=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,W57,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,W57,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,W57,0),0))))</f>
@@ -14282,15 +15681,15 @@
       </c>
       <c r="B58">
         <f t="shared" si="6"/>
-        <v>1955</v>
+        <v>5100</v>
       </c>
       <c r="C58">
         <f>IF(F58=0,0,VLOOKUP(B51,hero_info!$A:$AE,F58,0)*(B52-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="D58">
         <f>IF(G58=0,0,VLOOKUP(B53,hero_star_info!$A:$AJ,G58,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <f>IF(H58=0,0,VLOOKUP(VALUE(CONCATENATE(B51,B54)),hero_data_info!$A:$Y,H58,0))</f>
@@ -14314,19 +15713,19 @@
       </c>
       <c r="J58">
         <f t="shared" si="7"/>
-        <v>1904</v>
+        <v>5067</v>
       </c>
       <c r="K58">
         <f>IF(N58=0,0,VLOOKUP(J51,hero_info!$A:$AE,N58,0)*(J52-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="L58">
         <f>IF(O58=0,0,VLOOKUP(J53,hero_star_info!$A:$AJ,O58,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M58">
         <f>IF(P58=0,0,VLOOKUP(VALUE(CONCATENATE(J51,J54)),hero_data_info!$A:$Y,P58,0))</f>
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="N58">
         <f>IFERROR(VLOOKUP(I58,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -14346,15 +15745,15 @@
       </c>
       <c r="R58">
         <f t="shared" si="8"/>
-        <v>404</v>
+        <v>1600</v>
       </c>
       <c r="S58">
         <f>IF(V58=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,V58,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,V58,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,V58,0),0))))+IF(V58=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,V58,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,V58,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,V58,0),0))))+IF(V58=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,V58,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,V58,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,V58,0),0))))</f>
-        <v>404</v>
+        <v>902</v>
       </c>
       <c r="T58">
         <f>IF(W58=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,W58,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,W58,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,W58,0),0))))+IF(W58=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,W58,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,W58,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,W58,0),0))))+IF(W58=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,W58,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,W58,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,W58,0),0))))</f>
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="V58">
         <f>IFERROR(VLOOKUP(Q58,属性对应量表位置!$A:$Z,6,0),0)</f>
@@ -14372,15 +15771,15 @@
       </c>
       <c r="B59">
         <f t="shared" si="6"/>
-        <v>1186.5999999999999</v>
+        <v>3084</v>
       </c>
       <c r="C59">
         <f>IF(F59=0,0,VLOOKUP(B51,hero_info!$A:$AE,F59,0)*(B52-1))</f>
-        <v>432</v>
+        <v>762</v>
       </c>
       <c r="D59">
         <f>IF(G59=0,0,VLOOKUP(B53,hero_star_info!$A:$AJ,G59,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <f>IF(H59=0,0,VLOOKUP(VALUE(CONCATENATE(B51,B54)),hero_data_info!$A:$Y,H59,0))</f>
@@ -14404,19 +15803,19 @@
       </c>
       <c r="J59">
         <f t="shared" si="7"/>
-        <v>1154.3</v>
+        <v>3072</v>
       </c>
       <c r="K59">
         <f>IF(N59=0,0,VLOOKUP(J51,hero_info!$A:$AE,N59,0)*(J52-1))</f>
-        <v>432</v>
+        <v>762</v>
       </c>
       <c r="L59">
         <f>IF(O59=0,0,VLOOKUP(J53,hero_star_info!$A:$AJ,O59,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <f>IF(P59=0,0,VLOOKUP(VALUE(CONCATENATE(J51,J54)),hero_data_info!$A:$Y,P59,0))</f>
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="N59">
         <f>IFERROR(VLOOKUP(I59,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -14436,15 +15835,15 @@
       </c>
       <c r="R59">
         <f t="shared" si="8"/>
-        <v>404</v>
+        <v>1600</v>
       </c>
       <c r="S59">
         <f>IF(V59=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,V59,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,V59,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,V59,0),0))))+IF(V59=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,V59,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,V59,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,V59,0),0))))+IF(V59=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,V59,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,V59,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,V59,0),0))))</f>
-        <v>404</v>
+        <v>902</v>
       </c>
       <c r="T59">
         <f>IF(W59=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,W59,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,W59,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,W59,0),0))))+IF(W59=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,W59,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,W59,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,W59,0),0))))+IF(W59=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,W59,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,W59,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,W59,0),0))))</f>
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="V59">
         <f>IFERROR(VLOOKUP(Q59,属性对应量表位置!$A:$Z,6,0),0)</f>
@@ -14462,11 +15861,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="6"/>
-        <v>1504</v>
+        <v>2054</v>
       </c>
       <c r="C60">
         <f>IF(F60=0,0,VLOOKUP(B51,hero_info!$A:$AE,F60,0)*(B52-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="D60">
         <f>IF(G60=0,0,VLOOKUP(B53,hero_star_info!$A:$AJ,G60,0)/10000)</f>
@@ -14494,11 +15893,11 @@
       </c>
       <c r="J60">
         <f t="shared" si="7"/>
-        <v>1527</v>
+        <v>1739</v>
       </c>
       <c r="K60">
         <f>IF(N60=0,0,VLOOKUP(J51,hero_info!$A:$AE,N60,0)*(J52-1))</f>
-        <v>720</v>
+        <v>1016</v>
       </c>
       <c r="L60">
         <f>IF(O60=0,0,VLOOKUP(J53,hero_star_info!$A:$AJ,O60,0)/10000)</f>
@@ -14506,7 +15905,7 @@
       </c>
       <c r="M60">
         <f>IF(P60=0,0,VLOOKUP(VALUE(CONCATENATE(J51,J54)),hero_data_info!$A:$Y,P60,0))</f>
-        <v>807</v>
+        <v>723</v>
       </c>
       <c r="N60">
         <f>IFERROR(VLOOKUP(I60,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -14526,11 +15925,11 @@
       </c>
       <c r="R60">
         <f t="shared" si="8"/>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="S60">
         <f>IF(V60=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,V60,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,V60,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,V60,0),0))))+IF(V60=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,V60,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,V60,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,V60,0),0))))+IF(V60=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,V60,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,V60,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,V60,0),0))))</f>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="T60">
         <f>IF(W60=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,W60,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,W60,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,W60,0),0))))+IF(W60=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,W60,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,W60,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,W60,0),0))))+IF(W60=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,W60,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,W60,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,W60,0),0))))</f>
@@ -14616,11 +16015,11 @@
       </c>
       <c r="R61">
         <f t="shared" si="8"/>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="S61">
         <f>IF(V61=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,V61,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,V61,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,V61,0),0))))+IF(V61=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,V61,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,V61,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,V61,0),0))))+IF(V61=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,V61,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,V61,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,V61,0),0))))</f>
-        <v>814</v>
+        <v>1814</v>
       </c>
       <c r="T61">
         <f>IF(W61=0,0,IF(R$51=4,VLOOKUP(R$52,神器总属性!$A$3:$Z$22,W61,0),IF(R$51=3,VLOOKUP(R$52,神器总属性!$A$26:$Z$45,W61,0),IF(R$51=2,VLOOKUP(R$52,神器总属性!$A$49:$Z$68,W61,0),0))))+IF(W61=0,0,IF(T$51=4,VLOOKUP(T$52,神器总属性!$A$3:$Z$22,W61,0),IF(T$51=3,VLOOKUP(T$52,神器总属性!$A$26:$Z$45,W61,0),IF(T$51=2,VLOOKUP(T$52,神器总属性!$A$49:$Z$68,W61,0),0))))+IF(W61=0,0,IF(V$51=4,VLOOKUP(V$52,神器总属性!$A$3:$Z$22,W61,0),IF(V$51=3,VLOOKUP(V$52,神器总属性!$A$26:$Z$45,W61,0),IF(V$51=2,VLOOKUP(V$52,神器总属性!$A$49:$Z$68,W61,0),0))))</f>
@@ -14850,7 +16249,7 @@
       </c>
       <c r="I64">
         <f>Test!K64</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J64">
         <f t="shared" si="7"/>
@@ -14878,7 +16277,7 @@
       </c>
       <c r="P64">
         <f>IFERROR(VLOOKUP(I64,属性对应量表位置!$A:$E,5,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q64">
         <f>Test!S64</f>
@@ -15026,7 +16425,7 @@
       </c>
       <c r="R71">
         <f>IF(Test!S72&gt;0,Test!S72,$B$1)</f>
-        <v>23002</v>
+        <v>32001</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -15035,21 +16434,21 @@
       </c>
       <c r="B72">
         <f>IF(Test!E70&gt;0,Test!E70,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="I72" t="s">
         <v>144</v>
       </c>
       <c r="J72">
         <f>IF(Test!M70&gt;0,Test!M70,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="Q72" t="s">
         <v>144</v>
       </c>
       <c r="R72">
         <f>IF(Test!U70&gt;0,Test!U70,$B$2)</f>
-        <v>145</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -15058,21 +16457,21 @@
       </c>
       <c r="B73">
         <f>IF(Test!E71&gt;1,Test!E71,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I73" t="s">
         <v>87</v>
       </c>
       <c r="J73">
         <f>IF(Test!M71&gt;1,Test!M71,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q73" t="s">
         <v>87</v>
       </c>
       <c r="R73">
         <f>IF(Test!U71&gt;1,Test!U71,$B$3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -15161,15 +16560,15 @@
       </c>
       <c r="B76">
         <f>(E76+C76)*(D76+1)</f>
-        <v>8127.7</v>
+        <v>20943</v>
       </c>
       <c r="C76">
         <f>IF(F76=0,0,VLOOKUP(B71,hero_info!$A:$AE,F76,0)*(B72-1))</f>
-        <v>2880</v>
+        <v>5080</v>
       </c>
       <c r="D76">
         <f>IF(G76=0,0,VLOOKUP(B73,hero_star_info!$A:$AJ,G76,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <f>IF(H76=0,0,VLOOKUP(VALUE(CONCATENATE(B71,B74)),hero_data_info!$A:$Y,H76,0))</f>
@@ -15193,15 +16592,15 @@
       </c>
       <c r="J76">
         <f>(M76+K76)*(L76+1)</f>
-        <v>5531.8</v>
+        <v>14382</v>
       </c>
       <c r="K76">
         <f>IF(N76=0,0,VLOOKUP(J71,hero_info!$A:$AE,N76,0)*(J72-1))</f>
-        <v>2016</v>
+        <v>3556</v>
       </c>
       <c r="L76">
         <f>IF(O76=0,0,VLOOKUP(J73,hero_star_info!$A:$AJ,O76,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M76">
         <f>IF(P76=0,0,VLOOKUP(VALUE(CONCATENATE(J71,J74)),hero_data_info!$A:$Y,P76,0))</f>
@@ -15225,19 +16624,19 @@
       </c>
       <c r="R76">
         <f>(U76+S76)*(T76+1)</f>
-        <v>6784.7</v>
+        <v>17799</v>
       </c>
       <c r="S76">
         <f>IF(V76=0,0,VLOOKUP(R71,hero_info!$A:$AE,V76,0)*(R72-1))</f>
-        <v>2448</v>
+        <v>4318</v>
       </c>
       <c r="T76">
         <f>IF(W76=0,0,VLOOKUP(R73,hero_star_info!$A:$AJ,W76,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="U76">
         <f>IF(X76=0,0,VLOOKUP(VALUE(CONCATENATE(R71,R74)),hero_data_info!$A:$Y,X76,0))</f>
-        <v>1543</v>
+        <v>1615</v>
       </c>
       <c r="V76">
         <f>IFERROR(VLOOKUP(Q76,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -15259,15 +16658,15 @@
       </c>
       <c r="B77">
         <f t="shared" ref="B77:B85" si="9">(E77+C77)*(D77+1)</f>
-        <v>60045.7</v>
+        <v>154803</v>
       </c>
       <c r="C77">
         <f>IF(F77=0,0,VLOOKUP(B71,hero_info!$A:$AE,F77,0)*(B72-1))</f>
-        <v>21312</v>
+        <v>37592</v>
       </c>
       <c r="D77">
         <f>IF(G77=0,0,VLOOKUP(B73,hero_star_info!$A:$AJ,G77,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <f>IF(H77=0,0,VLOOKUP(VALUE(CONCATENATE(B71,B74)),hero_data_info!$A:$Y,H77,0))</f>
@@ -15291,15 +16690,15 @@
       </c>
       <c r="J77">
         <f t="shared" ref="J77:J85" si="10">(M77+K77)*(L77+1)</f>
-        <v>56882</v>
+        <v>146580</v>
       </c>
       <c r="K77">
         <f>IF(N77=0,0,VLOOKUP(J71,hero_info!$A:$AE,N77,0)*(J72-1))</f>
-        <v>20160</v>
+        <v>35560</v>
       </c>
       <c r="L77">
         <f>IF(O77=0,0,VLOOKUP(J73,hero_star_info!$A:$AJ,O77,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M77">
         <f>IF(P77=0,0,VLOOKUP(VALUE(CONCATENATE(J71,J74)),hero_data_info!$A:$Y,P77,0))</f>
@@ -15323,19 +16722,19 @@
       </c>
       <c r="R77">
         <f t="shared" ref="R77:R85" si="11">(U77+S77)*(T77+1)</f>
-        <v>52822.400000000001</v>
+        <v>134031</v>
       </c>
       <c r="S77">
         <f>IF(V77=0,0,VLOOKUP(R71,hero_info!$A:$AE,V77,0)*(R72-1))</f>
-        <v>18720</v>
+        <v>32512</v>
       </c>
       <c r="T77">
         <f>IF(W77=0,0,VLOOKUP(R73,hero_star_info!$A:$AJ,W77,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="U77">
         <f>IF(X77=0,0,VLOOKUP(VALUE(CONCATENATE(R71,R74)),hero_data_info!$A:$Y,X77,0))</f>
-        <v>12352</v>
+        <v>12165</v>
       </c>
       <c r="V77">
         <f>IFERROR(VLOOKUP(Q77,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -15357,15 +16756,15 @@
       </c>
       <c r="B78">
         <f t="shared" si="9"/>
-        <v>1599.7</v>
+        <v>4143</v>
       </c>
       <c r="C78">
         <f>IF(F78=0,0,VLOOKUP(B71,hero_info!$A:$AE,F78,0)*(B72-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="D78">
         <f>IF(G78=0,0,VLOOKUP(B73,hero_star_info!$A:$AJ,G78,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <f>IF(H78=0,0,VLOOKUP(VALUE(CONCATENATE(B71,B74)),hero_data_info!$A:$Y,H78,0))</f>
@@ -15389,15 +16788,15 @@
       </c>
       <c r="J78">
         <f t="shared" si="10"/>
-        <v>1470.5</v>
+        <v>3915</v>
       </c>
       <c r="K78">
         <f>IF(N78=0,0,VLOOKUP(J71,hero_info!$A:$AE,N78,0)*(J72-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="L78">
         <f>IF(O78=0,0,VLOOKUP(J73,hero_star_info!$A:$AJ,O78,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M78">
         <f>IF(P78=0,0,VLOOKUP(VALUE(CONCATENATE(J71,J74)),hero_data_info!$A:$Y,P78,0))</f>
@@ -15421,19 +16820,19 @@
       </c>
       <c r="R78">
         <f t="shared" si="11"/>
-        <v>1523.2</v>
+        <v>3072</v>
       </c>
       <c r="S78">
         <f>IF(V78=0,0,VLOOKUP(R71,hero_info!$A:$AE,V78,0)*(R72-1))</f>
-        <v>576</v>
+        <v>762</v>
       </c>
       <c r="T78">
         <f>IF(W78=0,0,VLOOKUP(R73,hero_star_info!$A:$AJ,W78,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <f>IF(X78=0,0,VLOOKUP(VALUE(CONCATENATE(R71,R74)),hero_data_info!$A:$Y,X78,0))</f>
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="V78">
         <f>IFERROR(VLOOKUP(Q78,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -15455,15 +16854,15 @@
       </c>
       <c r="B79">
         <f t="shared" si="9"/>
-        <v>1484.1</v>
+        <v>3939</v>
       </c>
       <c r="C79">
         <f>IF(F79=0,0,VLOOKUP(B71,hero_info!$A:$AE,F79,0)*(B72-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="D79">
         <f>IF(G79=0,0,VLOOKUP(B73,hero_star_info!$A:$AJ,G79,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <f>IF(H79=0,0,VLOOKUP(VALUE(CONCATENATE(B71,B74)),hero_data_info!$A:$Y,H79,0))</f>
@@ -15487,15 +16886,15 @@
       </c>
       <c r="J79">
         <f t="shared" si="10"/>
-        <v>1567.3999999999999</v>
+        <v>4086</v>
       </c>
       <c r="K79">
         <f>IF(N79=0,0,VLOOKUP(J71,hero_info!$A:$AE,N79,0)*(J72-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="L79">
         <f>IF(O79=0,0,VLOOKUP(J73,hero_star_info!$A:$AJ,O79,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M79">
         <f>IF(P79=0,0,VLOOKUP(VALUE(CONCATENATE(J71,J74)),hero_data_info!$A:$Y,P79,0))</f>
@@ -15519,19 +16918,19 @@
       </c>
       <c r="R79">
         <f t="shared" si="11"/>
-        <v>1186.5999999999999</v>
+        <v>4008</v>
       </c>
       <c r="S79">
         <f>IF(V79=0,0,VLOOKUP(R71,hero_info!$A:$AE,V79,0)*(R72-1))</f>
-        <v>432</v>
+        <v>1016</v>
       </c>
       <c r="T79">
         <f>IF(W79=0,0,VLOOKUP(R73,hero_star_info!$A:$AJ,W79,0)/10000)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <f>IF(X79=0,0,VLOOKUP(VALUE(CONCATENATE(R71,R74)),hero_data_info!$A:$Y,X79,0))</f>
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="V79">
         <f>IFERROR(VLOOKUP(Q79,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -15553,11 +16952,11 @@
       </c>
       <c r="B80">
         <f t="shared" si="9"/>
-        <v>1596</v>
+        <v>2146</v>
       </c>
       <c r="C80">
         <f>IF(F80=0,0,VLOOKUP(B71,hero_info!$A:$AE,F80,0)*(B72-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="D80">
         <f>IF(G80=0,0,VLOOKUP(B73,hero_star_info!$A:$AJ,G80,0)/10000)</f>
@@ -15585,11 +16984,11 @@
       </c>
       <c r="J80">
         <f t="shared" si="10"/>
-        <v>1523</v>
+        <v>2073</v>
       </c>
       <c r="K80">
         <f>IF(N80=0,0,VLOOKUP(J71,hero_info!$A:$AE,N80,0)*(J72-1))</f>
-        <v>720</v>
+        <v>1270</v>
       </c>
       <c r="L80">
         <f>IF(O80=0,0,VLOOKUP(J73,hero_star_info!$A:$AJ,O80,0)/10000)</f>
@@ -15617,11 +17016,11 @@
       </c>
       <c r="R80">
         <f t="shared" si="11"/>
-        <v>1277</v>
+        <v>1724</v>
       </c>
       <c r="S80">
         <f>IF(V80=0,0,VLOOKUP(R71,hero_info!$A:$AE,V80,0)*(R72-1))</f>
-        <v>576</v>
+        <v>1016</v>
       </c>
       <c r="T80">
         <f>IF(W80=0,0,VLOOKUP(R73,hero_star_info!$A:$AJ,W80,0)/10000)</f>
@@ -15629,7 +17028,7 @@
       </c>
       <c r="U80">
         <f>IF(X80=0,0,VLOOKUP(VALUE(CONCATENATE(R71,R74)),hero_data_info!$A:$Y,X80,0))</f>
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="V80">
         <f>IFERROR(VLOOKUP(Q80,属性对应量表位置!$A:$E,3,0),0)</f>
@@ -15941,7 +17340,7 @@
     <row r="84" spans="1:24">
       <c r="A84">
         <f>Test!C84</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B84">
         <f t="shared" si="9"/>
@@ -15969,11 +17368,11 @@
       </c>
       <c r="H84">
         <f>IFERROR(VLOOKUP(A84,属性对应量表位置!$A:$E,5,0),0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I84">
         <f>Test!K84</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J84">
         <f t="shared" si="10"/>
@@ -16001,7 +17400,7 @@
       </c>
       <c r="P84">
         <f>IFERROR(VLOOKUP(I84,属性对应量表位置!$A:$E,5,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q84">
         <f>Test!S84</f>
@@ -26678,142 +28077,142 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E50:K54 E77:K81 E104:K108 E131:K135 E158:K162 E185:K189 E212:K216 E239:K243 E266:K270 E293:K297 E320:K324 E347:K351 E374:K378 J20:K25 C23:C25 E23:I25 A379:K1048576 A28:K49 A26:C27 A55:K76 A50:C54 A82:K103 A77:C81 A109:K130 A104:C108 A136:K157 A131:C135 A163:K184 A158:C162 A190:K211 A185:C189 A217:K238 A212:C216 A244:K265 A239:C243 A271:K292 A266:C270 A298:K319 A293:C297 A325:K346 A320:C324 A352:K373 A347:C351 A374:C378 A20:B25">
-    <cfRule type="expression" dxfId="47" priority="26">
+    <cfRule type="expression" dxfId="37" priority="26">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D27">
-    <cfRule type="expression" dxfId="46" priority="25">
+    <cfRule type="expression" dxfId="36" priority="25">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D54">
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="35" priority="24">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D81">
-    <cfRule type="expression" dxfId="44" priority="23">
+    <cfRule type="expression" dxfId="34" priority="23">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D108">
-    <cfRule type="expression" dxfId="43" priority="22">
+    <cfRule type="expression" dxfId="33" priority="22">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D131:D135">
-    <cfRule type="expression" dxfId="42" priority="21">
+    <cfRule type="expression" dxfId="32" priority="21">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D162">
-    <cfRule type="expression" dxfId="41" priority="20">
+    <cfRule type="expression" dxfId="31" priority="20">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D185:D189">
-    <cfRule type="expression" dxfId="40" priority="19">
+    <cfRule type="expression" dxfId="30" priority="19">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212:D216">
-    <cfRule type="expression" dxfId="39" priority="18">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D239:D243">
-    <cfRule type="expression" dxfId="38" priority="17">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D266:D270">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293:D297">
-    <cfRule type="expression" dxfId="36" priority="15">
+    <cfRule type="expression" dxfId="26" priority="15">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D320:D324">
-    <cfRule type="expression" dxfId="35" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D347:D351">
-    <cfRule type="expression" dxfId="34" priority="13">
+    <cfRule type="expression" dxfId="24" priority="13">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D374:D378">
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:K27">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:K22">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:K19">
-    <cfRule type="expression" dxfId="30" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:N19 U6:W19">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:AC19">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:AC19">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:Q19">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:T19">
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:AJ5">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AP19">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AP19">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AV5">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>OR(#REF!=6,#REF!=10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65694,31 +67093,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A5 Z5:XFD5">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:Y5">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221:A1048576 A1:A40 A48:A83 A91:A126 A134:A169 A177:A212">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A47">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A90">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:A133">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A176">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213:A219">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65728,15 +67127,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD514A6-1D5C-485E-AC49-FA33E51A49D1}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="15" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -65745,7 +67144,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -65755,7 +67154,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="80" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>162</v>
@@ -65764,7 +67163,7 @@
         <v>163</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E2" s="81" t="s">
         <v>168</v>
@@ -65774,7 +67173,7 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="80" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="I2" s="80" t="s">
         <v>162</v>
@@ -65783,7 +67182,7 @@
         <v>163</v>
       </c>
       <c r="K2" s="81" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="L2" s="81" t="s">
         <v>168</v>
@@ -66479,7 +67878,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5">
       <c r="A24" s="15" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -66488,7 +67887,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -66498,7 +67897,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.5">
       <c r="A25" s="80" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B25" s="80" t="s">
         <v>162</v>
@@ -66507,7 +67906,7 @@
         <v>163</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E25" s="81" t="s">
         <v>168</v>
@@ -66517,7 +67916,7 @@
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="80" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="I25" s="80" t="s">
         <v>162</v>
@@ -66526,7 +67925,7 @@
         <v>163</v>
       </c>
       <c r="K25" s="81" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="L25" s="81" t="s">
         <v>168</v>
@@ -67222,7 +68621,7 @@
     </row>
     <row r="47" spans="1:13" ht="16.5">
       <c r="A47" s="15" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -67231,7 +68630,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -67241,7 +68640,7 @@
     </row>
     <row r="48" spans="1:13" ht="16.5">
       <c r="A48" s="80" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B48" s="80" t="s">
         <v>162</v>
@@ -67250,7 +68649,7 @@
         <v>163</v>
       </c>
       <c r="D48" s="81" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E48" s="81" t="s">
         <v>168</v>
@@ -67260,7 +68659,7 @@
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="80" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="I48" s="80" t="s">
         <v>162</v>
@@ -67269,7 +68668,7 @@
         <v>163</v>
       </c>
       <c r="K48" s="81" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="L48" s="81" t="s">
         <v>168</v>
@@ -67949,6 +69348,7 @@
       <c r="M68" s="82"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -67989,10 +69389,10 @@
         <v>161</v>
       </c>
       <c r="F1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -69245,7 +70645,7 @@
       </c>
       <c r="C2" t="str">
         <f>Test!A91</f>
-        <v>[{"title":"A","num":1,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":6850},{"id":2,"value":107389},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":864},{"id":8,"value":864},{"id":20,"value":1314}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":9206},{"id":2,"value":94826},{"id":5,"value":1900},{"id":6,"value":1572},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":7625},{"id":2,"value":103379},{"id":5,"value":1888},{"id":6,"value":1992},{"id":4,"value":46077},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"C","num":5,"id":53001,"skills":[5300100,5300113,5300123,5300133,5300143],"passive_skills":[],"attrs":[{"id":1,"value":10142},{"id":2,"value":102922},{"id":5,"value":1985},{"id":6,"value":1907},{"id":4,"value":46054},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":6850},{"id":2,"value":119968},{"id":5,"value":2359},{"id":6,"value":1591},{"id":4,"value":46000},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314},{"id":25,"value":2814}]},{"title":"S","num":7,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":6844},{"id":2,"value":114599},{"id":5,"value":2308},{"id":6,"value":1558},{"id":4,"value":46023},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":9750},{"id":2,"value":104542},{"id":5,"value":2004},{"id":6,"value":1888},{"id":4,"value":46092},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":7154},{"id":2,"value":101378},{"id":5,"value":1875},{"id":6,"value":1971},{"id":4,"value":46019},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"C","num":10,"id":23002,"skills":[2300200,2300213,2300223,2300233,2300243],"passive_skills":[],"attrs":[{"id":1,"value":8407},{"id":2,"value":97318},{"id":5,"value":1927},{"id":6,"value":1591},{"id":4,"value":45773},{"id":7,"value":814},{"id":8,"value":814},{"id":20,"value":1314}]},{"title":"1","num":101,"id":74002,"skills":[7400205],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400105],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300105],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400205],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400105],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300105],"attrs":[]}]</v>
+        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/excel_battlefield.xlsx
+++ b/excel_battlefield.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PythonProjects\Turn-basedBattleSimuBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3686E36-2B8C-4844-A9C9-BDEA0736E565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41644583-CB68-4FF3-B635-24960553CC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
     <sheet name="input" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="属性计算" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="属性计算" sheetId="7" r:id="rId3"/>
     <sheet name="hero_info" sheetId="4" r:id="rId4"/>
     <sheet name="hero_star_info" sheetId="6" r:id="rId5"/>
     <sheet name="hero_data_info" sheetId="5" r:id="rId6"/>
     <sheet name="神器总属性" sheetId="12" r:id="rId7"/>
-    <sheet name="属性对应量表位置" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="属性对应量表位置" sheetId="8" r:id="rId8"/>
     <sheet name="Contents" sheetId="11" r:id="rId9"/>
     <sheet name="Info" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -1061,7 +1061,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="698">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3242,59 +3242,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神器1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器2</t>
-  </si>
-  <si>
-    <t>神器3</t>
-  </si>
-  <si>
     <t>神器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神器2</t>
+    <t>战力系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20201222200731.json</t>
+    <t>20201225154347.json</t>
   </si>
   <si>
-    <t>20201222200740.json</t>
+    <t>20201225154359.json</t>
   </si>
   <si>
-    <t>20201222200750.json</t>
+    <t>20201225154412.json</t>
   </si>
   <si>
-    <t>20201222200800.json</t>
+    <t>20201225154424.json</t>
   </si>
   <si>
-    <t>20201222200809.json</t>
+    <t>20201225154437.json</t>
   </si>
   <si>
-    <t>20201222200820.json</t>
+    <t>20201225154450.json</t>
   </si>
   <si>
-    <t>20201222200831.json</t>
+    <t>20201225154502.json</t>
   </si>
   <si>
-    <t>20201222200842.json</t>
+    <t>20201225154513.json</t>
   </si>
   <si>
-    <t>20201222200852.json</t>
+    <t>20201225154526.json</t>
   </si>
   <si>
-    <t>20201222200903.json</t>
+    <t>20201225154538.json</t>
+  </si>
+  <si>
+    <t>20201225160227.json</t>
+  </si>
+  <si>
+    <t>20201225160227.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160238.json</t>
+  </si>
+  <si>
+    <t>20201225160238.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160251.json</t>
+  </si>
+  <si>
+    <t>20201225160251.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160302.json</t>
+  </si>
+  <si>
+    <t>20201225160302.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160314.json</t>
+  </si>
+  <si>
+    <t>20201225160314.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160326.json</t>
+  </si>
+  <si>
+    <t>20201225160326.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160338.json</t>
+  </si>
+  <si>
+    <t>20201225160338.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160350.json</t>
+  </si>
+  <si>
+    <t>20201225160350.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160402.json</t>
+  </si>
+  <si>
+    <t>20201225160402.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201225160412.json</t>
+  </si>
+  <si>
+    <t>20201225160412.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3484,8 +3544,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3636,6 +3703,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -3704,7 +3795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3910,6 +4001,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - 着色 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4751,8 +4847,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4878,14 +4974,14 @@
         <v>启用</v>
       </c>
       <c r="U10" s="75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10" t="str">
         <f>IF(W10="","未启用","启用")</f>
         <v>启用</v>
       </c>
       <c r="W10" s="75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -4977,10 +5073,10 @@
         <v>4</v>
       </c>
       <c r="S12" s="76">
+        <v>74001</v>
+      </c>
+      <c r="U12" s="76">
         <v>74002</v>
-      </c>
-      <c r="U12" s="76">
-        <v>74001</v>
       </c>
       <c r="W12" s="76">
         <v>73001</v>
@@ -5048,10 +5144,10 @@
         <v>7</v>
       </c>
       <c r="S13" s="76">
+        <v>7400110</v>
+      </c>
+      <c r="U13" s="76">
         <v>7400210</v>
-      </c>
-      <c r="U13" s="76">
-        <v>7400110</v>
       </c>
       <c r="W13" s="76">
         <v>7300110</v>
@@ -6768,10 +6864,10 @@
         <v>4</v>
       </c>
       <c r="S52" s="78">
+        <v>74001</v>
+      </c>
+      <c r="U52" s="78">
         <v>74002</v>
-      </c>
-      <c r="U52" s="78">
-        <v>74001</v>
       </c>
       <c r="W52" s="78">
         <v>73002</v>
@@ -6839,10 +6935,10 @@
         <v>7</v>
       </c>
       <c r="S53" s="78">
+        <v>7400110</v>
+      </c>
+      <c r="U53" s="78">
         <v>7400210</v>
-      </c>
-      <c r="U53" s="78">
-        <v>7400110</v>
       </c>
       <c r="W53" s="78">
         <v>7300110</v>
@@ -8409,7 +8505,7 @@
     <row r="91" spans="1:23">
       <c r="A91" s="73" t="str">
         <f>input!B1</f>
-        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
+        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74001,"skills":[7400110],"attrs":[]},{"title":"1","num":102,"id":74002,"skills":[7400210],"attrs":[]},{"title":"1","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74001,"skills":[7400110],"attrs":[]},{"title":"2","num":105,"id":74002,"skills":[7400210],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
       </c>
       <c r="B91" s="73"/>
       <c r="C91" s="73"/>
@@ -8819,17 +8915,27 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:BX20"/>
+  <dimension ref="A1:BX32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N37" sqref="N37"/>
+      <selection pane="topRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="19" max="20" width="0.75" customWidth="1"/>
+    <col min="27" max="28" width="0.75" customWidth="1"/>
     <col min="33" max="33" width="9" customWidth="1"/>
+    <col min="34" max="34" width="1.375" customWidth="1"/>
+    <col min="35" max="36" width="1" customWidth="1"/>
+    <col min="42" max="42" width="1.125" customWidth="1"/>
+    <col min="43" max="44" width="0.625" customWidth="1"/>
+    <col min="51" max="52" width="0.75" customWidth="1"/>
+    <col min="59" max="60" width="0.75" customWidth="1"/>
+    <col min="67" max="68" width="0.75" customWidth="1"/>
+    <col min="75" max="76" width="0.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76">
@@ -8886,9 +8992,6 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
     </row>
-    <row r="4" spans="1:76">
-      <c r="T4" s="10"/>
-    </row>
     <row r="5" spans="1:76">
       <c r="A5" t="s">
         <v>517</v>
@@ -8972,14 +9075,194 @@
       <c r="M8">
         <v>13</v>
       </c>
+      <c r="N8">
+        <v>14</v>
+      </c>
+      <c r="O8">
+        <v>15</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
+      <c r="Q8">
+        <v>17</v>
+      </c>
+      <c r="R8">
+        <v>18</v>
+      </c>
+      <c r="S8">
+        <v>19</v>
+      </c>
+      <c r="T8">
+        <v>20</v>
+      </c>
+      <c r="U8">
+        <v>21</v>
+      </c>
+      <c r="V8">
+        <v>22</v>
+      </c>
+      <c r="W8">
+        <v>23</v>
+      </c>
+      <c r="X8">
+        <v>24</v>
+      </c>
+      <c r="Y8">
+        <v>25</v>
+      </c>
+      <c r="Z8">
+        <v>26</v>
+      </c>
+      <c r="AA8">
+        <v>27</v>
+      </c>
+      <c r="AB8">
+        <v>28</v>
+      </c>
       <c r="AC8">
         <v>29</v>
       </c>
+      <c r="AD8">
+        <v>30</v>
+      </c>
+      <c r="AE8">
+        <v>31</v>
+      </c>
+      <c r="AF8">
+        <v>32</v>
+      </c>
+      <c r="AG8">
+        <v>33</v>
+      </c>
+      <c r="AH8">
+        <v>34</v>
+      </c>
+      <c r="AI8">
+        <v>35</v>
+      </c>
+      <c r="AJ8">
+        <v>36</v>
+      </c>
+      <c r="AK8">
+        <v>37</v>
+      </c>
+      <c r="AL8">
+        <v>38</v>
+      </c>
+      <c r="AM8">
+        <v>39</v>
+      </c>
+      <c r="AN8">
+        <v>40</v>
+      </c>
+      <c r="AO8">
+        <v>41</v>
+      </c>
+      <c r="AP8">
+        <v>42</v>
+      </c>
+      <c r="AQ8">
+        <v>43</v>
+      </c>
+      <c r="AR8">
+        <v>44</v>
+      </c>
       <c r="AS8">
+        <v>45</v>
+      </c>
+      <c r="AT8">
+        <v>46</v>
+      </c>
+      <c r="AU8">
         <v>47</v>
       </c>
+      <c r="AV8">
+        <v>48</v>
+      </c>
+      <c r="AW8">
+        <v>49</v>
+      </c>
+      <c r="AX8">
+        <v>50</v>
+      </c>
+      <c r="AY8">
+        <v>51</v>
+      </c>
+      <c r="AZ8">
+        <v>52</v>
+      </c>
+      <c r="BA8">
+        <v>53</v>
+      </c>
+      <c r="BB8">
+        <v>54</v>
+      </c>
+      <c r="BC8">
+        <v>55</v>
+      </c>
+      <c r="BD8">
+        <v>56</v>
+      </c>
+      <c r="BE8">
+        <v>57</v>
+      </c>
+      <c r="BF8">
+        <v>58</v>
+      </c>
+      <c r="BG8">
+        <v>59</v>
+      </c>
+      <c r="BH8">
+        <v>60</v>
+      </c>
       <c r="BI8">
+        <v>61</v>
+      </c>
+      <c r="BJ8">
+        <v>62</v>
+      </c>
+      <c r="BK8">
         <v>63</v>
+      </c>
+      <c r="BL8">
+        <v>64</v>
+      </c>
+      <c r="BM8">
+        <v>65</v>
+      </c>
+      <c r="BN8">
+        <v>66</v>
+      </c>
+      <c r="BO8">
+        <v>67</v>
+      </c>
+      <c r="BP8">
+        <v>68</v>
+      </c>
+      <c r="BQ8">
+        <v>69</v>
+      </c>
+      <c r="BR8">
+        <v>70</v>
+      </c>
+      <c r="BS8">
+        <v>71</v>
+      </c>
+      <c r="BT8">
+        <v>72</v>
+      </c>
+      <c r="BU8">
+        <v>73</v>
+      </c>
+      <c r="BV8">
+        <v>74</v>
+      </c>
+      <c r="BW8">
+        <v>75</v>
+      </c>
+      <c r="BX8">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:76">
@@ -9018,54 +9301,46 @@
       <c r="J10" t="s">
         <v>283</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="84" t="s">
         <v>518</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="84" t="s">
         <v>519</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="84" t="s">
         <v>521</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="84" t="s">
         <v>522</v>
       </c>
-      <c r="R10" t="s">
-        <v>669</v>
-      </c>
-      <c r="S10" t="s">
-        <v>670</v>
-      </c>
-      <c r="T10" t="s">
-        <v>668</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="R10" s="85" t="s">
+        <v>666</v>
+      </c>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="86" t="s">
         <v>524</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="86" t="s">
         <v>526</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="86" t="s">
         <v>528</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="86" t="s">
         <v>530</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="86" t="s">
         <v>532</v>
       </c>
-      <c r="Z10" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>668</v>
-      </c>
+      <c r="Z10" s="87" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
       <c r="AC10" t="s">
         <v>518</v>
       </c>
@@ -9082,13 +9357,7 @@
         <v>522</v>
       </c>
       <c r="AH10" t="s">
-        <v>669</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>667</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AK10" t="s">
         <v>524</v>
@@ -9106,13 +9375,7 @@
         <v>532</v>
       </c>
       <c r="AP10" t="s">
-        <v>669</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>667</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AS10" t="s">
         <v>518</v>
@@ -9132,12 +9395,6 @@
       <c r="AX10" t="s">
         <v>666</v>
       </c>
-      <c r="AY10" t="s">
-        <v>667</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>668</v>
-      </c>
       <c r="BA10" t="s">
         <v>524</v>
       </c>
@@ -9156,12 +9413,6 @@
       <c r="BF10" t="s">
         <v>666</v>
       </c>
-      <c r="BG10" t="s">
-        <v>667</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>668</v>
-      </c>
       <c r="BI10" t="s">
         <v>518</v>
       </c>
@@ -9180,12 +9431,6 @@
       <c r="BN10" t="s">
         <v>666</v>
       </c>
-      <c r="BO10" t="s">
-        <v>667</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>668</v>
-      </c>
       <c r="BQ10" t="s">
         <v>524</v>
       </c>
@@ -9204,347 +9449,215 @@
       <c r="BV10" t="s">
         <v>666</v>
       </c>
-      <c r="BW10" t="s">
-        <v>667</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>668</v>
-      </c>
     </row>
     <row r="11" spans="1:76">
       <c r="A11" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>671</v>
-      </c>
-      <c r="M11">
-        <v>235452</v>
-      </c>
-      <c r="N11">
-        <v>162026</v>
-      </c>
-      <c r="O11">
-        <v>411338</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>405617</v>
-      </c>
-      <c r="R11">
-        <v>226980</v>
-      </c>
-      <c r="U11">
-        <v>327834</v>
-      </c>
-      <c r="V11">
-        <v>168088</v>
-      </c>
-      <c r="W11">
-        <v>389125</v>
-      </c>
-      <c r="X11">
-        <v>297086</v>
-      </c>
-      <c r="Y11">
-        <v>235771</v>
-      </c>
-      <c r="Z11">
-        <v>279360</v>
-      </c>
-      <c r="AC11">
-        <v>319113</v>
-      </c>
-      <c r="AD11">
-        <v>321935</v>
-      </c>
-      <c r="AE11">
-        <v>236495</v>
-      </c>
-      <c r="AF11">
-        <v>219648</v>
-      </c>
-      <c r="AG11">
-        <v>289019</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>378968</v>
-      </c>
-      <c r="AL11">
-        <v>201162</v>
-      </c>
-      <c r="AM11">
-        <v>201166</v>
-      </c>
-      <c r="AN11">
-        <v>169468</v>
-      </c>
-      <c r="AO11">
-        <v>391676</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>167418</v>
-      </c>
-      <c r="AV11">
-        <v>97639</v>
-      </c>
-      <c r="AW11">
-        <v>411338</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>405617</v>
-      </c>
-      <c r="AZ11">
-        <v>226980</v>
-      </c>
-      <c r="BC11">
-        <v>165010</v>
-      </c>
-      <c r="BD11">
-        <v>118198</v>
-      </c>
-      <c r="BE11">
-        <v>389125</v>
-      </c>
-      <c r="BF11">
-        <v>232194</v>
-      </c>
-      <c r="BG11">
-        <v>235771</v>
-      </c>
-      <c r="BH11">
-        <v>279360</v>
-      </c>
-      <c r="BK11">
-        <v>68034</v>
-      </c>
-      <c r="BL11">
-        <v>64387</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>162824</v>
-      </c>
-      <c r="BT11">
-        <v>49890</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11">
-        <v>64892</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
+        <v>251543</v>
+      </c>
+      <c r="M11" t="s">
+        <v>355</v>
+      </c>
+      <c r="N11" t="s">
+        <v>351</v>
+      </c>
+      <c r="O11" t="s">
+        <v>348</v>
+      </c>
+      <c r="P11" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>364</v>
+      </c>
+      <c r="U11" t="s">
+        <v>591</v>
+      </c>
+      <c r="V11" t="s">
+        <v>355</v>
+      </c>
+      <c r="W11" t="s">
+        <v>364</v>
+      </c>
+      <c r="X11" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:76">
       <c r="A12" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M12">
-        <v>137333</v>
+        <v>167346</v>
       </c>
       <c r="N12">
-        <v>188327</v>
+        <v>131870</v>
       </c>
       <c r="O12">
-        <v>720890</v>
+        <v>327056</v>
       </c>
       <c r="P12">
-        <v>115129</v>
+        <v>98682</v>
       </c>
       <c r="Q12">
-        <v>610947</v>
+        <v>182862</v>
       </c>
       <c r="R12">
-        <v>296820</v>
+        <v>87300</v>
       </c>
       <c r="U12">
-        <v>301599</v>
+        <v>354032</v>
       </c>
       <c r="V12">
-        <v>133451</v>
+        <v>37016</v>
       </c>
       <c r="W12">
-        <v>251240</v>
+        <v>283667</v>
       </c>
       <c r="X12">
-        <v>224916</v>
+        <v>150211</v>
       </c>
       <c r="Y12">
-        <v>229883</v>
+        <v>730518</v>
       </c>
       <c r="Z12">
-        <v>226980</v>
+        <v>198170</v>
       </c>
       <c r="AC12">
-        <v>286199</v>
+        <v>328352</v>
       </c>
       <c r="AD12">
-        <v>260307</v>
+        <v>334031</v>
       </c>
       <c r="AE12">
-        <v>241636</v>
+        <v>248431</v>
       </c>
       <c r="AF12">
-        <v>300808</v>
+        <v>261280</v>
       </c>
       <c r="AG12">
-        <v>147886</v>
+        <v>289272</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>427822</v>
+        <v>240106</v>
       </c>
       <c r="AL12">
-        <v>291622</v>
+        <v>112788</v>
       </c>
       <c r="AM12">
-        <v>284220</v>
+        <v>154715</v>
       </c>
       <c r="AN12">
-        <v>212480</v>
+        <v>17460</v>
       </c>
       <c r="AO12">
-        <v>479321</v>
+        <v>309931</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
+      <c r="AS12">
+        <v>121990</v>
+      </c>
+      <c r="AT12">
+        <v>67483</v>
+      </c>
       <c r="AU12">
-        <v>91977</v>
+        <v>327056</v>
       </c>
       <c r="AV12">
-        <v>123940</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>574508</v>
+        <v>182862</v>
       </c>
       <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>585611</v>
-      </c>
-      <c r="AZ12">
-        <v>296820</v>
+        <v>87300</v>
+      </c>
+      <c r="BA12">
+        <v>191208</v>
+      </c>
+      <c r="BB12">
+        <v>37016</v>
       </c>
       <c r="BC12">
-        <v>220187</v>
+        <v>283667</v>
       </c>
       <c r="BD12">
-        <v>106239</v>
+        <v>69096</v>
       </c>
       <c r="BE12">
-        <v>251240</v>
+        <v>730518</v>
       </c>
       <c r="BF12">
-        <v>224916</v>
-      </c>
-      <c r="BG12">
-        <v>229883</v>
-      </c>
-      <c r="BH12">
-        <v>226980</v>
+        <v>198170</v>
+      </c>
+      <c r="BI12">
+        <v>45356</v>
+      </c>
+      <c r="BJ12">
+        <v>64387</v>
       </c>
       <c r="BK12">
-        <v>45356</v>
+        <v>0</v>
       </c>
       <c r="BL12">
-        <v>64387</v>
+        <v>98682</v>
       </c>
       <c r="BM12">
-        <v>146382</v>
+        <v>0</v>
       </c>
       <c r="BN12">
-        <v>115129</v>
-      </c>
-      <c r="BO12">
-        <v>25336</v>
-      </c>
-      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>162824</v>
+      </c>
+      <c r="BR12">
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>81412</v>
+        <v>0</v>
       </c>
       <c r="BT12">
-        <v>27212</v>
+        <v>81115</v>
       </c>
       <c r="BU12">
         <v>0</v>
       </c>
       <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:76">
       <c r="A13" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -9556,136 +9669,142 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M13">
-        <v>148945</v>
+        <v>152500</v>
       </c>
       <c r="N13">
-        <v>120340</v>
+        <v>122461</v>
       </c>
       <c r="O13">
-        <v>860593</v>
+        <v>987765</v>
       </c>
       <c r="P13">
-        <v>171338</v>
+        <v>177005</v>
       </c>
       <c r="Q13">
-        <v>506594</v>
+        <v>460709</v>
       </c>
       <c r="R13">
-        <v>174600</v>
+        <v>250550</v>
       </c>
       <c r="U13">
-        <v>302764</v>
+        <v>337143</v>
       </c>
       <c r="V13">
-        <v>38872</v>
+        <v>126488</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>91308</v>
       </c>
       <c r="X13">
-        <v>148061</v>
+        <v>169519</v>
       </c>
       <c r="Y13">
-        <v>125614</v>
+        <v>194357</v>
       </c>
       <c r="Z13">
         <v>87300</v>
       </c>
       <c r="AC13">
-        <v>127375</v>
+        <v>156061</v>
       </c>
       <c r="AD13">
-        <v>104054</v>
+        <v>100045</v>
       </c>
       <c r="AE13">
-        <v>138437</v>
+        <v>148540</v>
       </c>
       <c r="AF13">
-        <v>117332</v>
+        <v>254600</v>
       </c>
       <c r="AG13">
-        <v>129671</v>
+        <v>142682</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>419892</v>
+        <v>513457</v>
       </c>
       <c r="AL13">
-        <v>230316</v>
+        <v>409878</v>
       </c>
       <c r="AM13">
-        <v>247008</v>
+        <v>260222</v>
       </c>
       <c r="AN13">
-        <v>268629</v>
+        <v>228031</v>
       </c>
       <c r="AO13">
-        <v>526561</v>
+        <v>452630</v>
       </c>
       <c r="AP13">
         <v>0</v>
       </c>
+      <c r="AS13">
+        <v>107144</v>
+      </c>
+      <c r="AT13">
+        <v>122461</v>
+      </c>
       <c r="AU13">
-        <v>103589</v>
+        <v>890177</v>
       </c>
       <c r="AV13">
-        <v>120340</v>
+        <v>19026</v>
       </c>
       <c r="AW13">
-        <v>763005</v>
+        <v>460709</v>
       </c>
       <c r="AX13">
-        <v>19948</v>
-      </c>
-      <c r="AY13">
-        <v>506594</v>
-      </c>
-      <c r="AZ13">
-        <v>174600</v>
+        <v>250550</v>
+      </c>
+      <c r="BA13">
+        <v>174319</v>
+      </c>
+      <c r="BB13">
+        <v>99276</v>
       </c>
       <c r="BC13">
-        <v>221352</v>
+        <v>91308</v>
       </c>
       <c r="BD13">
-        <v>38872</v>
+        <v>169519</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>194357</v>
       </c>
       <c r="BF13">
-        <v>148061</v>
-      </c>
-      <c r="BG13">
-        <v>125614</v>
-      </c>
-      <c r="BH13">
         <v>87300</v>
       </c>
+      <c r="BI13">
+        <v>45356</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
       <c r="BK13">
-        <v>45356</v>
+        <v>97588</v>
       </c>
       <c r="BL13">
-        <v>0</v>
+        <v>157979</v>
       </c>
       <c r="BM13">
-        <v>97588</v>
+        <v>0</v>
       </c>
       <c r="BN13">
-        <v>151390</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>162824</v>
+      </c>
+      <c r="BR13">
+        <v>27212</v>
       </c>
       <c r="BS13">
-        <v>81412</v>
+        <v>0</v>
       </c>
       <c r="BT13">
         <v>0</v>
@@ -9694,513 +9813,507 @@
         <v>0</v>
       </c>
       <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:76">
       <c r="A14" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
         <v>4</v>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
       <c r="J14" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="M14">
-        <v>153425</v>
+        <v>204567</v>
       </c>
       <c r="N14">
-        <v>164431</v>
+        <v>122549</v>
       </c>
       <c r="O14">
-        <v>748814</v>
+        <v>424601</v>
       </c>
       <c r="P14">
-        <v>135010</v>
+        <v>98682</v>
       </c>
       <c r="Q14">
-        <v>605925</v>
+        <v>541073</v>
       </c>
       <c r="R14">
-        <v>296820</v>
+        <v>215630</v>
       </c>
       <c r="U14">
-        <v>612688</v>
+        <v>349989</v>
       </c>
       <c r="V14">
-        <v>86215</v>
+        <v>225863</v>
       </c>
       <c r="W14">
-        <v>398841</v>
+        <v>460829</v>
       </c>
       <c r="X14">
-        <v>375094</v>
+        <v>336697</v>
       </c>
       <c r="Y14">
-        <v>229883</v>
+        <v>252539</v>
       </c>
       <c r="Z14">
-        <v>209520</v>
+        <v>250550</v>
       </c>
       <c r="AC14">
-        <v>284578</v>
+        <v>293901</v>
       </c>
       <c r="AD14">
-        <v>353543</v>
+        <v>363900</v>
       </c>
       <c r="AE14">
-        <v>256395</v>
+        <v>246433</v>
       </c>
       <c r="AF14">
-        <v>306814</v>
+        <v>311392</v>
       </c>
       <c r="AG14">
-        <v>169339</v>
+        <v>257742</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>458261</v>
+        <v>342143</v>
       </c>
       <c r="AL14">
-        <v>305830</v>
+        <v>213178</v>
       </c>
       <c r="AM14">
-        <v>393411</v>
+        <v>287121</v>
       </c>
       <c r="AN14">
-        <v>298992</v>
+        <v>122271</v>
       </c>
       <c r="AO14">
-        <v>391676</v>
+        <v>467353</v>
       </c>
       <c r="AP14">
         <v>0</v>
       </c>
+      <c r="AS14">
+        <v>136533</v>
+      </c>
+      <c r="AT14">
+        <v>58162</v>
+      </c>
       <c r="AU14">
-        <v>108069</v>
+        <v>424601</v>
       </c>
       <c r="AV14">
-        <v>100044</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>651226</v>
+        <v>541073</v>
       </c>
       <c r="AX14">
-        <v>9974</v>
-      </c>
-      <c r="AY14">
-        <v>605925</v>
-      </c>
-      <c r="AZ14">
-        <v>296820</v>
+        <v>215630</v>
+      </c>
+      <c r="BA14">
+        <v>187165</v>
+      </c>
+      <c r="BB14">
+        <v>171439</v>
       </c>
       <c r="BC14">
-        <v>287040</v>
+        <v>460829</v>
       </c>
       <c r="BD14">
-        <v>68075</v>
+        <v>206913</v>
       </c>
       <c r="BE14">
-        <v>398841</v>
+        <v>252539</v>
       </c>
       <c r="BF14">
-        <v>253422</v>
-      </c>
-      <c r="BG14">
-        <v>229883</v>
-      </c>
-      <c r="BH14">
-        <v>209520</v>
+        <v>250550</v>
+      </c>
+      <c r="BI14">
+        <v>68034</v>
+      </c>
+      <c r="BJ14">
+        <v>64387</v>
       </c>
       <c r="BK14">
-        <v>45356</v>
+        <v>0</v>
       </c>
       <c r="BL14">
-        <v>64387</v>
+        <v>98682</v>
       </c>
       <c r="BM14">
-        <v>97588</v>
+        <v>0</v>
       </c>
       <c r="BN14">
-        <v>125036</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>162824</v>
+      </c>
+      <c r="BR14">
+        <v>54424</v>
       </c>
       <c r="BS14">
-        <v>325648</v>
+        <v>0</v>
       </c>
       <c r="BT14">
-        <v>18140</v>
+        <v>129784</v>
       </c>
       <c r="BU14">
         <v>0</v>
       </c>
       <c r="BV14">
-        <v>121672</v>
-      </c>
-      <c r="BW14">
-        <v>0</v>
-      </c>
-      <c r="BX14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:76">
       <c r="A15" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="M15">
-        <v>167984</v>
+        <v>153098</v>
       </c>
       <c r="N15">
-        <v>151772</v>
+        <v>188071</v>
       </c>
       <c r="O15">
-        <v>245192</v>
+        <v>522897</v>
       </c>
       <c r="P15">
         <v>98682</v>
       </c>
       <c r="Q15">
-        <v>273260</v>
+        <v>431657</v>
       </c>
       <c r="R15">
-        <v>87300</v>
+        <v>215630</v>
       </c>
       <c r="U15">
-        <v>310410</v>
+        <v>512772</v>
       </c>
       <c r="V15">
-        <v>118514</v>
+        <v>132910</v>
       </c>
       <c r="W15">
-        <v>447622</v>
+        <v>553417</v>
       </c>
       <c r="X15">
-        <v>192816</v>
+        <v>291701</v>
       </c>
       <c r="Y15">
-        <v>576878</v>
+        <v>184052</v>
       </c>
       <c r="Z15">
-        <v>157140</v>
+        <v>250550</v>
       </c>
       <c r="AC15">
-        <v>273243</v>
+        <v>279899</v>
       </c>
       <c r="AD15">
-        <v>347542</v>
+        <v>405210</v>
       </c>
       <c r="AE15">
-        <v>237927</v>
+        <v>234166</v>
       </c>
       <c r="AF15">
-        <v>311103</v>
+        <v>254756</v>
       </c>
       <c r="AG15">
-        <v>283311</v>
+        <v>285872</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>211692</v>
+        <v>313200</v>
       </c>
       <c r="AL15">
-        <v>133210</v>
+        <v>323721</v>
       </c>
       <c r="AM15">
-        <v>183706</v>
+        <v>314894</v>
       </c>
       <c r="AN15">
-        <v>30181</v>
+        <v>138609</v>
       </c>
       <c r="AO15">
-        <v>302688</v>
+        <v>391676</v>
       </c>
       <c r="AP15">
         <v>0</v>
       </c>
+      <c r="AS15">
+        <v>107742</v>
+      </c>
+      <c r="AT15">
+        <v>123684</v>
+      </c>
       <c r="AU15">
-        <v>122628</v>
+        <v>522897</v>
       </c>
       <c r="AV15">
-        <v>87385</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>245192</v>
+        <v>431657</v>
       </c>
       <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>273260</v>
-      </c>
-      <c r="AZ15">
-        <v>87300</v>
+        <v>215630</v>
+      </c>
+      <c r="BA15">
+        <v>268536</v>
+      </c>
+      <c r="BB15">
+        <v>105698</v>
       </c>
       <c r="BC15">
-        <v>147586</v>
+        <v>553417</v>
       </c>
       <c r="BD15">
-        <v>91302</v>
+        <v>178140</v>
       </c>
       <c r="BE15">
-        <v>414231</v>
+        <v>184052</v>
       </c>
       <c r="BF15">
-        <v>111701</v>
-      </c>
-      <c r="BG15">
-        <v>576878</v>
-      </c>
-      <c r="BH15">
-        <v>157140</v>
+        <v>250550</v>
+      </c>
+      <c r="BI15">
+        <v>45356</v>
+      </c>
+      <c r="BJ15">
+        <v>64387</v>
       </c>
       <c r="BK15">
-        <v>45356</v>
+        <v>0</v>
       </c>
       <c r="BL15">
-        <v>64387</v>
+        <v>98682</v>
       </c>
       <c r="BM15">
         <v>0</v>
       </c>
       <c r="BN15">
-        <v>98682</v>
-      </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>244236</v>
+      </c>
+      <c r="BR15">
+        <v>27212</v>
       </c>
       <c r="BS15">
-        <v>162824</v>
+        <v>0</v>
       </c>
       <c r="BT15">
-        <v>27212</v>
+        <v>113561</v>
       </c>
       <c r="BU15">
-        <v>33391</v>
+        <v>0</v>
       </c>
       <c r="BV15">
-        <v>81115</v>
-      </c>
-      <c r="BW15">
-        <v>0</v>
-      </c>
-      <c r="BX15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:76">
       <c r="A16" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>672</v>
+      </c>
+      <c r="M16">
+        <v>124685</v>
+      </c>
+      <c r="N16">
+        <v>141518</v>
+      </c>
+      <c r="O16">
+        <v>614861</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>382366</v>
+      </c>
+      <c r="R16">
+        <v>215630</v>
+      </c>
+      <c r="U16">
+        <v>505295</v>
+      </c>
+      <c r="V16">
+        <v>137758</v>
+      </c>
+      <c r="W16">
+        <v>334246</v>
+      </c>
+      <c r="X16">
+        <v>348644</v>
+      </c>
+      <c r="Y16">
+        <v>293604</v>
+      </c>
+      <c r="Z16">
+        <v>233090</v>
+      </c>
+      <c r="AC16">
+        <v>286223</v>
+      </c>
+      <c r="AD16">
+        <v>322939</v>
+      </c>
+      <c r="AE16">
+        <v>295698</v>
+      </c>
+      <c r="AF16">
+        <v>219513</v>
+      </c>
+      <c r="AG16">
+        <v>232238</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>376287</v>
+      </c>
+      <c r="AL16">
+        <v>107478</v>
+      </c>
+      <c r="AM16">
+        <v>296883</v>
+      </c>
+      <c r="AN16">
+        <v>197777</v>
+      </c>
+      <c r="AO16">
+        <v>391676</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>102007</v>
+      </c>
+      <c r="AT16">
+        <v>77131</v>
+      </c>
+      <c r="AU16">
+        <v>517273</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>382366</v>
+      </c>
+      <c r="AX16">
+        <v>215630</v>
+      </c>
+      <c r="BA16">
+        <v>261059</v>
+      </c>
+      <c r="BB16">
+        <v>83334</v>
+      </c>
+      <c r="BC16">
+        <v>334246</v>
+      </c>
+      <c r="BD16">
+        <v>226972</v>
+      </c>
+      <c r="BE16">
+        <v>293604</v>
+      </c>
+      <c r="BF16">
+        <v>233090</v>
+      </c>
+      <c r="BI16">
+        <v>22678</v>
+      </c>
+      <c r="BJ16">
+        <v>64387</v>
+      </c>
+      <c r="BK16">
+        <v>97588</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>244236</v>
+      </c>
+      <c r="BR16">
+        <v>54424</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>121672</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74">
+      <c r="A17" t="s">
+        <v>691</v>
+      </c>
+      <c r="F17">
         <v>6</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>676</v>
-      </c>
-      <c r="M16">
-        <v>256216</v>
-      </c>
-      <c r="N16">
-        <v>170480</v>
-      </c>
-      <c r="O16">
-        <v>1041794</v>
-      </c>
-      <c r="P16">
-        <v>171338</v>
-      </c>
-      <c r="Q16">
-        <v>460709</v>
-      </c>
-      <c r="R16">
-        <v>331740</v>
-      </c>
-      <c r="U16">
-        <v>786863</v>
-      </c>
-      <c r="V16">
-        <v>459442</v>
-      </c>
-      <c r="W16">
-        <v>136962</v>
-      </c>
-      <c r="X16">
-        <v>333305</v>
-      </c>
-      <c r="Y16">
-        <v>240599</v>
-      </c>
-      <c r="Z16">
-        <v>331740</v>
-      </c>
-      <c r="AC16">
-        <v>310341</v>
-      </c>
-      <c r="AD16">
-        <v>376019</v>
-      </c>
-      <c r="AE16">
-        <v>345390</v>
-      </c>
-      <c r="AF16">
-        <v>282907</v>
-      </c>
-      <c r="AG16">
-        <v>268260</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>615146</v>
-      </c>
-      <c r="AL16">
-        <v>439411</v>
-      </c>
-      <c r="AM16">
-        <v>260222</v>
-      </c>
-      <c r="AN16">
-        <v>254730</v>
-      </c>
-      <c r="AO16">
-        <v>452630</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>188182</v>
-      </c>
-      <c r="AV16">
-        <v>106093</v>
-      </c>
-      <c r="AW16">
-        <v>846618</v>
-      </c>
-      <c r="AX16">
-        <v>19948</v>
-      </c>
-      <c r="AY16">
-        <v>460709</v>
-      </c>
-      <c r="AZ16">
-        <v>331740</v>
-      </c>
-      <c r="BC16">
-        <v>379803</v>
-      </c>
-      <c r="BD16">
-        <v>278026</v>
-      </c>
-      <c r="BE16">
-        <v>136962</v>
-      </c>
-      <c r="BF16">
-        <v>284636</v>
-      </c>
-      <c r="BG16">
-        <v>240599</v>
-      </c>
-      <c r="BH16">
-        <v>331740</v>
-      </c>
-      <c r="BK16">
-        <v>68034</v>
-      </c>
-      <c r="BL16">
-        <v>64387</v>
-      </c>
-      <c r="BM16">
-        <v>195176</v>
-      </c>
-      <c r="BN16">
-        <v>151390</v>
-      </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>407060</v>
-      </c>
-      <c r="BT16">
-        <v>181416</v>
-      </c>
-      <c r="BU16">
-        <v>0</v>
-      </c>
-      <c r="BV16">
-        <v>48669</v>
-      </c>
-      <c r="BW16">
-        <v>0</v>
-      </c>
-      <c r="BX16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:76">
-      <c r="A17" t="s">
-        <v>677</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -10209,655 +10322,2461 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M17">
-        <v>131208</v>
+        <v>135064</v>
       </c>
       <c r="N17">
-        <v>189503</v>
+        <v>179406</v>
       </c>
       <c r="O17">
-        <v>611870</v>
+        <v>850943</v>
       </c>
       <c r="P17">
-        <v>135010</v>
+        <v>125036</v>
       </c>
       <c r="Q17">
-        <v>486688</v>
+        <v>399755</v>
       </c>
       <c r="R17">
-        <v>209520</v>
+        <v>215630</v>
       </c>
       <c r="U17">
-        <v>495986</v>
+        <v>581639</v>
       </c>
       <c r="V17">
-        <v>125167</v>
+        <v>258963</v>
       </c>
       <c r="W17">
-        <v>511207</v>
+        <v>678439</v>
       </c>
       <c r="X17">
-        <v>300200</v>
+        <v>288348</v>
       </c>
       <c r="Y17">
-        <v>229606</v>
+        <v>205941</v>
       </c>
       <c r="Z17">
-        <v>314280</v>
+        <v>250550</v>
       </c>
       <c r="AC17">
-        <v>333151</v>
+        <v>268819</v>
       </c>
       <c r="AD17">
-        <v>355399</v>
+        <v>342982</v>
       </c>
       <c r="AE17">
-        <v>410262</v>
+        <v>485128</v>
       </c>
       <c r="AF17">
-        <v>286487</v>
+        <v>325473</v>
       </c>
       <c r="AG17">
-        <v>269497</v>
+        <v>300645</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>301232</v>
+        <v>440627</v>
       </c>
       <c r="AL17">
-        <v>294933</v>
+        <v>210127</v>
       </c>
       <c r="AM17">
-        <v>208421</v>
+        <v>396152</v>
       </c>
       <c r="AN17">
-        <v>236578</v>
+        <v>93986</v>
       </c>
       <c r="AO17">
-        <v>391676</v>
+        <v>403644</v>
       </c>
       <c r="AP17">
         <v>0</v>
       </c>
+      <c r="AS17">
+        <v>89708</v>
+      </c>
+      <c r="AT17">
+        <v>115019</v>
+      </c>
       <c r="AU17">
-        <v>85852</v>
+        <v>655767</v>
       </c>
       <c r="AV17">
-        <v>125116</v>
+        <v>0</v>
       </c>
       <c r="AW17">
-        <v>465488</v>
+        <v>399755</v>
       </c>
       <c r="AX17">
-        <v>9974</v>
-      </c>
-      <c r="AY17">
-        <v>486688</v>
-      </c>
-      <c r="AZ17">
-        <v>209520</v>
+        <v>215630</v>
+      </c>
+      <c r="BA17">
+        <v>255991</v>
+      </c>
+      <c r="BB17">
+        <v>177327</v>
       </c>
       <c r="BC17">
-        <v>251750</v>
+        <v>678439</v>
       </c>
       <c r="BD17">
-        <v>97955</v>
+        <v>223456</v>
       </c>
       <c r="BE17">
-        <v>511207</v>
+        <v>205941</v>
       </c>
       <c r="BF17">
-        <v>300200</v>
-      </c>
-      <c r="BG17">
-        <v>229606</v>
-      </c>
-      <c r="BH17">
-        <v>314280</v>
+        <v>250550</v>
+      </c>
+      <c r="BI17">
+        <v>45356</v>
+      </c>
+      <c r="BJ17">
+        <v>64387</v>
       </c>
       <c r="BK17">
+        <v>195176</v>
+      </c>
+      <c r="BL17">
+        <v>125036</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>325648</v>
+      </c>
+      <c r="BR17">
+        <v>81636</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>64892</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74">
+      <c r="A18" t="s">
+        <v>693</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>674</v>
+      </c>
+      <c r="M18">
+        <v>145475</v>
+      </c>
+      <c r="N18">
+        <v>58162</v>
+      </c>
+      <c r="O18">
+        <v>580007</v>
+      </c>
+      <c r="P18">
+        <v>98682</v>
+      </c>
+      <c r="Q18">
+        <v>335950</v>
+      </c>
+      <c r="R18">
+        <v>157140</v>
+      </c>
+      <c r="U18">
+        <v>366353</v>
+      </c>
+      <c r="V18">
+        <v>206404</v>
+      </c>
+      <c r="W18">
+        <v>511549</v>
+      </c>
+      <c r="X18">
+        <v>288094</v>
+      </c>
+      <c r="Y18">
+        <v>279558</v>
+      </c>
+      <c r="Z18">
+        <v>250550</v>
+      </c>
+      <c r="AC18">
+        <v>316009</v>
+      </c>
+      <c r="AD18">
+        <v>269795</v>
+      </c>
+      <c r="AE18">
+        <v>353733</v>
+      </c>
+      <c r="AF18">
+        <v>295133</v>
+      </c>
+      <c r="AG18">
+        <v>254169</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>287599</v>
+      </c>
+      <c r="AL18">
+        <v>261457</v>
+      </c>
+      <c r="AM18">
+        <v>103372</v>
+      </c>
+      <c r="AN18">
+        <v>30181</v>
+      </c>
+      <c r="AO18">
+        <v>450884</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>100119</v>
+      </c>
+      <c r="AT18">
+        <v>58162</v>
+      </c>
+      <c r="AU18">
+        <v>433625</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>335950</v>
+      </c>
+      <c r="AX18">
+        <v>157140</v>
+      </c>
+      <c r="BA18">
+        <v>203529</v>
+      </c>
+      <c r="BB18">
+        <v>133840</v>
+      </c>
+      <c r="BC18">
+        <v>511549</v>
+      </c>
+      <c r="BD18">
+        <v>158310</v>
+      </c>
+      <c r="BE18">
+        <v>279558</v>
+      </c>
+      <c r="BF18">
+        <v>250550</v>
+      </c>
+      <c r="BI18">
         <v>45356</v>
       </c>
-      <c r="BL17">
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>146382</v>
+      </c>
+      <c r="BL18">
+        <v>98682</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>162824</v>
+      </c>
+      <c r="BR18">
+        <v>72564</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>129784</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74">
+      <c r="A19" t="s">
+        <v>695</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>675</v>
+      </c>
+      <c r="M19">
+        <v>98537</v>
+      </c>
+      <c r="N19">
+        <v>143057</v>
+      </c>
+      <c r="O19">
+        <v>340066</v>
+      </c>
+      <c r="P19">
+        <v>98682</v>
+      </c>
+      <c r="Q19">
+        <v>334214</v>
+      </c>
+      <c r="R19">
+        <v>87300</v>
+      </c>
+      <c r="U19">
+        <v>308666</v>
+      </c>
+      <c r="V19">
+        <v>106963</v>
+      </c>
+      <c r="W19">
+        <v>397474</v>
+      </c>
+      <c r="X19">
+        <v>193153</v>
+      </c>
+      <c r="Y19">
+        <v>714207</v>
+      </c>
+      <c r="Z19">
+        <v>198170</v>
+      </c>
+      <c r="AC19">
+        <v>261133</v>
+      </c>
+      <c r="AD19">
+        <v>362202</v>
+      </c>
+      <c r="AE19">
+        <v>304188</v>
+      </c>
+      <c r="AF19">
+        <v>372857</v>
+      </c>
+      <c r="AG19">
+        <v>265769</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>234875</v>
+      </c>
+      <c r="AL19">
+        <v>111088</v>
+      </c>
+      <c r="AM19">
+        <v>183706</v>
+      </c>
+      <c r="AN19">
+        <v>30181</v>
+      </c>
+      <c r="AO19">
+        <v>375610</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>75859</v>
+      </c>
+      <c r="AT19">
+        <v>78670</v>
+      </c>
+      <c r="AU19">
+        <v>291272</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>334214</v>
+      </c>
+      <c r="AX19">
+        <v>87300</v>
+      </c>
+      <c r="BA19">
+        <v>145842</v>
+      </c>
+      <c r="BB19">
+        <v>88823</v>
+      </c>
+      <c r="BC19">
+        <v>375214</v>
+      </c>
+      <c r="BD19">
+        <v>112038</v>
+      </c>
+      <c r="BE19">
+        <v>714207</v>
+      </c>
+      <c r="BF19">
+        <v>198170</v>
+      </c>
+      <c r="BI19">
+        <v>22678</v>
+      </c>
+      <c r="BJ19">
         <v>64387</v>
       </c>
-      <c r="BM17">
-        <v>146382</v>
-      </c>
-      <c r="BN17">
-        <v>125036</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>244236</v>
-      </c>
-      <c r="BT17">
-        <v>27212</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
-      <c r="BV17">
-        <v>0</v>
-      </c>
-      <c r="BW17">
-        <v>0</v>
-      </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:76">
-      <c r="A18" t="s">
-        <v>678</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="BK19">
+        <v>48794</v>
+      </c>
+      <c r="BL19">
+        <v>98682</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>162824</v>
+      </c>
+      <c r="BR19">
+        <v>18140</v>
+      </c>
+      <c r="BS19">
+        <v>22260</v>
+      </c>
+      <c r="BT19">
+        <v>81115</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74">
+      <c r="A20" t="s">
+        <v>697</v>
+      </c>
+      <c r="F20">
         <v>9</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>678</v>
-      </c>
-      <c r="M18">
-        <v>133746</v>
-      </c>
-      <c r="N18">
-        <v>158898</v>
-      </c>
-      <c r="O18">
-        <v>562654</v>
-      </c>
-      <c r="P18">
-        <v>139997</v>
-      </c>
-      <c r="Q18">
-        <v>617875</v>
-      </c>
-      <c r="R18">
-        <v>314280</v>
-      </c>
-      <c r="U18">
-        <v>471697</v>
-      </c>
-      <c r="V18">
-        <v>197230</v>
-      </c>
-      <c r="W18">
-        <v>568464</v>
-      </c>
-      <c r="X18">
-        <v>269697</v>
-      </c>
-      <c r="Y18">
-        <v>125630</v>
-      </c>
-      <c r="Z18">
-        <v>314280</v>
-      </c>
-      <c r="AC18">
-        <v>281996</v>
-      </c>
-      <c r="AD18">
-        <v>401874</v>
-      </c>
-      <c r="AE18">
-        <v>310427</v>
-      </c>
-      <c r="AF18">
-        <v>266118</v>
-      </c>
-      <c r="AG18">
-        <v>305345</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>483485</v>
-      </c>
-      <c r="AL18">
-        <v>205008</v>
-      </c>
-      <c r="AM18">
-        <v>240257</v>
-      </c>
-      <c r="AN18">
-        <v>266610</v>
-      </c>
-      <c r="AO18">
-        <v>526561</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>88390</v>
-      </c>
-      <c r="AV18">
-        <v>94511</v>
-      </c>
-      <c r="AW18">
-        <v>513860</v>
-      </c>
-      <c r="AX18">
-        <v>14961</v>
-      </c>
-      <c r="AY18">
-        <v>617875</v>
-      </c>
-      <c r="AZ18">
-        <v>314280</v>
-      </c>
-      <c r="BC18">
-        <v>227461</v>
-      </c>
-      <c r="BD18">
-        <v>138272</v>
-      </c>
-      <c r="BE18">
-        <v>568464</v>
-      </c>
-      <c r="BF18">
-        <v>269697</v>
-      </c>
-      <c r="BG18">
-        <v>125630</v>
-      </c>
-      <c r="BH18">
-        <v>314280</v>
-      </c>
-      <c r="BK18">
-        <v>45356</v>
-      </c>
-      <c r="BL18">
-        <v>64387</v>
-      </c>
-      <c r="BM18">
-        <v>48794</v>
-      </c>
-      <c r="BN18">
-        <v>125036</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>244236</v>
-      </c>
-      <c r="BT18">
-        <v>58958</v>
-      </c>
-      <c r="BU18">
-        <v>0</v>
-      </c>
-      <c r="BV18">
-        <v>0</v>
-      </c>
-      <c r="BW18">
-        <v>0</v>
-      </c>
-      <c r="BX18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:76">
-      <c r="A19" t="s">
-        <v>679</v>
-      </c>
-      <c r="F19">
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>9</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-      <c r="I19">
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>679</v>
-      </c>
-      <c r="M19">
-        <v>110713</v>
-      </c>
-      <c r="N19">
-        <v>220781</v>
-      </c>
-      <c r="O19">
-        <v>614312</v>
-      </c>
-      <c r="P19">
-        <v>161364</v>
-      </c>
-      <c r="Q19">
-        <v>486688</v>
-      </c>
-      <c r="R19">
-        <v>226980</v>
-      </c>
-      <c r="U19">
-        <v>563863</v>
-      </c>
-      <c r="V19">
-        <v>294500</v>
-      </c>
-      <c r="W19">
-        <v>494007</v>
-      </c>
-      <c r="X19">
-        <v>397326</v>
-      </c>
-      <c r="Y19">
-        <v>171786</v>
-      </c>
-      <c r="Z19">
-        <v>314280</v>
-      </c>
-      <c r="AC19">
-        <v>314824</v>
-      </c>
-      <c r="AD19">
-        <v>330113</v>
-      </c>
-      <c r="AE19">
-        <v>284664</v>
-      </c>
-      <c r="AF19">
-        <v>384820</v>
-      </c>
-      <c r="AG19">
-        <v>289638</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>441665</v>
-      </c>
-      <c r="AL19">
-        <v>294416</v>
-      </c>
-      <c r="AM19">
-        <v>227043</v>
-      </c>
-      <c r="AN19">
-        <v>198379</v>
-      </c>
-      <c r="AO19">
-        <v>391676</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>65357</v>
-      </c>
-      <c r="AV19">
-        <v>156394</v>
-      </c>
-      <c r="AW19">
-        <v>516724</v>
-      </c>
-      <c r="AX19">
-        <v>9974</v>
-      </c>
-      <c r="AY19">
-        <v>486688</v>
-      </c>
-      <c r="AZ19">
-        <v>226980</v>
-      </c>
-      <c r="BC19">
-        <v>238215</v>
-      </c>
-      <c r="BD19">
-        <v>217402</v>
-      </c>
-      <c r="BE19">
-        <v>494007</v>
-      </c>
-      <c r="BF19">
-        <v>259431</v>
-      </c>
-      <c r="BG19">
-        <v>171786</v>
-      </c>
-      <c r="BH19">
-        <v>314280</v>
-      </c>
-      <c r="BK19">
-        <v>45356</v>
-      </c>
-      <c r="BL19">
-        <v>64387</v>
-      </c>
-      <c r="BM19">
-        <v>97588</v>
-      </c>
-      <c r="BN19">
-        <v>151390</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>325648</v>
-      </c>
-      <c r="BT19">
-        <v>77098</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
-      <c r="BV19">
-        <v>137895</v>
-      </c>
-      <c r="BW19">
-        <v>0</v>
-      </c>
-      <c r="BX19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:76">
-      <c r="A20" t="s">
-        <v>680</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
       <c r="J20" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="M20">
-        <v>160066</v>
+        <v>73848</v>
       </c>
       <c r="N20">
-        <v>179479</v>
+        <v>165070</v>
       </c>
       <c r="O20">
-        <v>407512</v>
+        <v>671336</v>
       </c>
       <c r="P20">
         <v>98682</v>
       </c>
       <c r="Q20">
-        <v>121908</v>
+        <v>255027</v>
       </c>
       <c r="R20">
+        <v>174600</v>
+      </c>
+      <c r="U20">
+        <v>570624</v>
+      </c>
+      <c r="V20">
+        <v>209734</v>
+      </c>
+      <c r="W20">
+        <v>366846</v>
+      </c>
+      <c r="X20">
+        <v>369988</v>
+      </c>
+      <c r="Y20">
+        <v>369689</v>
+      </c>
+      <c r="Z20">
+        <v>337850</v>
+      </c>
+      <c r="AC20">
+        <v>306546</v>
+      </c>
+      <c r="AD20">
+        <v>333879</v>
+      </c>
+      <c r="AE20">
+        <v>325658</v>
+      </c>
+      <c r="AF20">
+        <v>308841</v>
+      </c>
+      <c r="AG20">
+        <v>266602</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>306219</v>
+      </c>
+      <c r="AL20">
+        <v>133101</v>
+      </c>
+      <c r="AM20">
+        <v>330930</v>
+      </c>
+      <c r="AN20">
+        <v>62331</v>
+      </c>
+      <c r="AO20">
+        <v>386045</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>51170</v>
+      </c>
+      <c r="AT20">
+        <v>100683</v>
+      </c>
+      <c r="AU20">
+        <v>524954</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>255027</v>
+      </c>
+      <c r="AX20">
+        <v>174600</v>
+      </c>
+      <c r="BA20">
+        <v>244976</v>
+      </c>
+      <c r="BB20">
+        <v>132636</v>
+      </c>
+      <c r="BC20">
+        <v>344586</v>
+      </c>
+      <c r="BD20">
+        <v>223981</v>
+      </c>
+      <c r="BE20">
+        <v>369689</v>
+      </c>
+      <c r="BF20">
+        <v>337850</v>
+      </c>
+      <c r="BI20">
+        <v>22678</v>
+      </c>
+      <c r="BJ20">
+        <v>64387</v>
+      </c>
+      <c r="BK20">
+        <v>146382</v>
+      </c>
+      <c r="BL20">
+        <v>98682</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>325648</v>
+      </c>
+      <c r="BR20">
+        <v>77098</v>
+      </c>
+      <c r="BS20">
+        <v>22260</v>
+      </c>
+      <c r="BT20">
+        <v>146007</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74">
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>677</v>
+      </c>
+      <c r="M21">
+        <v>110922</v>
+      </c>
+      <c r="N21">
+        <v>201754</v>
+      </c>
+      <c r="O21">
+        <v>985773</v>
+      </c>
+      <c r="P21">
+        <v>135010</v>
+      </c>
+      <c r="Q21">
+        <v>431657</v>
+      </c>
+      <c r="R21">
+        <v>250550</v>
+      </c>
+      <c r="U21">
+        <v>348353</v>
+      </c>
+      <c r="V21">
+        <v>322896</v>
+      </c>
+      <c r="W21">
+        <v>406947</v>
+      </c>
+      <c r="X21">
+        <v>437282</v>
+      </c>
+      <c r="Y21">
+        <v>183781</v>
+      </c>
+      <c r="Z21">
+        <v>355310</v>
+      </c>
+      <c r="AC21">
+        <v>283919</v>
+      </c>
+      <c r="AD21">
+        <v>335886</v>
+      </c>
+      <c r="AE21">
+        <v>383179</v>
+      </c>
+      <c r="AF21">
+        <v>275356</v>
+      </c>
+      <c r="AG21">
+        <v>323407</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>478259</v>
+      </c>
+      <c r="AL21">
+        <v>350683</v>
+      </c>
+      <c r="AM21">
+        <v>296370</v>
+      </c>
+      <c r="AN21">
+        <v>199332</v>
+      </c>
+      <c r="AO21">
+        <v>391676</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>65566</v>
+      </c>
+      <c r="AT21">
+        <v>137367</v>
+      </c>
+      <c r="AU21">
+        <v>790597</v>
+      </c>
+      <c r="AV21">
+        <v>9974</v>
+      </c>
+      <c r="AW21">
+        <v>431657</v>
+      </c>
+      <c r="AX21">
+        <v>250550</v>
+      </c>
+      <c r="BA21">
+        <v>185529</v>
+      </c>
+      <c r="BB21">
+        <v>209514</v>
+      </c>
+      <c r="BC21">
+        <v>406947</v>
+      </c>
+      <c r="BD21">
+        <v>291275</v>
+      </c>
+      <c r="BE21">
+        <v>183781</v>
+      </c>
+      <c r="BF21">
+        <v>355310</v>
+      </c>
+      <c r="BI21">
+        <v>45356</v>
+      </c>
+      <c r="BJ21">
+        <v>64387</v>
+      </c>
+      <c r="BK21">
+        <v>195176</v>
+      </c>
+      <c r="BL21">
+        <v>125036</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>162824</v>
+      </c>
+      <c r="BR21">
+        <v>113382</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>146007</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74">
+      <c r="F22">
+        <v>251602</v>
+      </c>
+      <c r="M22" t="s">
+        <v>355</v>
+      </c>
+      <c r="N22" t="s">
+        <v>351</v>
+      </c>
+      <c r="O22" t="s">
+        <v>348</v>
+      </c>
+      <c r="P22" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>364</v>
+      </c>
+      <c r="U22" t="s">
+        <v>591</v>
+      </c>
+      <c r="V22" t="s">
+        <v>355</v>
+      </c>
+      <c r="W22" t="s">
+        <v>364</v>
+      </c>
+      <c r="X22" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:74">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>678</v>
+      </c>
+      <c r="M23">
+        <v>146646</v>
+      </c>
+      <c r="N23">
+        <v>72988</v>
+      </c>
+      <c r="O23">
+        <v>697534</v>
+      </c>
+      <c r="P23">
+        <v>135010</v>
+      </c>
+      <c r="Q23">
+        <v>434217</v>
+      </c>
+      <c r="R23">
+        <v>268010</v>
+      </c>
+      <c r="U23">
+        <v>256720</v>
+      </c>
+      <c r="V23">
+        <v>42996</v>
+      </c>
+      <c r="W23">
+        <v>91308</v>
+      </c>
+      <c r="X23">
+        <v>167099</v>
+      </c>
+      <c r="Y23">
+        <v>194403</v>
+      </c>
+      <c r="Z23">
         <v>87300</v>
       </c>
-      <c r="U20">
-        <v>335288</v>
-      </c>
-      <c r="V20">
-        <v>94602</v>
-      </c>
-      <c r="W20">
-        <v>456196</v>
-      </c>
-      <c r="X20">
-        <v>228526</v>
-      </c>
-      <c r="Y20">
-        <v>699527</v>
-      </c>
-      <c r="Z20">
-        <v>174600</v>
-      </c>
-      <c r="AC20">
-        <v>273526</v>
-      </c>
-      <c r="AD20">
-        <v>441315</v>
-      </c>
-      <c r="AE20">
-        <v>330440</v>
-      </c>
-      <c r="AF20">
-        <v>322360</v>
-      </c>
-      <c r="AG20">
-        <v>296724</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>239818</v>
-      </c>
-      <c r="AL20">
-        <v>160397</v>
-      </c>
-      <c r="AM20">
-        <v>167929</v>
-      </c>
-      <c r="AN20">
+      <c r="AC23">
+        <v>79044</v>
+      </c>
+      <c r="AD23">
+        <v>116023</v>
+      </c>
+      <c r="AE23">
+        <v>157555</v>
+      </c>
+      <c r="AF23">
+        <v>290416</v>
+      </c>
+      <c r="AG23">
+        <v>107016</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>410938</v>
+      </c>
+      <c r="AL23">
+        <v>284330</v>
+      </c>
+      <c r="AM23">
+        <v>229548</v>
+      </c>
+      <c r="AN23">
+        <v>227087</v>
+      </c>
+      <c r="AO23">
+        <v>391676</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>101290</v>
+      </c>
+      <c r="AT23">
+        <v>72988</v>
+      </c>
+      <c r="AU23">
+        <v>648740</v>
+      </c>
+      <c r="AV23">
+        <v>9974</v>
+      </c>
+      <c r="AW23">
+        <v>434217</v>
+      </c>
+      <c r="AX23">
+        <v>268010</v>
+      </c>
+      <c r="BA23">
+        <v>175308</v>
+      </c>
+      <c r="BB23">
+        <v>42996</v>
+      </c>
+      <c r="BC23">
+        <v>91308</v>
+      </c>
+      <c r="BD23">
+        <v>167099</v>
+      </c>
+      <c r="BE23">
+        <v>194403</v>
+      </c>
+      <c r="BF23">
+        <v>87300</v>
+      </c>
+      <c r="BI23">
+        <v>45356</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>48794</v>
+      </c>
+      <c r="BL23">
+        <v>125036</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>81412</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74">
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>680</v>
+      </c>
+      <c r="M24">
+        <v>193426</v>
+      </c>
+      <c r="N24">
+        <v>125759</v>
+      </c>
+      <c r="O24">
+        <v>363608</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>348937</v>
+      </c>
+      <c r="R24">
+        <v>87300</v>
+      </c>
+      <c r="U24">
+        <v>324981</v>
+      </c>
+      <c r="V24">
+        <v>145883</v>
+      </c>
+      <c r="W24">
+        <v>442534</v>
+      </c>
+      <c r="X24">
+        <v>229953</v>
+      </c>
+      <c r="Y24">
+        <v>275406</v>
+      </c>
+      <c r="Z24">
+        <v>198170</v>
+      </c>
+      <c r="AC24">
+        <v>282229</v>
+      </c>
+      <c r="AD24">
+        <v>321935</v>
+      </c>
+      <c r="AE24">
+        <v>210258</v>
+      </c>
+      <c r="AF24">
+        <v>221052</v>
+      </c>
+      <c r="AG24">
+        <v>267455</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>261438</v>
+      </c>
+      <c r="AL24">
+        <v>116031</v>
+      </c>
+      <c r="AM24">
+        <v>192674</v>
+      </c>
+      <c r="AN24">
+        <v>12721</v>
+      </c>
+      <c r="AO24">
+        <v>467353</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>148070</v>
+      </c>
+      <c r="AT24">
+        <v>61372</v>
+      </c>
+      <c r="AU24">
+        <v>363608</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>348937</v>
+      </c>
+      <c r="AX24">
+        <v>87300</v>
+      </c>
+      <c r="BA24">
+        <v>162157</v>
+      </c>
+      <c r="BB24">
+        <v>100531</v>
+      </c>
+      <c r="BC24">
+        <v>442534</v>
+      </c>
+      <c r="BD24">
+        <v>165061</v>
+      </c>
+      <c r="BE24">
+        <v>275406</v>
+      </c>
+      <c r="BF24">
+        <v>198170</v>
+      </c>
+      <c r="BI24">
+        <v>45356</v>
+      </c>
+      <c r="BJ24">
+        <v>64387</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>162824</v>
+      </c>
+      <c r="BR24">
+        <v>45352</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>64892</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74">
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>682</v>
+      </c>
+      <c r="M25">
+        <v>287222</v>
+      </c>
+      <c r="N25">
+        <v>171936</v>
+      </c>
+      <c r="O25">
+        <v>664912</v>
+      </c>
+      <c r="P25">
+        <v>115129</v>
+      </c>
+      <c r="Q25">
+        <v>711545</v>
+      </c>
+      <c r="R25">
+        <v>337850</v>
+      </c>
+      <c r="U25">
+        <v>541664</v>
+      </c>
+      <c r="V25">
+        <v>154408</v>
+      </c>
+      <c r="W25">
+        <v>364225</v>
+      </c>
+      <c r="X25">
+        <v>419238</v>
+      </c>
+      <c r="Y25">
+        <v>189352</v>
+      </c>
+      <c r="Z25">
+        <v>215630</v>
+      </c>
+      <c r="AC25">
+        <v>257971</v>
+      </c>
+      <c r="AD25">
+        <v>297052</v>
+      </c>
+      <c r="AE25">
+        <v>206818</v>
+      </c>
+      <c r="AF25">
+        <v>323002</v>
+      </c>
+      <c r="AG25">
+        <v>263532</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>536210</v>
+      </c>
+      <c r="AL25">
+        <v>370550</v>
+      </c>
+      <c r="AM25">
+        <v>360781</v>
+      </c>
+      <c r="AN25">
+        <v>288176</v>
+      </c>
+      <c r="AO25">
+        <v>467353</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>196510</v>
+      </c>
+      <c r="AT25">
+        <v>107549</v>
+      </c>
+      <c r="AU25">
+        <v>616118</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>711545</v>
+      </c>
+      <c r="AX25">
+        <v>337850</v>
+      </c>
+      <c r="BA25">
+        <v>216016</v>
+      </c>
+      <c r="BB25">
+        <v>127196</v>
+      </c>
+      <c r="BC25">
+        <v>364225</v>
+      </c>
+      <c r="BD25">
+        <v>289454</v>
+      </c>
+      <c r="BE25">
+        <v>189352</v>
+      </c>
+      <c r="BF25">
+        <v>215630</v>
+      </c>
+      <c r="BI25">
+        <v>90712</v>
+      </c>
+      <c r="BJ25">
+        <v>64387</v>
+      </c>
+      <c r="BK25">
+        <v>48794</v>
+      </c>
+      <c r="BL25">
+        <v>115129</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>325648</v>
+      </c>
+      <c r="BR25">
+        <v>27212</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>129784</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74">
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>684</v>
+      </c>
+      <c r="M26">
+        <v>101388</v>
+      </c>
+      <c r="N26">
+        <v>185200</v>
+      </c>
+      <c r="O26">
+        <v>379676</v>
+      </c>
+      <c r="P26">
+        <v>98682</v>
+      </c>
+      <c r="Q26">
+        <v>367295</v>
+      </c>
+      <c r="R26">
+        <v>157140</v>
+      </c>
+      <c r="U26">
+        <v>398913</v>
+      </c>
+      <c r="V26">
+        <v>102206</v>
+      </c>
+      <c r="W26">
+        <v>598039</v>
+      </c>
+      <c r="X26">
+        <v>291140</v>
+      </c>
+      <c r="Y26">
+        <v>258701</v>
+      </c>
+      <c r="Z26">
+        <v>285470</v>
+      </c>
+      <c r="AC26">
+        <v>257529</v>
+      </c>
+      <c r="AD26">
+        <v>380007</v>
+      </c>
+      <c r="AE26">
+        <v>275094</v>
+      </c>
+      <c r="AF26">
+        <v>254066</v>
+      </c>
+      <c r="AG26">
+        <v>257316</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>288112</v>
+      </c>
+      <c r="AL26">
+        <v>247266</v>
+      </c>
+      <c r="AM26">
+        <v>170492</v>
+      </c>
+      <c r="AN26">
         <v>42902</v>
       </c>
-      <c r="AO20">
-        <v>248977</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>114710</v>
-      </c>
-      <c r="AV20">
-        <v>115092</v>
-      </c>
-      <c r="AW20">
-        <v>358718</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>121908</v>
-      </c>
-      <c r="AZ20">
+      <c r="AO26">
+        <v>403644</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>78710</v>
+      </c>
+      <c r="AT26">
+        <v>120813</v>
+      </c>
+      <c r="AU26">
+        <v>379676</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>367295</v>
+      </c>
+      <c r="AX26">
+        <v>157140</v>
+      </c>
+      <c r="BA26">
+        <v>154677</v>
+      </c>
+      <c r="BB26">
+        <v>74994</v>
+      </c>
+      <c r="BC26">
+        <v>545707</v>
+      </c>
+      <c r="BD26">
+        <v>153245</v>
+      </c>
+      <c r="BE26">
+        <v>258701</v>
+      </c>
+      <c r="BF26">
+        <v>285470</v>
+      </c>
+      <c r="BI26">
+        <v>22678</v>
+      </c>
+      <c r="BJ26">
+        <v>64387</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>98682</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>244236</v>
+      </c>
+      <c r="BR26">
+        <v>27212</v>
+      </c>
+      <c r="BS26">
+        <v>52332</v>
+      </c>
+      <c r="BT26">
+        <v>137895</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74">
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>686</v>
+      </c>
+      <c r="M27">
+        <v>233765</v>
+      </c>
+      <c r="N27">
+        <v>224694</v>
+      </c>
+      <c r="O27">
+        <v>399871</v>
+      </c>
+      <c r="P27">
+        <v>98682</v>
+      </c>
+      <c r="Q27">
+        <v>482696</v>
+      </c>
+      <c r="R27">
+        <v>215630</v>
+      </c>
+      <c r="U27">
+        <v>605764</v>
+      </c>
+      <c r="V27">
+        <v>69617</v>
+      </c>
+      <c r="W27">
+        <v>649816</v>
+      </c>
+      <c r="X27">
+        <v>414051</v>
+      </c>
+      <c r="Y27">
+        <v>91041</v>
+      </c>
+      <c r="Z27">
+        <v>302930</v>
+      </c>
+      <c r="AC27">
+        <v>292298</v>
+      </c>
+      <c r="AD27">
+        <v>369028</v>
+      </c>
+      <c r="AE27">
+        <v>282793</v>
+      </c>
+      <c r="AF27">
+        <v>301158</v>
+      </c>
+      <c r="AG27">
+        <v>302185</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>314138</v>
+      </c>
+      <c r="AL27">
+        <v>346538</v>
+      </c>
+      <c r="AM27">
+        <v>242196</v>
+      </c>
+      <c r="AN27">
+        <v>183029</v>
+      </c>
+      <c r="AO27">
+        <v>403644</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>165731</v>
+      </c>
+      <c r="AT27">
+        <v>160307</v>
+      </c>
+      <c r="AU27">
+        <v>351077</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>482696</v>
+      </c>
+      <c r="AX27">
+        <v>215630</v>
+      </c>
+      <c r="BA27">
+        <v>280116</v>
+      </c>
+      <c r="BB27">
+        <v>69617</v>
+      </c>
+      <c r="BC27">
+        <v>649816</v>
+      </c>
+      <c r="BD27">
+        <v>268046</v>
+      </c>
+      <c r="BE27">
+        <v>91041</v>
+      </c>
+      <c r="BF27">
+        <v>302930</v>
+      </c>
+      <c r="BI27">
+        <v>68034</v>
+      </c>
+      <c r="BJ27">
+        <v>64387</v>
+      </c>
+      <c r="BK27">
+        <v>48794</v>
+      </c>
+      <c r="BL27">
+        <v>98682</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>325648</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>146005</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74">
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>688</v>
+      </c>
+      <c r="M28">
+        <v>187914</v>
+      </c>
+      <c r="N28">
+        <v>215090</v>
+      </c>
+      <c r="O28">
+        <v>541417</v>
+      </c>
+      <c r="P28">
+        <v>98682</v>
+      </c>
+      <c r="Q28">
+        <v>434710</v>
+      </c>
+      <c r="R28">
+        <v>215630</v>
+      </c>
+      <c r="U28">
+        <v>629300</v>
+      </c>
+      <c r="V28">
+        <v>86179</v>
+      </c>
+      <c r="W28">
+        <v>558578</v>
+      </c>
+      <c r="X28">
+        <v>328871</v>
+      </c>
+      <c r="Y28">
+        <v>139570</v>
+      </c>
+      <c r="Z28">
+        <v>302930</v>
+      </c>
+      <c r="AC28">
+        <v>290892</v>
+      </c>
+      <c r="AD28">
+        <v>327097</v>
+      </c>
+      <c r="AE28">
+        <v>362512</v>
+      </c>
+      <c r="AF28">
+        <v>279886</v>
+      </c>
+      <c r="AG28">
+        <v>258853</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>476543</v>
+      </c>
+      <c r="AL28">
+        <v>258698</v>
+      </c>
+      <c r="AM28">
+        <v>131609</v>
+      </c>
+      <c r="AN28">
+        <v>40543</v>
+      </c>
+      <c r="AO28">
+        <v>479321</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>142558</v>
+      </c>
+      <c r="AT28">
+        <v>150703</v>
+      </c>
+      <c r="AU28">
+        <v>395035</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>434710</v>
+      </c>
+      <c r="AX28">
+        <v>215630</v>
+      </c>
+      <c r="BA28">
+        <v>303652</v>
+      </c>
+      <c r="BB28">
+        <v>63501</v>
+      </c>
+      <c r="BC28">
+        <v>558578</v>
+      </c>
+      <c r="BD28">
+        <v>199087</v>
+      </c>
+      <c r="BE28">
+        <v>139570</v>
+      </c>
+      <c r="BF28">
+        <v>302930</v>
+      </c>
+      <c r="BI28">
+        <v>45356</v>
+      </c>
+      <c r="BJ28">
+        <v>64387</v>
+      </c>
+      <c r="BK28">
+        <v>146382</v>
+      </c>
+      <c r="BL28">
+        <v>98682</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>325648</v>
+      </c>
+      <c r="BR28">
+        <v>22678</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>129784</v>
+      </c>
+      <c r="BU28">
+        <v>0</v>
+      </c>
+      <c r="BV28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74">
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>690</v>
+      </c>
+      <c r="M29">
+        <v>237434</v>
+      </c>
+      <c r="N29">
+        <v>162026</v>
+      </c>
+      <c r="O29">
+        <v>570125</v>
+      </c>
+      <c r="P29">
+        <v>98682</v>
+      </c>
+      <c r="Q29">
+        <v>426985</v>
+      </c>
+      <c r="R29">
+        <v>215630</v>
+      </c>
+      <c r="U29">
+        <v>476106</v>
+      </c>
+      <c r="V29">
+        <v>206422</v>
+      </c>
+      <c r="W29">
+        <v>500054</v>
+      </c>
+      <c r="X29">
+        <v>314885</v>
+      </c>
+      <c r="Y29">
+        <v>184877</v>
+      </c>
+      <c r="Z29">
+        <v>302930</v>
+      </c>
+      <c r="AC29">
+        <v>306062</v>
+      </c>
+      <c r="AD29">
+        <v>327909</v>
+      </c>
+      <c r="AE29">
+        <v>250078</v>
+      </c>
+      <c r="AF29">
+        <v>333653</v>
+      </c>
+      <c r="AG29">
+        <v>306092</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>442729</v>
+      </c>
+      <c r="AL29">
+        <v>237585</v>
+      </c>
+      <c r="AM29">
+        <v>325104</v>
+      </c>
+      <c r="AN29">
+        <v>121216</v>
+      </c>
+      <c r="AO29">
+        <v>391676</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>169400</v>
+      </c>
+      <c r="AT29">
+        <v>97639</v>
+      </c>
+      <c r="AU29">
+        <v>570125</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>426985</v>
+      </c>
+      <c r="AX29">
+        <v>215630</v>
+      </c>
+      <c r="BA29">
+        <v>231870</v>
+      </c>
+      <c r="BB29">
+        <v>165604</v>
+      </c>
+      <c r="BC29">
+        <v>500054</v>
+      </c>
+      <c r="BD29">
+        <v>176990</v>
+      </c>
+      <c r="BE29">
+        <v>184877</v>
+      </c>
+      <c r="BF29">
+        <v>302930</v>
+      </c>
+      <c r="BI29">
+        <v>68034</v>
+      </c>
+      <c r="BJ29">
+        <v>64387</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>98682</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>244236</v>
+      </c>
+      <c r="BR29">
+        <v>40818</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>137895</v>
+      </c>
+      <c r="BU29">
+        <v>0</v>
+      </c>
+      <c r="BV29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:74">
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>692</v>
+      </c>
+      <c r="M30">
+        <v>176918</v>
+      </c>
+      <c r="N30">
+        <v>206169</v>
+      </c>
+      <c r="O30">
+        <v>643863</v>
+      </c>
+      <c r="P30">
+        <v>98682</v>
+      </c>
+      <c r="Q30">
+        <v>618424</v>
+      </c>
+      <c r="R30">
+        <v>198170</v>
+      </c>
+      <c r="U30">
+        <v>565645</v>
+      </c>
+      <c r="V30">
+        <v>206856</v>
+      </c>
+      <c r="W30">
+        <v>531350</v>
+      </c>
+      <c r="X30">
+        <v>352091</v>
+      </c>
+      <c r="Y30">
+        <v>149735</v>
+      </c>
+      <c r="Z30">
+        <v>302930</v>
+      </c>
+      <c r="AC30">
+        <v>294930</v>
+      </c>
+      <c r="AD30">
+        <v>330041</v>
+      </c>
+      <c r="AE30">
+        <v>317009</v>
+      </c>
+      <c r="AF30">
+        <v>302194</v>
+      </c>
+      <c r="AG30">
+        <v>292502</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>403558</v>
+      </c>
+      <c r="AL30">
+        <v>329767</v>
+      </c>
+      <c r="AM30">
+        <v>268073</v>
+      </c>
+      <c r="AN30">
+        <v>133937</v>
+      </c>
+      <c r="AO30">
+        <v>540275</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>108884</v>
+      </c>
+      <c r="AT30">
+        <v>141782</v>
+      </c>
+      <c r="AU30">
+        <v>546275</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>618424</v>
+      </c>
+      <c r="AX30">
+        <v>198170</v>
+      </c>
+      <c r="BA30">
+        <v>239997</v>
+      </c>
+      <c r="BB30">
+        <v>152432</v>
+      </c>
+      <c r="BC30">
+        <v>531350</v>
+      </c>
+      <c r="BD30">
+        <v>222307</v>
+      </c>
+      <c r="BE30">
+        <v>149735</v>
+      </c>
+      <c r="BF30">
+        <v>302930</v>
+      </c>
+      <c r="BI30">
+        <v>68034</v>
+      </c>
+      <c r="BJ30">
+        <v>64387</v>
+      </c>
+      <c r="BK30">
+        <v>97588</v>
+      </c>
+      <c r="BL30">
+        <v>98682</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>325648</v>
+      </c>
+      <c r="BR30">
+        <v>54424</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
+        <v>129784</v>
+      </c>
+      <c r="BU30">
+        <v>0</v>
+      </c>
+      <c r="BV30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:74">
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>694</v>
+      </c>
+      <c r="M31">
+        <v>140066</v>
+      </c>
+      <c r="N31">
+        <v>179406</v>
+      </c>
+      <c r="O31">
+        <v>411338</v>
+      </c>
+      <c r="P31">
+        <v>98682</v>
+      </c>
+      <c r="Q31">
+        <v>465668</v>
+      </c>
+      <c r="R31">
+        <v>157140</v>
+      </c>
+      <c r="U31">
+        <v>496508</v>
+      </c>
+      <c r="V31">
+        <v>151689</v>
+      </c>
+      <c r="W31">
+        <v>521320</v>
+      </c>
+      <c r="X31">
+        <v>309001</v>
+      </c>
+      <c r="Y31">
+        <v>207353</v>
+      </c>
+      <c r="Z31">
+        <v>302930</v>
+      </c>
+      <c r="AC31">
+        <v>268819</v>
+      </c>
+      <c r="AD31">
+        <v>351636</v>
+      </c>
+      <c r="AE31">
+        <v>279516</v>
+      </c>
+      <c r="AF31">
+        <v>312109</v>
+      </c>
+      <c r="AG31">
+        <v>300095</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>378798</v>
+      </c>
+      <c r="AL31">
+        <v>246477</v>
+      </c>
+      <c r="AM31">
+        <v>170492</v>
+      </c>
+      <c r="AN31">
+        <v>62761</v>
+      </c>
+      <c r="AO31">
+        <v>452630</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>94710</v>
+      </c>
+      <c r="AT31">
+        <v>115019</v>
+      </c>
+      <c r="AU31">
+        <v>411338</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>465668</v>
+      </c>
+      <c r="AX31">
+        <v>157140</v>
+      </c>
+      <c r="BA31">
+        <v>252272</v>
+      </c>
+      <c r="BB31">
+        <v>124477</v>
+      </c>
+      <c r="BC31">
+        <v>521320</v>
+      </c>
+      <c r="BD31">
+        <v>171106</v>
+      </c>
+      <c r="BE31">
+        <v>207353</v>
+      </c>
+      <c r="BF31">
+        <v>302930</v>
+      </c>
+      <c r="BI31">
+        <v>45356</v>
+      </c>
+      <c r="BJ31">
+        <v>64387</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>98682</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>244236</v>
+      </c>
+      <c r="BR31">
+        <v>27212</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
+      <c r="BT31">
+        <v>137895</v>
+      </c>
+      <c r="BU31">
+        <v>0</v>
+      </c>
+      <c r="BV31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:74">
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>696</v>
+      </c>
+      <c r="M32">
+        <v>24689</v>
+      </c>
+      <c r="N32">
+        <v>143057</v>
+      </c>
+      <c r="O32">
+        <v>562654</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>335950</v>
+      </c>
+      <c r="R32">
         <v>87300</v>
       </c>
-      <c r="BC20">
-        <v>172464</v>
-      </c>
-      <c r="BD20">
-        <v>76462</v>
-      </c>
-      <c r="BE20">
-        <v>456196</v>
-      </c>
-      <c r="BF20">
-        <v>147411</v>
-      </c>
-      <c r="BG20">
-        <v>699527</v>
-      </c>
-      <c r="BH20">
-        <v>174600</v>
-      </c>
-      <c r="BK20">
-        <v>45356</v>
-      </c>
-      <c r="BL20">
+      <c r="U32">
+        <v>302371</v>
+      </c>
+      <c r="V32">
+        <v>135084</v>
+      </c>
+      <c r="W32">
+        <v>571841</v>
+      </c>
+      <c r="X32">
+        <v>228893</v>
+      </c>
+      <c r="Y32">
+        <v>216983</v>
+      </c>
+      <c r="Z32">
+        <v>198170</v>
+      </c>
+      <c r="AC32">
+        <v>238145</v>
+      </c>
+      <c r="AD32">
+        <v>325371</v>
+      </c>
+      <c r="AE32">
+        <v>208138</v>
+      </c>
+      <c r="AF32">
+        <v>233932</v>
+      </c>
+      <c r="AG32">
+        <v>256120</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>297649</v>
+      </c>
+      <c r="AL32">
+        <v>141360</v>
+      </c>
+      <c r="AM32">
+        <v>192123</v>
+      </c>
+      <c r="AN32">
+        <v>12721</v>
+      </c>
+      <c r="AO32">
+        <v>462852</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>24689</v>
+      </c>
+      <c r="AT32">
+        <v>78670</v>
+      </c>
+      <c r="AU32">
+        <v>513860</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>335950</v>
+      </c>
+      <c r="AX32">
+        <v>87300</v>
+      </c>
+      <c r="BA32">
+        <v>139547</v>
+      </c>
+      <c r="BB32">
+        <v>89732</v>
+      </c>
+      <c r="BC32">
+        <v>519509</v>
+      </c>
+      <c r="BD32">
+        <v>164001</v>
+      </c>
+      <c r="BE32">
+        <v>216983</v>
+      </c>
+      <c r="BF32">
+        <v>198170</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
         <v>64387</v>
       </c>
-      <c r="BM20">
+      <c r="BK32">
         <v>48794</v>
       </c>
-      <c r="BN20">
-        <v>98682</v>
-      </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BS20">
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
         <v>162824</v>
       </c>
-      <c r="BT20">
-        <v>18140</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
-      </c>
-      <c r="BV20">
-        <v>81115</v>
-      </c>
-      <c r="BW20">
-        <v>0</v>
-      </c>
-      <c r="BX20">
+      <c r="BR32">
+        <v>45352</v>
+      </c>
+      <c r="BS32">
+        <v>52332</v>
+      </c>
+      <c r="BT32">
+        <v>64892</v>
+      </c>
+      <c r="BU32">
+        <v>0</v>
+      </c>
+      <c r="BV32">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G11:G131">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10869,7 +12788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H131">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10878,8 +12797,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI11:BM11 BQ11:BU11">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="BQ11:BU11 BI11:BM11">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10892,8 +12811,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI12:BM12 BQ12:BU12">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="BQ12:BU12 BI12:BM12">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10906,8 +12825,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:Q11 U11:Y11">
-    <cfRule type="dataBar" priority="109">
+  <conditionalFormatting sqref="U11:Y11 M11:Q11">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10920,8 +12839,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:Q12 U12:Y12">
-    <cfRule type="dataBar" priority="112">
+  <conditionalFormatting sqref="U12:Y12 M12:Q12">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10934,36 +12853,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:Q13 U13:Y13 M15:Q15 U15:Y15 M17:Q17 U17:Y17 M19:Q19 U19:Y19 M21:Q21 U21:Y21 M23:Q23 U23:Y23 M25:Q25 U25:Y25 M27:Q27 U27:Y27 M29:Q29 U29:Y29 M31:V31 M33:V33 M35:V35 M37:V37 M39:V39 M41:V41 M43:V43 M45:V45 M47:V47 M49:V49 M51:V51 M53:V53 M55:V55 M57:V57 M59:V59 M61:V61 M63:V63 M65:V65 M67:V67 M69:V69 M71:V71 M73:V73 M75:V75 M77:V77 M79:V79 M81:V81 M83:V83 M85:V85 M87:V87 M89:V89 M91:V91 M93:V93 M95:V95 M97:V97 M99:V99 M101:V101 M103:V103 M105:V105 M107:V107 M109:V109 M111:V111 M113:V113 M115:V115 M117:V117 M119:V119 M121:V121 M123:V123 M125:V125 M127:V127 M129:V129 M131:V131">
-    <cfRule type="dataBar" priority="115">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74EAA01A-37A5-4A0D-9607-F24679D0E37F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:Q14 U14:Y14 M16:Q16 U16:Y16 M18:Q18 U18:Y18 M20:Q20 U20:Y20 M22:Q22 U22:Y22 M24:Q24 U24:Y24 M26:Q26 U26:Y26 M28:Q28 U28:Y28 M30:Q30 U30:Y30 M32:V32 M34:V34 M36:V36 M38:V38 M40:V40 M42:V42 M44:V44 M46:V46 M48:V48 M50:V50 M52:V52 M54:V54 M56:V56 M58:V58 M60:V60 M62:V62 M64:V64 M66:V66 M68:V68 M70:V70 M72:V72 M74:V74 M76:V76 M78:V78 M80:V80 M82:V82 M84:V84 M86:V86 M88:V88 M90:V90 M92:V92 M94:V94 M96:V96 M98:V98 M100:V100 M102:V102 M104:V104 M106:V106 M108:V108 M110:V110 M112:V112 M114:V114 M116:V116 M118:V118 M120:V120 M122:V122 M124:V124 M126:V126 M128:V128 M130:V130">
-    <cfRule type="dataBar" priority="193">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7191901D-50BF-465C-8E36-6D4BD8BF5173}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS11:AW11 BA11:BE11">
-    <cfRule type="dataBar" priority="225">
+  <conditionalFormatting sqref="BA11:BE11 AS11:AW11">
+    <cfRule type="dataBar" priority="250">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10976,8 +12867,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS12:AW12 BA12:BE12">
-    <cfRule type="dataBar" priority="228">
+  <conditionalFormatting sqref="BA12:BE12 AS12:AW12">
+    <cfRule type="dataBar" priority="253">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10990,8 +12881,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS13:AW13 BA13:BE13 AS15:AW15 BA15:BE15 AS17:AW17 BA17:BE17 AS19:AW19 BA19:BE19 AS21:AW21 BA21:BE21 AM23:AQ23 AU23:AY23 AM25:AQ25 AU25:AY25 AM27:AQ27 AU27:AY27 AM29:AQ29 AU29:AY29 W31:AF31 W33:AF33 W35:AF35 W37:AF37 W39:AF39 W41:AF41 W43:AF43 W45:AF45 W47:AF47 W49:AF49 W51:AF51 W53:AF53 W55:AF55">
-    <cfRule type="dataBar" priority="231">
+  <conditionalFormatting sqref="BA13:BE13 AS13:AW13 AS15:AW15 BA15:BE15 AS17:AW17 BA17:BE17 AS19:AW19 BA19:BE19 AS21:AW21 BA21:BE21 AM23:AP23 AU23:AZ23 AM25:AP25 AU25:AZ25 AM27:AP27 AU27:AZ27 AM29:AP29 AU29:AZ29 AC31:AF31 AC33:AF33 AC35:AF35 AC37:AF37 AC39:AF39 AC41:AF41 AC43:AF43 AC45:AF45 AC47:AF47 AC49:AF49 AC51:AF51 AC53:AF53 AC55:AF55">
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11004,8 +12895,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS14:AW14 BA14:BE14 AS16:AW16 BA16:BE16 AS18:AW18 BA18:BE18 AS20:AW20 BA20:BE20 AM22:AQ22 AU22:AY22 AM24:AQ24 AU24:AY24 AM26:AQ26 AU26:AY26 AM28:AQ28 AU28:AY28 AM30:AQ30 AU30:AY30 W32:AF32 W34:AF34 W36:AF36 W38:AF38 W40:AF40 W42:AF42 W44:AF44 W46:AF46 W48:AF48 W50:AF50 W52:AF52 W54:AF54 W56:AF56">
-    <cfRule type="dataBar" priority="271">
+  <conditionalFormatting sqref="BA14:BE14 AS14:AW14 AS16:AW16 BA16:BE16 AS18:AW18 BA18:BE18 AS20:AW20 BA20:BE20 AM22:AP22 AU22:AZ22 AM24:AP24 AU24:AZ24 AM26:AP26 AU26:AZ26 AM28:AP28 AU28:AZ28 AM30:AP30 AU30:AZ30 AC32:AF32 AC34:AF34 AC36:AF36 AC38:AF38 AC40:AF40 AC42:AF42 AC44:AF44 AC46:AF46 AC48:AF48 AC50:AF50 AC52:AF52 AC54:AF54 AC56:AF56">
+    <cfRule type="dataBar" priority="296">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11018,8 +12909,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI13:BM13 BQ13:BU13 BI15:BM15 BQ15:BU15 BI17:BM17 BQ17:BU17 BI19:BM19 BQ19:BU19 BI21:BM21 BQ21:BU21 BC23:BG23 BK23:BO23 BC25:BG25 BK25:BO25 BC27:BG27 BK27:BO27 BC29:BG29 BK29:BO29 AG31:AL31 BH31 AZ31:BB31 AG33:AL33 BH33 AZ33:BB33 AG35:AL35 BH35 AZ35:BB35 AG37:AL37 BH37 AZ37:BB37 AG39:AL39 BH39 AZ39:BB39 AG41:AL41 BH41 AZ41:BB41 AG43:AL43 BH43 AZ43:BB43 AG45:AL45 BH45 AZ45:BB45 AG47:AL47 BH47 AZ47:BB47 AG49:AL49 BH49 AZ49:BB49 AG51:AL51 BH51 AZ51:BB51 AG53:AL53 BH53 AZ53:BB53 AG55:AL55 BH55 AZ55:BB55 AG57:AL57 BH57 AZ57:BB57 AG59:AL59 BH59 AZ59:BB59">
-    <cfRule type="dataBar" priority="274">
+  <conditionalFormatting sqref="BQ13:BU13 BI13:BM13 BI15:BM15 BQ15:BU15 BI17:BM17 BQ17:BU17 BI19:BM19 BQ19:BU19 BI21:BM21 BQ21:BU21 BC23:BF23 BK23:BN23 BC25:BF25 BK25:BN25 BC27:BF27 BK27:BN27 BC29:BF29 BK29:BN29 AG31:AL31 BA31:BB31 AG33:AL33 BA33:BB33 AG35:AL35 BA35:BB35 AG37:AL37 BA37:BB37 AG39:AL39 BA39:BB39 AG41:AL41 BA41:BB41 AG43:AL43 BA43:BB43 AG45:AL45 BA45:BB45 AG47:AL47 BA47:BB47 AG49:AL49 BA49:BB49 AG51:AL51 BA51:BB51 AG53:AL53 BA53:BB53 AG55:AL55 BA55:BB55 AG57:AL57 BA57:BB57 AG59:AL59 BA59:BB59">
+    <cfRule type="dataBar" priority="299">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11032,8 +12923,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI14:BM14 BQ14:BU14 BI16:BM16 BQ16:BU16 BI18:BM18 BQ18:BU18 BI20:BM20 BQ20:BU20 BC22:BG22 BK22:BO22 BC24:BG24 BK24:BO24 BC26:BG26 BK26:BO26 BC28:BG28 BK28:BO28 BC30:BG30 BK30:BO30 AG32:AL32 BH32 AZ32:BB32 AG34:AL34 BH34 AZ34:BB34 AG36:AL36 BH36 AZ36:BB36 AG38:AL38 BH38 AZ38:BB38 AG40:AL40 BH40 AZ40:BB40 AG42:AL42 BH42 AZ42:BB42 AG44:AL44 BH44 AZ44:BB44 AG46:AL46 BH46 AZ46:BB46 AG48:AL48 BH48 AZ48:BB48 AG50:AL50 BH50 AZ50:BB50 AG52:AL52 BH52 AZ52:BB52 AG54:AL54 BH54 AZ54:BB54 AG56:AL56 BH56 AZ56:BB56 AG58:AL58 BH58 AZ58:BB58">
-    <cfRule type="dataBar" priority="328">
+  <conditionalFormatting sqref="BQ14:BU14 BI14:BM14 BI16:BM16 BQ16:BU16 BI18:BM18 BQ18:BU18 BI20:BM20 BQ20:BU20 BC22:BF22 BK22:BN22 BC24:BF24 BK24:BN24 BC26:BF26 BK26:BN26 BC28:BF28 BK28:BN28 BC30:BF30 BK30:BN30 AG32:AL32 BA32:BB32 AG34:AL34 BA34:BB34 AG36:AL36 BA36:BB36 AG38:AL38 BA38:BB38 AG40:AL40 BA40:BB40 AG42:AL42 BA42:BB42 AG44:AL44 BA44:BB44 AG46:AL46 BA46:BB46 AG48:AL48 BA48:BB48 AG50:AL50 BA50:BB50 AG52:AL52 BA52:BB52 AG54:AL54 BA54:BB54 AG56:AL56 BA56:BB56 AG58:AL58 BA58:BB58">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11046,8 +12937,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC11:AG11 AK11:AO11 AC13:AG13 AK13:AO13 AC15:AG15 AK15:AO15 AC17:AG17 AK17:AO17 AC19:AG19 AK19:AO19 AC21:AG21 AK21:AO21 AC23:AL23 AC25:AL25 AC27:AL27 AC29:AL29">
-    <cfRule type="dataBar" priority="331">
+  <conditionalFormatting sqref="AK11:AO11 AC11:AG11 AC13:AG13 AK13:AO13 AC15:AG15 AK15:AO15 AC17:AG17 AK17:AO17 AC19:AG19 AK19:AO19 AC21:AG21 AK21:AO21 AC23:AL23 AC25:AL25 AC27:AL27 AC29:AL29">
+    <cfRule type="dataBar" priority="356">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11060,8 +12951,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12:AG12 AK12:AO12 AC14:AG14 AK14:AO14 AC16:AG16 AK16:AO16 AC18:AG18 AK18:AO18 AC20:AG20 AK20:AO20 AC22:AL22 AC24:AL24 AC26:AL26 AC28:AL28 AC30:AL30">
-    <cfRule type="dataBar" priority="353">
+  <conditionalFormatting sqref="AK12:AO12 AC12:AG12 AC14:AG14 AK14:AO14 AC16:AG16 AK16:AO16 AC18:AG18 AK18:AO18 AC20:AG20 AK20:AO20 AC22:AL22 AC24:AL24 AC26:AL26 AC28:AL28 AC30:AL30">
+    <cfRule type="dataBar" priority="378">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11070,6 +12961,356 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{AD28434E-AD91-4AA7-86E3-C9A570535BE8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:AB11">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{209DC47F-D83C-4A29-8850-06E027AFBA99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:AB12">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{714D3B35-E64F-4F96-A387-3AD1A2CD3EF2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13:Y13 U15:Y15 U17:Y17 U19:Y19 M13:Q13 M15:Q15 M17:Q17 M19:Q19">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31C4C4EF-21A6-478B-BD2D-56F8EE62A1EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14:Y14 U16:Y16 U18:Y18 U20:Y20 M14:Q14 M16:Q16 M18:Q18 M20:Q20">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45B93CC3-857F-489D-ABF5-9998060A91D7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:AB13 M15:AB15 M17:AB17 M19:AB19">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{23BD28F1-B90A-45FB-8315-8519D600C6D2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:AB14 M16:AB16 M18:AB18 M20:AB20">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D9C7F3B3-8A7D-4A45-8686-3D73408D3807}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21:Y21 U31:Y31 U41:Y41 U51:Y51 U61:Y61 U71:Y71 U81:Y81 U91:Y91 U101:Y101 U111:Y111 U121:Y121 U131:Y131 M21:Q21 M31:Q31 M41:Q41 M51:Q51 M61:Q61 M71:Q71 M81:Q81 M91:Q91 M101:Q101 M111:Q111 M121:Q121 M131:Q131">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C9D5404F-08EE-4364-9CA3-EA7DDD1A0BB1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22:Y22 U32:Y32 U42:Y42 U52:Y52 U62:Y62 U72:Y72 U82:Y82 U92:Y92 U102:Y102 U112:Y112 U122:Y122 M22:Q22 M32:Q32 M42:Q42 M52:Q52 M62:Q62 M72:Q72 M82:Q82 M92:Q92 M102:Q102 M112:Q112 M122:Q122">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0754F259-4157-46A4-A8DB-141F6D45964D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:AB21 M31:AB31 M41:AB41 M51:AB51 M61:AB61 M71:AB71 M81:AB81 M91:AB91 M101:AB101 M111:AB111 M121:AB121 M131:AB131">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F0346F83-C46A-46B5-9B8E-61EBB138CFDC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:AB22 M32:AB32 M42:AB42 M52:AB52 M62:AB62 M72:AB72 M82:AB82 M92:AB92 M102:AB102 M112:AB112 M122:AB122">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{431D3D4B-427C-47AD-B4A4-19DFCD400031}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23:Y23 U33:Y33 U43:Y43 U53:Y53 U63:Y63 U73:Y73 U83:Y83 U93:Y93 U103:Y103 U113:Y113 U123:Y123 U25:Y25 U35:Y35 U45:Y45 U55:Y55 U65:Y65 U75:Y75 U85:Y85 U95:Y95 U105:Y105 U115:Y115 U125:Y125 U27:Y27 U37:Y37 U47:Y47 U57:Y57 U67:Y67 U77:Y77 U87:Y87 U97:Y97 U107:Y107 U117:Y117 U127:Y127 U29:Y29 U39:Y39 U49:Y49 U59:Y59 U69:Y69 U79:Y79 U89:Y89 U99:Y99 U109:Y109 U119:Y119 U129:Y129 M23:Q23 M33:Q33 M43:Q43 M53:Q53 M63:Q63 M73:Q73 M83:Q83 M93:Q93 M103:Q103 M113:Q113 M123:Q123 M25:Q25 M35:Q35 M45:Q45 M55:Q55 M65:Q65 M75:Q75 M85:Q85 M95:Q95 M105:Q105 M115:Q115 M125:Q125 M27:Q27 M37:Q37 M47:Q47 M57:Q57 M67:Q67 M77:Q77 M87:Q87 M97:Q97 M107:Q107 M117:Q117 M127:Q127 M29:Q29 M39:Q39 M49:Q49 M59:Q59 M69:Q69 M79:Q79 M89:Q89 M99:Q99 M109:Q109 M119:Q119 M129:Q129">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC31B674-4820-4B7F-BC6B-4E35F01680C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24:Y24 U34:Y34 U44:Y44 U54:Y54 U64:Y64 U74:Y74 U84:Y84 U94:Y94 U104:Y104 U114:Y114 U124:Y124 U26:Y26 U36:Y36 U46:Y46 U56:Y56 U66:Y66 U76:Y76 U86:Y86 U96:Y96 U106:Y106 U116:Y116 U126:Y126 U28:Y28 U38:Y38 U48:Y48 U58:Y58 U68:Y68 U78:Y78 U88:Y88 U98:Y98 U108:Y108 U118:Y118 U128:Y128 U30:Y30 U40:Y40 U50:Y50 U60:Y60 U70:Y70 U80:Y80 U90:Y90 U100:Y100 U110:Y110 U120:Y120 U130:Y130 M24:Q24 M34:Q34 M44:Q44 M54:Q54 M64:Q64 M74:Q74 M84:Q84 M94:Q94 M104:Q104 M114:Q114 M124:Q124 M26:Q26 M36:Q36 M46:Q46 M56:Q56 M66:Q66 M76:Q76 M86:Q86 M96:Q96 M106:Q106 M116:Q116 M126:Q126 M28:Q28 M38:Q38 M48:Q48 M58:Q58 M68:Q68 M78:Q78 M88:Q88 M98:Q98 M108:Q108 M118:Q118 M128:Q128 M30:Q30 M40:Q40 M50:Q50 M60:Q60 M70:Q70 M80:Q80 M90:Q90 M100:Q100 M110:Q110 M120:Q120 M130:Q130">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8BD06B7-6543-44C9-8D42-E784B2AF80E8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:AB23 M33:AB33 M43:AB43 M53:AB53 M63:AB63 M73:AB73 M83:AB83 M93:AB93 M103:AB103 M113:AB113 M123:AB123 M25:AB25 M35:AB35 M45:AB45 M55:AB55 M65:AB65 M75:AB75 M85:AB85 M95:AB95 M105:AB105 M115:AB115 M125:AB125 M27:AB27 M37:AB37 M47:AB47 M57:AB57 M67:AB67 M77:AB77 M87:AB87 M97:AB97 M107:AB107 M117:AB117 M127:AB127 M29:AB29 M39:AB39 M49:AB49 M59:AB59 M69:AB69 M79:AB79 M89:AB89 M99:AB99 M109:AB109 M119:AB119 M129:AB129">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6DCD7AE-DACA-40EB-9D3B-6F022EA7AA93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:AB24 M34:AB34 M44:AB44 M54:AB54 M64:AB64 M74:AB74 M84:AB84 M94:AB94 M104:AB104 M114:AB114 M124:AB124 M26:AB26 M36:AB36 M46:AB46 M56:AB56 M66:AB66 M76:AB76 M86:AB86 M96:AB96 M106:AB106 M116:AB116 M126:AB126 M28:AB28 M38:AB38 M48:AB48 M58:AB58 M68:AB68 M78:AB78 M88:AB88 M98:AB98 M108:AB108 M118:AB118 M128:AB128 M30:AB30 M40:AB40 M50:AB50 M60:AB60 M70:AB70 M80:AB80 M90:AB90 M100:AB100 M110:AB110 M120:AB120 M130:AB130">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E9D93E9B-8E9D-4DBA-83BB-A64071E1DAA8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ31:AR31 AQ33:AR33 AQ35:AR35 AQ37:AR37 AQ39:AR39 AQ41:AR41 AQ43:AR43 AQ45:AR45 AQ47:AR47 AQ49:AR49 AQ51:AR51 AQ53:AR53 AQ55:AR55 AQ57:AR57 AQ59:AR59">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3DA22428-16D5-43D2-B841-E3B31D684251}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ32:AR32 AQ34:AR34 AQ36:AR36 AQ38:AR38 AQ40:AR40 AQ42:AR42 AQ44:AR44 AQ46:AR46 AQ48:AR48 AQ50:AR50 AQ52:AR52 AQ54:AR54 AQ56:AR56 AQ58:AR58">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC736E94-6411-4F58-A962-26D862A26860}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23:AR23 AQ25:AR25 AQ27:AR27 AQ29:AR29">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5381DFD7-B1D0-4EAB-9475-486E738C42E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ22:AR22 AQ24:AR24 AQ26:AR26 AQ28:AR28 AQ30:AR30">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{86E1C7D6-3133-4B13-A1AA-67D615F45206}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG23:BH23 BG25:BH25 BG27:BH27 BG29:BH29">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{01C9513A-34C6-4BCE-8D4B-C38C9755D510}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG22:BH22 BG24:BH24 BG26:BH26 BG28:BH28 BG30:BH30">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6545FB8-A9B3-47F1-82E8-324A292068B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO23:BP23 BO25:BP25 BO27:BP27 BO29:BP29">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{41FC50BA-6AA3-4156-8084-F0D9DD92C9FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO22:BP22 BO24:BP24 BO26:BP26 BO28:BP28 BO30:BP30">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FCD6EF8A-E6E4-478A-ADC4-9109AA15D5DD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ22:BU22 BQ32:BU32 BQ42:BU42 BQ52:BU52 BQ62:BU62 BQ72:BU72 BQ82:BU82 BQ92:BU92 BQ102:BU102 BQ112:BU112 BQ122:BU122 BQ132:BU132 BQ142:BU142 BQ152:BU152 BQ162:BU162 BQ172:BU172 BQ182:BU182 BQ192:BU192 BQ202:BU202 BQ212:BU212 BQ222:BU222 BQ232:BU232 BQ242:BU242 BQ252:BU252 BQ262:BU262 BQ272:BU272 BQ282:BU282 BQ292:BU292 BQ302:BU302 BQ312:BU312 BQ322:BU322 BQ332:BU332 BQ342:BU342 BQ352:BU352 BQ362:BU362 BQ372:BU372 BQ382:BU382 BQ392:BU392 BQ402:BU402 BQ412:BU412 BQ422:BU422">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A3E5CBA-143D-4497-A641-D1E12B416134}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ23:BU23 BQ33:BU33 BQ43:BU43 BQ53:BU53 BQ63:BU63 BQ73:BU73 BQ83:BU83 BQ93:BU93 BQ103:BU103 BQ113:BU113 BQ123:BU123 BQ133:BU133 BQ143:BU143 BQ153:BU153 BQ163:BU163 BQ173:BU173 BQ183:BU183 BQ193:BU193 BQ203:BU203 BQ213:BU213 BQ223:BU223 BQ233:BU233 BQ243:BU243 BQ253:BU253 BQ263:BU263 BQ273:BU273 BQ283:BU283 BQ293:BU293 BQ303:BU303 BQ313:BU313 BQ323:BU323 BQ333:BU333 BQ343:BU343 BQ353:BU353 BQ363:BU363 BQ373:BU373 BQ383:BU383 BQ393:BU393 BQ403:BU403 BQ413:BU413 BQ423:BU423 BQ25:BU25 BQ35:BU35 BQ45:BU45 BQ55:BU55 BQ65:BU65 BQ75:BU75 BQ85:BU85 BQ95:BU95 BQ105:BU105 BQ115:BU115 BQ125:BU125 BQ135:BU135 BQ145:BU145 BQ155:BU155 BQ165:BU165 BQ175:BU175 BQ185:BU185 BQ195:BU195 BQ205:BU205 BQ215:BU215 BQ225:BU225 BQ235:BU235 BQ245:BU245 BQ255:BU255 BQ265:BU265 BQ275:BU275 BQ285:BU285 BQ295:BU295 BQ305:BU305 BQ315:BU315 BQ325:BU325 BQ335:BU335 BQ345:BU345 BQ355:BU355 BQ365:BU365 BQ375:BU375 BQ385:BU385 BQ395:BU395 BQ405:BU405 BQ415:BU415 BQ425:BU425 BQ27:BU27 BQ37:BU37 BQ47:BU47 BQ57:BU57 BQ67:BU67 BQ77:BU77 BQ87:BU87 BQ97:BU97 BQ107:BU107 BQ117:BU117 BQ127:BU127 BQ137:BU137 BQ147:BU147 BQ157:BU157 BQ167:BU167 BQ177:BU177 BQ187:BU187 BQ197:BU197 BQ207:BU207 BQ217:BU217 BQ227:BU227 BQ237:BU237 BQ247:BU247 BQ257:BU257 BQ267:BU267 BQ277:BU277 BQ287:BU287 BQ297:BU297 BQ307:BU307 BQ317:BU317 BQ327:BU327 BQ337:BU337 BQ347:BU347 BQ357:BU357 BQ367:BU367 BQ377:BU377 BQ387:BU387 BQ397:BU397 BQ407:BU407 BQ417:BU417 BQ427:BU427 BQ29:BU29 BQ39:BU39 BQ49:BU49 BQ59:BU59 BQ69:BU69 BQ79:BU79 BQ89:BU89 BQ99:BU99 BQ109:BU109 BQ119:BU119 BQ129:BU129 BQ139:BU139 BQ149:BU149 BQ159:BU159 BQ169:BU169 BQ179:BU179 BQ189:BU189 BQ199:BU199 BQ209:BU209 BQ219:BU219 BQ229:BU229 BQ239:BU239 BQ249:BU249 BQ259:BU259 BQ269:BU269 BQ279:BU279 BQ289:BU289 BQ299:BU299 BQ309:BU309 BQ319:BU319 BQ329:BU329 BQ339:BU339 BQ349:BU349 BQ359:BU359 BQ369:BU369 BQ379:BU379 BQ389:BU389 BQ399:BU399 BQ409:BU409 BQ419:BU419 BQ429:BU429 BQ31:BU31 BQ41:BU41 BQ51:BU51 BQ61:BU61 BQ71:BU71 BQ81:BU81 BQ91:BU91 BQ101:BU101 BQ111:BU111 BQ121:BU121 BQ131:BU131 BQ141:BU141 BQ151:BU151 BQ161:BU161 BQ171:BU171 BQ181:BU181 BQ191:BU191 BQ201:BU201 BQ211:BU211 BQ221:BU221 BQ231:BU231 BQ241:BU241 BQ251:BU251 BQ261:BU261 BQ271:BU271 BQ281:BU281 BQ291:BU291 BQ301:BU301 BQ311:BU311 BQ321:BU321 BQ331:BU331 BQ341:BU341 BQ351:BU351 BQ361:BU361 BQ371:BU371 BQ381:BU381 BQ391:BU391 BQ401:BU401 BQ411:BU411 BQ421:BU421 BQ431:BU431">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{357E5E68-D201-47DF-BF24-98CCBDCF3D92}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ24:BU24 BQ34:BU34 BQ44:BU44 BQ54:BU54 BQ64:BU64 BQ74:BU74 BQ84:BU84 BQ94:BU94 BQ104:BU104 BQ114:BU114 BQ124:BU124 BQ134:BU134 BQ144:BU144 BQ154:BU154 BQ164:BU164 BQ174:BU174 BQ184:BU184 BQ194:BU194 BQ204:BU204 BQ214:BU214 BQ224:BU224 BQ234:BU234 BQ244:BU244 BQ254:BU254 BQ264:BU264 BQ274:BU274 BQ284:BU284 BQ294:BU294 BQ304:BU304 BQ314:BU314 BQ324:BU324 BQ334:BU334 BQ344:BU344 BQ354:BU354 BQ364:BU364 BQ374:BU374 BQ384:BU384 BQ394:BU394 BQ404:BU404 BQ414:BU414 BQ424:BU424 BQ26:BU26 BQ36:BU36 BQ46:BU46 BQ56:BU56 BQ66:BU66 BQ76:BU76 BQ86:BU86 BQ96:BU96 BQ106:BU106 BQ116:BU116 BQ126:BU126 BQ136:BU136 BQ146:BU146 BQ156:BU156 BQ166:BU166 BQ176:BU176 BQ186:BU186 BQ196:BU196 BQ206:BU206 BQ216:BU216 BQ226:BU226 BQ236:BU236 BQ246:BU246 BQ256:BU256 BQ266:BU266 BQ276:BU276 BQ286:BU286 BQ296:BU296 BQ306:BU306 BQ316:BU316 BQ326:BU326 BQ336:BU336 BQ346:BU346 BQ356:BU356 BQ366:BU366 BQ376:BU376 BQ386:BU386 BQ396:BU396 BQ406:BU406 BQ416:BU416 BQ426:BU426 BQ28:BU28 BQ38:BU38 BQ48:BU48 BQ58:BU58 BQ68:BU68 BQ78:BU78 BQ88:BU88 BQ98:BU98 BQ108:BU108 BQ118:BU118 BQ128:BU128 BQ138:BU138 BQ148:BU148 BQ158:BU158 BQ168:BU168 BQ178:BU178 BQ188:BU188 BQ198:BU198 BQ208:BU208 BQ218:BU218 BQ228:BU228 BQ238:BU238 BQ248:BU248 BQ258:BU258 BQ268:BU268 BQ278:BU278 BQ288:BU288 BQ298:BU298 BQ308:BU308 BQ318:BU318 BQ328:BU328 BQ338:BU338 BQ348:BU348 BQ358:BU358 BQ368:BU368 BQ378:BU378 BQ388:BU388 BQ398:BU398 BQ408:BU408 BQ418:BU418 BQ428:BU428 BQ30:BU30 BQ40:BU40 BQ50:BU50 BQ60:BU60 BQ70:BU70 BQ80:BU80 BQ90:BU90 BQ100:BU100 BQ110:BU110 BQ120:BU120 BQ130:BU130 BQ140:BU140 BQ150:BU150 BQ160:BU160 BQ170:BU170 BQ180:BU180 BQ190:BU190 BQ200:BU200 BQ210:BU210 BQ220:BU220 BQ230:BU230 BQ240:BU240 BQ250:BU250 BQ260:BU260 BQ270:BU270 BQ280:BU280 BQ290:BU290 BQ300:BU300 BQ310:BU310 BQ320:BU320 BQ330:BU330 BQ340:BU340 BQ350:BU350 BQ360:BU360 BQ370:BU370 BQ380:BU380 BQ390:BU390 BQ400:BU400 BQ410:BU410 BQ420:BU420 BQ430:BU430">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7538665C-B67E-4086-B58A-143B92CABDE9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11090,7 +13331,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BI11:BM11 BQ11:BU11</xm:sqref>
+          <xm:sqref>BQ11:BU11 BI11:BM11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{40D6ECDD-02A7-42D3-A631-D966D8A25C86}">
@@ -11103,7 +13344,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BI12:BM12 BQ12:BU12</xm:sqref>
+          <xm:sqref>BQ12:BU12 BI12:BM12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0CE05A3C-41A4-444E-9530-834EA6CEF0CC}">
@@ -11116,7 +13357,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M11:Q11 U11:Y11</xm:sqref>
+          <xm:sqref>U11:Y11 M11:Q11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9F507426-4C4A-493F-AA8C-67224E9F7096}">
@@ -11129,33 +13370,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M12:Q12 U12:Y12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74EAA01A-37A5-4A0D-9607-F24679D0E37F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M13:Q13 U13:Y13 M15:Q15 U15:Y15 M17:Q17 U17:Y17 M19:Q19 U19:Y19 M21:Q21 U21:Y21 M23:Q23 U23:Y23 M25:Q25 U25:Y25 M27:Q27 U27:Y27 M29:Q29 U29:Y29 M31:V31 M33:V33 M35:V35 M37:V37 M39:V39 M41:V41 M43:V43 M45:V45 M47:V47 M49:V49 M51:V51 M53:V53 M55:V55 M57:V57 M59:V59 M61:V61 M63:V63 M65:V65 M67:V67 M69:V69 M71:V71 M73:V73 M75:V75 M77:V77 M79:V79 M81:V81 M83:V83 M85:V85 M87:V87 M89:V89 M91:V91 M93:V93 M95:V95 M97:V97 M99:V99 M101:V101 M103:V103 M105:V105 M107:V107 M109:V109 M111:V111 M113:V113 M115:V115 M117:V117 M119:V119 M121:V121 M123:V123 M125:V125 M127:V127 M129:V129 M131:V131</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7191901D-50BF-465C-8E36-6D4BD8BF5173}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M14:Q14 U14:Y14 M16:Q16 U16:Y16 M18:Q18 U18:Y18 M20:Q20 U20:Y20 M22:Q22 U22:Y22 M24:Q24 U24:Y24 M26:Q26 U26:Y26 M28:Q28 U28:Y28 M30:Q30 U30:Y30 M32:V32 M34:V34 M36:V36 M38:V38 M40:V40 M42:V42 M44:V44 M46:V46 M48:V48 M50:V50 M52:V52 M54:V54 M56:V56 M58:V58 M60:V60 M62:V62 M64:V64 M66:V66 M68:V68 M70:V70 M72:V72 M74:V74 M76:V76 M78:V78 M80:V80 M82:V82 M84:V84 M86:V86 M88:V88 M90:V90 M92:V92 M94:V94 M96:V96 M98:V98 M100:V100 M102:V102 M104:V104 M106:V106 M108:V108 M110:V110 M112:V112 M114:V114 M116:V116 M118:V118 M120:V120 M122:V122 M124:V124 M126:V126 M128:V128 M130:V130</xm:sqref>
+          <xm:sqref>U12:Y12 M12:Q12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9149BD01-12A9-4302-8CB4-F7012EE82E9A}">
@@ -11166,7 +13381,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AS11:AW11 BA11:BE11</xm:sqref>
+          <xm:sqref>BA11:BE11 AS11:AW11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E99AE3D-7C0B-4852-A6B9-684410F61982}">
@@ -11177,7 +13392,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AS12:AW12 BA12:BE12</xm:sqref>
+          <xm:sqref>BA12:BE12 AS12:AW12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D63A045D-C16B-430F-A964-DA3ED83C064F}">
@@ -11188,7 +13403,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AS13:AW13 BA13:BE13 AS15:AW15 BA15:BE15 AS17:AW17 BA17:BE17 AS19:AW19 BA19:BE19 AS21:AW21 BA21:BE21 AM23:AQ23 AU23:AY23 AM25:AQ25 AU25:AY25 AM27:AQ27 AU27:AY27 AM29:AQ29 AU29:AY29 W31:AF31 W33:AF33 W35:AF35 W37:AF37 W39:AF39 W41:AF41 W43:AF43 W45:AF45 W47:AF47 W49:AF49 W51:AF51 W53:AF53 W55:AF55</xm:sqref>
+          <xm:sqref>BA13:BE13 AS13:AW13 AS15:AW15 BA15:BE15 AS17:AW17 BA17:BE17 AS19:AW19 BA19:BE19 AS21:AW21 BA21:BE21 AM23:AP23 AU23:AZ23 AM25:AP25 AU25:AZ25 AM27:AP27 AU27:AZ27 AM29:AP29 AU29:AZ29 AC31:AF31 AC33:AF33 AC35:AF35 AC37:AF37 AC39:AF39 AC41:AF41 AC43:AF43 AC45:AF45 AC47:AF47 AC49:AF49 AC51:AF51 AC53:AF53 AC55:AF55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2A51697E-FD72-4E4E-8590-3856DC5ED8BE}">
@@ -11199,7 +13414,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AS14:AW14 BA14:BE14 AS16:AW16 BA16:BE16 AS18:AW18 BA18:BE18 AS20:AW20 BA20:BE20 AM22:AQ22 AU22:AY22 AM24:AQ24 AU24:AY24 AM26:AQ26 AU26:AY26 AM28:AQ28 AU28:AY28 AM30:AQ30 AU30:AY30 W32:AF32 W34:AF34 W36:AF36 W38:AF38 W40:AF40 W42:AF42 W44:AF44 W46:AF46 W48:AF48 W50:AF50 W52:AF52 W54:AF54 W56:AF56</xm:sqref>
+          <xm:sqref>BA14:BE14 AS14:AW14 AS16:AW16 BA16:BE16 AS18:AW18 BA18:BE18 AS20:AW20 BA20:BE20 AM22:AP22 AU22:AZ22 AM24:AP24 AU24:AZ24 AM26:AP26 AU26:AZ26 AM28:AP28 AU28:AZ28 AM30:AP30 AU30:AZ30 AC32:AF32 AC34:AF34 AC36:AF36 AC38:AF38 AC40:AF40 AC42:AF42 AC44:AF44 AC46:AF46 AC48:AF48 AC50:AF50 AC52:AF52 AC54:AF54 AC56:AF56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{281C2890-D81B-4C82-962D-41180862EAC3}">
@@ -11212,7 +13427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BI13:BM13 BQ13:BU13 BI15:BM15 BQ15:BU15 BI17:BM17 BQ17:BU17 BI19:BM19 BQ19:BU19 BI21:BM21 BQ21:BU21 BC23:BG23 BK23:BO23 BC25:BG25 BK25:BO25 BC27:BG27 BK27:BO27 BC29:BG29 BK29:BO29 AG31:AL31 BH31 AZ31:BB31 AG33:AL33 BH33 AZ33:BB33 AG35:AL35 BH35 AZ35:BB35 AG37:AL37 BH37 AZ37:BB37 AG39:AL39 BH39 AZ39:BB39 AG41:AL41 BH41 AZ41:BB41 AG43:AL43 BH43 AZ43:BB43 AG45:AL45 BH45 AZ45:BB45 AG47:AL47 BH47 AZ47:BB47 AG49:AL49 BH49 AZ49:BB49 AG51:AL51 BH51 AZ51:BB51 AG53:AL53 BH53 AZ53:BB53 AG55:AL55 BH55 AZ55:BB55 AG57:AL57 BH57 AZ57:BB57 AG59:AL59 BH59 AZ59:BB59</xm:sqref>
+          <xm:sqref>BQ13:BU13 BI13:BM13 BI15:BM15 BQ15:BU15 BI17:BM17 BQ17:BU17 BI19:BM19 BQ19:BU19 BI21:BM21 BQ21:BU21 BC23:BF23 BK23:BN23 BC25:BF25 BK25:BN25 BC27:BF27 BK27:BN27 BC29:BF29 BK29:BN29 AG31:AL31 BA31:BB31 AG33:AL33 BA33:BB33 AG35:AL35 BA35:BB35 AG37:AL37 BA37:BB37 AG39:AL39 BA39:BB39 AG41:AL41 BA41:BB41 AG43:AL43 BA43:BB43 AG45:AL45 BA45:BB45 AG47:AL47 BA47:BB47 AG49:AL49 BA49:BB49 AG51:AL51 BA51:BB51 AG53:AL53 BA53:BB53 AG55:AL55 BA55:BB55 AG57:AL57 BA57:BB57 AG59:AL59 BA59:BB59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D8B127D7-D307-4835-A2F0-7FCDDD1B3246}">
@@ -11225,7 +13440,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>BI14:BM14 BQ14:BU14 BI16:BM16 BQ16:BU16 BI18:BM18 BQ18:BU18 BI20:BM20 BQ20:BU20 BC22:BG22 BK22:BO22 BC24:BG24 BK24:BO24 BC26:BG26 BK26:BO26 BC28:BG28 BK28:BO28 BC30:BG30 BK30:BO30 AG32:AL32 BH32 AZ32:BB32 AG34:AL34 BH34 AZ34:BB34 AG36:AL36 BH36 AZ36:BB36 AG38:AL38 BH38 AZ38:BB38 AG40:AL40 BH40 AZ40:BB40 AG42:AL42 BH42 AZ42:BB42 AG44:AL44 BH44 AZ44:BB44 AG46:AL46 BH46 AZ46:BB46 AG48:AL48 BH48 AZ48:BB48 AG50:AL50 BH50 AZ50:BB50 AG52:AL52 BH52 AZ52:BB52 AG54:AL54 BH54 AZ54:BB54 AG56:AL56 BH56 AZ56:BB56 AG58:AL58 BH58 AZ58:BB58</xm:sqref>
+          <xm:sqref>BQ14:BU14 BI14:BM14 BI16:BM16 BQ16:BU16 BI18:BM18 BQ18:BU18 BI20:BM20 BQ20:BU20 BC22:BF22 BK22:BN22 BC24:BF24 BK24:BN24 BC26:BF26 BK26:BN26 BC28:BF28 BK28:BN28 BC30:BF30 BK30:BN30 AG32:AL32 BA32:BB32 AG34:AL34 BA34:BB34 AG36:AL36 BA36:BB36 AG38:AL38 BA38:BB38 AG40:AL40 BA40:BB40 AG42:AL42 BA42:BB42 AG44:AL44 BA44:BB44 AG46:AL46 BA46:BB46 AG48:AL48 BA48:BB48 AG50:AL50 BA50:BB50 AG52:AL52 BA52:BB52 AG54:AL54 BA54:BB54 AG56:AL56 BA56:BB56 AG58:AL58 BA58:BB58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49233E1B-2B0A-4C5B-8EBC-CACAD68EFD78}">
@@ -11238,7 +13453,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AC11:AG11 AK11:AO11 AC13:AG13 AK13:AO13 AC15:AG15 AK15:AO15 AC17:AG17 AK17:AO17 AC19:AG19 AK19:AO19 AC21:AG21 AK21:AO21 AC23:AL23 AC25:AL25 AC27:AL27 AC29:AL29</xm:sqref>
+          <xm:sqref>AK11:AO11 AC11:AG11 AC13:AG13 AK13:AO13 AC15:AG15 AK15:AO15 AC17:AG17 AK17:AO17 AC19:AG19 AK19:AO19 AC21:AG21 AK21:AO21 AC23:AL23 AC25:AL25 AC27:AL27 AC29:AL29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD28434E-AD91-4AA7-86E3-C9A570535BE8}">
@@ -11251,7 +13466,308 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AC12:AG12 AK12:AO12 AC14:AG14 AK14:AO14 AC16:AG16 AK16:AO16 AC18:AG18 AK18:AO18 AC20:AG20 AK20:AO20 AC22:AL22 AC24:AL24 AC26:AL26 AC28:AL28 AC30:AL30</xm:sqref>
+          <xm:sqref>AK12:AO12 AC12:AG12 AC14:AG14 AK14:AO14 AC16:AG16 AK16:AO16 AC18:AG18 AK18:AO18 AC20:AG20 AK20:AO20 AC22:AL22 AC24:AL24 AC26:AL26 AC28:AL28 AC30:AL30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{209DC47F-D83C-4A29-8850-06E027AFBA99}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M11:AB11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{714D3B35-E64F-4F96-A387-3AD1A2CD3EF2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M12:AB12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31C4C4EF-21A6-478B-BD2D-56F8EE62A1EE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U13:Y13 U15:Y15 U17:Y17 U19:Y19 M13:Q13 M15:Q15 M17:Q17 M19:Q19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{45B93CC3-857F-489D-ABF5-9998060A91D7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U14:Y14 U16:Y16 U18:Y18 U20:Y20 M14:Q14 M16:Q16 M18:Q18 M20:Q20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{23BD28F1-B90A-45FB-8315-8519D600C6D2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M13:AB13 M15:AB15 M17:AB17 M19:AB19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D9C7F3B3-8A7D-4A45-8686-3D73408D3807}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M14:AB14 M16:AB16 M18:AB18 M20:AB20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C9D5404F-08EE-4364-9CA3-EA7DDD1A0BB1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U21:Y21 U31:Y31 U41:Y41 U51:Y51 U61:Y61 U71:Y71 U81:Y81 U91:Y91 U101:Y101 U111:Y111 U121:Y121 U131:Y131 M21:Q21 M31:Q31 M41:Q41 M51:Q51 M61:Q61 M71:Q71 M81:Q81 M91:Q91 M101:Q101 M111:Q111 M121:Q121 M131:Q131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0754F259-4157-46A4-A8DB-141F6D45964D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U22:Y22 U32:Y32 U42:Y42 U52:Y52 U62:Y62 U72:Y72 U82:Y82 U92:Y92 U102:Y102 U112:Y112 U122:Y122 M22:Q22 M32:Q32 M42:Q42 M52:Q52 M62:Q62 M72:Q72 M82:Q82 M92:Q92 M102:Q102 M112:Q112 M122:Q122</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F0346F83-C46A-46B5-9B8E-61EBB138CFDC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M21:AB21 M31:AB31 M41:AB41 M51:AB51 M61:AB61 M71:AB71 M81:AB81 M91:AB91 M101:AB101 M111:AB111 M121:AB121 M131:AB131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{431D3D4B-427C-47AD-B4A4-19DFCD400031}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M22:AB22 M32:AB32 M42:AB42 M52:AB52 M62:AB62 M72:AB72 M82:AB82 M92:AB92 M102:AB102 M112:AB112 M122:AB122</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC31B674-4820-4B7F-BC6B-4E35F01680C8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U23:Y23 U33:Y33 U43:Y43 U53:Y53 U63:Y63 U73:Y73 U83:Y83 U93:Y93 U103:Y103 U113:Y113 U123:Y123 U25:Y25 U35:Y35 U45:Y45 U55:Y55 U65:Y65 U75:Y75 U85:Y85 U95:Y95 U105:Y105 U115:Y115 U125:Y125 U27:Y27 U37:Y37 U47:Y47 U57:Y57 U67:Y67 U77:Y77 U87:Y87 U97:Y97 U107:Y107 U117:Y117 U127:Y127 U29:Y29 U39:Y39 U49:Y49 U59:Y59 U69:Y69 U79:Y79 U89:Y89 U99:Y99 U109:Y109 U119:Y119 U129:Y129 M23:Q23 M33:Q33 M43:Q43 M53:Q53 M63:Q63 M73:Q73 M83:Q83 M93:Q93 M103:Q103 M113:Q113 M123:Q123 M25:Q25 M35:Q35 M45:Q45 M55:Q55 M65:Q65 M75:Q75 M85:Q85 M95:Q95 M105:Q105 M115:Q115 M125:Q125 M27:Q27 M37:Q37 M47:Q47 M57:Q57 M67:Q67 M77:Q77 M87:Q87 M97:Q97 M107:Q107 M117:Q117 M127:Q127 M29:Q29 M39:Q39 M49:Q49 M59:Q59 M69:Q69 M79:Q79 M89:Q89 M99:Q99 M109:Q109 M119:Q119 M129:Q129</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8BD06B7-6543-44C9-8D42-E784B2AF80E8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U24:Y24 U34:Y34 U44:Y44 U54:Y54 U64:Y64 U74:Y74 U84:Y84 U94:Y94 U104:Y104 U114:Y114 U124:Y124 U26:Y26 U36:Y36 U46:Y46 U56:Y56 U66:Y66 U76:Y76 U86:Y86 U96:Y96 U106:Y106 U116:Y116 U126:Y126 U28:Y28 U38:Y38 U48:Y48 U58:Y58 U68:Y68 U78:Y78 U88:Y88 U98:Y98 U108:Y108 U118:Y118 U128:Y128 U30:Y30 U40:Y40 U50:Y50 U60:Y60 U70:Y70 U80:Y80 U90:Y90 U100:Y100 U110:Y110 U120:Y120 U130:Y130 M24:Q24 M34:Q34 M44:Q44 M54:Q54 M64:Q64 M74:Q74 M84:Q84 M94:Q94 M104:Q104 M114:Q114 M124:Q124 M26:Q26 M36:Q36 M46:Q46 M56:Q56 M66:Q66 M76:Q76 M86:Q86 M96:Q96 M106:Q106 M116:Q116 M126:Q126 M28:Q28 M38:Q38 M48:Q48 M58:Q58 M68:Q68 M78:Q78 M88:Q88 M98:Q98 M108:Q108 M118:Q118 M128:Q128 M30:Q30 M40:Q40 M50:Q50 M60:Q60 M70:Q70 M80:Q80 M90:Q90 M100:Q100 M110:Q110 M120:Q120 M130:Q130</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6DCD7AE-DACA-40EB-9D3B-6F022EA7AA93}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M23:AB23 M33:AB33 M43:AB43 M53:AB53 M63:AB63 M73:AB73 M83:AB83 M93:AB93 M103:AB103 M113:AB113 M123:AB123 M25:AB25 M35:AB35 M45:AB45 M55:AB55 M65:AB65 M75:AB75 M85:AB85 M95:AB95 M105:AB105 M115:AB115 M125:AB125 M27:AB27 M37:AB37 M47:AB47 M57:AB57 M67:AB67 M77:AB77 M87:AB87 M97:AB97 M107:AB107 M117:AB117 M127:AB127 M29:AB29 M39:AB39 M49:AB49 M59:AB59 M69:AB69 M79:AB79 M89:AB89 M99:AB99 M109:AB109 M119:AB119 M129:AB129</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E9D93E9B-8E9D-4DBA-83BB-A64071E1DAA8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M24:AB24 M34:AB34 M44:AB44 M54:AB54 M64:AB64 M74:AB74 M84:AB84 M94:AB94 M104:AB104 M114:AB114 M124:AB124 M26:AB26 M36:AB36 M46:AB46 M56:AB56 M66:AB66 M76:AB76 M86:AB86 M96:AB96 M106:AB106 M116:AB116 M126:AB126 M28:AB28 M38:AB38 M48:AB48 M58:AB58 M68:AB68 M78:AB78 M88:AB88 M98:AB98 M108:AB108 M118:AB118 M128:AB128 M30:AB30 M40:AB40 M50:AB50 M60:AB60 M70:AB70 M80:AB80 M90:AB90 M100:AB100 M110:AB110 M120:AB120 M130:AB130</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3DA22428-16D5-43D2-B841-E3B31D684251}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AQ31:AR31 AQ33:AR33 AQ35:AR35 AQ37:AR37 AQ39:AR39 AQ41:AR41 AQ43:AR43 AQ45:AR45 AQ47:AR47 AQ49:AR49 AQ51:AR51 AQ53:AR53 AQ55:AR55 AQ57:AR57 AQ59:AR59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC736E94-6411-4F58-A962-26D862A26860}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AQ32:AR32 AQ34:AR34 AQ36:AR36 AQ38:AR38 AQ40:AR40 AQ42:AR42 AQ44:AR44 AQ46:AR46 AQ48:AR48 AQ50:AR50 AQ52:AR52 AQ54:AR54 AQ56:AR56 AQ58:AR58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5381DFD7-B1D0-4EAB-9475-486E738C42E3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AQ23:AR23 AQ25:AR25 AQ27:AR27 AQ29:AR29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{86E1C7D6-3133-4B13-A1AA-67D615F45206}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AQ22:AR22 AQ24:AR24 AQ26:AR26 AQ28:AR28 AQ30:AR30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01C9513A-34C6-4BCE-8D4B-C38C9755D510}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BG23:BH23 BG25:BH25 BG27:BH27 BG29:BH29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6545FB8-A9B3-47F1-82E8-324A292068B8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BG22:BH22 BG24:BH24 BG26:BH26 BG28:BH28 BG30:BH30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{41FC50BA-6AA3-4156-8084-F0D9DD92C9FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BO23:BP23 BO25:BP25 BO27:BP27 BO29:BP29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FCD6EF8A-E6E4-478A-ADC4-9109AA15D5DD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BO22:BP22 BO24:BP24 BO26:BP26 BO28:BP28 BO30:BP30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A3E5CBA-143D-4497-A641-D1E12B416134}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BQ22:BU22 BQ32:BU32 BQ42:BU42 BQ52:BU52 BQ62:BU62 BQ72:BU72 BQ82:BU82 BQ92:BU92 BQ102:BU102 BQ112:BU112 BQ122:BU122 BQ132:BU132 BQ142:BU142 BQ152:BU152 BQ162:BU162 BQ172:BU172 BQ182:BU182 BQ192:BU192 BQ202:BU202 BQ212:BU212 BQ222:BU222 BQ232:BU232 BQ242:BU242 BQ252:BU252 BQ262:BU262 BQ272:BU272 BQ282:BU282 BQ292:BU292 BQ302:BU302 BQ312:BU312 BQ322:BU322 BQ332:BU332 BQ342:BU342 BQ352:BU352 BQ362:BU362 BQ372:BU372 BQ382:BU382 BQ392:BU392 BQ402:BU402 BQ412:BU412 BQ422:BU422</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{357E5E68-D201-47DF-BF24-98CCBDCF3D92}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BQ23:BU23 BQ33:BU33 BQ43:BU43 BQ53:BU53 BQ63:BU63 BQ73:BU73 BQ83:BU83 BQ93:BU93 BQ103:BU103 BQ113:BU113 BQ123:BU123 BQ133:BU133 BQ143:BU143 BQ153:BU153 BQ163:BU163 BQ173:BU173 BQ183:BU183 BQ193:BU193 BQ203:BU203 BQ213:BU213 BQ223:BU223 BQ233:BU233 BQ243:BU243 BQ253:BU253 BQ263:BU263 BQ273:BU273 BQ283:BU283 BQ293:BU293 BQ303:BU303 BQ313:BU313 BQ323:BU323 BQ333:BU333 BQ343:BU343 BQ353:BU353 BQ363:BU363 BQ373:BU373 BQ383:BU383 BQ393:BU393 BQ403:BU403 BQ413:BU413 BQ423:BU423 BQ25:BU25 BQ35:BU35 BQ45:BU45 BQ55:BU55 BQ65:BU65 BQ75:BU75 BQ85:BU85 BQ95:BU95 BQ105:BU105 BQ115:BU115 BQ125:BU125 BQ135:BU135 BQ145:BU145 BQ155:BU155 BQ165:BU165 BQ175:BU175 BQ185:BU185 BQ195:BU195 BQ205:BU205 BQ215:BU215 BQ225:BU225 BQ235:BU235 BQ245:BU245 BQ255:BU255 BQ265:BU265 BQ275:BU275 BQ285:BU285 BQ295:BU295 BQ305:BU305 BQ315:BU315 BQ325:BU325 BQ335:BU335 BQ345:BU345 BQ355:BU355 BQ365:BU365 BQ375:BU375 BQ385:BU385 BQ395:BU395 BQ405:BU405 BQ415:BU415 BQ425:BU425 BQ27:BU27 BQ37:BU37 BQ47:BU47 BQ57:BU57 BQ67:BU67 BQ77:BU77 BQ87:BU87 BQ97:BU97 BQ107:BU107 BQ117:BU117 BQ127:BU127 BQ137:BU137 BQ147:BU147 BQ157:BU157 BQ167:BU167 BQ177:BU177 BQ187:BU187 BQ197:BU197 BQ207:BU207 BQ217:BU217 BQ227:BU227 BQ237:BU237 BQ247:BU247 BQ257:BU257 BQ267:BU267 BQ277:BU277 BQ287:BU287 BQ297:BU297 BQ307:BU307 BQ317:BU317 BQ327:BU327 BQ337:BU337 BQ347:BU347 BQ357:BU357 BQ367:BU367 BQ377:BU377 BQ387:BU387 BQ397:BU397 BQ407:BU407 BQ417:BU417 BQ427:BU427 BQ29:BU29 BQ39:BU39 BQ49:BU49 BQ59:BU59 BQ69:BU69 BQ79:BU79 BQ89:BU89 BQ99:BU99 BQ109:BU109 BQ119:BU119 BQ129:BU129 BQ139:BU139 BQ149:BU149 BQ159:BU159 BQ169:BU169 BQ179:BU179 BQ189:BU189 BQ199:BU199 BQ209:BU209 BQ219:BU219 BQ229:BU229 BQ239:BU239 BQ249:BU249 BQ259:BU259 BQ269:BU269 BQ279:BU279 BQ289:BU289 BQ299:BU299 BQ309:BU309 BQ319:BU319 BQ329:BU329 BQ339:BU339 BQ349:BU349 BQ359:BU359 BQ369:BU369 BQ379:BU379 BQ389:BU389 BQ399:BU399 BQ409:BU409 BQ419:BU419 BQ429:BU429 BQ31:BU31 BQ41:BU41 BQ51:BU51 BQ61:BU61 BQ71:BU71 BQ81:BU81 BQ91:BU91 BQ101:BU101 BQ111:BU111 BQ121:BU121 BQ131:BU131 BQ141:BU141 BQ151:BU151 BQ161:BU161 BQ171:BU171 BQ181:BU181 BQ191:BU191 BQ201:BU201 BQ211:BU211 BQ221:BU221 BQ231:BU231 BQ241:BU241 BQ251:BU251 BQ261:BU261 BQ271:BU271 BQ281:BU281 BQ291:BU291 BQ301:BU301 BQ311:BU311 BQ321:BU321 BQ331:BU331 BQ341:BU341 BQ351:BU351 BQ361:BU361 BQ371:BU371 BQ381:BU381 BQ391:BU391 BQ401:BU401 BQ411:BU411 BQ421:BU421 BQ431:BU431</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7538665C-B67E-4086-B58A-143B92CABDE9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BQ24:BU24 BQ34:BU34 BQ44:BU44 BQ54:BU54 BQ64:BU64 BQ74:BU74 BQ84:BU84 BQ94:BU94 BQ104:BU104 BQ114:BU114 BQ124:BU124 BQ134:BU134 BQ144:BU144 BQ154:BU154 BQ164:BU164 BQ174:BU174 BQ184:BU184 BQ194:BU194 BQ204:BU204 BQ214:BU214 BQ224:BU224 BQ234:BU234 BQ244:BU244 BQ254:BU254 BQ264:BU264 BQ274:BU274 BQ284:BU284 BQ294:BU294 BQ304:BU304 BQ314:BU314 BQ324:BU324 BQ334:BU334 BQ344:BU344 BQ354:BU354 BQ364:BU364 BQ374:BU374 BQ384:BU384 BQ394:BU394 BQ404:BU404 BQ414:BU414 BQ424:BU424 BQ26:BU26 BQ36:BU36 BQ46:BU46 BQ56:BU56 BQ66:BU66 BQ76:BU76 BQ86:BU86 BQ96:BU96 BQ106:BU106 BQ116:BU116 BQ126:BU126 BQ136:BU136 BQ146:BU146 BQ156:BU156 BQ166:BU166 BQ176:BU176 BQ186:BU186 BQ196:BU196 BQ206:BU206 BQ216:BU216 BQ226:BU226 BQ236:BU236 BQ246:BU246 BQ256:BU256 BQ266:BU266 BQ276:BU276 BQ286:BU286 BQ296:BU296 BQ306:BU306 BQ316:BU316 BQ326:BU326 BQ336:BU336 BQ346:BU346 BQ356:BU356 BQ366:BU366 BQ376:BU376 BQ386:BU386 BQ396:BU396 BQ406:BU406 BQ416:BU416 BQ426:BU426 BQ28:BU28 BQ38:BU38 BQ48:BU48 BQ58:BU58 BQ68:BU68 BQ78:BU78 BQ88:BU88 BQ98:BU98 BQ108:BU108 BQ118:BU118 BQ128:BU128 BQ138:BU138 BQ148:BU148 BQ158:BU158 BQ168:BU168 BQ178:BU178 BQ188:BU188 BQ198:BU198 BQ208:BU208 BQ218:BU218 BQ228:BU228 BQ238:BU238 BQ248:BU248 BQ258:BU258 BQ268:BU268 BQ278:BU278 BQ288:BU288 BQ298:BU298 BQ308:BU308 BQ318:BU318 BQ328:BU328 BQ338:BU338 BQ348:BU348 BQ358:BU358 BQ368:BU368 BQ378:BU378 BQ388:BU388 BQ398:BU398 BQ408:BU408 BQ418:BU418 BQ428:BU428 BQ30:BU30 BQ40:BU40 BQ50:BU50 BQ60:BU60 BQ70:BU70 BQ80:BU80 BQ90:BU90 BQ100:BU100 BQ110:BU110 BQ120:BU120 BQ130:BU130 BQ140:BU140 BQ150:BU150 BQ160:BU160 BQ170:BU170 BQ180:BU180 BQ190:BU190 BQ200:BU200 BQ210:BU210 BQ220:BU220 BQ230:BU230 BQ240:BU240 BQ250:BU250 BQ260:BU260 BQ270:BU270 BQ280:BU280 BQ290:BU290 BQ300:BU300 BQ310:BU310 BQ320:BU320 BQ330:BU330 BQ340:BU340 BQ350:BU350 BQ360:BU360 BQ370:BU370 BQ380:BU380 BQ390:BU390 BQ400:BU400 BQ410:BU410 BQ420:BU420 BQ430:BU430</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11287,7 +13803,7 @@
       </c>
       <c r="B1" s="74" t="str">
         <f>"["&amp;CONCATENATE(IF(A10="","",A20),IF(I10="","",I20),IF(A30="","",A40),IF(I30="","",I40),IF(Q30="","",Q40))&amp;CONCATENATE(",",IF(A50="","",A60),IF(I50="","",I60),IF(A70="","",A80),IF(I70="","",I80),IF(Q70="","",Q80))&amp;CONCATENATE(IF(Q10="","",Q20),IF(S10="","",S20),IF(U10="","",U20))&amp;CONCATENATE(IF(Q50="","",Q60),IF(S50="","",S60),IF(U50="","",U60))&amp;"]"</f>
-        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
+        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74001,"skills":[7400110],"attrs":[]},{"title":"1","num":102,"id":74002,"skills":[7400210],"attrs":[]},{"title":"1","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74001,"skills":[7400110],"attrs":[]},{"title":"2","num":105,"id":74002,"skills":[7400210],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
       </c>
       <c r="C1" s="74"/>
       <c r="D1" s="74"/>
@@ -11531,11 +14047,11 @@
       </c>
       <c r="S10" s="7" t="str">
         <f>IF(Test!U10="","",$A$1&amp;":"&amp;""""&amp;Test!U10&amp;""""&amp;",")</f>
-        <v>"title":"2",</v>
+        <v>"title":"1",</v>
       </c>
       <c r="U10" s="7" t="str">
         <f>IF(Test!W10="","",$A$1&amp;":"&amp;""""&amp;Test!W10&amp;""""&amp;",")</f>
-        <v>"title":"3",</v>
+        <v>"title":"1",</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -11571,11 +14087,11 @@
       </c>
       <c r="Q12" t="str">
         <f>$A$3&amp;":"&amp;Test!S12&amp;","</f>
-        <v>"id":74002,</v>
+        <v>"id":74001,</v>
       </c>
       <c r="S12" t="str">
         <f>$A$3&amp;":"&amp;Test!U12&amp;","</f>
-        <v>"id":74001,</v>
+        <v>"id":74002,</v>
       </c>
       <c r="U12" t="str">
         <f>$A$3&amp;":"&amp;Test!W12&amp;","</f>
@@ -11633,19 +14149,19 @@
       </c>
       <c r="Q13" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;R13&amp;R14&amp;"],"</f>
-        <v>"skills":[7400210],</v>
+        <v>"skills":[7400110],</v>
       </c>
       <c r="R13" s="5">
         <f>IF(Test!S13,Test!S13,"")</f>
-        <v>7400210</v>
+        <v>7400110</v>
       </c>
       <c r="S13" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;T13&amp;T14&amp;"],"</f>
-        <v>"skills":[7400110],</v>
+        <v>"skills":[7400210],</v>
       </c>
       <c r="T13" s="5">
         <f>IF(Test!U13,Test!U13,"")</f>
-        <v>7400110</v>
+        <v>7400210</v>
       </c>
       <c r="U13" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;V13&amp;V14&amp;"],"</f>
@@ -11812,7 +14328,7 @@
       </c>
       <c r="Q20" s="6" t="str">
         <f>CONCATENATE(Q21,"{",Q10,Q11,Q12,Q13,Q14,Q15,"}")</f>
-        <v>,{"title":"1","num":101,"id":74002,"skills":[7400210],"attrs":[]}</v>
+        <v>,{"title":"1","num":101,"id":74001,"skills":[7400110],"attrs":[]}</v>
       </c>
       <c r="R20" s="5" t="str">
         <f>IF(Test!V20,"{"&amp;$A$3&amp;":"&amp;Test!S20&amp;","&amp;$A$8&amp;":"&amp;Test!V20&amp;"}","")&amp;IF(R21="","",",")</f>
@@ -11820,11 +14336,11 @@
       </c>
       <c r="S20" s="6" t="str">
         <f>CONCATENATE(S21,"{",S10,S11,S12,S13,S14,S15,"}")</f>
-        <v>,{"title":"2","num":102,"id":74001,"skills":[7400110],"attrs":[]}</v>
+        <v>,{"title":"1","num":102,"id":74002,"skills":[7400210],"attrs":[]}</v>
       </c>
       <c r="U20" s="6" t="str">
         <f>CONCATENATE(U21,"{",U10,U11,U12,U13,U14,U15,"}")</f>
-        <v>,{"title":"3","num":103,"id":73001,"skills":[7300110],"attrs":[]}</v>
+        <v>,{"title":"1","num":103,"id":73001,"skills":[7300110],"attrs":[]}</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -12336,11 +14852,11 @@
       </c>
       <c r="Q52" t="str">
         <f>$A$3&amp;":"&amp;Test!S52&amp;","</f>
-        <v>"id":74002,</v>
+        <v>"id":74001,</v>
       </c>
       <c r="S52" t="str">
         <f>$A$3&amp;":"&amp;Test!U52&amp;","</f>
-        <v>"id":74001,</v>
+        <v>"id":74002,</v>
       </c>
       <c r="U52" t="str">
         <f>$A$3&amp;":"&amp;Test!W52&amp;","</f>
@@ -12398,19 +14914,19 @@
       </c>
       <c r="Q53" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;R53&amp;R54&amp;"],"</f>
-        <v>"skills":[7400210],</v>
+        <v>"skills":[7400110],</v>
       </c>
       <c r="R53" s="5">
         <f>IF(Test!S53,Test!S53,"")</f>
-        <v>7400210</v>
+        <v>7400110</v>
       </c>
       <c r="S53" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;T53&amp;T54&amp;"],"</f>
-        <v>"skills":[7400110],</v>
+        <v>"skills":[7400210],</v>
       </c>
       <c r="T53" s="5">
         <f>IF(Test!U53,Test!U53,"")</f>
-        <v>7400110</v>
+        <v>7400210</v>
       </c>
       <c r="U53" t="str">
         <f>$A$4&amp;":"&amp;"["&amp;V53&amp;V54&amp;"],"</f>
@@ -12577,7 +15093,7 @@
       </c>
       <c r="Q60" s="6" t="str">
         <f>CONCATENATE(Q61,"{",Q50,Q51,Q52,Q53,Q54,Q55,"}")</f>
-        <v>,{"title":"1","num":104,"id":74002,"skills":[7400210],"attrs":[]}</v>
+        <v>,{"title":"1","num":104,"id":74001,"skills":[7400110],"attrs":[]}</v>
       </c>
       <c r="R60" s="5" t="str">
         <f>IF(Test!V60,"{"&amp;$A$3&amp;":"&amp;Test!S60&amp;","&amp;$A$8&amp;":"&amp;Test!V60&amp;"}","")&amp;IF(R61="","",",")</f>
@@ -12585,7 +15101,7 @@
       </c>
       <c r="S60" s="6" t="str">
         <f>CONCATENATE(S61,"{",S50,S51,S52,S53,S54,S55,"}")</f>
-        <v>,{"title":"2","num":105,"id":74001,"skills":[7400110],"attrs":[]}</v>
+        <v>,{"title":"2","num":105,"id":74002,"skills":[7400210],"attrs":[]}</v>
       </c>
       <c r="U60" s="6" t="str">
         <f>CONCATENATE(U61,"{",U50,U51,U52,U53,U54,U55,"}")</f>
@@ -13062,8 +15578,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -67127,7 +69643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD514A6-1D5C-485E-AC49-FA33E51A49D1}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -69357,10 +71873,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -69372,7 +71888,7 @@
     <col min="7" max="7" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -69394,8 +71910,11 @@
       <c r="G1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -69417,8 +71936,11 @@
       <c r="G2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -69440,8 +71962,11 @@
       <c r="G3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4</v>
       </c>
@@ -69457,8 +71982,11 @@
       <c r="E4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>5</v>
       </c>
@@ -69480,8 +72008,11 @@
       <c r="G5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>6</v>
       </c>
@@ -69503,8 +72034,11 @@
       <c r="G6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>7</v>
       </c>
@@ -69526,8 +72060,11 @@
       <c r="G7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>8</v>
       </c>
@@ -69549,8 +72086,11 @@
       <c r="G8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>9</v>
       </c>
@@ -69566,8 +72106,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>10</v>
       </c>
@@ -69583,8 +72126,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>11</v>
       </c>
@@ -69600,8 +72146,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>12</v>
       </c>
@@ -69617,8 +72166,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>13</v>
       </c>
@@ -69634,8 +72186,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>14</v>
       </c>
@@ -69651,8 +72206,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>15</v>
       </c>
@@ -69668,8 +72226,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>16</v>
       </c>
@@ -69685,8 +72246,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>17</v>
       </c>
@@ -69702,8 +72266,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>18</v>
       </c>
@@ -69719,8 +72286,11 @@
       <c r="E18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>19</v>
       </c>
@@ -69736,8 +72306,11 @@
       <c r="E19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>20</v>
       </c>
@@ -69753,8 +72326,11 @@
       <c r="E20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>21</v>
       </c>
@@ -69770,8 +72346,11 @@
       <c r="E21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>22</v>
       </c>
@@ -69787,8 +72366,11 @@
       <c r="E22">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>23</v>
       </c>
@@ -69804,8 +72386,11 @@
       <c r="E23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>24</v>
       </c>
@@ -69821,8 +72406,11 @@
       <c r="E24">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>25</v>
       </c>
@@ -69838,8 +72426,11 @@
       <c r="E25">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>26</v>
       </c>
@@ -69855,8 +72446,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>27</v>
       </c>
@@ -69872,8 +72466,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>28</v>
       </c>
@@ -69889,8 +72486,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>29</v>
       </c>
@@ -69906,8 +72506,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>30</v>
       </c>
@@ -69923,8 +72526,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>31</v>
       </c>
@@ -69940,8 +72546,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H31" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>32</v>
       </c>
@@ -69957,8 +72566,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>33</v>
       </c>
@@ -69974,8 +72586,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>34</v>
       </c>
@@ -69991,8 +72606,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="H34" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>35</v>
       </c>
@@ -70008,8 +72626,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>36</v>
       </c>
@@ -70025,8 +72646,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>37</v>
       </c>
@@ -70042,8 +72666,11 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>38</v>
       </c>
@@ -70059,8 +72686,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="H38" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>39</v>
       </c>
@@ -70076,8 +72706,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="H39" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>40</v>
       </c>
@@ -70093,8 +72726,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="H40" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>41</v>
       </c>
@@ -70110,8 +72746,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>42</v>
       </c>
@@ -70127,8 +72766,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="H42" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>43</v>
       </c>
@@ -70144,8 +72786,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="H43" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>44</v>
       </c>
@@ -70161,8 +72806,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="H44" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>45</v>
       </c>
@@ -70178,8 +72826,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="H45" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>46</v>
       </c>
@@ -70195,8 +72846,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="H46" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>47</v>
       </c>
@@ -70212,8 +72866,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="H47" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>48</v>
       </c>
@@ -70229,8 +72886,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="H48" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>49</v>
       </c>
@@ -70246,8 +72906,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="H49" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>50</v>
       </c>
@@ -70263,8 +72926,11 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="H50" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>51</v>
       </c>
@@ -70280,8 +72946,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="H51" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>52</v>
       </c>
@@ -70297,8 +72966,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="H52" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>53</v>
       </c>
@@ -70314,8 +72986,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="H53" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>54</v>
       </c>
@@ -70331,8 +73006,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="H54" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>55</v>
       </c>
@@ -70348,8 +73026,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="H55" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>56</v>
       </c>
@@ -70365,8 +73046,11 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="H56" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>57</v>
       </c>
@@ -70382,8 +73066,11 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="H57" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>58</v>
       </c>
@@ -70399,8 +73086,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="H58" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>59</v>
       </c>
@@ -70416,8 +73106,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="H59" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>60</v>
       </c>
@@ -70433,8 +73126,11 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="H60" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>61</v>
       </c>
@@ -70450,8 +73146,11 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="H61" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>62</v>
       </c>
@@ -70467,8 +73166,11 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="H62" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>63</v>
       </c>
@@ -70484,8 +73186,11 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="H63" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>64</v>
       </c>
@@ -70501,8 +73206,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="H64" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>65</v>
       </c>
@@ -70518,8 +73226,11 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="H65" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>66</v>
       </c>
@@ -70535,8 +73246,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="H66" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>67</v>
       </c>
@@ -70552,8 +73266,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="H67" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>68</v>
       </c>
@@ -70569,8 +73286,11 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="H68" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>69</v>
       </c>
@@ -70586,8 +73306,11 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="H69" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>70</v>
       </c>
@@ -70603,6 +73326,15 @@
       <c r="E70">
         <v>0</v>
       </c>
+      <c r="H70" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="H71" s="88"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="H72" s="88"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -70645,7 +73377,7 @@
       </c>
       <c r="C2" t="str">
         <f>Test!A91</f>
-        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":102,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74002,"skills":[7400210],"attrs":[]},{"title":"2","num":105,"id":74001,"skills":[7400110],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
+        <v>[{"title":"A","num":1,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"S","num":2,"id":11004,"skills":[1100400,1100413,1100423,1100433,1100443],"passive_skills":[],"attrs":[{"id":1,"value":19842},{"id":2,"value":257548},{"id":5,"value":6610},{"id":6,"value":4627},{"id":4,"value":2077},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"Z","num":3,"id":13001,"skills":[1300100,1300113,1300123,1300133,1300143],"passive_skills":[],"attrs":[{"id":1,"value":25989},{"id":2,"value":195176},{"id":5,"value":5560},{"id":6,"value":4651},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500}]},{"title":"X","num":4,"id":14002,"skills":[1400200,1400213,1400223,1400233,1400243],"passive_skills":[],"attrs":[{"id":1,"value":21879},{"id":2,"value":217199},{"id":5,"value":5539},{"id":6,"value":5722},{"id":4,"value":2131},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":23,"value":2000}]},{"title":"C","num":5,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"a","num":6,"id":31002,"skills":[3100200,3100213,3100223,3100233,3100243],"passive_skills":[],"attrs":[{"id":1,"value":19851},{"id":2,"value":271379},{"id":5,"value":6700},{"id":6,"value":4684},{"id":4,"value":2054},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":25,"value":2000}]},{"title":"S","num":7,"id":21003,"skills":[2100300,2100313,2100323,2100333,2100343],"passive_skills":[],"attrs":[{"id":1,"value":18702},{"id":2,"value":223463},{"id":5,"value":6667},{"id":6,"value":4672},{"id":4,"value":1739},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"Z","num":8,"id":43002,"skills":[4300200,4300213,4300223,4300233,4300243],"passive_skills":[],"attrs":[{"id":1,"value":27279},{"id":2,"value":220241},{"id":5,"value":5743},{"id":6,"value":5539},{"id":4,"value":2146},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":2500},{"id":23,"value":3000}]},{"title":"X","num":9,"id":34003,"skills":[3400300,3400313,3400323,3400333,3400343],"passive_skills":[],"attrs":[{"id":1,"value":20718},{"id":2,"value":212018},{"id":5,"value":5515},{"id":6,"value":5686},{"id":4,"value":2073},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500},{"id":24,"value":2000}]},{"title":"C","num":10,"id":32001,"skills":[3200100,3200113,3200123,3200133,3200143],"passive_skills":[],"attrs":[{"id":1,"value":27755},{"id":2,"value":199469},{"id":5,"value":4672},{"id":6,"value":5608},{"id":4,"value":1724},{"id":7,"value":1814},{"id":8,"value":1814},{"id":20,"value":500}]},{"title":"1","num":101,"id":74001,"skills":[7400110],"attrs":[]},{"title":"1","num":102,"id":74002,"skills":[7400210],"attrs":[]},{"title":"1","num":103,"id":73001,"skills":[7300110],"attrs":[]},{"title":"1","num":104,"id":74001,"skills":[7400110],"attrs":[]},{"title":"2","num":105,"id":74002,"skills":[7400210],"attrs":[]},{"title":"3","num":106,"id":73002,"skills":[7300110],"attrs":[]}]</v>
       </c>
     </row>
     <row r="3" spans="1:3">
